--- a/plan/test/結合テスト/結合テスト仕様書-BP012新商品登録(入力).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP012新商品登録(入力).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002E60B5-32CF-4635-A5CC-671241086CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41600D64-29BC-4F40-843C-BD75FBDCFF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
   <si>
     <t>作成者</t>
   </si>
@@ -454,13 +454,6 @@
   <si>
     <t>SQLインジェクションが発生しない</t>
     <rPh sb="12" eb="14">
-      <t>ハッセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>XSSが発生しない</t>
-    <rPh sb="4" eb="6">
       <t>ハッセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -573,499 +566,194 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>商品名：消しゴム
+    <t>「商品情報メンテナンス」リンクを押下</t>
+    <rPh sb="1" eb="5">
+      <t>ショウヒンジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品カテゴリ登録」リンクを押下</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「アカウント登録」リンクを押下</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログアウト」ボタンを押下</t>
+    <rPh sb="11" eb="13">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品カテゴリ登録(入力)画面へ遷移</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品検索画面へ遷移</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンケンサク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録(入力)画面へ遷移</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名：テスト商品
 単価：2500円
 在庫数：10
 商品カテゴリ：文房具
-画像：eraser.jpg
+画像：test.jpg
 と入力し、「完了」ボタンを押下</t>
     <rPh sb="0" eb="3">
       <t>ショウヒンメイ</t>
     </rPh>
-    <rPh sb="4" eb="5">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
+    <rPh sb="7" eb="9">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
       <t>タンカ</t>
     </rPh>
-    <rPh sb="16" eb="17">
+    <rPh sb="17" eb="18">
       <t>エン</t>
     </rPh>
-    <rPh sb="18" eb="21">
+    <rPh sb="19" eb="22">
       <t>ザイコスウ</t>
     </rPh>
-    <rPh sb="25" eb="27">
+    <rPh sb="26" eb="28">
       <t>ショウヒン</t>
     </rPh>
-    <rPh sb="32" eb="35">
+    <rPh sb="33" eb="36">
       <t>ブンボウグ</t>
     </rPh>
-    <rPh sb="36" eb="38">
+    <rPh sb="37" eb="39">
       <t>ガゾウ</t>
     </rPh>
-    <rPh sb="51" eb="53">
+    <rPh sb="50" eb="52">
       <t>ニュウリョク</t>
     </rPh>
-    <rPh sb="56" eb="58">
+    <rPh sb="55" eb="57">
       <t>カンリョウ</t>
     </rPh>
-    <rPh sb="63" eb="65">
+    <rPh sb="62" eb="64">
       <t>オウカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>商品名：消しゴム
+    <t>商品名：テスト商品
 単価：29円
 在庫数：10
 商品カテゴリ：文房具
-画像：eraser.jpg
+画像：test.jpg
 と入力し、「完了」ボタンを押下</t>
     <rPh sb="0" eb="3">
       <t>ショウヒンメイ</t>
     </rPh>
-    <rPh sb="4" eb="5">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
+    <rPh sb="7" eb="9">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
       <t>タンカ</t>
     </rPh>
-    <rPh sb="16" eb="17">
+    <rPh sb="17" eb="18">
       <t>エン</t>
     </rPh>
-    <rPh sb="18" eb="21">
+    <rPh sb="19" eb="22">
       <t>ザイコスウ</t>
     </rPh>
-    <rPh sb="25" eb="27">
+    <rPh sb="26" eb="28">
       <t>ショウヒン</t>
     </rPh>
-    <rPh sb="32" eb="35">
+    <rPh sb="33" eb="36">
       <t>ブンボウグ</t>
     </rPh>
-    <rPh sb="51" eb="53">
+    <rPh sb="50" eb="52">
       <t>カンリョウ</t>
     </rPh>
-    <rPh sb="58" eb="60">
+    <rPh sb="57" eb="59">
       <t>オウカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>商品名：消しゴム
+    <t>商品名：テスト商品
 単価：5001円
 在庫数：10
 商品カテゴリ：文房具
-画像：eraser.jpg
+画像：test.jpg
 と入力し、「完了」ボタンを押下</t>
     <rPh sb="0" eb="3">
       <t>ショウヒンメイ</t>
     </rPh>
-    <rPh sb="4" eb="5">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
+    <rPh sb="7" eb="9">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
       <t>タンカ</t>
     </rPh>
-    <rPh sb="16" eb="17">
+    <rPh sb="11" eb="13">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
       <t>エン</t>
     </rPh>
-    <rPh sb="18" eb="21">
+    <rPh sb="20" eb="23">
       <t>ザイコスウ</t>
     </rPh>
-    <rPh sb="25" eb="27">
+    <rPh sb="27" eb="29">
       <t>ショウヒン</t>
     </rPh>
-    <rPh sb="32" eb="35">
+    <rPh sb="34" eb="37">
       <t>ブンボウグ</t>
     </rPh>
-    <rPh sb="36" eb="38">
-      <t>ガゾウ</t>
-    </rPh>
     <rPh sb="51" eb="53">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="56" eb="58">
       <t>カンリョウ</t>
     </rPh>
-    <rPh sb="63" eb="65">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品名：弁当箱
-単価：3000円
-在庫数：150
-商品カテゴリ：雑貨
-画像：runch_box.jpg
-と入力し、「完了」ボタンを押下</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ベントウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>バコ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>エン</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ザッカ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ニュウリョク</t>
-    </rPh>
     <rPh sb="58" eb="60">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品名：弁当箱
-単価：99円
-在庫数：150
-商品カテゴリ：雑貨
-画像：runch_box.jpg
-と入力し、「完了」ボタンを押下</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ベントウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>バコ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>エン</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ザッカ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品名：弁当箱
-単価：10001円
-在庫数：150
-商品カテゴリ：雑貨
-画像：runch_box.jpg
-と入力し、「完了」ボタンを押下</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ベントウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>バコ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>エン</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ザッカ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品名：オーディオインターフェース
-単価：900円
-在庫数：200
-商品カテゴリ：パソコン周辺機器
-画像:audio_interface.jpg
-と入力し、「完了」ボタンを押下</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>エン</t>
-    </rPh>
-    <rPh sb="26" eb="29">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="45" eb="49">
-      <t>シュウヘンキキ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品名：オーディオインターフェース
-単価：299円
-在庫数：200
-商品カテゴリ：パソコン周辺機器
-画像：audio_interface.jpg
-と入力し、「完了」ボタンを押下</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>エン</t>
-    </rPh>
-    <rPh sb="26" eb="29">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="45" eb="49">
-      <t>シュウヘンキキ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品名：オーディオインターフェース
-単価：30001円
-在庫数：200
-商品カテゴリ：パソコン周辺機器
-画像：audio_interface.jpg
-と入力し、「完了」ボタンを押下</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>エン</t>
-    </rPh>
-    <rPh sb="28" eb="31">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="47" eb="51">
-      <t>シュウヘンキキ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品名：消しゴム
-単価：ひゃくはち円
-在庫数：10
-商品カテゴリ：文房具
-画像：eraser.jpg
-と入力し、「完了」ボタンを押下</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>エン</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="33" eb="36">
-      <t>ブンボウグ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品名：消しゴム
-単価：2500円
-在庫数：1000001
-商品カテゴリ：文房具
-画像：eraser.jpg
-と入力し、「完了」ボタンを押下</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>エン</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="37" eb="40">
-      <t>ブンボウグ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品名：消しゴム
-単価：2500円
-在庫数：1000001
-商品カテゴリ：文房具
-画像：eraser.txt
-と入力し、「完了」ボタンを押下</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>エン</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="37" eb="40">
-      <t>ブンボウグ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
       <t>オウカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -1075,7 +763,7 @@
 単価：100円
 在庫数：10
 商品カテゴリ：文房具
-画像：eraser.jpg
+画像：test.jpg
 と入力し、「完了」ボタンを押下</t>
     <rPh sb="0" eb="3">
       <t>ショウヒンメイ</t>
@@ -1098,24 +786,420 @@
     <rPh sb="52" eb="54">
       <t>ガゾウ</t>
     </rPh>
+    <rPh sb="65" eb="67">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名：消しゴム
+単価：100円
+在庫数：10
+商品カテゴリ：文房具
+画像：test.jpg
+と入力し、「完了」ボタンを押下</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ブンボウグ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名：テスト商品
+単価：ひゃくはち円
+在庫数：10
+商品カテゴリ：文房具
+画像：test.jpg
+と入力し、「完了」ボタンを押下</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>ブンボウグ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名：テスト商品
+単価：2500円
+在庫数：1000001
+商品カテゴリ：文房具
+画像：test.jpg
+と入力し、「完了」ボタンを押下</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t>ブンボウグ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>カンリョウ</t>
+    </rPh>
     <rPh sb="67" eb="69">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名：テスト商品
+単価：2500円
+在庫数：1000001
+商品カテゴリ：文房具
+画像：test.txt
+と入力し、「完了」ボタンを押下</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t>ブンボウグ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
       <t>ニュウリョク</t>
     </rPh>
-    <rPh sb="72" eb="74">
+    <rPh sb="60" eb="62">
       <t>カンリョウ</t>
     </rPh>
-    <rPh sb="79" eb="81">
+    <rPh sb="67" eb="69">
       <t>オウカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>商品名：テスト商品
+単価：3000円
+在庫数：150
+商品カテゴリ：雑貨
+画像：test.jpg
+と入力し、「完了」ボタンを押下</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ザッカ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名：テスト商品
+単価：99円
+在庫数：150
+商品カテゴリ：雑貨
+画像：test.jpg
+と入力し、「完了」ボタンを押下</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ザッカ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名：テスト商品
+単価：10001円
+在庫数：150
+商品カテゴリ：雑貨
+画像：test.jpg
+と入力し、「完了」ボタンを押下</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ザッカ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名：テスト商品
+単価：900円
+在庫数：200
+商品カテゴリ：パソコン周辺機器
+画像:test.jpg
+と入力し、「完了」ボタンを押下</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="37" eb="41">
+      <t>シュウヘンキキ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名：テスト商品
+単価：299円
+在庫数：200
+商品カテゴリ：パソコン周辺機器
+画像：test.jpg
+と入力し、「完了」ボタンを押下</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="37" eb="41">
+      <t>シュウヘンキキ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名：テスト商品
+単価：30001円
+在庫数：200
+商品カテゴリ：パソコン周辺機器
+画像：test.jpg
+と入力し、「完了」ボタンを押下</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="39" eb="43">
+      <t>シュウヘンキキ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>SQLインジェクションの確認
-商品名：UNION SELECT id,password FROM employee_account - -
+商品名：' OR '1'='1
 単価：2500円
 在庫数：100
 商品カテゴリ：文房具
-画像：eraser.jpg
+画像：test.jpg
 と入力し、「完了」ボタンを押下</t>
     <rPh sb="12" eb="14">
       <t>カクニン</t>
@@ -1123,42 +1207,42 @@
     <rPh sb="15" eb="18">
       <t>ショウヒンメイ</t>
     </rPh>
-    <rPh sb="70" eb="72">
+    <rPh sb="31" eb="33">
       <t>タンカ</t>
     </rPh>
-    <rPh sb="77" eb="78">
+    <rPh sb="38" eb="39">
       <t>エン</t>
     </rPh>
-    <rPh sb="79" eb="82">
+    <rPh sb="40" eb="43">
       <t>ザイコスウ</t>
     </rPh>
-    <rPh sb="87" eb="89">
+    <rPh sb="48" eb="50">
       <t>ショウヒン</t>
     </rPh>
-    <rPh sb="94" eb="97">
+    <rPh sb="55" eb="58">
       <t>ブンボウグ</t>
     </rPh>
-    <rPh sb="98" eb="100">
+    <rPh sb="59" eb="61">
       <t>ガゾウ</t>
     </rPh>
-    <rPh sb="113" eb="115">
+    <rPh sb="72" eb="74">
       <t>ニュウリョク</t>
     </rPh>
-    <rPh sb="118" eb="120">
+    <rPh sb="77" eb="79">
       <t>カンリョウ</t>
     </rPh>
-    <rPh sb="125" eb="127">
+    <rPh sb="84" eb="86">
       <t>オウカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>XSSの確認
-商品名：”&lt;script&gt; alert(document.cookie)&lt;/script&gt;”
+商品名：”&lt;script&gt;&lt;/script&gt;”
 単価：2500円
 在庫数：100
 商品カテゴリ：文房具
-画像：eraser.jpg
+画像：test.jpg
 と入力し、「完了」ボタンを押下</t>
     <rPh sb="4" eb="6">
       <t>カクニン</t>
@@ -1166,109 +1250,50 @@
     <rPh sb="7" eb="10">
       <t>ショウヒンメイ</t>
     </rPh>
-    <rPh sb="54" eb="56">
+    <rPh sb="31" eb="33">
       <t>タンカ</t>
     </rPh>
-    <rPh sb="61" eb="62">
+    <rPh sb="38" eb="39">
       <t>エン</t>
     </rPh>
-    <rPh sb="63" eb="66">
+    <rPh sb="40" eb="43">
       <t>ザイコスウ</t>
     </rPh>
-    <rPh sb="71" eb="73">
+    <rPh sb="48" eb="50">
       <t>ショウヒン</t>
     </rPh>
-    <rPh sb="78" eb="81">
+    <rPh sb="55" eb="58">
       <t>ブンボウグ</t>
     </rPh>
-    <rPh sb="82" eb="84">
+    <rPh sb="59" eb="61">
       <t>ガゾウ</t>
     </rPh>
-    <rPh sb="97" eb="99">
+    <rPh sb="72" eb="74">
       <t>ニュウリョク</t>
     </rPh>
-    <rPh sb="102" eb="104">
+    <rPh sb="77" eb="79">
       <t>カンリョウ</t>
     </rPh>
-    <rPh sb="109" eb="111">
+    <rPh sb="84" eb="86">
       <t>オウカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「商品情報メンテナンス」リンクを押下</t>
-    <rPh sb="1" eb="5">
-      <t>ショウヒンジョウホウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「商品カテゴリ登録」リンクを押下</t>
-    <rPh sb="1" eb="3">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「アカウント登録」リンクを押下</t>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「ログアウト」ボタンを押下</t>
-    <rPh sb="11" eb="13">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品カテゴリ登録(入力)画面へ遷移</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
+    <t>商品名のスクリプトタグが文字として認識され、
+XSSが発生しない</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
     </rPh>
     <rPh sb="12" eb="14">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品検索画面へ遷移</t>
-    <rPh sb="0" eb="4">
-      <t>ショウヒンケンサク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント登録(入力)画面へ遷移</t>
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ハッセイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1619,6 +1644,114 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1636,114 +1769,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2095,10 +2120,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16:L16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34:L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -2114,30 +2139,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="47" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
@@ -2147,23 +2172,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="51" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -2176,50 +2201,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="25" customHeight="1">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="38"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="49"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="38"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="49"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -2228,20 +2253,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="40" t="s">
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -2251,82 +2276,82 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="40" t="s">
+      <c r="P5" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="41"/>
+      <c r="Q5" s="52"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="31" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
     </row>
     <row r="8" spans="1:17" ht="102" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="29"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="24"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -2334,24 +2359,24 @@
       <c r="Q8" s="20"/>
     </row>
     <row r="9" spans="1:17" ht="11">
-      <c r="A9" s="61">
+      <c r="A9" s="29">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="27" t="s">
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="29"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="24"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -2359,20 +2384,20 @@
       <c r="Q9" s="20"/>
     </row>
     <row r="10" spans="1:17" ht="35" customHeight="1">
-      <c r="A10" s="62"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="27" t="s">
+      <c r="C10" s="60"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="29"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="24"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -2384,20 +2409,20 @@
         <v>5</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="27" t="s">
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="29"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="24"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -2408,98 +2433,98 @@
       <c r="A12" s="6">
         <v>6</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
+      <c r="C12" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
     </row>
     <row r="13" spans="1:17" ht="13.5" customHeight="1">
       <c r="A13" s="6">
         <v>7</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
     </row>
     <row r="14" spans="1:17" ht="13.5" customHeight="1">
       <c r="A14" s="6">
         <v>8</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
     </row>
     <row r="15" spans="1:17" ht="13.5" customHeight="1">
       <c r="A15" s="6">
         <v>9</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -2510,46 +2535,46 @@
       <c r="A16" s="17">
         <v>10</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="30" t="s">
+      <c r="B16" s="27"/>
+      <c r="C16" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
     </row>
     <row r="17" spans="1:17" ht="13.5" customHeight="1">
       <c r="A17" s="18">
         <v>11</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="27" t="s">
+      <c r="B17" s="28"/>
+      <c r="C17" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="32" t="s">
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="34"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="56"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -2560,73 +2585,73 @@
       <c r="A18" s="6">
         <v>12</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
+      <c r="C18" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
     </row>
     <row r="19" spans="1:17" ht="69" customHeight="1">
       <c r="A19" s="6">
         <v>13</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="30" t="s">
+      <c r="B19" s="27"/>
+      <c r="C19" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
     </row>
     <row r="20" spans="1:17" ht="69.5" customHeight="1">
       <c r="A20" s="6">
         <v>14</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="30" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -2637,96 +2662,96 @@
       <c r="A21" s="6">
         <v>15</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
     </row>
     <row r="22" spans="1:17" ht="69" customHeight="1">
       <c r="A22" s="6">
         <v>16</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="30" t="s">
+      <c r="B22" s="27"/>
+      <c r="C22" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
     </row>
     <row r="23" spans="1:17" ht="69" customHeight="1">
       <c r="A23" s="6">
         <v>17</v>
       </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="30" t="s">
+      <c r="B23" s="27"/>
+      <c r="C23" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
     </row>
     <row r="24" spans="1:17" ht="69.5" customHeight="1">
       <c r="A24" s="6">
         <v>18</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -2737,21 +2762,21 @@
       <c r="A25" s="6">
         <v>19</v>
       </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="30" t="s">
+      <c r="B25" s="27"/>
+      <c r="C25" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -2762,213 +2787,234 @@
       <c r="A26" s="6">
         <v>20</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="30" t="s">
+      <c r="B26" s="27"/>
+      <c r="C26" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
     </row>
     <row r="27" spans="1:17" ht="69" customHeight="1">
       <c r="A27" s="6">
         <v>21</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="30" t="s">
+      <c r="B27" s="27"/>
+      <c r="C27" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-    </row>
-    <row r="28" spans="1:17" ht="69.5" customHeight="1">
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+    </row>
+    <row r="28" spans="1:17" ht="69" customHeight="1">
       <c r="A28" s="6">
-        <v>22</v>
-      </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
+        <v>21</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="20"/>
-    </row>
-    <row r="29" spans="1:17" ht="68" customHeight="1">
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+    </row>
+    <row r="29" spans="1:17" ht="69.5" customHeight="1">
       <c r="A29" s="6">
-        <v>23</v>
-      </c>
-      <c r="B29" s="43"/>
-      <c r="C29" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
+        <v>22</v>
+      </c>
+      <c r="B29" s="27"/>
+      <c r="C29" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-    </row>
-    <row r="30" spans="1:17" ht="69" customHeight="1">
+      <c r="P29" s="19"/>
+      <c r="Q29" s="20"/>
+    </row>
+    <row r="30" spans="1:17" ht="68" customHeight="1">
       <c r="A30" s="6">
-        <v>24</v>
-      </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
+        <v>23</v>
+      </c>
+      <c r="B30" s="27"/>
+      <c r="C30" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
       <c r="M30" s="15"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-    </row>
-    <row r="31" spans="1:17" ht="69.5" customHeight="1">
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+    </row>
+    <row r="31" spans="1:17" ht="69" customHeight="1">
       <c r="A31" s="6">
-        <v>25</v>
-      </c>
-      <c r="B31" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
+        <v>24</v>
+      </c>
+      <c r="B31" s="27"/>
+      <c r="C31" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
       <c r="M31" s="15"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="20"/>
-    </row>
-    <row r="32" spans="1:17" ht="91.5" customHeight="1">
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+    </row>
+    <row r="32" spans="1:17" ht="69.5" customHeight="1">
       <c r="A32" s="6">
-        <v>26</v>
-      </c>
-      <c r="B32" s="43"/>
-      <c r="C32" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="29"/>
+        <v>25</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
       <c r="M32" s="15"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="17"/>
-    </row>
-    <row r="33" spans="1:17" ht="90.5" customHeight="1">
+      <c r="P32" s="19"/>
+      <c r="Q32" s="20"/>
+    </row>
+    <row r="33" spans="1:17" ht="91.5" customHeight="1">
       <c r="A33" s="6">
-        <v>27</v>
-      </c>
-      <c r="B33" s="60"/>
-      <c r="C33" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="29"/>
+        <v>26</v>
+      </c>
+      <c r="B33" s="27"/>
+      <c r="C33" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="24"/>
       <c r="M33" s="15"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
       <c r="P33" s="16"/>
       <c r="Q33" s="17"/>
     </row>
-    <row r="34" spans="1:17" ht="11.25" customHeight="1">
-      <c r="B34" s="4"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:17" ht="11">
+    <row r="34" spans="1:17" ht="90.5" customHeight="1">
+      <c r="A34" s="6">
+        <v>27</v>
+      </c>
+      <c r="B34" s="28"/>
+      <c r="C34" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="17"/>
+    </row>
+    <row r="35" spans="1:17" ht="11.25" customHeight="1">
       <c r="B35" s="4"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:17" ht="11.25" customHeight="1">
+    <row r="36" spans="1:17" ht="11">
       <c r="B36" s="4"/>
       <c r="G36" s="4"/>
     </row>
@@ -2988,55 +3034,47 @@
       <c r="B40" s="4"/>
       <c r="G40" s="4"/>
     </row>
+    <row r="41" spans="1:17" ht="11.25" customHeight="1">
+      <c r="B41" s="4"/>
+      <c r="G41" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="95">
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="P14:Q14"/>
+  <mergeCells count="98">
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="C9:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="H32:L32"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="B18:B30"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P18:Q18"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
@@ -3053,38 +3091,53 @@
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="P30:Q30"/>
     <mergeCell ref="C31:G31"/>
     <mergeCell ref="H31:L31"/>
     <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="C9:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="B18:B31"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="P14:Q14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP012新商品登録(入力).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP012新商品登録(入力).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E144102-1117-43A3-8BC2-89B3C21D137B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE88389-34DF-4444-97E6-C4A86CF60004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -597,19 +597,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/ec-b/registerproduct/input」を入力</t>
-    <rPh sb="9" eb="11">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>チョクセツ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>商品名：テスト商品
 単価：2500円
 在庫数：10
@@ -2044,26 +2031,45 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/registerproduct/input」
+を入力</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/registerproduct/input」
+を入力</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>エラーメッセージ
-「画像ファイルを選択してください」</t>
+「画像ファイルを選択してください」
+と表示されること</t>
     <rPh sb="10" eb="12">
       <t>ガゾウ</t>
     </rPh>
     <rPh sb="17" eb="19">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/ec-b/registerproduct/input」を入力</t>
-    <rPh sb="8" eb="10">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>チョクセツ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ニュウリョク</t>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2436,6 +2442,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2445,6 +2466,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2455,10 +2512,31 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2495,78 +2573,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2920,8 +2926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74:G74"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67:L67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -2939,25 +2945,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="32" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35" t="s">
+      <c r="D1" s="57"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2972,23 +2978,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="36" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="65"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -3001,50 +3007,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="25" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="44" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="46"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="50"/>
     </row>
     <row r="4" spans="1:17" ht="40.5" customHeight="1">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="46"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="50"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -3053,20 +3059,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="47" t="s">
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -3076,16 +3082,16 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="47" t="s">
+      <c r="P5" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="48"/>
+      <c r="Q5" s="52"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="42" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="21" t="s">
@@ -3112,7 +3118,7 @@
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="26"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="21" t="s">
         <v>17</v>
       </c>
@@ -3138,41 +3144,41 @@
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="22" t="s">
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="29"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="29"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="26"/>
     </row>
     <row r="9" spans="1:17" ht="11.5" customHeight="1">
       <c r="A9" s="19"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="22" t="s">
+      <c r="C9" s="36"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="29"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -3182,18 +3188,18 @@
     <row r="10" spans="1:17" ht="15" customHeight="1">
       <c r="A10" s="19"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="22" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="29"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -3203,18 +3209,18 @@
     <row r="11" spans="1:17" ht="12.5" customHeight="1">
       <c r="A11" s="19"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="22" t="s">
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="29"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -3224,18 +3230,18 @@
     <row r="12" spans="1:17" ht="12" customHeight="1">
       <c r="A12" s="19"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="22" t="s">
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="29"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -3245,18 +3251,18 @@
     <row r="13" spans="1:17" ht="12" customHeight="1">
       <c r="A13" s="19"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="22" t="s">
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="24"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="29"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -3266,20 +3272,20 @@
     <row r="14" spans="1:17" ht="12" customHeight="1">
       <c r="A14" s="19"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="53" t="s">
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="55"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="32"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -3289,18 +3295,18 @@
     <row r="15" spans="1:17" ht="12" customHeight="1">
       <c r="A15" s="19"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="53" t="s">
+      <c r="C15" s="36"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="55"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="32"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -3310,18 +3316,18 @@
     <row r="16" spans="1:17" ht="12" customHeight="1">
       <c r="A16" s="19"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="53" t="s">
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="55"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="32"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -3331,18 +3337,18 @@
     <row r="17" spans="1:17" ht="12" customHeight="1">
       <c r="A17" s="19"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="53" t="s">
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="55"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="32"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -3352,18 +3358,18 @@
     <row r="18" spans="1:17" ht="12" customHeight="1">
       <c r="A18" s="19"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="53" t="s">
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="55"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="32"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -3373,18 +3379,18 @@
     <row r="19" spans="1:17" ht="40" customHeight="1">
       <c r="A19" s="19"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="22" t="s">
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="55"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="32"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -3394,18 +3400,18 @@
     <row r="20" spans="1:17" ht="12" customHeight="1">
       <c r="A20" s="19"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="53" t="s">
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="55"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="32"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -3415,18 +3421,18 @@
     <row r="21" spans="1:17" ht="12" customHeight="1">
       <c r="A21" s="19"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="53" t="s">
+      <c r="C21" s="39"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="55"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="32"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -3438,20 +3444,20 @@
         <v>5</v>
       </c>
       <c r="B22" s="8"/>
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="22" t="s">
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="24"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="29"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -3462,11 +3468,11 @@
       <c r="A23" s="6">
         <v>12</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="42" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
@@ -3489,9 +3495,9 @@
       <c r="A24" s="6">
         <v>12</v>
       </c>
-      <c r="B24" s="26"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
@@ -3514,16 +3520,16 @@
       <c r="A25" s="6">
         <v>12</v>
       </c>
-      <c r="B25" s="26"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
       <c r="H25" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
@@ -3539,9 +3545,9 @@
       <c r="A26" s="6">
         <v>12</v>
       </c>
-      <c r="B26" s="26"/>
+      <c r="B26" s="43"/>
       <c r="C26" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
@@ -3564,9 +3570,9 @@
       <c r="A27" s="6">
         <v>12</v>
       </c>
-      <c r="B27" s="26"/>
+      <c r="B27" s="43"/>
       <c r="C27" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
@@ -3589,16 +3595,16 @@
       <c r="A28" s="6">
         <v>12</v>
       </c>
-      <c r="B28" s="26"/>
+      <c r="B28" s="43"/>
       <c r="C28" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
       <c r="H28" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
@@ -3614,9 +3620,9 @@
       <c r="A29" s="6">
         <v>12</v>
       </c>
-      <c r="B29" s="26"/>
+      <c r="B29" s="43"/>
       <c r="C29" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
@@ -3639,16 +3645,16 @@
       <c r="A30" s="6">
         <v>12</v>
       </c>
-      <c r="B30" s="26"/>
+      <c r="B30" s="43"/>
       <c r="C30" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
       <c r="H30" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
@@ -3664,9 +3670,9 @@
       <c r="A31" s="6">
         <v>12</v>
       </c>
-      <c r="B31" s="26"/>
+      <c r="B31" s="43"/>
       <c r="C31" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
@@ -3689,9 +3695,9 @@
       <c r="A32" s="6">
         <v>12</v>
       </c>
-      <c r="B32" s="26"/>
+      <c r="B32" s="43"/>
       <c r="C32" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="21"/>
@@ -3714,9 +3720,9 @@
       <c r="A33" s="6">
         <v>12</v>
       </c>
-      <c r="B33" s="26"/>
+      <c r="B33" s="43"/>
       <c r="C33" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D33" s="21"/>
       <c r="E33" s="21"/>
@@ -3739,9 +3745,9 @@
       <c r="A34" s="6">
         <v>12</v>
       </c>
-      <c r="B34" s="26"/>
+      <c r="B34" s="43"/>
       <c r="C34" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
@@ -3764,21 +3770,21 @@
       <c r="A35" s="6">
         <v>12</v>
       </c>
-      <c r="B35" s="26"/>
+      <c r="B35" s="43"/>
       <c r="C35" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D35" s="21"/>
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
-      <c r="H35" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="24"/>
+      <c r="H35" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="29"/>
       <c r="M35" s="15"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
@@ -3789,16 +3795,16 @@
       <c r="A36" s="6">
         <v>12</v>
       </c>
-      <c r="B36" s="26"/>
+      <c r="B36" s="43"/>
       <c r="C36" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
       <c r="H36" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
@@ -3814,9 +3820,9 @@
       <c r="A37" s="6">
         <v>12</v>
       </c>
-      <c r="B37" s="26"/>
+      <c r="B37" s="43"/>
       <c r="C37" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D37" s="21"/>
       <c r="E37" s="21"/>
@@ -3839,9 +3845,9 @@
       <c r="A38" s="6">
         <v>12</v>
       </c>
-      <c r="B38" s="26"/>
+      <c r="B38" s="43"/>
       <c r="C38" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D38" s="21"/>
       <c r="E38" s="21"/>
@@ -3864,9 +3870,9 @@
       <c r="A39" s="6">
         <v>12</v>
       </c>
-      <c r="B39" s="26"/>
+      <c r="B39" s="43"/>
       <c r="C39" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
@@ -3889,9 +3895,9 @@
       <c r="A40" s="6">
         <v>13</v>
       </c>
-      <c r="B40" s="26"/>
+      <c r="B40" s="43"/>
       <c r="C40" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D40" s="21"/>
       <c r="E40" s="21"/>
@@ -3914,16 +3920,16 @@
       <c r="A41" s="6">
         <v>14</v>
       </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="52"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="24"/>
       <c r="H41" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I41" s="21"/>
       <c r="J41" s="21"/>
@@ -3932,23 +3938,23 @@
       <c r="M41" s="15"/>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="29"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="26"/>
     </row>
     <row r="42" spans="1:17" ht="90.5" customHeight="1">
       <c r="A42" s="6">
         <v>15</v>
       </c>
-      <c r="B42" s="26"/>
+      <c r="B42" s="43"/>
       <c r="C42" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D42" s="21"/>
       <c r="E42" s="21"/>
       <c r="F42" s="21"/>
       <c r="G42" s="21"/>
       <c r="H42" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
@@ -3964,9 +3970,9 @@
       <c r="A43" s="6">
         <v>16</v>
       </c>
-      <c r="B43" s="26"/>
+      <c r="B43" s="43"/>
       <c r="C43" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D43" s="21"/>
       <c r="E43" s="21"/>
@@ -3989,9 +3995,9 @@
       <c r="A44" s="6">
         <v>17</v>
       </c>
-      <c r="B44" s="26"/>
+      <c r="B44" s="43"/>
       <c r="C44" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D44" s="21"/>
       <c r="E44" s="21"/>
@@ -4014,9 +4020,9 @@
       <c r="A45" s="6">
         <v>18</v>
       </c>
-      <c r="B45" s="26"/>
+      <c r="B45" s="43"/>
       <c r="C45" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
@@ -4032,16 +4038,16 @@
       <c r="M45" s="15"/>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
-      <c r="P45" s="28"/>
-      <c r="Q45" s="29"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="26"/>
     </row>
     <row r="46" spans="1:17" ht="98" customHeight="1">
       <c r="A46" s="6">
         <v>19</v>
       </c>
-      <c r="B46" s="26"/>
+      <c r="B46" s="43"/>
       <c r="C46" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D46" s="21"/>
       <c r="E46" s="21"/>
@@ -4064,16 +4070,16 @@
       <c r="A47" s="6">
         <v>20</v>
       </c>
-      <c r="B47" s="26"/>
+      <c r="B47" s="43"/>
       <c r="C47" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D47" s="21"/>
       <c r="E47" s="21"/>
       <c r="F47" s="21"/>
       <c r="G47" s="21"/>
       <c r="H47" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
@@ -4089,16 +4095,16 @@
       <c r="A48" s="6">
         <v>21</v>
       </c>
-      <c r="B48" s="26"/>
+      <c r="B48" s="43"/>
       <c r="C48" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D48" s="21"/>
       <c r="E48" s="21"/>
       <c r="F48" s="21"/>
       <c r="G48" s="21"/>
       <c r="H48" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I48" s="21"/>
       <c r="J48" s="21"/>
@@ -4114,9 +4120,9 @@
       <c r="A49" s="6">
         <v>21</v>
       </c>
-      <c r="B49" s="26"/>
+      <c r="B49" s="43"/>
       <c r="C49" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D49" s="21"/>
       <c r="E49" s="21"/>
@@ -4139,9 +4145,9 @@
       <c r="A50" s="6">
         <v>21</v>
       </c>
-      <c r="B50" s="26"/>
+      <c r="B50" s="43"/>
       <c r="C50" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D50" s="21"/>
       <c r="E50" s="21"/>
@@ -4164,9 +4170,9 @@
       <c r="A51" s="6">
         <v>21</v>
       </c>
-      <c r="B51" s="26"/>
+      <c r="B51" s="43"/>
       <c r="C51" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D51" s="21"/>
       <c r="E51" s="21"/>
@@ -4189,9 +4195,9 @@
       <c r="A52" s="6">
         <v>21</v>
       </c>
-      <c r="B52" s="26"/>
+      <c r="B52" s="43"/>
       <c r="C52" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D52" s="21"/>
       <c r="E52" s="21"/>
@@ -4214,16 +4220,16 @@
       <c r="A53" s="6">
         <v>21</v>
       </c>
-      <c r="B53" s="26"/>
+      <c r="B53" s="43"/>
       <c r="C53" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D53" s="21"/>
       <c r="E53" s="21"/>
       <c r="F53" s="21"/>
       <c r="G53" s="21"/>
       <c r="H53" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I53" s="21"/>
       <c r="J53" s="21"/>
@@ -4239,16 +4245,16 @@
       <c r="A54" s="6">
         <v>21</v>
       </c>
-      <c r="B54" s="26"/>
+      <c r="B54" s="43"/>
       <c r="C54" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D54" s="21"/>
       <c r="E54" s="21"/>
       <c r="F54" s="21"/>
       <c r="G54" s="21"/>
       <c r="H54" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I54" s="21"/>
       <c r="J54" s="21"/>
@@ -4264,16 +4270,16 @@
       <c r="A55" s="6">
         <v>21</v>
       </c>
-      <c r="B55" s="26"/>
+      <c r="B55" s="43"/>
       <c r="C55" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D55" s="21"/>
       <c r="E55" s="21"/>
       <c r="F55" s="21"/>
       <c r="G55" s="21"/>
       <c r="H55" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I55" s="21"/>
       <c r="J55" s="21"/>
@@ -4289,16 +4295,16 @@
       <c r="A56" s="6">
         <v>21</v>
       </c>
-      <c r="B56" s="26"/>
+      <c r="B56" s="43"/>
       <c r="C56" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D56" s="21"/>
       <c r="E56" s="21"/>
       <c r="F56" s="21"/>
       <c r="G56" s="21"/>
       <c r="H56" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I56" s="21"/>
       <c r="J56" s="21"/>
@@ -4314,16 +4320,16 @@
       <c r="A57" s="6">
         <v>21</v>
       </c>
-      <c r="B57" s="26"/>
+      <c r="B57" s="43"/>
       <c r="C57" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D57" s="21"/>
       <c r="E57" s="21"/>
       <c r="F57" s="21"/>
       <c r="G57" s="21"/>
       <c r="H57" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I57" s="21"/>
       <c r="J57" s="21"/>
@@ -4339,14 +4345,14 @@
       <c r="A58" s="6">
         <v>22</v>
       </c>
-      <c r="B58" s="26"/>
-      <c r="C58" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="D58" s="51"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="51"/>
-      <c r="G58" s="52"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="24"/>
       <c r="H58" s="21" t="s">
         <v>61</v>
       </c>
@@ -4357,21 +4363,21 @@
       <c r="M58" s="15"/>
       <c r="N58" s="7"/>
       <c r="O58" s="7"/>
-      <c r="P58" s="28"/>
-      <c r="Q58" s="29"/>
+      <c r="P58" s="25"/>
+      <c r="Q58" s="26"/>
     </row>
     <row r="59" spans="1:17" ht="95.5" customHeight="1">
       <c r="A59" s="6">
         <v>22</v>
       </c>
-      <c r="B59" s="26"/>
-      <c r="C59" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="D59" s="51"/>
-      <c r="E59" s="51"/>
-      <c r="F59" s="51"/>
-      <c r="G59" s="52"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="24"/>
       <c r="H59" s="21" t="s">
         <v>61</v>
       </c>
@@ -4382,21 +4388,21 @@
       <c r="M59" s="15"/>
       <c r="N59" s="7"/>
       <c r="O59" s="7"/>
-      <c r="P59" s="28"/>
-      <c r="Q59" s="29"/>
+      <c r="P59" s="25"/>
+      <c r="Q59" s="26"/>
     </row>
     <row r="60" spans="1:17" ht="95.5" customHeight="1">
       <c r="A60" s="6">
         <v>22</v>
       </c>
-      <c r="B60" s="26"/>
-      <c r="C60" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="D60" s="51"/>
-      <c r="E60" s="51"/>
-      <c r="F60" s="51"/>
-      <c r="G60" s="52"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="24"/>
       <c r="H60" s="21" t="s">
         <v>61</v>
       </c>
@@ -4407,21 +4413,21 @@
       <c r="M60" s="15"/>
       <c r="N60" s="7"/>
       <c r="O60" s="7"/>
-      <c r="P60" s="28"/>
-      <c r="Q60" s="29"/>
+      <c r="P60" s="25"/>
+      <c r="Q60" s="26"/>
     </row>
     <row r="61" spans="1:17" ht="95.5" customHeight="1">
       <c r="A61" s="6">
         <v>22</v>
       </c>
-      <c r="B61" s="26"/>
-      <c r="C61" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="D61" s="51"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="51"/>
-      <c r="G61" s="52"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="24"/>
       <c r="H61" s="21" t="s">
         <v>61</v>
       </c>
@@ -4432,23 +4438,23 @@
       <c r="M61" s="15"/>
       <c r="N61" s="7"/>
       <c r="O61" s="7"/>
-      <c r="P61" s="28"/>
-      <c r="Q61" s="29"/>
+      <c r="P61" s="25"/>
+      <c r="Q61" s="26"/>
     </row>
     <row r="62" spans="1:17" ht="95.5" customHeight="1">
       <c r="A62" s="6">
         <v>22</v>
       </c>
-      <c r="B62" s="26"/>
-      <c r="C62" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="D62" s="51"/>
-      <c r="E62" s="51"/>
-      <c r="F62" s="51"/>
-      <c r="G62" s="52"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="24"/>
       <c r="H62" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I62" s="21"/>
       <c r="J62" s="21"/>
@@ -4457,23 +4463,23 @@
       <c r="M62" s="15"/>
       <c r="N62" s="7"/>
       <c r="O62" s="7"/>
-      <c r="P62" s="28"/>
-      <c r="Q62" s="29"/>
+      <c r="P62" s="25"/>
+      <c r="Q62" s="26"/>
     </row>
     <row r="63" spans="1:17" ht="95.5" customHeight="1">
       <c r="A63" s="6">
         <v>22</v>
       </c>
-      <c r="B63" s="26"/>
-      <c r="C63" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="D63" s="51"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="51"/>
-      <c r="G63" s="52"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="24"/>
       <c r="H63" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I63" s="21"/>
       <c r="J63" s="21"/>
@@ -4482,23 +4488,23 @@
       <c r="M63" s="15"/>
       <c r="N63" s="7"/>
       <c r="O63" s="7"/>
-      <c r="P63" s="28"/>
-      <c r="Q63" s="29"/>
+      <c r="P63" s="25"/>
+      <c r="Q63" s="26"/>
     </row>
     <row r="64" spans="1:17" ht="95.5" customHeight="1">
       <c r="A64" s="6">
         <v>22</v>
       </c>
-      <c r="B64" s="26"/>
-      <c r="C64" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="D64" s="51"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="51"/>
-      <c r="G64" s="52"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="24"/>
       <c r="H64" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I64" s="21"/>
       <c r="J64" s="21"/>
@@ -4507,23 +4513,23 @@
       <c r="M64" s="15"/>
       <c r="N64" s="7"/>
       <c r="O64" s="7"/>
-      <c r="P64" s="28"/>
-      <c r="Q64" s="29"/>
+      <c r="P64" s="25"/>
+      <c r="Q64" s="26"/>
     </row>
     <row r="65" spans="1:17" ht="95.5" customHeight="1">
       <c r="A65" s="6">
         <v>22</v>
       </c>
-      <c r="B65" s="26"/>
-      <c r="C65" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="D65" s="51"/>
-      <c r="E65" s="51"/>
-      <c r="F65" s="51"/>
-      <c r="G65" s="52"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="24"/>
       <c r="H65" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I65" s="21"/>
       <c r="J65" s="21"/>
@@ -4532,23 +4538,23 @@
       <c r="M65" s="15"/>
       <c r="N65" s="7"/>
       <c r="O65" s="7"/>
-      <c r="P65" s="28"/>
-      <c r="Q65" s="29"/>
+      <c r="P65" s="25"/>
+      <c r="Q65" s="26"/>
     </row>
     <row r="66" spans="1:17" ht="95.5" customHeight="1">
       <c r="A66" s="6">
         <v>22</v>
       </c>
-      <c r="B66" s="26"/>
-      <c r="C66" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="D66" s="51"/>
-      <c r="E66" s="51"/>
-      <c r="F66" s="51"/>
-      <c r="G66" s="52"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="24"/>
       <c r="H66" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I66" s="21"/>
       <c r="J66" s="21"/>
@@ -4557,23 +4563,23 @@
       <c r="M66" s="15"/>
       <c r="N66" s="7"/>
       <c r="O66" s="7"/>
-      <c r="P66" s="28"/>
-      <c r="Q66" s="29"/>
+      <c r="P66" s="25"/>
+      <c r="Q66" s="26"/>
     </row>
     <row r="67" spans="1:17" ht="68" customHeight="1">
       <c r="A67" s="6">
         <v>23</v>
       </c>
-      <c r="B67" s="26"/>
+      <c r="B67" s="43"/>
       <c r="C67" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D67" s="21"/>
       <c r="E67" s="21"/>
       <c r="F67" s="21"/>
       <c r="G67" s="21"/>
       <c r="H67" s="20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I67" s="20"/>
       <c r="J67" s="20"/>
@@ -4589,23 +4595,23 @@
       <c r="A68" s="6">
         <v>6</v>
       </c>
-      <c r="B68" s="25" t="s">
+      <c r="B68" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="22" t="s">
+      <c r="C68" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="53" t="s">
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="I68" s="54"/>
-      <c r="J68" s="54"/>
-      <c r="K68" s="54"/>
-      <c r="L68" s="55"/>
+      <c r="I68" s="31"/>
+      <c r="J68" s="31"/>
+      <c r="K68" s="31"/>
+      <c r="L68" s="32"/>
       <c r="M68" s="15"/>
       <c r="N68" s="7"/>
       <c r="O68" s="7"/>
@@ -4616,21 +4622,21 @@
       <c r="A69" s="6">
         <v>7</v>
       </c>
-      <c r="B69" s="26"/>
-      <c r="C69" s="22" t="s">
+      <c r="B69" s="43"/>
+      <c r="C69" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D69" s="23"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="53" t="s">
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="I69" s="54"/>
-      <c r="J69" s="54"/>
-      <c r="K69" s="54"/>
-      <c r="L69" s="55"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="31"/>
+      <c r="K69" s="31"/>
+      <c r="L69" s="32"/>
       <c r="M69" s="15"/>
       <c r="N69" s="7"/>
       <c r="O69" s="7"/>
@@ -4641,14 +4647,14 @@
       <c r="A70" s="6">
         <v>8</v>
       </c>
-      <c r="B70" s="26"/>
-      <c r="C70" s="22" t="s">
+      <c r="B70" s="43"/>
+      <c r="C70" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="24"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="29"/>
       <c r="H70" s="21" t="s">
         <v>40</v>
       </c>
@@ -4666,7 +4672,7 @@
       <c r="A71" s="6">
         <v>9</v>
       </c>
-      <c r="B71" s="26"/>
+      <c r="B71" s="43"/>
       <c r="C71" s="20" t="s">
         <v>37</v>
       </c>
@@ -4684,14 +4690,14 @@
       <c r="M71" s="15"/>
       <c r="N71" s="7"/>
       <c r="O71" s="7"/>
-      <c r="P71" s="28"/>
-      <c r="Q71" s="29"/>
+      <c r="P71" s="25"/>
+      <c r="Q71" s="26"/>
     </row>
     <row r="72" spans="1:17" ht="13.5" customHeight="1">
       <c r="A72" s="17">
         <v>10</v>
       </c>
-      <c r="B72" s="26"/>
+      <c r="B72" s="43"/>
       <c r="C72" s="20" t="s">
         <v>24</v>
       </c>
@@ -4716,36 +4722,36 @@
       <c r="A73" s="18">
         <v>11</v>
       </c>
-      <c r="B73" s="27"/>
-      <c r="C73" s="22" t="s">
+      <c r="B73" s="44"/>
+      <c r="C73" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D73" s="23"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="53" t="s">
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I73" s="54"/>
-      <c r="J73" s="54"/>
-      <c r="K73" s="54"/>
-      <c r="L73" s="55"/>
+      <c r="I73" s="31"/>
+      <c r="J73" s="31"/>
+      <c r="K73" s="31"/>
+      <c r="L73" s="32"/>
       <c r="M73" s="15"/>
       <c r="N73" s="7"/>
       <c r="O73" s="7"/>
-      <c r="P73" s="7"/>
-      <c r="Q73" s="7"/>
+      <c r="P73" s="30"/>
+      <c r="Q73" s="32"/>
     </row>
     <row r="74" spans="1:17" ht="69.5" customHeight="1">
       <c r="A74" s="6">
         <v>25</v>
       </c>
-      <c r="B74" s="25" t="s">
+      <c r="B74" s="42" t="s">
         <v>28</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D74" s="20"/>
       <c r="E74" s="20"/>
@@ -4761,26 +4767,26 @@
       <c r="M74" s="15"/>
       <c r="N74" s="7"/>
       <c r="O74" s="7"/>
-      <c r="P74" s="28"/>
-      <c r="Q74" s="29"/>
+      <c r="P74" s="25"/>
+      <c r="Q74" s="26"/>
     </row>
     <row r="75" spans="1:17" ht="69.5" customHeight="1">
       <c r="A75" s="6"/>
-      <c r="B75" s="26"/>
+      <c r="B75" s="43"/>
       <c r="C75" s="20" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="D75" s="20"/>
       <c r="E75" s="20"/>
       <c r="F75" s="20"/>
       <c r="G75" s="20"/>
-      <c r="H75" s="22" t="s">
+      <c r="H75" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="I75" s="23"/>
-      <c r="J75" s="23"/>
-      <c r="K75" s="23"/>
-      <c r="L75" s="24"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="28"/>
+      <c r="L75" s="29"/>
       <c r="M75" s="15"/>
       <c r="N75" s="7"/>
       <c r="O75" s="7"/>
@@ -4791,7 +4797,7 @@
       <c r="A76" s="6">
         <v>26</v>
       </c>
-      <c r="B76" s="26"/>
+      <c r="B76" s="43"/>
       <c r="C76" s="20" t="s">
         <v>63</v>
       </c>
@@ -4799,13 +4805,13 @@
       <c r="E76" s="21"/>
       <c r="F76" s="21"/>
       <c r="G76" s="21"/>
-      <c r="H76" s="22" t="s">
+      <c r="H76" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="I76" s="23"/>
-      <c r="J76" s="23"/>
-      <c r="K76" s="23"/>
-      <c r="L76" s="24"/>
+      <c r="I76" s="28"/>
+      <c r="J76" s="28"/>
+      <c r="K76" s="28"/>
+      <c r="L76" s="29"/>
       <c r="M76" s="15"/>
       <c r="N76" s="7"/>
       <c r="O76" s="7"/>
@@ -4816,7 +4822,7 @@
       <c r="A77" s="6">
         <v>27</v>
       </c>
-      <c r="B77" s="27"/>
+      <c r="B77" s="44"/>
       <c r="C77" s="20" t="s">
         <v>64</v>
       </c>
@@ -4824,13 +4830,13 @@
       <c r="E77" s="21"/>
       <c r="F77" s="21"/>
       <c r="G77" s="21"/>
-      <c r="H77" s="22" t="s">
+      <c r="H77" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="I77" s="23"/>
-      <c r="J77" s="23"/>
-      <c r="K77" s="23"/>
-      <c r="L77" s="24"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="28"/>
+      <c r="K77" s="28"/>
+      <c r="L77" s="29"/>
       <c r="M77" s="15"/>
       <c r="N77" s="7"/>
       <c r="O77" s="7"/>
@@ -4854,7 +4860,185 @@
     <row r="83" s="4" customFormat="1" ht="11.25" customHeight="1"/>
     <row r="84" s="4" customFormat="1" ht="11.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="201">
+  <mergeCells count="202">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:L76"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="B23:B67"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:L49"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:L77"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:L74"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:L67"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:L58"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C14:G21"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="B68:B73"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:L68"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:L71"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:L75"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:L72"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:L73"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:L69"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:L70"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:L50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:L53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:L52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:L60"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:L59"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:L62"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:L61"/>
+    <mergeCell ref="P61:Q61"/>
     <mergeCell ref="C54:G54"/>
     <mergeCell ref="H54:L54"/>
     <mergeCell ref="P54:Q54"/>
@@ -4879,183 +5063,6 @@
     <mergeCell ref="C64:G64"/>
     <mergeCell ref="H64:L64"/>
     <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="H60:L60"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="H59:L59"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="H62:L62"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="H61:L61"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="H53:L53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:L52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:L50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="H72:L72"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:L73"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="H69:L69"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="H70:L70"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C14:G21"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="B68:B73"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="H68:L68"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="H71:L71"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="H75:L75"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="H74:L74"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:L47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="H67:L67"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="H58:L58"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="H76:L76"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="B23:B67"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:L49"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="H77:L77"/>
-    <mergeCell ref="H46:L46"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:L43"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP012新商品登録(入力).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP012新商品登録(入力).xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE88389-34DF-4444-97E6-C4A86CF60004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC135F3-DE8F-4386-BB1A-892DFB8D3C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -720,201 +720,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>商品名：123456789012345678901
-単価：299
-在庫数：10
-商品カテゴリ：パソコン周辺機器
-画像：test.jpg
-（単価が299のとき）</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="33" eb="36">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="51" eb="55">
-      <t>シュウヘンキキ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>タンカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品名：消しゴム
-単価：300
-在庫数：10
-商品カテゴリ：パソコン周辺機器
-画像：test.jpg
-（単価が300のとき）</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="34" eb="38">
-      <t>シュウヘンキキ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>タンカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品名：消しゴム
-単価：301
-在庫数：10
-商品カテゴリ：パソコン周辺機器
-画像：test.jpg
-（単価が301のとき）</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="34" eb="38">
-      <t>シュウヘンキキ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>タンカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品名：消しゴム
-単価：29999
-在庫数：10
-商品カテゴリ：パソコン周辺機器
-画像：test.jpg
-（単価が29999のとき）</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="36" eb="40">
-      <t>シュウヘンキキ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>タンカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品名：消しゴム
-単価：30000
-在庫数：10
-商品カテゴリ：パソコン周辺機器
-画像：test.jpg
-（単価が30000のとき）</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="36" eb="40">
-      <t>シュウヘンキキ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>タンカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品名：消しゴム
-単価：30001
-在庫数：10
-商品カテゴリ：パソコン周辺機器
-画像：test.jpg
-（単価が30001のとき）</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="36" eb="40">
-      <t>シュウヘンキキ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>タンカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>商品名：テスト商品
 単価：2500
 在庫数：0
@@ -1129,309 +934,6 @@
       <t>ア</t>
     </rPh>
     <rPh sb="73" eb="75">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品名：テスト商品
-単価：ひゃくはち円
-在庫数：在庫数
-商品カテゴリ：文房具
-画像：test.jpg
-(在庫数に全角のみ入力されたとき）</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>エン</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="24" eb="27">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="35" eb="38">
-      <t>ブンボウグ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ザイコ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ゼンカク</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品名：テスト商品
-単価：ひゃくはち円
-在庫数：zaikosuu13
-商品カテゴリ：文房具
-画像：test.jpg
-(在庫数に半角英数字のみ入力されたとき）</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>エン</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="42" eb="45">
-      <t>ブンボウグ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ザイコ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>エイスウ</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品名：テスト商品
-単価：ひゃくはち円
-在庫数：10!
-商品カテゴリ：文房具
-画像：test.jpg
-(在庫数に記号が入力されたとき）</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>エン</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="35" eb="38">
-      <t>ブンボウグ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ザイコ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>キゴウ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品名：消しゴム
-単価：tanka30です
-在庫数：10
-商品カテゴリ：パソコン周辺機器
-画像：test.jpg
-（単価に全角、半角英数字が入力されたとき）</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="40" eb="44">
-      <t>シュウヘンキキ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>ゼンカク</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="67" eb="70">
-      <t>エイスウジ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品名：消しゴム
-単価：tanka30
-在庫数：10
-商品カテゴリ：パソコン周辺機器
-画像：test.jpg
-（単価に半角英数字が入力されたとき）</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="38" eb="42">
-      <t>シュウヘンキキ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="62" eb="65">
-      <t>エイスウジ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品名：消しゴム
-単価：単価
-在庫数：10
-商品カテゴリ：パソコン周辺機器
-画像：test.jpg
-（単価に全角が入力されたとき）</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="33" eb="37">
-      <t>シュウヘンキキ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ゼンカク</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品名：消しゴム
-単価：500!
-在庫数：10
-商品カテゴリ：パソコン周辺機器
-画像：test.jpg
-（単価に記号が入力されたとき）</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="35" eb="39">
-      <t>シュウヘンキキ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>キゴウ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
       <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -2070,6 +1572,480 @@
     </rPh>
     <rPh sb="28" eb="30">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名：テスト商品
+単価：299
+在庫数：10
+商品カテゴリ：パソコン周辺機器
+画像：test.jpg
+（単価が299のとき）</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="35" eb="39">
+      <t>シュウヘンキキ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名：テスト商品
+単価：300
+在庫数：10
+商品カテゴリ：パソコン周辺機器
+画像：test.jpg
+（単価が300のとき）</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="35" eb="39">
+      <t>シュウヘンキキ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名：テスト商品
+単価：301
+在庫数：10
+商品カテゴリ：パソコン周辺機器
+画像：test.jpg
+（単価が301のとき）</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="35" eb="39">
+      <t>シュウヘンキキ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名：テスト商品
+単価：29999
+在庫数：10
+商品カテゴリ：パソコン周辺機器
+画像：test.jpg
+（単価が29999のとき）</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="37" eb="41">
+      <t>シュウヘンキキ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名：テスト商品
+単価：30000
+在庫数：10
+商品カテゴリ：パソコン周辺機器
+画像：test.jpg
+（単価が30000のとき）</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="37" eb="41">
+      <t>シュウヘンキキ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名：テスト商品
+単価：30001
+在庫数：10
+商品カテゴリ：パソコン周辺機器
+画像：test.jpg
+（単価が30001のとき）</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="37" eb="41">
+      <t>シュウヘンキキ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名：テスト商品
+単価：tanka30です
+在庫数：10
+商品カテゴリ：パソコン周辺機器
+画像：test.jpg
+（単価に全角、半角英数字が入力されたとき）</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="41" eb="45">
+      <t>シュウヘンキキ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="68" eb="71">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名：テスト商品
+単価：tanka30
+在庫数：10
+商品カテゴリ：パソコン周辺機器
+画像：test.jpg
+（単価に半角英数字が入力されたとき）</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="39" eb="43">
+      <t>シュウヘンキキ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="63" eb="66">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名：テスト商品
+単価：単価
+在庫数：10
+商品カテゴリ：パソコン周辺機器
+画像：test.jpg
+（単価に全角が入力されたとき）</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="34" eb="38">
+      <t>シュウヘンキキ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名：テスト商品
+単価：500!
+在庫数：10
+商品カテゴリ：パソコン周辺機器
+画像：test.jpg
+（単価に記号が入力されたとき）</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="36" eb="40">
+      <t>シュウヘンキキ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名：テスト商品
+単価：100
+在庫数：10!
+商品カテゴリ：文房具
+画像：test.jpg
+(在庫数に記号が入力されたとき）</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ブンボウグ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名：テスト商品
+単価：100
+在庫数：zaikosuu13
+商品カテゴリ：文房具
+画像：test.jpg
+(在庫数に半角英数字のみ入力されたとき）</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>ブンボウグ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>エイスウ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名：テスト商品
+単価：100
+在庫数：在庫数
+商品カテゴリ：文房具
+画像：test.jpg
+(在庫数に全角のみ入力されたとき）</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ブンボウグ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2377,7 +2353,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2430,10 +2406,46 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2442,6 +2454,54 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2452,38 +2512,20 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2501,78 +2543,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2926,8 +2896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67:L67"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="81" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="M74" sqref="M74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -2945,25 +2915,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="56" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="59" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2978,23 +2948,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="60" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="63" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="65"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="29"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -3007,50 +2977,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="25" customHeight="1">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="50"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="46"/>
     </row>
     <row r="4" spans="1:17" ht="40.5" customHeight="1">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48" t="s">
+      <c r="B4" s="43"/>
+      <c r="C4" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="50"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="46"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -3059,20 +3029,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="51" t="s">
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -3082,103 +3052,105 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="51" t="s">
+      <c r="P5" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="52"/>
+      <c r="Q5" s="48"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21" t="s">
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="20" t="s">
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
     </row>
     <row r="8" spans="1:17" ht="13.5" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="27" t="s">
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="29"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="36"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="26"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="31"/>
     </row>
     <row r="9" spans="1:17" ht="11.5" customHeight="1">
-      <c r="A9" s="19"/>
+      <c r="A9" s="6">
+        <v>4</v>
+      </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="27" t="s">
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="29"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="36"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -3186,20 +3158,22 @@
       <c r="Q9" s="17"/>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1">
-      <c r="A10" s="19"/>
+      <c r="A10" s="6">
+        <v>5</v>
+      </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="27" t="s">
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="29"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="36"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -3207,20 +3181,22 @@
       <c r="Q10" s="17"/>
     </row>
     <row r="11" spans="1:17" ht="12.5" customHeight="1">
-      <c r="A11" s="19"/>
+      <c r="A11" s="6">
+        <v>6</v>
+      </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="27" t="s">
+      <c r="C11" s="58"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="29"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="36"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -3228,20 +3204,22 @@
       <c r="Q11" s="17"/>
     </row>
     <row r="12" spans="1:17" ht="12" customHeight="1">
-      <c r="A12" s="19"/>
+      <c r="A12" s="6">
+        <v>7</v>
+      </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="27" t="s">
+      <c r="C12" s="58"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="29"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="36"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -3249,20 +3227,22 @@
       <c r="Q12" s="17"/>
     </row>
     <row r="13" spans="1:17" ht="12" customHeight="1">
-      <c r="A13" s="19"/>
+      <c r="A13" s="6">
+        <v>8</v>
+      </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="27" t="s">
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="29"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="36"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -3270,22 +3250,24 @@
       <c r="Q13" s="17"/>
     </row>
     <row r="14" spans="1:17" ht="12" customHeight="1">
-      <c r="A14" s="19"/>
+      <c r="A14" s="6">
+        <v>9</v>
+      </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="30" t="s">
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="32"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="41"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -3293,20 +3275,22 @@
       <c r="Q14" s="17"/>
     </row>
     <row r="15" spans="1:17" ht="12" customHeight="1">
-      <c r="A15" s="19"/>
+      <c r="A15" s="6">
+        <v>10</v>
+      </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="30" t="s">
+      <c r="C15" s="58"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="32"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="41"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -3314,20 +3298,22 @@
       <c r="Q15" s="17"/>
     </row>
     <row r="16" spans="1:17" ht="12" customHeight="1">
-      <c r="A16" s="19"/>
+      <c r="A16" s="6">
+        <v>11</v>
+      </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="30" t="s">
+      <c r="C16" s="58"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="32"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="41"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -3335,20 +3321,22 @@
       <c r="Q16" s="17"/>
     </row>
     <row r="17" spans="1:17" ht="12" customHeight="1">
-      <c r="A17" s="19"/>
+      <c r="A17" s="6">
+        <v>12</v>
+      </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="30" t="s">
+      <c r="C17" s="58"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="32"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="41"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -3356,20 +3344,22 @@
       <c r="Q17" s="17"/>
     </row>
     <row r="18" spans="1:17" ht="12" customHeight="1">
-      <c r="A18" s="19"/>
+      <c r="A18" s="6">
+        <v>13</v>
+      </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="30" t="s">
+      <c r="C18" s="58"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="32"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="41"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -3377,20 +3367,22 @@
       <c r="Q18" s="17"/>
     </row>
     <row r="19" spans="1:17" ht="40" customHeight="1">
-      <c r="A19" s="19"/>
+      <c r="A19" s="6">
+        <v>14</v>
+      </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="27" t="s">
+      <c r="C19" s="58"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="32"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="41"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -3398,20 +3390,22 @@
       <c r="Q19" s="17"/>
     </row>
     <row r="20" spans="1:17" ht="12" customHeight="1">
-      <c r="A20" s="19"/>
+      <c r="A20" s="6">
+        <v>15</v>
+      </c>
       <c r="B20" s="8"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="30" t="s">
+      <c r="C20" s="58"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="32"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="41"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -3419,20 +3413,22 @@
       <c r="Q20" s="17"/>
     </row>
     <row r="21" spans="1:17" ht="12" customHeight="1">
-      <c r="A21" s="19"/>
+      <c r="A21" s="6">
+        <v>16</v>
+      </c>
       <c r="B21" s="8"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="30" t="s">
+      <c r="C21" s="61"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="32"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="41"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -3441,23 +3437,23 @@
     </row>
     <row r="22" spans="1:17" ht="11" customHeight="1">
       <c r="A22" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B22" s="8"/>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="27" t="s">
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="29"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="36"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -3466,600 +3462,600 @@
     </row>
     <row r="23" spans="1:17" ht="78" customHeight="1">
       <c r="A23" s="6">
-        <v>12</v>
-      </c>
-      <c r="B23" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21" t="s">
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
     </row>
     <row r="24" spans="1:17" ht="92" customHeight="1">
       <c r="A24" s="6">
-        <v>12</v>
-      </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="38"/>
+      <c r="C24" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
     </row>
     <row r="25" spans="1:17" ht="85" customHeight="1">
       <c r="A25" s="6">
-        <v>12</v>
-      </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
+        <v>20</v>
+      </c>
+      <c r="B25" s="38"/>
+      <c r="C25" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
     </row>
     <row r="26" spans="1:17" ht="85" customHeight="1">
       <c r="A26" s="6">
-        <v>12</v>
-      </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="38"/>
+      <c r="C26" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
     </row>
     <row r="27" spans="1:17" ht="85" customHeight="1">
       <c r="A27" s="6">
-        <v>12</v>
-      </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="38"/>
+      <c r="C27" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
     </row>
     <row r="28" spans="1:17" ht="90" customHeight="1">
       <c r="A28" s="6">
-        <v>12</v>
-      </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="B28" s="38"/>
+      <c r="C28" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
     </row>
     <row r="29" spans="1:17" ht="85" customHeight="1">
       <c r="A29" s="6">
-        <v>12</v>
-      </c>
-      <c r="B29" s="43"/>
-      <c r="C29" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="38"/>
+      <c r="C29" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
     </row>
     <row r="30" spans="1:17" ht="85" customHeight="1">
       <c r="A30" s="6">
-        <v>12</v>
-      </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
+        <v>25</v>
+      </c>
+      <c r="B30" s="38"/>
+      <c r="C30" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
       <c r="M30" s="15"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
     </row>
     <row r="31" spans="1:17" ht="85" customHeight="1">
       <c r="A31" s="6">
-        <v>12</v>
-      </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="38"/>
+      <c r="C31" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
       <c r="M31" s="15"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
     </row>
     <row r="32" spans="1:17" ht="85" customHeight="1">
       <c r="A32" s="6">
-        <v>12</v>
-      </c>
-      <c r="B32" s="43"/>
-      <c r="C32" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="38"/>
+      <c r="C32" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
       <c r="M32" s="15"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
     </row>
     <row r="33" spans="1:17" ht="85" customHeight="1">
       <c r="A33" s="6">
-        <v>12</v>
-      </c>
-      <c r="B33" s="43"/>
-      <c r="C33" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="38"/>
+      <c r="C33" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
       <c r="M33" s="15"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="33"/>
     </row>
     <row r="34" spans="1:17" ht="85" customHeight="1">
       <c r="A34" s="6">
-        <v>12</v>
-      </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="38"/>
+      <c r="C34" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
       <c r="M34" s="15"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="33"/>
     </row>
     <row r="35" spans="1:17" ht="85" customHeight="1">
       <c r="A35" s="6">
-        <v>12</v>
-      </c>
-      <c r="B35" s="43"/>
-      <c r="C35" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="29"/>
+        <v>30</v>
+      </c>
+      <c r="B35" s="38"/>
+      <c r="C35" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="36"/>
       <c r="M35" s="15"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
     </row>
     <row r="36" spans="1:17" ht="85" customHeight="1">
       <c r="A36" s="6">
-        <v>12</v>
-      </c>
-      <c r="B36" s="43"/>
-      <c r="C36" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
+        <v>31</v>
+      </c>
+      <c r="B36" s="38"/>
+      <c r="C36" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
       <c r="M36" s="15"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="33"/>
     </row>
     <row r="37" spans="1:17" ht="85" customHeight="1">
       <c r="A37" s="6">
-        <v>12</v>
-      </c>
-      <c r="B37" s="43"/>
-      <c r="C37" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="38"/>
+      <c r="C37" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
       <c r="M37" s="15"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33"/>
     </row>
     <row r="38" spans="1:17" ht="85" customHeight="1">
       <c r="A38" s="6">
-        <v>12</v>
-      </c>
-      <c r="B38" s="43"/>
-      <c r="C38" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="38"/>
+      <c r="C38" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
       <c r="M38" s="15"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="33"/>
     </row>
     <row r="39" spans="1:17" ht="88" customHeight="1">
       <c r="A39" s="6">
-        <v>12</v>
-      </c>
-      <c r="B39" s="43"/>
-      <c r="C39" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="38"/>
+      <c r="C39" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
       <c r="M39" s="15"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="33"/>
     </row>
     <row r="40" spans="1:17" ht="112" customHeight="1">
       <c r="A40" s="6">
-        <v>13</v>
-      </c>
-      <c r="B40" s="43"/>
-      <c r="C40" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="38"/>
+      <c r="C40" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21" t="s">
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
       <c r="M40" s="15"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="33"/>
     </row>
     <row r="41" spans="1:17" ht="102" customHeight="1">
       <c r="A41" s="6">
-        <v>14</v>
-      </c>
-      <c r="B41" s="43"/>
-      <c r="C41" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="38"/>
+      <c r="C41" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
       <c r="M41" s="15"/>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
-      <c r="P41" s="25"/>
-      <c r="Q41" s="26"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="31"/>
     </row>
     <row r="42" spans="1:17" ht="90.5" customHeight="1">
       <c r="A42" s="6">
-        <v>15</v>
-      </c>
-      <c r="B42" s="43"/>
-      <c r="C42" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
+        <v>37</v>
+      </c>
+      <c r="B42" s="38"/>
+      <c r="C42" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
       <c r="M42" s="15"/>
       <c r="N42" s="7"/>
       <c r="O42" s="7"/>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
+      <c r="P42" s="33"/>
+      <c r="Q42" s="33"/>
     </row>
     <row r="43" spans="1:17" ht="84.5" customHeight="1">
       <c r="A43" s="6">
-        <v>16</v>
-      </c>
-      <c r="B43" s="43"/>
-      <c r="C43" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="38"/>
+      <c r="C43" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
       <c r="M43" s="15"/>
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
+      <c r="P43" s="33"/>
+      <c r="Q43" s="33"/>
     </row>
     <row r="44" spans="1:17" ht="77.5" customHeight="1">
       <c r="A44" s="6">
-        <v>17</v>
-      </c>
-      <c r="B44" s="43"/>
-      <c r="C44" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="38"/>
+      <c r="C44" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
       <c r="M44" s="15"/>
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="21"/>
+      <c r="P44" s="33"/>
+      <c r="Q44" s="33"/>
     </row>
     <row r="45" spans="1:17" ht="81" customHeight="1">
       <c r="A45" s="6">
-        <v>18</v>
-      </c>
-      <c r="B45" s="43"/>
-      <c r="C45" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="38"/>
+      <c r="C45" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
       <c r="M45" s="15"/>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
-      <c r="P45" s="25"/>
-      <c r="Q45" s="26"/>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="31"/>
     </row>
     <row r="46" spans="1:17" ht="98" customHeight="1">
       <c r="A46" s="6">
-        <v>19</v>
-      </c>
-      <c r="B46" s="43"/>
-      <c r="C46" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="38"/>
+      <c r="C46" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
       <c r="M46" s="15"/>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
@@ -4068,725 +4064,727 @@
     </row>
     <row r="47" spans="1:17" ht="95" customHeight="1">
       <c r="A47" s="6">
-        <v>20</v>
-      </c>
-      <c r="B47" s="43"/>
-      <c r="C47" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
+        <v>42</v>
+      </c>
+      <c r="B47" s="38"/>
+      <c r="C47" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
       <c r="M47" s="15"/>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="21"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="33"/>
     </row>
     <row r="48" spans="1:17" ht="91" customHeight="1">
       <c r="A48" s="6">
-        <v>21</v>
-      </c>
-      <c r="B48" s="43"/>
-      <c r="C48" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
+        <v>43</v>
+      </c>
+      <c r="B48" s="38"/>
+      <c r="C48" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
       <c r="M48" s="15"/>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
-      <c r="P48" s="21"/>
-      <c r="Q48" s="21"/>
+      <c r="P48" s="33"/>
+      <c r="Q48" s="33"/>
     </row>
     <row r="49" spans="1:17" ht="116" customHeight="1">
       <c r="A49" s="6">
-        <v>21</v>
-      </c>
-      <c r="B49" s="43"/>
-      <c r="C49" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="38"/>
+      <c r="C49" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="33"/>
       <c r="M49" s="15"/>
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="21"/>
+      <c r="P49" s="33"/>
+      <c r="Q49" s="33"/>
     </row>
     <row r="50" spans="1:17" ht="116" customHeight="1">
       <c r="A50" s="6">
-        <v>21</v>
-      </c>
-      <c r="B50" s="43"/>
-      <c r="C50" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="38"/>
+      <c r="C50" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="33"/>
       <c r="M50" s="15"/>
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="21"/>
+      <c r="P50" s="33"/>
+      <c r="Q50" s="33"/>
     </row>
     <row r="51" spans="1:17" ht="116" customHeight="1">
       <c r="A51" s="6">
-        <v>21</v>
-      </c>
-      <c r="B51" s="43"/>
-      <c r="C51" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="38"/>
+      <c r="C51" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="33"/>
       <c r="M51" s="15"/>
       <c r="N51" s="7"/>
       <c r="O51" s="7"/>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="21"/>
+      <c r="P51" s="33"/>
+      <c r="Q51" s="33"/>
     </row>
     <row r="52" spans="1:17" ht="116" customHeight="1">
       <c r="A52" s="6">
-        <v>21</v>
-      </c>
-      <c r="B52" s="43"/>
-      <c r="C52" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="38"/>
+      <c r="C52" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
       <c r="M52" s="15"/>
       <c r="N52" s="7"/>
       <c r="O52" s="7"/>
-      <c r="P52" s="21"/>
-      <c r="Q52" s="21"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
     </row>
     <row r="53" spans="1:17" ht="116" customHeight="1">
       <c r="A53" s="6">
-        <v>21</v>
-      </c>
-      <c r="B53" s="43"/>
-      <c r="C53" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="21"/>
+        <v>48</v>
+      </c>
+      <c r="B53" s="38"/>
+      <c r="C53" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="I53" s="33"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
       <c r="M53" s="15"/>
       <c r="N53" s="7"/>
       <c r="O53" s="7"/>
-      <c r="P53" s="21"/>
-      <c r="Q53" s="21"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
     </row>
     <row r="54" spans="1:17" ht="116" customHeight="1">
       <c r="A54" s="6">
-        <v>21</v>
-      </c>
-      <c r="B54" s="43"/>
-      <c r="C54" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="21"/>
+        <v>49</v>
+      </c>
+      <c r="B54" s="38"/>
+      <c r="C54" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="I54" s="33"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
       <c r="M54" s="15"/>
       <c r="N54" s="7"/>
       <c r="O54" s="7"/>
-      <c r="P54" s="21"/>
-      <c r="Q54" s="21"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="33"/>
     </row>
     <row r="55" spans="1:17" ht="116" customHeight="1">
       <c r="A55" s="6">
-        <v>21</v>
-      </c>
-      <c r="B55" s="43"/>
-      <c r="C55" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="38"/>
+      <c r="C55" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="21"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="I55" s="33"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
       <c r="M55" s="15"/>
       <c r="N55" s="7"/>
       <c r="O55" s="7"/>
-      <c r="P55" s="21"/>
-      <c r="Q55" s="21"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
     </row>
     <row r="56" spans="1:17" ht="116" customHeight="1">
       <c r="A56" s="6">
-        <v>21</v>
-      </c>
-      <c r="B56" s="43"/>
-      <c r="C56" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="21"/>
+        <v>51</v>
+      </c>
+      <c r="B56" s="38"/>
+      <c r="C56" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
       <c r="M56" s="15"/>
       <c r="N56" s="7"/>
       <c r="O56" s="7"/>
-      <c r="P56" s="21"/>
-      <c r="Q56" s="21"/>
+      <c r="P56" s="33"/>
+      <c r="Q56" s="33"/>
     </row>
     <row r="57" spans="1:17" ht="116" customHeight="1">
       <c r="A57" s="6">
-        <v>21</v>
-      </c>
-      <c r="B57" s="43"/>
-      <c r="C57" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
-      <c r="K57" s="21"/>
-      <c r="L57" s="21"/>
+        <v>52</v>
+      </c>
+      <c r="B57" s="38"/>
+      <c r="C57" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="33"/>
       <c r="M57" s="15"/>
       <c r="N57" s="7"/>
       <c r="O57" s="7"/>
-      <c r="P57" s="21"/>
-      <c r="Q57" s="21"/>
+      <c r="P57" s="33"/>
+      <c r="Q57" s="33"/>
     </row>
     <row r="58" spans="1:17" ht="95.5" customHeight="1">
       <c r="A58" s="6">
-        <v>22</v>
-      </c>
-      <c r="B58" s="43"/>
-      <c r="C58" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="38"/>
+      <c r="C58" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="I58" s="21"/>
-      <c r="J58" s="21"/>
-      <c r="K58" s="21"/>
-      <c r="L58" s="21"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
       <c r="M58" s="15"/>
       <c r="N58" s="7"/>
       <c r="O58" s="7"/>
-      <c r="P58" s="25"/>
-      <c r="Q58" s="26"/>
+      <c r="P58" s="30"/>
+      <c r="Q58" s="31"/>
     </row>
     <row r="59" spans="1:17" ht="95.5" customHeight="1">
       <c r="A59" s="6">
-        <v>22</v>
-      </c>
-      <c r="B59" s="43"/>
-      <c r="C59" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" s="38"/>
+      <c r="C59" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="I59" s="21"/>
-      <c r="J59" s="21"/>
-      <c r="K59" s="21"/>
-      <c r="L59" s="21"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="33"/>
+      <c r="L59" s="33"/>
       <c r="M59" s="15"/>
       <c r="N59" s="7"/>
       <c r="O59" s="7"/>
-      <c r="P59" s="25"/>
-      <c r="Q59" s="26"/>
+      <c r="P59" s="30"/>
+      <c r="Q59" s="31"/>
     </row>
     <row r="60" spans="1:17" ht="95.5" customHeight="1">
       <c r="A60" s="6">
-        <v>22</v>
-      </c>
-      <c r="B60" s="43"/>
-      <c r="C60" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" s="38"/>
+      <c r="C60" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60" s="51"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="I60" s="21"/>
-      <c r="J60" s="21"/>
-      <c r="K60" s="21"/>
-      <c r="L60" s="21"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="33"/>
+      <c r="L60" s="33"/>
       <c r="M60" s="15"/>
       <c r="N60" s="7"/>
       <c r="O60" s="7"/>
-      <c r="P60" s="25"/>
-      <c r="Q60" s="26"/>
+      <c r="P60" s="30"/>
+      <c r="Q60" s="31"/>
     </row>
     <row r="61" spans="1:17" ht="95.5" customHeight="1">
       <c r="A61" s="6">
-        <v>22</v>
-      </c>
-      <c r="B61" s="43"/>
-      <c r="C61" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" s="38"/>
+      <c r="C61" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" s="51"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="I61" s="21"/>
-      <c r="J61" s="21"/>
-      <c r="K61" s="21"/>
-      <c r="L61" s="21"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="33"/>
+      <c r="K61" s="33"/>
+      <c r="L61" s="33"/>
       <c r="M61" s="15"/>
       <c r="N61" s="7"/>
       <c r="O61" s="7"/>
-      <c r="P61" s="25"/>
-      <c r="Q61" s="26"/>
+      <c r="P61" s="30"/>
+      <c r="Q61" s="31"/>
     </row>
     <row r="62" spans="1:17" ht="95.5" customHeight="1">
       <c r="A62" s="6">
-        <v>22</v>
-      </c>
-      <c r="B62" s="43"/>
-      <c r="C62" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="I62" s="21"/>
-      <c r="J62" s="21"/>
-      <c r="K62" s="21"/>
-      <c r="L62" s="21"/>
+        <v>57</v>
+      </c>
+      <c r="B62" s="38"/>
+      <c r="C62" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62" s="51"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="I62" s="33"/>
+      <c r="J62" s="33"/>
+      <c r="K62" s="33"/>
+      <c r="L62" s="33"/>
       <c r="M62" s="15"/>
       <c r="N62" s="7"/>
       <c r="O62" s="7"/>
-      <c r="P62" s="25"/>
-      <c r="Q62" s="26"/>
+      <c r="P62" s="30"/>
+      <c r="Q62" s="31"/>
     </row>
     <row r="63" spans="1:17" ht="95.5" customHeight="1">
       <c r="A63" s="6">
-        <v>22</v>
-      </c>
-      <c r="B63" s="43"/>
-      <c r="C63" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="I63" s="21"/>
-      <c r="J63" s="21"/>
-      <c r="K63" s="21"/>
-      <c r="L63" s="21"/>
+        <v>58</v>
+      </c>
+      <c r="B63" s="38"/>
+      <c r="C63" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D63" s="51"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="51"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="I63" s="33"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="33"/>
       <c r="M63" s="15"/>
       <c r="N63" s="7"/>
       <c r="O63" s="7"/>
-      <c r="P63" s="25"/>
-      <c r="Q63" s="26"/>
+      <c r="P63" s="30"/>
+      <c r="Q63" s="31"/>
     </row>
     <row r="64" spans="1:17" ht="95.5" customHeight="1">
       <c r="A64" s="6">
-        <v>22</v>
-      </c>
-      <c r="B64" s="43"/>
-      <c r="C64" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="I64" s="21"/>
-      <c r="J64" s="21"/>
-      <c r="K64" s="21"/>
-      <c r="L64" s="21"/>
+        <v>59</v>
+      </c>
+      <c r="B64" s="38"/>
+      <c r="C64" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="I64" s="33"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="33"/>
       <c r="M64" s="15"/>
       <c r="N64" s="7"/>
       <c r="O64" s="7"/>
-      <c r="P64" s="25"/>
-      <c r="Q64" s="26"/>
+      <c r="P64" s="30"/>
+      <c r="Q64" s="31"/>
     </row>
     <row r="65" spans="1:17" ht="95.5" customHeight="1">
       <c r="A65" s="6">
-        <v>22</v>
-      </c>
-      <c r="B65" s="43"/>
-      <c r="C65" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="I65" s="21"/>
-      <c r="J65" s="21"/>
-      <c r="K65" s="21"/>
-      <c r="L65" s="21"/>
+        <v>60</v>
+      </c>
+      <c r="B65" s="38"/>
+      <c r="C65" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="D65" s="51"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="I65" s="33"/>
+      <c r="J65" s="33"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="33"/>
       <c r="M65" s="15"/>
       <c r="N65" s="7"/>
       <c r="O65" s="7"/>
-      <c r="P65" s="25"/>
-      <c r="Q65" s="26"/>
+      <c r="P65" s="30"/>
+      <c r="Q65" s="31"/>
     </row>
     <row r="66" spans="1:17" ht="95.5" customHeight="1">
       <c r="A66" s="6">
-        <v>22</v>
-      </c>
-      <c r="B66" s="43"/>
-      <c r="C66" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="21"/>
+        <v>61</v>
+      </c>
+      <c r="B66" s="38"/>
+      <c r="C66" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="D66" s="51"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="51"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="I66" s="33"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="33"/>
+      <c r="L66" s="33"/>
       <c r="M66" s="15"/>
       <c r="N66" s="7"/>
       <c r="O66" s="7"/>
-      <c r="P66" s="25"/>
-      <c r="Q66" s="26"/>
+      <c r="P66" s="30"/>
+      <c r="Q66" s="31"/>
     </row>
     <row r="67" spans="1:17" ht="68" customHeight="1">
       <c r="A67" s="6">
-        <v>23</v>
-      </c>
-      <c r="B67" s="43"/>
-      <c r="C67" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67" s="38"/>
+      <c r="C67" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="21"/>
-      <c r="H67" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="I67" s="20"/>
-      <c r="J67" s="20"/>
-      <c r="K67" s="20"/>
-      <c r="L67" s="20"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="I67" s="32"/>
+      <c r="J67" s="32"/>
+      <c r="K67" s="32"/>
+      <c r="L67" s="32"/>
       <c r="M67" s="15"/>
       <c r="N67" s="7"/>
       <c r="O67" s="7"/>
-      <c r="P67" s="21"/>
-      <c r="Q67" s="21"/>
+      <c r="P67" s="33"/>
+      <c r="Q67" s="33"/>
     </row>
     <row r="68" spans="1:17" ht="13.5" customHeight="1">
       <c r="A68" s="6">
-        <v>6</v>
-      </c>
-      <c r="B68" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="27" t="s">
+      <c r="C68" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="29"/>
-      <c r="H68" s="30" t="s">
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="I68" s="31"/>
-      <c r="J68" s="31"/>
-      <c r="K68" s="31"/>
-      <c r="L68" s="32"/>
+      <c r="I68" s="57"/>
+      <c r="J68" s="57"/>
+      <c r="K68" s="57"/>
+      <c r="L68" s="41"/>
       <c r="M68" s="15"/>
       <c r="N68" s="7"/>
       <c r="O68" s="7"/>
-      <c r="P68" s="21"/>
-      <c r="Q68" s="21"/>
+      <c r="P68" s="33"/>
+      <c r="Q68" s="33"/>
     </row>
     <row r="69" spans="1:17" ht="13.5" customHeight="1">
       <c r="A69" s="6">
-        <v>7</v>
-      </c>
-      <c r="B69" s="43"/>
-      <c r="C69" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69" s="38"/>
+      <c r="C69" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="30" t="s">
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="I69" s="31"/>
-      <c r="J69" s="31"/>
-      <c r="K69" s="31"/>
-      <c r="L69" s="32"/>
+      <c r="I69" s="57"/>
+      <c r="J69" s="57"/>
+      <c r="K69" s="57"/>
+      <c r="L69" s="41"/>
       <c r="M69" s="15"/>
       <c r="N69" s="7"/>
       <c r="O69" s="7"/>
-      <c r="P69" s="21"/>
-      <c r="Q69" s="21"/>
+      <c r="P69" s="33"/>
+      <c r="Q69" s="33"/>
     </row>
     <row r="70" spans="1:17" ht="13.5" customHeight="1">
       <c r="A70" s="6">
-        <v>8</v>
-      </c>
-      <c r="B70" s="43"/>
-      <c r="C70" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70" s="38"/>
+      <c r="C70" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="21" t="s">
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="I70" s="21"/>
-      <c r="J70" s="21"/>
-      <c r="K70" s="21"/>
-      <c r="L70" s="21"/>
+      <c r="I70" s="33"/>
+      <c r="J70" s="33"/>
+      <c r="K70" s="33"/>
+      <c r="L70" s="33"/>
       <c r="M70" s="15"/>
       <c r="N70" s="7"/>
       <c r="O70" s="7"/>
-      <c r="P70" s="21"/>
-      <c r="Q70" s="21"/>
+      <c r="P70" s="33"/>
+      <c r="Q70" s="33"/>
     </row>
     <row r="71" spans="1:17" ht="13.5" customHeight="1">
       <c r="A71" s="6">
-        <v>9</v>
-      </c>
-      <c r="B71" s="43"/>
-      <c r="C71" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B71" s="38"/>
+      <c r="C71" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="21"/>
-      <c r="H71" s="21" t="s">
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="I71" s="21"/>
-      <c r="J71" s="21"/>
-      <c r="K71" s="21"/>
-      <c r="L71" s="21"/>
+      <c r="I71" s="33"/>
+      <c r="J71" s="33"/>
+      <c r="K71" s="33"/>
+      <c r="L71" s="33"/>
       <c r="M71" s="15"/>
       <c r="N71" s="7"/>
       <c r="O71" s="7"/>
-      <c r="P71" s="25"/>
-      <c r="Q71" s="26"/>
+      <c r="P71" s="30"/>
+      <c r="Q71" s="31"/>
     </row>
     <row r="72" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A72" s="17">
-        <v>10</v>
-      </c>
-      <c r="B72" s="43"/>
-      <c r="C72" s="20" t="s">
+      <c r="A72" s="6">
+        <v>67</v>
+      </c>
+      <c r="B72" s="38"/>
+      <c r="C72" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="21"/>
-      <c r="H72" s="21" t="s">
+      <c r="D72" s="33"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="I72" s="21"/>
-      <c r="J72" s="21"/>
-      <c r="K72" s="21"/>
-      <c r="L72" s="21"/>
+      <c r="I72" s="33"/>
+      <c r="J72" s="33"/>
+      <c r="K72" s="33"/>
+      <c r="L72" s="33"/>
       <c r="M72" s="15"/>
       <c r="N72" s="7"/>
       <c r="O72" s="7"/>
-      <c r="P72" s="21"/>
-      <c r="Q72" s="21"/>
+      <c r="P72" s="33"/>
+      <c r="Q72" s="33"/>
     </row>
     <row r="73" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A73" s="18">
-        <v>11</v>
-      </c>
-      <c r="B73" s="44"/>
-      <c r="C73" s="27" t="s">
+      <c r="A73" s="6">
+        <v>68</v>
+      </c>
+      <c r="B73" s="39"/>
+      <c r="C73" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="30" t="s">
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="I73" s="31"/>
-      <c r="J73" s="31"/>
-      <c r="K73" s="31"/>
-      <c r="L73" s="32"/>
+      <c r="I73" s="57"/>
+      <c r="J73" s="57"/>
+      <c r="K73" s="57"/>
+      <c r="L73" s="41"/>
       <c r="M73" s="15"/>
       <c r="N73" s="7"/>
       <c r="O73" s="7"/>
-      <c r="P73" s="30"/>
-      <c r="Q73" s="32"/>
+      <c r="P73" s="40"/>
+      <c r="Q73" s="41"/>
     </row>
     <row r="74" spans="1:17" ht="69.5" customHeight="1">
       <c r="A74" s="6">
-        <v>25</v>
-      </c>
-      <c r="B74" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B74" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C74" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="20" t="s">
+      <c r="C74" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="I74" s="20"/>
-      <c r="J74" s="20"/>
-      <c r="K74" s="20"/>
-      <c r="L74" s="20"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="32"/>
+      <c r="K74" s="32"/>
+      <c r="L74" s="32"/>
       <c r="M74" s="15"/>
       <c r="N74" s="7"/>
       <c r="O74" s="7"/>
-      <c r="P74" s="25"/>
-      <c r="Q74" s="26"/>
+      <c r="P74" s="30"/>
+      <c r="Q74" s="31"/>
     </row>
     <row r="75" spans="1:17" ht="69.5" customHeight="1">
-      <c r="A75" s="6"/>
-      <c r="B75" s="43"/>
-      <c r="C75" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="27" t="s">
+      <c r="A75" s="6">
+        <v>70</v>
+      </c>
+      <c r="B75" s="38"/>
+      <c r="C75" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="I75" s="28"/>
-      <c r="J75" s="28"/>
-      <c r="K75" s="28"/>
-      <c r="L75" s="29"/>
+      <c r="I75" s="35"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="35"/>
+      <c r="L75" s="36"/>
       <c r="M75" s="15"/>
       <c r="N75" s="7"/>
       <c r="O75" s="7"/>
@@ -4795,23 +4793,23 @@
     </row>
     <row r="76" spans="1:17" ht="91.5" customHeight="1">
       <c r="A76" s="6">
-        <v>26</v>
-      </c>
-      <c r="B76" s="43"/>
-      <c r="C76" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B76" s="38"/>
+      <c r="C76" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="27" t="s">
+      <c r="D76" s="33"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="I76" s="28"/>
-      <c r="J76" s="28"/>
-      <c r="K76" s="28"/>
-      <c r="L76" s="29"/>
+      <c r="I76" s="35"/>
+      <c r="J76" s="35"/>
+      <c r="K76" s="35"/>
+      <c r="L76" s="36"/>
       <c r="M76" s="15"/>
       <c r="N76" s="7"/>
       <c r="O76" s="7"/>
@@ -4820,23 +4818,23 @@
     </row>
     <row r="77" spans="1:17" ht="90.5" customHeight="1">
       <c r="A77" s="6">
-        <v>27</v>
-      </c>
-      <c r="B77" s="44"/>
-      <c r="C77" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B77" s="39"/>
+      <c r="C77" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="27" t="s">
+      <c r="D77" s="33"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="I77" s="28"/>
-      <c r="J77" s="28"/>
-      <c r="K77" s="28"/>
-      <c r="L77" s="29"/>
+      <c r="I77" s="35"/>
+      <c r="J77" s="35"/>
+      <c r="K77" s="35"/>
+      <c r="L77" s="36"/>
       <c r="M77" s="15"/>
       <c r="N77" s="7"/>
       <c r="O77" s="7"/>
@@ -4861,6 +4859,184 @@
     <row r="84" s="4" customFormat="1" ht="11.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="202">
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:L66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:L56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:L57"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:L65"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:L63"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:L64"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:L62"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:L61"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:L54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:L53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:L52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:L75"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:L72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:L73"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:L69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:L70"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C14:G21"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="B68:B73"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:L68"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:L71"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:L74"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:L67"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:L58"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:L50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:L60"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:L59"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:M1"/>
@@ -4885,184 +5061,6 @@
     <mergeCell ref="H43:L43"/>
     <mergeCell ref="P73:Q73"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="H74:L74"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:L47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="H67:L67"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="H58:L58"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C14:G21"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="B68:B73"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="H68:L68"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="H71:L71"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="H75:L75"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="H72:L72"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:L73"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="H69:L69"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="H70:L70"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:L50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="H53:L53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:L52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="H60:L60"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="H59:L59"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="H62:L62"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="H61:L61"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="H54:L54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="H55:L55"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="H66:L66"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="H56:L56"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="H57:L57"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="H65:L65"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="H63:L63"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="H64:L64"/>
-    <mergeCell ref="P64:Q64"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP012新商品登録(入力).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP012新商品登録(入力).xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC135F3-DE8F-4386-BB1A-892DFB8D3C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB891A2E-7293-448A-AFE2-2CE550397568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1381,18 +1381,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>商品名：テスト商品
-単価：10000000001
-在庫数：10
-商品カテゴリ：スポーツ用品
-画像：test.jpg
-（単価が9999999998のとき）</t>
-    <rPh sb="43" eb="45">
-      <t>ヨウヒン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>エラーメッセージ
 「この商品の単価は0～9999999999で入力してください」
 と表示されること</t>
@@ -2046,6 +2034,18 @@
     </rPh>
     <rPh sb="58" eb="60">
       <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名：テスト商品
+単価：9999999998
+在庫数：10
+商品カテゴリ：スポーツ用品
+画像：test.jpg
+（単価が9999999998のとき）</t>
+    <rPh sb="42" eb="44">
+      <t>ヨウヒン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2406,6 +2406,108 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2441,108 +2543,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2896,8 +2896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="81" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="M74" sqref="M74"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A74" zoomScale="81" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -2908,32 +2908,33 @@
     <col min="7" max="7" width="8" style="5" customWidth="1"/>
     <col min="8" max="11" width="7.1796875" style="4" customWidth="1"/>
     <col min="12" max="12" width="10.7265625" style="4" customWidth="1"/>
-    <col min="13" max="15" width="8.453125" style="4" customWidth="1"/>
+    <col min="13" max="14" width="8.453125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" style="4" customWidth="1"/>
     <col min="16" max="16" width="17.1796875" style="4" customWidth="1"/>
     <col min="17" max="17" width="31.26953125" style="4" customWidth="1"/>
     <col min="18" max="16384" width="7" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2948,23 +2949,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="24" t="s">
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="29"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -2977,10 +2978,10 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="25" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="44" t="s">
         <v>30</v>
       </c>
@@ -3000,10 +3001,10 @@
       <c r="Q3" s="46"/>
     </row>
     <row r="4" spans="1:17" ht="40.5" customHeight="1">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="44" t="s">
         <v>42</v>
       </c>
@@ -3029,20 +3030,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="47" t="s">
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -3052,105 +3053,105 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="47" t="s">
+      <c r="P5" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="48"/>
+      <c r="Q5" s="50"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33" t="s">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="33" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="32" t="s">
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
     </row>
     <row r="8" spans="1:17" ht="13.5" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="34" t="s">
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="36"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="31"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="24"/>
     </row>
     <row r="9" spans="1:17" ht="11.5" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="34" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="36"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -3162,18 +3163,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="34" t="s">
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="36"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -3185,18 +3186,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="34" t="s">
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="36"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -3208,18 +3209,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="34" t="s">
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="36"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -3231,18 +3232,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="34" t="s">
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="36"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -3254,20 +3255,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="40" t="s">
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="41"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="30"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -3279,18 +3280,18 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="40" t="s">
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="41"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="30"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -3302,18 +3303,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="40" t="s">
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="41"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="30"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -3325,18 +3326,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="40" t="s">
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="41"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="30"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -3348,18 +3349,18 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="40" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="41"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="30"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -3371,18 +3372,18 @@
         <v>14</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="34" t="s">
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="41"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="30"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -3394,18 +3395,18 @@
         <v>15</v>
       </c>
       <c r="B20" s="8"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="40" t="s">
+      <c r="C20" s="34"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="41"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="30"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -3417,18 +3418,18 @@
         <v>16</v>
       </c>
       <c r="B21" s="8"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="40" t="s">
+      <c r="C21" s="37"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="41"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="30"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -3440,20 +3441,20 @@
         <v>17</v>
       </c>
       <c r="B22" s="8"/>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="34" t="s">
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="36"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="27"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -3464,598 +3465,598 @@
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33" t="s">
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
     </row>
     <row r="24" spans="1:17" ht="92" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="32" t="s">
+      <c r="B24" s="41"/>
+      <c r="C24" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33" t="s">
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
     </row>
     <row r="25" spans="1:17" ht="85" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="32" t="s">
+      <c r="B25" s="41"/>
+      <c r="C25" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="32" t="s">
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
     </row>
     <row r="26" spans="1:17" ht="85" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="32" t="s">
+      <c r="B26" s="41"/>
+      <c r="C26" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33" t="s">
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-    </row>
-    <row r="27" spans="1:17" ht="85" customHeight="1">
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+    </row>
+    <row r="27" spans="1:17" ht="96.5" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="32" t="s">
+      <c r="B27" s="41"/>
+      <c r="C27" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33" t="s">
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
     </row>
     <row r="28" spans="1:17" ht="90" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="32" t="s">
+      <c r="B28" s="41"/>
+      <c r="C28" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="32" t="s">
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
     </row>
     <row r="29" spans="1:17" ht="85" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="32" t="s">
+      <c r="B29" s="41"/>
+      <c r="C29" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33" t="s">
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
     </row>
     <row r="30" spans="1:17" ht="85" customHeight="1">
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="32" t="s">
+      <c r="B30" s="41"/>
+      <c r="C30" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="32" t="s">
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
       <c r="M30" s="15"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
     </row>
     <row r="31" spans="1:17" ht="85" customHeight="1">
       <c r="A31" s="6">
         <v>26</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="32" t="s">
+      <c r="B31" s="41"/>
+      <c r="C31" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33" t="s">
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
       <c r="M31" s="15"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
     </row>
     <row r="32" spans="1:17" ht="85" customHeight="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="32" t="s">
+      <c r="B32" s="41"/>
+      <c r="C32" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33" t="s">
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
       <c r="M32" s="15"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
     </row>
     <row r="33" spans="1:17" ht="85" customHeight="1">
       <c r="A33" s="6">
         <v>28</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33" t="s">
+      <c r="B33" s="41"/>
+      <c r="C33" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
       <c r="M33" s="15"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
     </row>
     <row r="34" spans="1:17" ht="85" customHeight="1">
       <c r="A34" s="6">
         <v>29</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="32" t="s">
+      <c r="B34" s="41"/>
+      <c r="C34" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33" t="s">
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
       <c r="M34" s="15"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
     </row>
     <row r="35" spans="1:17" ht="85" customHeight="1">
       <c r="A35" s="6">
         <v>30</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="32" t="s">
+      <c r="B35" s="41"/>
+      <c r="C35" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="36"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="27"/>
       <c r="M35" s="15"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
     </row>
     <row r="36" spans="1:17" ht="85" customHeight="1">
       <c r="A36" s="6">
         <v>31</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="32" t="s">
+      <c r="B36" s="41"/>
+      <c r="C36" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
       <c r="M36" s="15"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
     </row>
     <row r="37" spans="1:17" ht="85" customHeight="1">
       <c r="A37" s="6">
         <v>32</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="32" t="s">
+      <c r="B37" s="41"/>
+      <c r="C37" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33" t="s">
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
       <c r="M37" s="15"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="33"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
     </row>
     <row r="38" spans="1:17" ht="85" customHeight="1">
       <c r="A38" s="6">
         <v>33</v>
       </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="32" t="s">
+      <c r="B38" s="41"/>
+      <c r="C38" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33" t="s">
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
       <c r="M38" s="15"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="33"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
     </row>
     <row r="39" spans="1:17" ht="88" customHeight="1">
       <c r="A39" s="6">
         <v>34</v>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="32" t="s">
+      <c r="B39" s="41"/>
+      <c r="C39" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33" t="s">
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
       <c r="M39" s="15"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
     </row>
     <row r="40" spans="1:17" ht="112" customHeight="1">
       <c r="A40" s="6">
         <v>35</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="32" t="s">
+      <c r="B40" s="41"/>
+      <c r="C40" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33" t="s">
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
       <c r="M40" s="15"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
-      <c r="P40" s="33"/>
-      <c r="Q40" s="33"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
     </row>
     <row r="41" spans="1:17" ht="102" customHeight="1">
       <c r="A41" s="6">
         <v>36</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="50" t="s">
+      <c r="B41" s="41"/>
+      <c r="C41" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
       <c r="M41" s="15"/>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="31"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="24"/>
     </row>
     <row r="42" spans="1:17" ht="90.5" customHeight="1">
       <c r="A42" s="6">
         <v>37</v>
       </c>
-      <c r="B42" s="38"/>
-      <c r="C42" s="32" t="s">
+      <c r="B42" s="41"/>
+      <c r="C42" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
       <c r="M42" s="15"/>
       <c r="N42" s="7"/>
       <c r="O42" s="7"/>
-      <c r="P42" s="33"/>
-      <c r="Q42" s="33"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
     </row>
     <row r="43" spans="1:17" ht="84.5" customHeight="1">
       <c r="A43" s="6">
         <v>38</v>
       </c>
-      <c r="B43" s="38"/>
-      <c r="C43" s="32" t="s">
+      <c r="B43" s="41"/>
+      <c r="C43" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33" t="s">
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="33"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
       <c r="M43" s="15"/>
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
-      <c r="P43" s="33"/>
-      <c r="Q43" s="33"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
     </row>
     <row r="44" spans="1:17" ht="77.5" customHeight="1">
       <c r="A44" s="6">
         <v>39</v>
       </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="32" t="s">
+      <c r="B44" s="41"/>
+      <c r="C44" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33" t="s">
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="I44" s="33"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="33"/>
-      <c r="L44" s="33"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
       <c r="M44" s="15"/>
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
-      <c r="P44" s="33"/>
-      <c r="Q44" s="33"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22"/>
     </row>
     <row r="45" spans="1:17" ht="81" customHeight="1">
       <c r="A45" s="6">
         <v>40</v>
       </c>
-      <c r="B45" s="38"/>
-      <c r="C45" s="32" t="s">
+      <c r="B45" s="41"/>
+      <c r="C45" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33" t="s">
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
       <c r="M45" s="15"/>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="31"/>
+      <c r="P45" s="23"/>
+      <c r="Q45" s="24"/>
     </row>
     <row r="46" spans="1:17" ht="98" customHeight="1">
       <c r="A46" s="6">
         <v>41</v>
       </c>
-      <c r="B46" s="38"/>
-      <c r="C46" s="32" t="s">
+      <c r="B46" s="41"/>
+      <c r="C46" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33" t="s">
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="33"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
       <c r="M46" s="15"/>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
@@ -4066,725 +4067,725 @@
       <c r="A47" s="6">
         <v>42</v>
       </c>
-      <c r="B47" s="38"/>
-      <c r="C47" s="32" t="s">
+      <c r="B47" s="41"/>
+      <c r="C47" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="I47" s="33"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="33"/>
-      <c r="L47" s="33"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
       <c r="M47" s="15"/>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
-      <c r="P47" s="33"/>
-      <c r="Q47" s="33"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
     </row>
     <row r="48" spans="1:17" ht="91" customHeight="1">
       <c r="A48" s="6">
         <v>43</v>
       </c>
-      <c r="B48" s="38"/>
-      <c r="C48" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="I48" s="33"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="33"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
       <c r="M48" s="15"/>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
-      <c r="P48" s="33"/>
-      <c r="Q48" s="33"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
     </row>
     <row r="49" spans="1:17" ht="116" customHeight="1">
       <c r="A49" s="6">
         <v>44</v>
       </c>
-      <c r="B49" s="38"/>
-      <c r="C49" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33" t="s">
+      <c r="B49" s="41"/>
+      <c r="C49" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="I49" s="33"/>
-      <c r="J49" s="33"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="33"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
       <c r="M49" s="15"/>
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
-      <c r="P49" s="33"/>
-      <c r="Q49" s="33"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
     </row>
     <row r="50" spans="1:17" ht="116" customHeight="1">
       <c r="A50" s="6">
         <v>45</v>
       </c>
-      <c r="B50" s="38"/>
-      <c r="C50" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33" t="s">
+      <c r="B50" s="41"/>
+      <c r="C50" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="I50" s="33"/>
-      <c r="J50" s="33"/>
-      <c r="K50" s="33"/>
-      <c r="L50" s="33"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
       <c r="M50" s="15"/>
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
-      <c r="P50" s="33"/>
-      <c r="Q50" s="33"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="22"/>
     </row>
     <row r="51" spans="1:17" ht="116" customHeight="1">
       <c r="A51" s="6">
         <v>46</v>
       </c>
-      <c r="B51" s="38"/>
-      <c r="C51" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33" t="s">
+      <c r="B51" s="41"/>
+      <c r="C51" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="I51" s="33"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="33"/>
-      <c r="L51" s="33"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
       <c r="M51" s="15"/>
       <c r="N51" s="7"/>
       <c r="O51" s="7"/>
-      <c r="P51" s="33"/>
-      <c r="Q51" s="33"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
     </row>
     <row r="52" spans="1:17" ht="116" customHeight="1">
       <c r="A52" s="6">
         <v>47</v>
       </c>
-      <c r="B52" s="38"/>
-      <c r="C52" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33" t="s">
+      <c r="B52" s="41"/>
+      <c r="C52" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="I52" s="33"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="33"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
       <c r="M52" s="15"/>
       <c r="N52" s="7"/>
       <c r="O52" s="7"/>
-      <c r="P52" s="33"/>
-      <c r="Q52" s="33"/>
+      <c r="P52" s="22"/>
+      <c r="Q52" s="22"/>
     </row>
     <row r="53" spans="1:17" ht="116" customHeight="1">
       <c r="A53" s="6">
         <v>48</v>
       </c>
-      <c r="B53" s="38"/>
-      <c r="C53" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="I53" s="33"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="33"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
       <c r="M53" s="15"/>
       <c r="N53" s="7"/>
       <c r="O53" s="7"/>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="33"/>
+      <c r="P53" s="22"/>
+      <c r="Q53" s="22"/>
     </row>
     <row r="54" spans="1:17" ht="116" customHeight="1">
       <c r="A54" s="6">
         <v>49</v>
       </c>
-      <c r="B54" s="38"/>
-      <c r="C54" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="I54" s="33"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="33"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="22"/>
       <c r="M54" s="15"/>
       <c r="N54" s="7"/>
       <c r="O54" s="7"/>
-      <c r="P54" s="33"/>
-      <c r="Q54" s="33"/>
+      <c r="P54" s="22"/>
+      <c r="Q54" s="22"/>
     </row>
     <row r="55" spans="1:17" ht="116" customHeight="1">
       <c r="A55" s="6">
         <v>50</v>
       </c>
-      <c r="B55" s="38"/>
-      <c r="C55" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="I55" s="33"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
       <c r="M55" s="15"/>
       <c r="N55" s="7"/>
       <c r="O55" s="7"/>
-      <c r="P55" s="33"/>
-      <c r="Q55" s="33"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
     </row>
     <row r="56" spans="1:17" ht="116" customHeight="1">
       <c r="A56" s="6">
         <v>51</v>
       </c>
-      <c r="B56" s="38"/>
-      <c r="C56" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="I56" s="33"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="33"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
       <c r="M56" s="15"/>
       <c r="N56" s="7"/>
       <c r="O56" s="7"/>
-      <c r="P56" s="33"/>
-      <c r="Q56" s="33"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
     </row>
     <row r="57" spans="1:17" ht="116" customHeight="1">
       <c r="A57" s="6">
         <v>52</v>
       </c>
-      <c r="B57" s="38"/>
-      <c r="C57" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
       <c r="M57" s="15"/>
       <c r="N57" s="7"/>
       <c r="O57" s="7"/>
-      <c r="P57" s="33"/>
-      <c r="Q57" s="33"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="22"/>
     </row>
     <row r="58" spans="1:17" ht="95.5" customHeight="1">
       <c r="A58" s="6">
         <v>53</v>
       </c>
-      <c r="B58" s="38"/>
-      <c r="C58" s="50" t="s">
+      <c r="B58" s="41"/>
+      <c r="C58" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D58" s="51"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="51"/>
-      <c r="G58" s="52"/>
-      <c r="H58" s="33" t="s">
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="22"/>
       <c r="M58" s="15"/>
       <c r="N58" s="7"/>
       <c r="O58" s="7"/>
-      <c r="P58" s="30"/>
-      <c r="Q58" s="31"/>
+      <c r="P58" s="23"/>
+      <c r="Q58" s="24"/>
     </row>
     <row r="59" spans="1:17" ht="95.5" customHeight="1">
       <c r="A59" s="6">
         <v>54</v>
       </c>
-      <c r="B59" s="38"/>
-      <c r="C59" s="50" t="s">
+      <c r="B59" s="41"/>
+      <c r="C59" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D59" s="51"/>
-      <c r="E59" s="51"/>
-      <c r="F59" s="51"/>
-      <c r="G59" s="52"/>
-      <c r="H59" s="33" t="s">
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="I59" s="33"/>
-      <c r="J59" s="33"/>
-      <c r="K59" s="33"/>
-      <c r="L59" s="33"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
       <c r="M59" s="15"/>
       <c r="N59" s="7"/>
       <c r="O59" s="7"/>
-      <c r="P59" s="30"/>
-      <c r="Q59" s="31"/>
+      <c r="P59" s="23"/>
+      <c r="Q59" s="24"/>
     </row>
     <row r="60" spans="1:17" ht="95.5" customHeight="1">
       <c r="A60" s="6">
         <v>55</v>
       </c>
-      <c r="B60" s="38"/>
-      <c r="C60" s="50" t="s">
+      <c r="B60" s="41"/>
+      <c r="C60" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D60" s="51"/>
-      <c r="E60" s="51"/>
-      <c r="F60" s="51"/>
-      <c r="G60" s="52"/>
-      <c r="H60" s="33" t="s">
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="I60" s="33"/>
-      <c r="J60" s="33"/>
-      <c r="K60" s="33"/>
-      <c r="L60" s="33"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="22"/>
       <c r="M60" s="15"/>
       <c r="N60" s="7"/>
       <c r="O60" s="7"/>
-      <c r="P60" s="30"/>
-      <c r="Q60" s="31"/>
+      <c r="P60" s="23"/>
+      <c r="Q60" s="24"/>
     </row>
     <row r="61" spans="1:17" ht="95.5" customHeight="1">
       <c r="A61" s="6">
         <v>56</v>
       </c>
-      <c r="B61" s="38"/>
-      <c r="C61" s="50" t="s">
+      <c r="B61" s="41"/>
+      <c r="C61" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D61" s="51"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="51"/>
-      <c r="G61" s="52"/>
-      <c r="H61" s="33" t="s">
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="I61" s="33"/>
-      <c r="J61" s="33"/>
-      <c r="K61" s="33"/>
-      <c r="L61" s="33"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="22"/>
       <c r="M61" s="15"/>
       <c r="N61" s="7"/>
       <c r="O61" s="7"/>
-      <c r="P61" s="30"/>
-      <c r="Q61" s="31"/>
+      <c r="P61" s="23"/>
+      <c r="Q61" s="24"/>
     </row>
     <row r="62" spans="1:17" ht="95.5" customHeight="1">
       <c r="A62" s="6">
         <v>57</v>
       </c>
-      <c r="B62" s="38"/>
-      <c r="C62" s="50" t="s">
+      <c r="B62" s="41"/>
+      <c r="C62" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D62" s="51"/>
-      <c r="E62" s="51"/>
-      <c r="F62" s="51"/>
-      <c r="G62" s="52"/>
-      <c r="H62" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="I62" s="33"/>
-      <c r="J62" s="33"/>
-      <c r="K62" s="33"/>
-      <c r="L62" s="33"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="22"/>
       <c r="M62" s="15"/>
       <c r="N62" s="7"/>
       <c r="O62" s="7"/>
-      <c r="P62" s="30"/>
-      <c r="Q62" s="31"/>
+      <c r="P62" s="23"/>
+      <c r="Q62" s="24"/>
     </row>
     <row r="63" spans="1:17" ht="95.5" customHeight="1">
       <c r="A63" s="6">
         <v>58</v>
       </c>
-      <c r="B63" s="38"/>
-      <c r="C63" s="50" t="s">
+      <c r="B63" s="41"/>
+      <c r="C63" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D63" s="51"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="51"/>
-      <c r="G63" s="52"/>
-      <c r="H63" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="I63" s="33"/>
-      <c r="J63" s="33"/>
-      <c r="K63" s="33"/>
-      <c r="L63" s="33"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="22"/>
       <c r="M63" s="15"/>
       <c r="N63" s="7"/>
       <c r="O63" s="7"/>
-      <c r="P63" s="30"/>
-      <c r="Q63" s="31"/>
+      <c r="P63" s="23"/>
+      <c r="Q63" s="24"/>
     </row>
     <row r="64" spans="1:17" ht="95.5" customHeight="1">
       <c r="A64" s="6">
         <v>59</v>
       </c>
-      <c r="B64" s="38"/>
-      <c r="C64" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="D64" s="51"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="51"/>
-      <c r="G64" s="52"/>
-      <c r="H64" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="I64" s="33"/>
-      <c r="J64" s="33"/>
-      <c r="K64" s="33"/>
-      <c r="L64" s="33"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="22"/>
       <c r="M64" s="15"/>
       <c r="N64" s="7"/>
       <c r="O64" s="7"/>
-      <c r="P64" s="30"/>
-      <c r="Q64" s="31"/>
+      <c r="P64" s="23"/>
+      <c r="Q64" s="24"/>
     </row>
     <row r="65" spans="1:17" ht="95.5" customHeight="1">
       <c r="A65" s="6">
         <v>60</v>
       </c>
-      <c r="B65" s="38"/>
-      <c r="C65" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="D65" s="51"/>
-      <c r="E65" s="51"/>
-      <c r="F65" s="51"/>
-      <c r="G65" s="52"/>
-      <c r="H65" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="I65" s="33"/>
-      <c r="J65" s="33"/>
-      <c r="K65" s="33"/>
-      <c r="L65" s="33"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="22"/>
       <c r="M65" s="15"/>
       <c r="N65" s="7"/>
       <c r="O65" s="7"/>
-      <c r="P65" s="30"/>
-      <c r="Q65" s="31"/>
+      <c r="P65" s="23"/>
+      <c r="Q65" s="24"/>
     </row>
     <row r="66" spans="1:17" ht="95.5" customHeight="1">
       <c r="A66" s="6">
         <v>61</v>
       </c>
-      <c r="B66" s="38"/>
-      <c r="C66" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="D66" s="51"/>
-      <c r="E66" s="51"/>
-      <c r="F66" s="51"/>
-      <c r="G66" s="52"/>
-      <c r="H66" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="I66" s="33"/>
-      <c r="J66" s="33"/>
-      <c r="K66" s="33"/>
-      <c r="L66" s="33"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="22"/>
       <c r="M66" s="15"/>
       <c r="N66" s="7"/>
       <c r="O66" s="7"/>
-      <c r="P66" s="30"/>
-      <c r="Q66" s="31"/>
+      <c r="P66" s="23"/>
+      <c r="Q66" s="24"/>
     </row>
     <row r="67" spans="1:17" ht="68" customHeight="1">
       <c r="A67" s="6">
         <v>62</v>
       </c>
-      <c r="B67" s="38"/>
-      <c r="C67" s="32" t="s">
+      <c r="B67" s="41"/>
+      <c r="C67" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="33"/>
-      <c r="H67" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="I67" s="32"/>
-      <c r="J67" s="32"/>
-      <c r="K67" s="32"/>
-      <c r="L67" s="32"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
       <c r="M67" s="15"/>
       <c r="N67" s="7"/>
       <c r="O67" s="7"/>
-      <c r="P67" s="33"/>
-      <c r="Q67" s="33"/>
+      <c r="P67" s="22"/>
+      <c r="Q67" s="22"/>
     </row>
     <row r="68" spans="1:17" ht="13.5" customHeight="1">
       <c r="A68" s="6">
         <v>63</v>
       </c>
-      <c r="B68" s="37" t="s">
+      <c r="B68" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="34" t="s">
+      <c r="C68" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="40" t="s">
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="I68" s="57"/>
-      <c r="J68" s="57"/>
-      <c r="K68" s="57"/>
-      <c r="L68" s="41"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="29"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="30"/>
       <c r="M68" s="15"/>
       <c r="N68" s="7"/>
       <c r="O68" s="7"/>
-      <c r="P68" s="33"/>
-      <c r="Q68" s="33"/>
+      <c r="P68" s="22"/>
+      <c r="Q68" s="22"/>
     </row>
     <row r="69" spans="1:17" ht="13.5" customHeight="1">
       <c r="A69" s="6">
         <v>64</v>
       </c>
-      <c r="B69" s="38"/>
-      <c r="C69" s="34" t="s">
+      <c r="B69" s="41"/>
+      <c r="C69" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="40" t="s">
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="I69" s="57"/>
-      <c r="J69" s="57"/>
-      <c r="K69" s="57"/>
-      <c r="L69" s="41"/>
+      <c r="I69" s="29"/>
+      <c r="J69" s="29"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="30"/>
       <c r="M69" s="15"/>
       <c r="N69" s="7"/>
       <c r="O69" s="7"/>
-      <c r="P69" s="33"/>
-      <c r="Q69" s="33"/>
+      <c r="P69" s="22"/>
+      <c r="Q69" s="22"/>
     </row>
     <row r="70" spans="1:17" ht="13.5" customHeight="1">
       <c r="A70" s="6">
         <v>65</v>
       </c>
-      <c r="B70" s="38"/>
-      <c r="C70" s="34" t="s">
+      <c r="B70" s="41"/>
+      <c r="C70" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="33" t="s">
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="I70" s="33"/>
-      <c r="J70" s="33"/>
-      <c r="K70" s="33"/>
-      <c r="L70" s="33"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="22"/>
       <c r="M70" s="15"/>
       <c r="N70" s="7"/>
       <c r="O70" s="7"/>
-      <c r="P70" s="33"/>
-      <c r="Q70" s="33"/>
+      <c r="P70" s="22"/>
+      <c r="Q70" s="22"/>
     </row>
     <row r="71" spans="1:17" ht="13.5" customHeight="1">
       <c r="A71" s="6">
         <v>66</v>
       </c>
-      <c r="B71" s="38"/>
-      <c r="C71" s="32" t="s">
+      <c r="B71" s="41"/>
+      <c r="C71" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D71" s="33"/>
-      <c r="E71" s="33"/>
-      <c r="F71" s="33"/>
-      <c r="G71" s="33"/>
-      <c r="H71" s="33" t="s">
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="I71" s="33"/>
-      <c r="J71" s="33"/>
-      <c r="K71" s="33"/>
-      <c r="L71" s="33"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="22"/>
       <c r="M71" s="15"/>
       <c r="N71" s="7"/>
       <c r="O71" s="7"/>
-      <c r="P71" s="30"/>
-      <c r="Q71" s="31"/>
+      <c r="P71" s="23"/>
+      <c r="Q71" s="24"/>
     </row>
     <row r="72" spans="1:17" ht="13.5" customHeight="1">
       <c r="A72" s="6">
         <v>67</v>
       </c>
-      <c r="B72" s="38"/>
-      <c r="C72" s="32" t="s">
+      <c r="B72" s="41"/>
+      <c r="C72" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D72" s="33"/>
-      <c r="E72" s="33"/>
-      <c r="F72" s="33"/>
-      <c r="G72" s="33"/>
-      <c r="H72" s="33" t="s">
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I72" s="33"/>
-      <c r="J72" s="33"/>
-      <c r="K72" s="33"/>
-      <c r="L72" s="33"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="22"/>
       <c r="M72" s="15"/>
       <c r="N72" s="7"/>
       <c r="O72" s="7"/>
-      <c r="P72" s="33"/>
-      <c r="Q72" s="33"/>
+      <c r="P72" s="22"/>
+      <c r="Q72" s="22"/>
     </row>
     <row r="73" spans="1:17" ht="13.5" customHeight="1">
       <c r="A73" s="6">
         <v>68</v>
       </c>
-      <c r="B73" s="39"/>
-      <c r="C73" s="34" t="s">
+      <c r="B73" s="42"/>
+      <c r="C73" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D73" s="35"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="36"/>
-      <c r="H73" s="40" t="s">
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="I73" s="57"/>
-      <c r="J73" s="57"/>
-      <c r="K73" s="57"/>
-      <c r="L73" s="41"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="29"/>
+      <c r="K73" s="29"/>
+      <c r="L73" s="30"/>
       <c r="M73" s="15"/>
       <c r="N73" s="7"/>
       <c r="O73" s="7"/>
-      <c r="P73" s="40"/>
-      <c r="Q73" s="41"/>
+      <c r="P73" s="28"/>
+      <c r="Q73" s="30"/>
     </row>
     <row r="74" spans="1:17" ht="69.5" customHeight="1">
       <c r="A74" s="6">
         <v>69</v>
       </c>
-      <c r="B74" s="37" t="s">
+      <c r="B74" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C74" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="D74" s="32"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="32"/>
-      <c r="G74" s="32"/>
-      <c r="H74" s="32" t="s">
+      <c r="C74" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="I74" s="32"/>
-      <c r="J74" s="32"/>
-      <c r="K74" s="32"/>
-      <c r="L74" s="32"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="21"/>
       <c r="M74" s="15"/>
       <c r="N74" s="7"/>
       <c r="O74" s="7"/>
-      <c r="P74" s="30"/>
-      <c r="Q74" s="31"/>
+      <c r="P74" s="23"/>
+      <c r="Q74" s="24"/>
     </row>
     <row r="75" spans="1:17" ht="69.5" customHeight="1">
       <c r="A75" s="6">
         <v>70</v>
       </c>
-      <c r="B75" s="38"/>
-      <c r="C75" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="D75" s="32"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="32"/>
-      <c r="G75" s="32"/>
-      <c r="H75" s="34" t="s">
+      <c r="B75" s="41"/>
+      <c r="C75" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="I75" s="35"/>
-      <c r="J75" s="35"/>
-      <c r="K75" s="35"/>
-      <c r="L75" s="36"/>
+      <c r="I75" s="26"/>
+      <c r="J75" s="26"/>
+      <c r="K75" s="26"/>
+      <c r="L75" s="27"/>
       <c r="M75" s="15"/>
       <c r="N75" s="7"/>
       <c r="O75" s="7"/>
@@ -4795,21 +4796,21 @@
       <c r="A76" s="6">
         <v>71</v>
       </c>
-      <c r="B76" s="38"/>
-      <c r="C76" s="32" t="s">
+      <c r="B76" s="41"/>
+      <c r="C76" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D76" s="33"/>
-      <c r="E76" s="33"/>
-      <c r="F76" s="33"/>
-      <c r="G76" s="33"/>
-      <c r="H76" s="34" t="s">
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="I76" s="35"/>
-      <c r="J76" s="35"/>
-      <c r="K76" s="35"/>
-      <c r="L76" s="36"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="26"/>
+      <c r="L76" s="27"/>
       <c r="M76" s="15"/>
       <c r="N76" s="7"/>
       <c r="O76" s="7"/>
@@ -4820,21 +4821,21 @@
       <c r="A77" s="6">
         <v>72</v>
       </c>
-      <c r="B77" s="39"/>
-      <c r="C77" s="32" t="s">
+      <c r="B77" s="42"/>
+      <c r="C77" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D77" s="33"/>
-      <c r="E77" s="33"/>
-      <c r="F77" s="33"/>
-      <c r="G77" s="33"/>
-      <c r="H77" s="34" t="s">
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="I77" s="35"/>
-      <c r="J77" s="35"/>
-      <c r="K77" s="35"/>
-      <c r="L77" s="36"/>
+      <c r="I77" s="26"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="26"/>
+      <c r="L77" s="27"/>
       <c r="M77" s="15"/>
       <c r="N77" s="7"/>
       <c r="O77" s="7"/>
@@ -4859,6 +4860,184 @@
     <row r="84" s="4" customFormat="1" ht="11.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="202">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:L76"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="B23:B67"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:L49"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:L77"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:L74"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:L67"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:L58"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:L50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:L60"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:L59"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C14:G21"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="B68:B73"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:L68"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:L71"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:L75"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:L72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:L73"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:L69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:L70"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:L54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:L53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:L52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="P43:Q43"/>
     <mergeCell ref="C66:G66"/>
     <mergeCell ref="H66:L66"/>
     <mergeCell ref="P66:Q66"/>
@@ -4883,184 +5062,6 @@
     <mergeCell ref="P62:Q62"/>
     <mergeCell ref="C61:G61"/>
     <mergeCell ref="H61:L61"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="H54:L54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="H55:L55"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="H53:L53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:L52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="H75:L75"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="H72:L72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:L73"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="H69:L69"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="H70:L70"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C14:G21"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="B68:B73"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="H68:L68"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="H71:L71"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="H74:L74"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:L47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="H67:L67"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="H58:L58"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:L50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="H60:L60"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="H59:L59"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="H76:L76"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="B23:B67"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:L49"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="H77:L77"/>
-    <mergeCell ref="H46:L46"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP012新商品登録(入力).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP012新商品登録(入力).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB891A2E-7293-448A-AFE2-2CE550397568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDBB667-3412-4142-A315-A592B876FF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -230,16 +230,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>商品検索画面へ遷移</t>
-    <rPh sb="0" eb="7">
-      <t>ショウヒンケン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>セキュリティ確認</t>
     <rPh sb="6" eb="8">
       <t>カクニン</t>
@@ -2046,6 +2036,19 @@
 （単価が9999999998のとき）</t>
     <rPh sb="42" eb="44">
       <t>ヨウヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品検索画面へ遷移し、セッションが破棄される</t>
+    <rPh sb="0" eb="7">
+      <t>ショウヒンケン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2406,6 +2409,102 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2415,45 +2514,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2471,78 +2546,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2896,8 +2899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A74" zoomScale="81" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33:G33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A66" zoomScale="81" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H74" sqref="H74:L74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -2916,56 +2919,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="54" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="58" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="29"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -2978,12 +2981,12 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="25" customHeight="1">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="48"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="45"/>
       <c r="E3" s="45"/>
@@ -3001,12 +3004,12 @@
       <c r="Q3" s="46"/>
     </row>
     <row r="4" spans="1:17" ht="40.5" customHeight="1">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="48"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="45"/>
       <c r="E4" s="45"/>
@@ -3030,20 +3033,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="49" t="s">
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -3053,105 +3056,105 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="49" t="s">
+      <c r="P5" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="50"/>
+      <c r="Q5" s="48"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="22" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
     </row>
     <row r="8" spans="1:17" ht="13.5" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27"/>
+      <c r="C8" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="36"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="24"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="31"/>
     </row>
     <row r="9" spans="1:17" ht="11.5" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="36"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -3163,18 +3166,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="27"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="36"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -3186,18 +3189,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="27"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="36"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -3209,18 +3212,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="27"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="36"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -3232,18 +3235,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="27"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="36"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -3255,20 +3258,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="30"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="41"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -3280,18 +3283,18 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="30"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="41"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -3303,18 +3306,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="30"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="41"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -3326,18 +3329,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="30"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="41"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -3349,18 +3352,18 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="30"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="41"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -3372,18 +3375,18 @@
         <v>14</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="30"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="41"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -3395,18 +3398,18 @@
         <v>15</v>
       </c>
       <c r="B20" s="8"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="30"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="41"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -3418,18 +3421,18 @@
         <v>16</v>
       </c>
       <c r="B21" s="8"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="30"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="41"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -3441,20 +3444,20 @@
         <v>17</v>
       </c>
       <c r="B22" s="8"/>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="27"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="36"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -3465,598 +3468,598 @@
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
+      <c r="C23" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
     </row>
     <row r="24" spans="1:17" ht="92" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
     </row>
     <row r="25" spans="1:17" ht="85" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
     </row>
     <row r="26" spans="1:17" ht="85" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
     </row>
     <row r="27" spans="1:17" ht="96.5" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
     </row>
     <row r="28" spans="1:17" ht="90" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
     </row>
     <row r="29" spans="1:17" ht="85" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
     </row>
     <row r="30" spans="1:17" ht="85" customHeight="1">
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
       <c r="M30" s="15"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
     </row>
     <row r="31" spans="1:17" ht="85" customHeight="1">
       <c r="A31" s="6">
         <v>26</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
       <c r="M31" s="15"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
     </row>
     <row r="32" spans="1:17" ht="85" customHeight="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
-      <c r="B32" s="41"/>
-      <c r="C32" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
       <c r="M32" s="15"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
     </row>
     <row r="33" spans="1:17" ht="85" customHeight="1">
       <c r="A33" s="6">
         <v>28</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
       <c r="M33" s="15"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="33"/>
     </row>
     <row r="34" spans="1:17" ht="85" customHeight="1">
       <c r="A34" s="6">
         <v>29</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
       <c r="M34" s="15"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="33"/>
     </row>
     <row r="35" spans="1:17" ht="85" customHeight="1">
       <c r="A35" s="6">
         <v>30</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="27"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="36"/>
       <c r="M35" s="15"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
     </row>
     <row r="36" spans="1:17" ht="85" customHeight="1">
       <c r="A36" s="6">
         <v>31</v>
       </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
       <c r="M36" s="15"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="33"/>
     </row>
     <row r="37" spans="1:17" ht="85" customHeight="1">
       <c r="A37" s="6">
         <v>32</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
       <c r="M37" s="15"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33"/>
     </row>
     <row r="38" spans="1:17" ht="85" customHeight="1">
       <c r="A38" s="6">
         <v>33</v>
       </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
       <c r="M38" s="15"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="33"/>
     </row>
     <row r="39" spans="1:17" ht="88" customHeight="1">
       <c r="A39" s="6">
         <v>34</v>
       </c>
-      <c r="B39" s="41"/>
-      <c r="C39" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
       <c r="M39" s="15"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="33"/>
     </row>
     <row r="40" spans="1:17" ht="112" customHeight="1">
       <c r="A40" s="6">
         <v>35</v>
       </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
       <c r="M40" s="15"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="33"/>
     </row>
     <row r="41" spans="1:17" ht="102" customHeight="1">
       <c r="A41" s="6">
         <v>36</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
       <c r="M41" s="15"/>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="24"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="31"/>
     </row>
     <row r="42" spans="1:17" ht="90.5" customHeight="1">
       <c r="A42" s="6">
         <v>37</v>
       </c>
-      <c r="B42" s="41"/>
-      <c r="C42" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
       <c r="M42" s="15"/>
       <c r="N42" s="7"/>
       <c r="O42" s="7"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="22"/>
+      <c r="P42" s="33"/>
+      <c r="Q42" s="33"/>
     </row>
     <row r="43" spans="1:17" ht="84.5" customHeight="1">
       <c r="A43" s="6">
         <v>38</v>
       </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
       <c r="M43" s="15"/>
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="22"/>
+      <c r="P43" s="33"/>
+      <c r="Q43" s="33"/>
     </row>
     <row r="44" spans="1:17" ht="77.5" customHeight="1">
       <c r="A44" s="6">
         <v>39</v>
       </c>
-      <c r="B44" s="41"/>
-      <c r="C44" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
       <c r="M44" s="15"/>
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="22"/>
+      <c r="P44" s="33"/>
+      <c r="Q44" s="33"/>
     </row>
     <row r="45" spans="1:17" ht="81" customHeight="1">
       <c r="A45" s="6">
         <v>40</v>
       </c>
-      <c r="B45" s="41"/>
-      <c r="C45" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
       <c r="M45" s="15"/>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
-      <c r="P45" s="23"/>
-      <c r="Q45" s="24"/>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="31"/>
     </row>
     <row r="46" spans="1:17" ht="98" customHeight="1">
       <c r="A46" s="6">
         <v>41</v>
       </c>
-      <c r="B46" s="41"/>
-      <c r="C46" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
       <c r="M46" s="15"/>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
@@ -4067,725 +4070,725 @@
       <c r="A47" s="6">
         <v>42</v>
       </c>
-      <c r="B47" s="41"/>
-      <c r="C47" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
       <c r="M47" s="15"/>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="22"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="33"/>
     </row>
     <row r="48" spans="1:17" ht="91" customHeight="1">
       <c r="A48" s="6">
         <v>43</v>
       </c>
-      <c r="B48" s="41"/>
-      <c r="C48" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="22"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
       <c r="M48" s="15"/>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
-      <c r="P48" s="22"/>
-      <c r="Q48" s="22"/>
+      <c r="P48" s="33"/>
+      <c r="Q48" s="33"/>
     </row>
     <row r="49" spans="1:17" ht="116" customHeight="1">
       <c r="A49" s="6">
         <v>44</v>
       </c>
-      <c r="B49" s="41"/>
-      <c r="C49" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="33"/>
       <c r="M49" s="15"/>
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
-      <c r="P49" s="22"/>
-      <c r="Q49" s="22"/>
+      <c r="P49" s="33"/>
+      <c r="Q49" s="33"/>
     </row>
     <row r="50" spans="1:17" ht="116" customHeight="1">
       <c r="A50" s="6">
         <v>45</v>
       </c>
-      <c r="B50" s="41"/>
-      <c r="C50" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="I50" s="33"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="33"/>
       <c r="M50" s="15"/>
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
-      <c r="P50" s="22"/>
-      <c r="Q50" s="22"/>
+      <c r="P50" s="33"/>
+      <c r="Q50" s="33"/>
     </row>
     <row r="51" spans="1:17" ht="116" customHeight="1">
       <c r="A51" s="6">
         <v>46</v>
       </c>
-      <c r="B51" s="41"/>
-      <c r="C51" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="22"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="I51" s="33"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="33"/>
       <c r="M51" s="15"/>
       <c r="N51" s="7"/>
       <c r="O51" s="7"/>
-      <c r="P51" s="22"/>
-      <c r="Q51" s="22"/>
+      <c r="P51" s="33"/>
+      <c r="Q51" s="33"/>
     </row>
     <row r="52" spans="1:17" ht="116" customHeight="1">
       <c r="A52" s="6">
         <v>47</v>
       </c>
-      <c r="B52" s="41"/>
-      <c r="C52" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="22"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
       <c r="M52" s="15"/>
       <c r="N52" s="7"/>
       <c r="O52" s="7"/>
-      <c r="P52" s="22"/>
-      <c r="Q52" s="22"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
     </row>
     <row r="53" spans="1:17" ht="116" customHeight="1">
       <c r="A53" s="6">
         <v>48</v>
       </c>
-      <c r="B53" s="41"/>
-      <c r="C53" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="22"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="I53" s="33"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
       <c r="M53" s="15"/>
       <c r="N53" s="7"/>
       <c r="O53" s="7"/>
-      <c r="P53" s="22"/>
-      <c r="Q53" s="22"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
     </row>
     <row r="54" spans="1:17" ht="116" customHeight="1">
       <c r="A54" s="6">
         <v>49</v>
       </c>
-      <c r="B54" s="41"/>
-      <c r="C54" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="22"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="I54" s="33"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
       <c r="M54" s="15"/>
       <c r="N54" s="7"/>
       <c r="O54" s="7"/>
-      <c r="P54" s="22"/>
-      <c r="Q54" s="22"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="33"/>
     </row>
     <row r="55" spans="1:17" ht="116" customHeight="1">
       <c r="A55" s="6">
         <v>50</v>
       </c>
-      <c r="B55" s="41"/>
-      <c r="C55" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="I55" s="22"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="22"/>
-      <c r="L55" s="22"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="I55" s="33"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
       <c r="M55" s="15"/>
       <c r="N55" s="7"/>
       <c r="O55" s="7"/>
-      <c r="P55" s="22"/>
-      <c r="Q55" s="22"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
     </row>
     <row r="56" spans="1:17" ht="116" customHeight="1">
       <c r="A56" s="6">
         <v>51</v>
       </c>
-      <c r="B56" s="41"/>
-      <c r="C56" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="22"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
       <c r="M56" s="15"/>
       <c r="N56" s="7"/>
       <c r="O56" s="7"/>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="22"/>
+      <c r="P56" s="33"/>
+      <c r="Q56" s="33"/>
     </row>
     <row r="57" spans="1:17" ht="116" customHeight="1">
       <c r="A57" s="6">
         <v>52</v>
       </c>
-      <c r="B57" s="41"/>
-      <c r="C57" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="22"/>
-      <c r="L57" s="22"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="33"/>
       <c r="M57" s="15"/>
       <c r="N57" s="7"/>
       <c r="O57" s="7"/>
-      <c r="P57" s="22"/>
-      <c r="Q57" s="22"/>
+      <c r="P57" s="33"/>
+      <c r="Q57" s="33"/>
     </row>
     <row r="58" spans="1:17" ht="95.5" customHeight="1">
       <c r="A58" s="6">
         <v>53</v>
       </c>
-      <c r="B58" s="41"/>
-      <c r="C58" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="22"/>
-      <c r="L58" s="22"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
       <c r="M58" s="15"/>
       <c r="N58" s="7"/>
       <c r="O58" s="7"/>
-      <c r="P58" s="23"/>
-      <c r="Q58" s="24"/>
+      <c r="P58" s="30"/>
+      <c r="Q58" s="31"/>
     </row>
     <row r="59" spans="1:17" ht="95.5" customHeight="1">
       <c r="A59" s="6">
         <v>54</v>
       </c>
-      <c r="B59" s="41"/>
-      <c r="C59" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="22"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="I59" s="33"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="33"/>
+      <c r="L59" s="33"/>
       <c r="M59" s="15"/>
       <c r="N59" s="7"/>
       <c r="O59" s="7"/>
-      <c r="P59" s="23"/>
-      <c r="Q59" s="24"/>
+      <c r="P59" s="30"/>
+      <c r="Q59" s="31"/>
     </row>
     <row r="60" spans="1:17" ht="95.5" customHeight="1">
       <c r="A60" s="6">
         <v>55</v>
       </c>
-      <c r="B60" s="41"/>
-      <c r="C60" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="I60" s="22"/>
-      <c r="J60" s="22"/>
-      <c r="K60" s="22"/>
-      <c r="L60" s="22"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D60" s="51"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="I60" s="33"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="33"/>
+      <c r="L60" s="33"/>
       <c r="M60" s="15"/>
       <c r="N60" s="7"/>
       <c r="O60" s="7"/>
-      <c r="P60" s="23"/>
-      <c r="Q60" s="24"/>
+      <c r="P60" s="30"/>
+      <c r="Q60" s="31"/>
     </row>
     <row r="61" spans="1:17" ht="95.5" customHeight="1">
       <c r="A61" s="6">
         <v>56</v>
       </c>
-      <c r="B61" s="41"/>
-      <c r="C61" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="I61" s="22"/>
-      <c r="J61" s="22"/>
-      <c r="K61" s="22"/>
-      <c r="L61" s="22"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="D61" s="51"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="I61" s="33"/>
+      <c r="J61" s="33"/>
+      <c r="K61" s="33"/>
+      <c r="L61" s="33"/>
       <c r="M61" s="15"/>
       <c r="N61" s="7"/>
       <c r="O61" s="7"/>
-      <c r="P61" s="23"/>
-      <c r="Q61" s="24"/>
+      <c r="P61" s="30"/>
+      <c r="Q61" s="31"/>
     </row>
     <row r="62" spans="1:17" ht="95.5" customHeight="1">
       <c r="A62" s="6">
         <v>57</v>
       </c>
-      <c r="B62" s="41"/>
-      <c r="C62" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="22"/>
-      <c r="L62" s="22"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="D62" s="51"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="I62" s="33"/>
+      <c r="J62" s="33"/>
+      <c r="K62" s="33"/>
+      <c r="L62" s="33"/>
       <c r="M62" s="15"/>
       <c r="N62" s="7"/>
       <c r="O62" s="7"/>
-      <c r="P62" s="23"/>
-      <c r="Q62" s="24"/>
+      <c r="P62" s="30"/>
+      <c r="Q62" s="31"/>
     </row>
     <row r="63" spans="1:17" ht="95.5" customHeight="1">
       <c r="A63" s="6">
         <v>58</v>
       </c>
-      <c r="B63" s="41"/>
-      <c r="C63" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="22"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="D63" s="51"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="51"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="I63" s="33"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="33"/>
       <c r="M63" s="15"/>
       <c r="N63" s="7"/>
       <c r="O63" s="7"/>
-      <c r="P63" s="23"/>
-      <c r="Q63" s="24"/>
+      <c r="P63" s="30"/>
+      <c r="Q63" s="31"/>
     </row>
     <row r="64" spans="1:17" ht="95.5" customHeight="1">
       <c r="A64" s="6">
         <v>59</v>
       </c>
-      <c r="B64" s="41"/>
-      <c r="C64" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="22"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="I64" s="33"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="33"/>
       <c r="M64" s="15"/>
       <c r="N64" s="7"/>
       <c r="O64" s="7"/>
-      <c r="P64" s="23"/>
-      <c r="Q64" s="24"/>
+      <c r="P64" s="30"/>
+      <c r="Q64" s="31"/>
     </row>
     <row r="65" spans="1:17" ht="95.5" customHeight="1">
       <c r="A65" s="6">
         <v>60</v>
       </c>
-      <c r="B65" s="41"/>
-      <c r="C65" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="22"/>
-      <c r="L65" s="22"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D65" s="51"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="I65" s="33"/>
+      <c r="J65" s="33"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="33"/>
       <c r="M65" s="15"/>
       <c r="N65" s="7"/>
       <c r="O65" s="7"/>
-      <c r="P65" s="23"/>
-      <c r="Q65" s="24"/>
+      <c r="P65" s="30"/>
+      <c r="Q65" s="31"/>
     </row>
     <row r="66" spans="1:17" ht="95.5" customHeight="1">
       <c r="A66" s="6">
         <v>61</v>
       </c>
-      <c r="B66" s="41"/>
-      <c r="C66" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="22"/>
-      <c r="L66" s="22"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="D66" s="51"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="51"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="I66" s="33"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="33"/>
+      <c r="L66" s="33"/>
       <c r="M66" s="15"/>
       <c r="N66" s="7"/>
       <c r="O66" s="7"/>
-      <c r="P66" s="23"/>
-      <c r="Q66" s="24"/>
+      <c r="P66" s="30"/>
+      <c r="Q66" s="31"/>
     </row>
     <row r="67" spans="1:17" ht="68" customHeight="1">
       <c r="A67" s="6">
         <v>62</v>
       </c>
-      <c r="B67" s="41"/>
-      <c r="C67" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="I67" s="21"/>
-      <c r="J67" s="21"/>
-      <c r="K67" s="21"/>
-      <c r="L67" s="21"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="I67" s="32"/>
+      <c r="J67" s="32"/>
+      <c r="K67" s="32"/>
+      <c r="L67" s="32"/>
       <c r="M67" s="15"/>
       <c r="N67" s="7"/>
       <c r="O67" s="7"/>
-      <c r="P67" s="22"/>
-      <c r="Q67" s="22"/>
+      <c r="P67" s="33"/>
+      <c r="Q67" s="33"/>
     </row>
     <row r="68" spans="1:17" ht="13.5" customHeight="1">
       <c r="A68" s="6">
         <v>63</v>
       </c>
-      <c r="B68" s="40" t="s">
+      <c r="B68" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="I68" s="29"/>
-      <c r="J68" s="29"/>
-      <c r="K68" s="29"/>
-      <c r="L68" s="30"/>
+      <c r="C68" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I68" s="57"/>
+      <c r="J68" s="57"/>
+      <c r="K68" s="57"/>
+      <c r="L68" s="41"/>
       <c r="M68" s="15"/>
       <c r="N68" s="7"/>
       <c r="O68" s="7"/>
-      <c r="P68" s="22"/>
-      <c r="Q68" s="22"/>
+      <c r="P68" s="33"/>
+      <c r="Q68" s="33"/>
     </row>
     <row r="69" spans="1:17" ht="13.5" customHeight="1">
       <c r="A69" s="6">
         <v>64</v>
       </c>
-      <c r="B69" s="41"/>
-      <c r="C69" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="I69" s="29"/>
-      <c r="J69" s="29"/>
-      <c r="K69" s="29"/>
-      <c r="L69" s="30"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="I69" s="57"/>
+      <c r="J69" s="57"/>
+      <c r="K69" s="57"/>
+      <c r="L69" s="41"/>
       <c r="M69" s="15"/>
       <c r="N69" s="7"/>
       <c r="O69" s="7"/>
-      <c r="P69" s="22"/>
-      <c r="Q69" s="22"/>
+      <c r="P69" s="33"/>
+      <c r="Q69" s="33"/>
     </row>
     <row r="70" spans="1:17" ht="13.5" customHeight="1">
       <c r="A70" s="6">
         <v>65</v>
       </c>
-      <c r="B70" s="41"/>
-      <c r="C70" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="I70" s="22"/>
-      <c r="J70" s="22"/>
-      <c r="K70" s="22"/>
-      <c r="L70" s="22"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I70" s="33"/>
+      <c r="J70" s="33"/>
+      <c r="K70" s="33"/>
+      <c r="L70" s="33"/>
       <c r="M70" s="15"/>
       <c r="N70" s="7"/>
       <c r="O70" s="7"/>
-      <c r="P70" s="22"/>
-      <c r="Q70" s="22"/>
+      <c r="P70" s="33"/>
+      <c r="Q70" s="33"/>
     </row>
     <row r="71" spans="1:17" ht="13.5" customHeight="1">
       <c r="A71" s="6">
         <v>66</v>
       </c>
-      <c r="B71" s="41"/>
-      <c r="C71" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="I71" s="22"/>
-      <c r="J71" s="22"/>
-      <c r="K71" s="22"/>
-      <c r="L71" s="22"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I71" s="33"/>
+      <c r="J71" s="33"/>
+      <c r="K71" s="33"/>
+      <c r="L71" s="33"/>
       <c r="M71" s="15"/>
       <c r="N71" s="7"/>
       <c r="O71" s="7"/>
-      <c r="P71" s="23"/>
-      <c r="Q71" s="24"/>
+      <c r="P71" s="30"/>
+      <c r="Q71" s="31"/>
     </row>
     <row r="72" spans="1:17" ht="13.5" customHeight="1">
       <c r="A72" s="6">
         <v>67</v>
       </c>
-      <c r="B72" s="41"/>
-      <c r="C72" s="21" t="s">
+      <c r="B72" s="38"/>
+      <c r="C72" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="I72" s="22"/>
-      <c r="J72" s="22"/>
-      <c r="K72" s="22"/>
-      <c r="L72" s="22"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="I72" s="33"/>
+      <c r="J72" s="33"/>
+      <c r="K72" s="33"/>
+      <c r="L72" s="33"/>
       <c r="M72" s="15"/>
       <c r="N72" s="7"/>
       <c r="O72" s="7"/>
-      <c r="P72" s="22"/>
-      <c r="Q72" s="22"/>
+      <c r="P72" s="33"/>
+      <c r="Q72" s="33"/>
     </row>
     <row r="73" spans="1:17" ht="13.5" customHeight="1">
       <c r="A73" s="6">
         <v>68</v>
       </c>
-      <c r="B73" s="42"/>
-      <c r="C73" s="25" t="s">
+      <c r="B73" s="39"/>
+      <c r="C73" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="I73" s="29"/>
-      <c r="J73" s="29"/>
-      <c r="K73" s="29"/>
-      <c r="L73" s="30"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I73" s="57"/>
+      <c r="J73" s="57"/>
+      <c r="K73" s="57"/>
+      <c r="L73" s="41"/>
       <c r="M73" s="15"/>
       <c r="N73" s="7"/>
       <c r="O73" s="7"/>
-      <c r="P73" s="28"/>
-      <c r="Q73" s="30"/>
+      <c r="P73" s="40"/>
+      <c r="Q73" s="41"/>
     </row>
     <row r="74" spans="1:17" ht="69.5" customHeight="1">
       <c r="A74" s="6">
         <v>69</v>
       </c>
-      <c r="B74" s="40" t="s">
+      <c r="B74" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C74" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="21"/>
-      <c r="H74" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="I74" s="21"/>
-      <c r="J74" s="21"/>
-      <c r="K74" s="21"/>
-      <c r="L74" s="21"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="32"/>
+      <c r="K74" s="32"/>
+      <c r="L74" s="32"/>
       <c r="M74" s="15"/>
       <c r="N74" s="7"/>
       <c r="O74" s="7"/>
-      <c r="P74" s="23"/>
-      <c r="Q74" s="24"/>
+      <c r="P74" s="30"/>
+      <c r="Q74" s="31"/>
     </row>
     <row r="75" spans="1:17" ht="69.5" customHeight="1">
       <c r="A75" s="6">
         <v>70</v>
       </c>
-      <c r="B75" s="41"/>
-      <c r="C75" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I75" s="26"/>
-      <c r="J75" s="26"/>
-      <c r="K75" s="26"/>
-      <c r="L75" s="27"/>
+      <c r="B75" s="38"/>
+      <c r="C75" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I75" s="35"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="35"/>
+      <c r="L75" s="36"/>
       <c r="M75" s="15"/>
       <c r="N75" s="7"/>
       <c r="O75" s="7"/>
@@ -4796,21 +4799,21 @@
       <c r="A76" s="6">
         <v>71</v>
       </c>
-      <c r="B76" s="41"/>
-      <c r="C76" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="25" t="s">
+      <c r="B76" s="38"/>
+      <c r="C76" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="I76" s="26"/>
-      <c r="J76" s="26"/>
-      <c r="K76" s="26"/>
-      <c r="L76" s="27"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="I76" s="35"/>
+      <c r="J76" s="35"/>
+      <c r="K76" s="35"/>
+      <c r="L76" s="36"/>
       <c r="M76" s="15"/>
       <c r="N76" s="7"/>
       <c r="O76" s="7"/>
@@ -4821,21 +4824,21 @@
       <c r="A77" s="6">
         <v>72</v>
       </c>
-      <c r="B77" s="42"/>
-      <c r="C77" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I77" s="26"/>
-      <c r="J77" s="26"/>
-      <c r="K77" s="26"/>
-      <c r="L77" s="27"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D77" s="33"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="I77" s="35"/>
+      <c r="J77" s="35"/>
+      <c r="K77" s="35"/>
+      <c r="L77" s="36"/>
       <c r="M77" s="15"/>
       <c r="N77" s="7"/>
       <c r="O77" s="7"/>
@@ -4860,6 +4863,184 @@
     <row r="84" s="4" customFormat="1" ht="11.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="202">
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:L66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:L56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:L57"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:L65"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:L63"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:L64"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:L62"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:L61"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:L54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:L53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:L52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:L75"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:L72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:L73"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:L69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:L70"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C14:G21"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="B68:B73"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:L68"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:L71"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:L74"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:L67"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:L58"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:L50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:L60"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:L59"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:M1"/>
@@ -4884,184 +5065,6 @@
     <mergeCell ref="H43:L43"/>
     <mergeCell ref="P73:Q73"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="H74:L74"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:L47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="H67:L67"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="H58:L58"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:L50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="H60:L60"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="H59:L59"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C14:G21"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="B68:B73"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="H68:L68"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="H71:L71"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="H75:L75"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="H72:L72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:L73"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="H69:L69"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="H70:L70"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="H54:L54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="H55:L55"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="H53:L53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:L52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="H66:L66"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="H56:L56"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="H57:L57"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="H65:L65"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="H63:L63"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="H64:L64"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="H62:L62"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="H61:L61"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP012新商品登録(入力).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP012新商品登録(入力).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDBB667-3412-4142-A315-A592B876FF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D484CF9-95B4-4147-8B52-34D5C3EF0CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="9580" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -1511,34 +1511,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/registerproduct/input」
-を入力</t>
-    <rPh sb="9" eb="11">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>チョクセツ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/registerproduct/input」
-を入力</t>
-    <rPh sb="8" eb="10">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>チョクセツ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>エラーメッセージ
 「画像ファイルを選択してください」
 と表示されること</t>
@@ -2049,6 +2021,34 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t>ハキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/admin/registerproduct/input」
+を入力</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/admin/registerproduct/input」
+を入力</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2409,6 +2409,108 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2444,108 +2546,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2899,8 +2899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A66" zoomScale="81" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H74" sqref="H74:L74"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScale="81" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75:G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -2919,25 +2919,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2952,23 +2952,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="24" t="s">
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="29"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -2981,10 +2981,10 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="25" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="44" t="s">
         <v>29</v>
       </c>
@@ -3004,10 +3004,10 @@
       <c r="Q3" s="46"/>
     </row>
     <row r="4" spans="1:17" ht="40.5" customHeight="1">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="44" t="s">
         <v>41</v>
       </c>
@@ -3033,20 +3033,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="47" t="s">
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -3056,105 +3056,105 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="47" t="s">
+      <c r="P5" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="48"/>
+      <c r="Q5" s="50"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33" t="s">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="33" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="32" t="s">
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
     </row>
     <row r="8" spans="1:17" ht="13.5" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="34" t="s">
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="36"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="31"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="24"/>
     </row>
     <row r="9" spans="1:17" ht="11.5" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="34" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="36"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -3166,18 +3166,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="34" t="s">
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="36"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -3189,18 +3189,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="34" t="s">
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="36"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -3212,18 +3212,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="34" t="s">
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="36"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -3235,18 +3235,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="34" t="s">
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="36"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -3258,20 +3258,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="40" t="s">
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="41"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="30"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -3283,18 +3283,18 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="40" t="s">
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="41"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="30"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -3306,18 +3306,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="40" t="s">
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="41"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="30"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -3329,18 +3329,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="40" t="s">
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="41"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="30"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -3352,18 +3352,18 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="40" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="41"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="30"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -3375,18 +3375,18 @@
         <v>14</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="34" t="s">
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="41"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="30"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -3398,18 +3398,18 @@
         <v>15</v>
       </c>
       <c r="B20" s="8"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="40" t="s">
+      <c r="C20" s="34"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="41"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="30"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -3421,18 +3421,18 @@
         <v>16</v>
       </c>
       <c r="B21" s="8"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="40" t="s">
+      <c r="C21" s="37"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="41"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="30"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -3444,20 +3444,20 @@
         <v>17</v>
       </c>
       <c r="B22" s="8"/>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="34" t="s">
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="36"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="27"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -3468,598 +3468,598 @@
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33" t="s">
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
     </row>
     <row r="24" spans="1:17" ht="92" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="32" t="s">
+      <c r="B24" s="41"/>
+      <c r="C24" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33" t="s">
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
     </row>
     <row r="25" spans="1:17" ht="85" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="32" t="s">
+      <c r="B25" s="41"/>
+      <c r="C25" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="32" t="s">
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
     </row>
     <row r="26" spans="1:17" ht="85" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="32" t="s">
+      <c r="B26" s="41"/>
+      <c r="C26" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33" t="s">
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
     </row>
     <row r="27" spans="1:17" ht="96.5" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="32" t="s">
+      <c r="B27" s="41"/>
+      <c r="C27" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33" t="s">
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
     </row>
     <row r="28" spans="1:17" ht="90" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="32" t="s">
+      <c r="B28" s="41"/>
+      <c r="C28" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="32" t="s">
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
     </row>
     <row r="29" spans="1:17" ht="85" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="32" t="s">
+      <c r="B29" s="41"/>
+      <c r="C29" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33" t="s">
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
     </row>
     <row r="30" spans="1:17" ht="85" customHeight="1">
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="32" t="s">
+      <c r="B30" s="41"/>
+      <c r="C30" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="32" t="s">
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
       <c r="M30" s="15"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
     </row>
     <row r="31" spans="1:17" ht="85" customHeight="1">
       <c r="A31" s="6">
         <v>26</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="32" t="s">
+      <c r="B31" s="41"/>
+      <c r="C31" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33" t="s">
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
       <c r="M31" s="15"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
     </row>
     <row r="32" spans="1:17" ht="85" customHeight="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="32" t="s">
+      <c r="B32" s="41"/>
+      <c r="C32" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33" t="s">
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
       <c r="M32" s="15"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
     </row>
     <row r="33" spans="1:17" ht="85" customHeight="1">
       <c r="A33" s="6">
         <v>28</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33" t="s">
+      <c r="B33" s="41"/>
+      <c r="C33" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
       <c r="M33" s="15"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
     </row>
     <row r="34" spans="1:17" ht="85" customHeight="1">
       <c r="A34" s="6">
         <v>29</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="32" t="s">
+      <c r="B34" s="41"/>
+      <c r="C34" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33" t="s">
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
       <c r="M34" s="15"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
     </row>
     <row r="35" spans="1:17" ht="85" customHeight="1">
       <c r="A35" s="6">
         <v>30</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="32" t="s">
+      <c r="B35" s="41"/>
+      <c r="C35" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="34" t="s">
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="36"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="27"/>
       <c r="M35" s="15"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
     </row>
     <row r="36" spans="1:17" ht="85" customHeight="1">
       <c r="A36" s="6">
         <v>31</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="32" t="s">
+      <c r="B36" s="41"/>
+      <c r="C36" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="32" t="s">
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
       <c r="M36" s="15"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
     </row>
     <row r="37" spans="1:17" ht="85" customHeight="1">
       <c r="A37" s="6">
         <v>32</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="32" t="s">
+      <c r="B37" s="41"/>
+      <c r="C37" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33" t="s">
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
       <c r="M37" s="15"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="33"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
     </row>
     <row r="38" spans="1:17" ht="85" customHeight="1">
       <c r="A38" s="6">
         <v>33</v>
       </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="32" t="s">
+      <c r="B38" s="41"/>
+      <c r="C38" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33" t="s">
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
       <c r="M38" s="15"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="33"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
     </row>
     <row r="39" spans="1:17" ht="88" customHeight="1">
       <c r="A39" s="6">
         <v>34</v>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="32" t="s">
+      <c r="B39" s="41"/>
+      <c r="C39" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33" t="s">
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
       <c r="M39" s="15"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
     </row>
     <row r="40" spans="1:17" ht="112" customHeight="1">
       <c r="A40" s="6">
         <v>35</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="32" t="s">
+      <c r="B40" s="41"/>
+      <c r="C40" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33" t="s">
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
       <c r="M40" s="15"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
-      <c r="P40" s="33"/>
-      <c r="Q40" s="33"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
     </row>
     <row r="41" spans="1:17" ht="102" customHeight="1">
       <c r="A41" s="6">
         <v>36</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="50" t="s">
+      <c r="B41" s="41"/>
+      <c r="C41" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="32" t="s">
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
       <c r="M41" s="15"/>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="31"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="24"/>
     </row>
     <row r="42" spans="1:17" ht="90.5" customHeight="1">
       <c r="A42" s="6">
         <v>37</v>
       </c>
-      <c r="B42" s="38"/>
-      <c r="C42" s="32" t="s">
+      <c r="B42" s="41"/>
+      <c r="C42" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="32" t="s">
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
       <c r="M42" s="15"/>
       <c r="N42" s="7"/>
       <c r="O42" s="7"/>
-      <c r="P42" s="33"/>
-      <c r="Q42" s="33"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
     </row>
     <row r="43" spans="1:17" ht="84.5" customHeight="1">
       <c r="A43" s="6">
         <v>38</v>
       </c>
-      <c r="B43" s="38"/>
-      <c r="C43" s="32" t="s">
+      <c r="B43" s="41"/>
+      <c r="C43" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33" t="s">
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="33"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
       <c r="M43" s="15"/>
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
-      <c r="P43" s="33"/>
-      <c r="Q43" s="33"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
     </row>
     <row r="44" spans="1:17" ht="77.5" customHeight="1">
       <c r="A44" s="6">
         <v>39</v>
       </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="32" t="s">
+      <c r="B44" s="41"/>
+      <c r="C44" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33" t="s">
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I44" s="33"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="33"/>
-      <c r="L44" s="33"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
       <c r="M44" s="15"/>
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
-      <c r="P44" s="33"/>
-      <c r="Q44" s="33"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22"/>
     </row>
     <row r="45" spans="1:17" ht="81" customHeight="1">
       <c r="A45" s="6">
         <v>40</v>
       </c>
-      <c r="B45" s="38"/>
-      <c r="C45" s="32" t="s">
+      <c r="B45" s="41"/>
+      <c r="C45" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33" t="s">
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
       <c r="M45" s="15"/>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="31"/>
+      <c r="P45" s="23"/>
+      <c r="Q45" s="24"/>
     </row>
     <row r="46" spans="1:17" ht="98" customHeight="1">
       <c r="A46" s="6">
         <v>41</v>
       </c>
-      <c r="B46" s="38"/>
-      <c r="C46" s="32" t="s">
+      <c r="B46" s="41"/>
+      <c r="C46" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33" t="s">
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="33"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
       <c r="M46" s="15"/>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
@@ -4070,725 +4070,725 @@
       <c r="A47" s="6">
         <v>42</v>
       </c>
-      <c r="B47" s="38"/>
-      <c r="C47" s="32" t="s">
+      <c r="B47" s="41"/>
+      <c r="C47" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="32" t="s">
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="I47" s="33"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="33"/>
-      <c r="L47" s="33"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
       <c r="M47" s="15"/>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
-      <c r="P47" s="33"/>
-      <c r="Q47" s="33"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
     </row>
     <row r="48" spans="1:17" ht="91" customHeight="1">
       <c r="A48" s="6">
         <v>43</v>
       </c>
-      <c r="B48" s="38"/>
-      <c r="C48" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="32" t="s">
+      <c r="B48" s="41"/>
+      <c r="C48" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="I48" s="33"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="33"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
       <c r="M48" s="15"/>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
-      <c r="P48" s="33"/>
-      <c r="Q48" s="33"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
     </row>
     <row r="49" spans="1:17" ht="116" customHeight="1">
       <c r="A49" s="6">
         <v>44</v>
       </c>
-      <c r="B49" s="38"/>
-      <c r="C49" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33" t="s">
+      <c r="B49" s="41"/>
+      <c r="C49" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I49" s="33"/>
-      <c r="J49" s="33"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="33"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
       <c r="M49" s="15"/>
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
-      <c r="P49" s="33"/>
-      <c r="Q49" s="33"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
     </row>
     <row r="50" spans="1:17" ht="116" customHeight="1">
       <c r="A50" s="6">
         <v>45</v>
       </c>
-      <c r="B50" s="38"/>
-      <c r="C50" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33" t="s">
+      <c r="B50" s="41"/>
+      <c r="C50" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I50" s="33"/>
-      <c r="J50" s="33"/>
-      <c r="K50" s="33"/>
-      <c r="L50" s="33"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
       <c r="M50" s="15"/>
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
-      <c r="P50" s="33"/>
-      <c r="Q50" s="33"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="22"/>
     </row>
     <row r="51" spans="1:17" ht="116" customHeight="1">
       <c r="A51" s="6">
         <v>46</v>
       </c>
-      <c r="B51" s="38"/>
-      <c r="C51" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33" t="s">
+      <c r="B51" s="41"/>
+      <c r="C51" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I51" s="33"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="33"/>
-      <c r="L51" s="33"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
       <c r="M51" s="15"/>
       <c r="N51" s="7"/>
       <c r="O51" s="7"/>
-      <c r="P51" s="33"/>
-      <c r="Q51" s="33"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
     </row>
     <row r="52" spans="1:17" ht="116" customHeight="1">
       <c r="A52" s="6">
         <v>47</v>
       </c>
-      <c r="B52" s="38"/>
-      <c r="C52" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33" t="s">
+      <c r="B52" s="41"/>
+      <c r="C52" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I52" s="33"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="33"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
       <c r="M52" s="15"/>
       <c r="N52" s="7"/>
       <c r="O52" s="7"/>
-      <c r="P52" s="33"/>
-      <c r="Q52" s="33"/>
+      <c r="P52" s="22"/>
+      <c r="Q52" s="22"/>
     </row>
     <row r="53" spans="1:17" ht="116" customHeight="1">
       <c r="A53" s="6">
         <v>48</v>
       </c>
-      <c r="B53" s="38"/>
-      <c r="C53" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="32" t="s">
+      <c r="B53" s="41"/>
+      <c r="C53" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="I53" s="33"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="33"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
       <c r="M53" s="15"/>
       <c r="N53" s="7"/>
       <c r="O53" s="7"/>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="33"/>
+      <c r="P53" s="22"/>
+      <c r="Q53" s="22"/>
     </row>
     <row r="54" spans="1:17" ht="116" customHeight="1">
       <c r="A54" s="6">
         <v>49</v>
       </c>
-      <c r="B54" s="38"/>
-      <c r="C54" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="32" t="s">
+      <c r="B54" s="41"/>
+      <c r="C54" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="I54" s="33"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="33"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="22"/>
       <c r="M54" s="15"/>
       <c r="N54" s="7"/>
       <c r="O54" s="7"/>
-      <c r="P54" s="33"/>
-      <c r="Q54" s="33"/>
+      <c r="P54" s="22"/>
+      <c r="Q54" s="22"/>
     </row>
     <row r="55" spans="1:17" ht="116" customHeight="1">
       <c r="A55" s="6">
         <v>50</v>
       </c>
-      <c r="B55" s="38"/>
-      <c r="C55" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="32" t="s">
+      <c r="B55" s="41"/>
+      <c r="C55" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="I55" s="33"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
       <c r="M55" s="15"/>
       <c r="N55" s="7"/>
       <c r="O55" s="7"/>
-      <c r="P55" s="33"/>
-      <c r="Q55" s="33"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
     </row>
     <row r="56" spans="1:17" ht="116" customHeight="1">
       <c r="A56" s="6">
         <v>51</v>
       </c>
-      <c r="B56" s="38"/>
-      <c r="C56" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="32" t="s">
+      <c r="B56" s="41"/>
+      <c r="C56" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="I56" s="33"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="33"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
       <c r="M56" s="15"/>
       <c r="N56" s="7"/>
       <c r="O56" s="7"/>
-      <c r="P56" s="33"/>
-      <c r="Q56" s="33"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
     </row>
     <row r="57" spans="1:17" ht="116" customHeight="1">
       <c r="A57" s="6">
         <v>52</v>
       </c>
-      <c r="B57" s="38"/>
-      <c r="C57" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="32" t="s">
+      <c r="B57" s="41"/>
+      <c r="C57" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
       <c r="M57" s="15"/>
       <c r="N57" s="7"/>
       <c r="O57" s="7"/>
-      <c r="P57" s="33"/>
-      <c r="Q57" s="33"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="22"/>
     </row>
     <row r="58" spans="1:17" ht="95.5" customHeight="1">
       <c r="A58" s="6">
         <v>53</v>
       </c>
-      <c r="B58" s="38"/>
-      <c r="C58" s="50" t="s">
+      <c r="B58" s="41"/>
+      <c r="C58" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D58" s="51"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="51"/>
-      <c r="G58" s="52"/>
-      <c r="H58" s="33" t="s">
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="22"/>
       <c r="M58" s="15"/>
       <c r="N58" s="7"/>
       <c r="O58" s="7"/>
-      <c r="P58" s="30"/>
-      <c r="Q58" s="31"/>
+      <c r="P58" s="23"/>
+      <c r="Q58" s="24"/>
     </row>
     <row r="59" spans="1:17" ht="95.5" customHeight="1">
       <c r="A59" s="6">
         <v>54</v>
       </c>
-      <c r="B59" s="38"/>
-      <c r="C59" s="50" t="s">
+      <c r="B59" s="41"/>
+      <c r="C59" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D59" s="51"/>
-      <c r="E59" s="51"/>
-      <c r="F59" s="51"/>
-      <c r="G59" s="52"/>
-      <c r="H59" s="33" t="s">
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I59" s="33"/>
-      <c r="J59" s="33"/>
-      <c r="K59" s="33"/>
-      <c r="L59" s="33"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
       <c r="M59" s="15"/>
       <c r="N59" s="7"/>
       <c r="O59" s="7"/>
-      <c r="P59" s="30"/>
-      <c r="Q59" s="31"/>
+      <c r="P59" s="23"/>
+      <c r="Q59" s="24"/>
     </row>
     <row r="60" spans="1:17" ht="95.5" customHeight="1">
       <c r="A60" s="6">
         <v>55</v>
       </c>
-      <c r="B60" s="38"/>
-      <c r="C60" s="50" t="s">
+      <c r="B60" s="41"/>
+      <c r="C60" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D60" s="51"/>
-      <c r="E60" s="51"/>
-      <c r="F60" s="51"/>
-      <c r="G60" s="52"/>
-      <c r="H60" s="33" t="s">
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I60" s="33"/>
-      <c r="J60" s="33"/>
-      <c r="K60" s="33"/>
-      <c r="L60" s="33"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="22"/>
       <c r="M60" s="15"/>
       <c r="N60" s="7"/>
       <c r="O60" s="7"/>
-      <c r="P60" s="30"/>
-      <c r="Q60" s="31"/>
+      <c r="P60" s="23"/>
+      <c r="Q60" s="24"/>
     </row>
     <row r="61" spans="1:17" ht="95.5" customHeight="1">
       <c r="A61" s="6">
         <v>56</v>
       </c>
-      <c r="B61" s="38"/>
-      <c r="C61" s="50" t="s">
+      <c r="B61" s="41"/>
+      <c r="C61" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D61" s="51"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="51"/>
-      <c r="G61" s="52"/>
-      <c r="H61" s="33" t="s">
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I61" s="33"/>
-      <c r="J61" s="33"/>
-      <c r="K61" s="33"/>
-      <c r="L61" s="33"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="22"/>
       <c r="M61" s="15"/>
       <c r="N61" s="7"/>
       <c r="O61" s="7"/>
-      <c r="P61" s="30"/>
-      <c r="Q61" s="31"/>
+      <c r="P61" s="23"/>
+      <c r="Q61" s="24"/>
     </row>
     <row r="62" spans="1:17" ht="95.5" customHeight="1">
       <c r="A62" s="6">
         <v>57</v>
       </c>
-      <c r="B62" s="38"/>
-      <c r="C62" s="50" t="s">
+      <c r="B62" s="41"/>
+      <c r="C62" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D62" s="51"/>
-      <c r="E62" s="51"/>
-      <c r="F62" s="51"/>
-      <c r="G62" s="52"/>
-      <c r="H62" s="32" t="s">
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="I62" s="33"/>
-      <c r="J62" s="33"/>
-      <c r="K62" s="33"/>
-      <c r="L62" s="33"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="22"/>
       <c r="M62" s="15"/>
       <c r="N62" s="7"/>
       <c r="O62" s="7"/>
-      <c r="P62" s="30"/>
-      <c r="Q62" s="31"/>
+      <c r="P62" s="23"/>
+      <c r="Q62" s="24"/>
     </row>
     <row r="63" spans="1:17" ht="95.5" customHeight="1">
       <c r="A63" s="6">
         <v>58</v>
       </c>
-      <c r="B63" s="38"/>
-      <c r="C63" s="50" t="s">
+      <c r="B63" s="41"/>
+      <c r="C63" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D63" s="51"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="51"/>
-      <c r="G63" s="52"/>
-      <c r="H63" s="32" t="s">
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="I63" s="33"/>
-      <c r="J63" s="33"/>
-      <c r="K63" s="33"/>
-      <c r="L63" s="33"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="22"/>
       <c r="M63" s="15"/>
       <c r="N63" s="7"/>
       <c r="O63" s="7"/>
-      <c r="P63" s="30"/>
-      <c r="Q63" s="31"/>
+      <c r="P63" s="23"/>
+      <c r="Q63" s="24"/>
     </row>
     <row r="64" spans="1:17" ht="95.5" customHeight="1">
       <c r="A64" s="6">
         <v>59</v>
       </c>
-      <c r="B64" s="38"/>
-      <c r="C64" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="D64" s="51"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="51"/>
-      <c r="G64" s="52"/>
-      <c r="H64" s="32" t="s">
+      <c r="B64" s="41"/>
+      <c r="C64" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="I64" s="33"/>
-      <c r="J64" s="33"/>
-      <c r="K64" s="33"/>
-      <c r="L64" s="33"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="22"/>
       <c r="M64" s="15"/>
       <c r="N64" s="7"/>
       <c r="O64" s="7"/>
-      <c r="P64" s="30"/>
-      <c r="Q64" s="31"/>
+      <c r="P64" s="23"/>
+      <c r="Q64" s="24"/>
     </row>
     <row r="65" spans="1:17" ht="95.5" customHeight="1">
       <c r="A65" s="6">
         <v>60</v>
       </c>
-      <c r="B65" s="38"/>
-      <c r="C65" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="D65" s="51"/>
-      <c r="E65" s="51"/>
-      <c r="F65" s="51"/>
-      <c r="G65" s="52"/>
-      <c r="H65" s="32" t="s">
+      <c r="B65" s="41"/>
+      <c r="C65" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="I65" s="33"/>
-      <c r="J65" s="33"/>
-      <c r="K65" s="33"/>
-      <c r="L65" s="33"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="22"/>
       <c r="M65" s="15"/>
       <c r="N65" s="7"/>
       <c r="O65" s="7"/>
-      <c r="P65" s="30"/>
-      <c r="Q65" s="31"/>
+      <c r="P65" s="23"/>
+      <c r="Q65" s="24"/>
     </row>
     <row r="66" spans="1:17" ht="95.5" customHeight="1">
       <c r="A66" s="6">
         <v>61</v>
       </c>
-      <c r="B66" s="38"/>
-      <c r="C66" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="D66" s="51"/>
-      <c r="E66" s="51"/>
-      <c r="F66" s="51"/>
-      <c r="G66" s="52"/>
-      <c r="H66" s="32" t="s">
+      <c r="B66" s="41"/>
+      <c r="C66" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="I66" s="33"/>
-      <c r="J66" s="33"/>
-      <c r="K66" s="33"/>
-      <c r="L66" s="33"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="22"/>
       <c r="M66" s="15"/>
       <c r="N66" s="7"/>
       <c r="O66" s="7"/>
-      <c r="P66" s="30"/>
-      <c r="Q66" s="31"/>
+      <c r="P66" s="23"/>
+      <c r="Q66" s="24"/>
     </row>
     <row r="67" spans="1:17" ht="68" customHeight="1">
       <c r="A67" s="6">
         <v>62</v>
       </c>
-      <c r="B67" s="38"/>
-      <c r="C67" s="32" t="s">
+      <c r="B67" s="41"/>
+      <c r="C67" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="33"/>
-      <c r="H67" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="I67" s="32"/>
-      <c r="J67" s="32"/>
-      <c r="K67" s="32"/>
-      <c r="L67" s="32"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
       <c r="M67" s="15"/>
       <c r="N67" s="7"/>
       <c r="O67" s="7"/>
-      <c r="P67" s="33"/>
-      <c r="Q67" s="33"/>
+      <c r="P67" s="22"/>
+      <c r="Q67" s="22"/>
     </row>
     <row r="68" spans="1:17" ht="13.5" customHeight="1">
       <c r="A68" s="6">
         <v>63</v>
       </c>
-      <c r="B68" s="37" t="s">
+      <c r="B68" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="34" t="s">
+      <c r="C68" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="40" t="s">
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="I68" s="57"/>
-      <c r="J68" s="57"/>
-      <c r="K68" s="57"/>
-      <c r="L68" s="41"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="29"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="30"/>
       <c r="M68" s="15"/>
       <c r="N68" s="7"/>
       <c r="O68" s="7"/>
-      <c r="P68" s="33"/>
-      <c r="Q68" s="33"/>
+      <c r="P68" s="22"/>
+      <c r="Q68" s="22"/>
     </row>
     <row r="69" spans="1:17" ht="13.5" customHeight="1">
       <c r="A69" s="6">
         <v>64</v>
       </c>
-      <c r="B69" s="38"/>
-      <c r="C69" s="34" t="s">
+      <c r="B69" s="41"/>
+      <c r="C69" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="40" t="s">
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="I69" s="57"/>
-      <c r="J69" s="57"/>
-      <c r="K69" s="57"/>
-      <c r="L69" s="41"/>
+      <c r="I69" s="29"/>
+      <c r="J69" s="29"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="30"/>
       <c r="M69" s="15"/>
       <c r="N69" s="7"/>
       <c r="O69" s="7"/>
-      <c r="P69" s="33"/>
-      <c r="Q69" s="33"/>
+      <c r="P69" s="22"/>
+      <c r="Q69" s="22"/>
     </row>
     <row r="70" spans="1:17" ht="13.5" customHeight="1">
       <c r="A70" s="6">
         <v>65</v>
       </c>
-      <c r="B70" s="38"/>
-      <c r="C70" s="34" t="s">
+      <c r="B70" s="41"/>
+      <c r="C70" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="33" t="s">
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="I70" s="33"/>
-      <c r="J70" s="33"/>
-      <c r="K70" s="33"/>
-      <c r="L70" s="33"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="22"/>
       <c r="M70" s="15"/>
       <c r="N70" s="7"/>
       <c r="O70" s="7"/>
-      <c r="P70" s="33"/>
-      <c r="Q70" s="33"/>
+      <c r="P70" s="22"/>
+      <c r="Q70" s="22"/>
     </row>
     <row r="71" spans="1:17" ht="13.5" customHeight="1">
       <c r="A71" s="6">
         <v>66</v>
       </c>
-      <c r="B71" s="38"/>
-      <c r="C71" s="32" t="s">
+      <c r="B71" s="41"/>
+      <c r="C71" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D71" s="33"/>
-      <c r="E71" s="33"/>
-      <c r="F71" s="33"/>
-      <c r="G71" s="33"/>
-      <c r="H71" s="33" t="s">
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="I71" s="33"/>
-      <c r="J71" s="33"/>
-      <c r="K71" s="33"/>
-      <c r="L71" s="33"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="22"/>
       <c r="M71" s="15"/>
       <c r="N71" s="7"/>
       <c r="O71" s="7"/>
-      <c r="P71" s="30"/>
-      <c r="Q71" s="31"/>
+      <c r="P71" s="23"/>
+      <c r="Q71" s="24"/>
     </row>
     <row r="72" spans="1:17" ht="13.5" customHeight="1">
       <c r="A72" s="6">
         <v>67</v>
       </c>
-      <c r="B72" s="38"/>
-      <c r="C72" s="32" t="s">
+      <c r="B72" s="41"/>
+      <c r="C72" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D72" s="33"/>
-      <c r="E72" s="33"/>
-      <c r="F72" s="33"/>
-      <c r="G72" s="33"/>
-      <c r="H72" s="33" t="s">
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="I72" s="33"/>
-      <c r="J72" s="33"/>
-      <c r="K72" s="33"/>
-      <c r="L72" s="33"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="22"/>
       <c r="M72" s="15"/>
       <c r="N72" s="7"/>
       <c r="O72" s="7"/>
-      <c r="P72" s="33"/>
-      <c r="Q72" s="33"/>
+      <c r="P72" s="22"/>
+      <c r="Q72" s="22"/>
     </row>
     <row r="73" spans="1:17" ht="13.5" customHeight="1">
       <c r="A73" s="6">
         <v>68</v>
       </c>
-      <c r="B73" s="39"/>
-      <c r="C73" s="34" t="s">
+      <c r="B73" s="42"/>
+      <c r="C73" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D73" s="35"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="36"/>
-      <c r="H73" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="I73" s="57"/>
-      <c r="J73" s="57"/>
-      <c r="K73" s="57"/>
-      <c r="L73" s="41"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="I73" s="29"/>
+      <c r="J73" s="29"/>
+      <c r="K73" s="29"/>
+      <c r="L73" s="30"/>
       <c r="M73" s="15"/>
       <c r="N73" s="7"/>
       <c r="O73" s="7"/>
-      <c r="P73" s="40"/>
-      <c r="Q73" s="41"/>
+      <c r="P73" s="28"/>
+      <c r="Q73" s="30"/>
     </row>
     <row r="74" spans="1:17" ht="69.5" customHeight="1">
       <c r="A74" s="6">
         <v>69</v>
       </c>
-      <c r="B74" s="37" t="s">
+      <c r="B74" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C74" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="D74" s="32"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="32"/>
-      <c r="G74" s="32"/>
-      <c r="H74" s="32" t="s">
+      <c r="C74" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="I74" s="32"/>
-      <c r="J74" s="32"/>
-      <c r="K74" s="32"/>
-      <c r="L74" s="32"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="21"/>
       <c r="M74" s="15"/>
       <c r="N74" s="7"/>
       <c r="O74" s="7"/>
-      <c r="P74" s="30"/>
-      <c r="Q74" s="31"/>
+      <c r="P74" s="23"/>
+      <c r="Q74" s="24"/>
     </row>
     <row r="75" spans="1:17" ht="69.5" customHeight="1">
       <c r="A75" s="6">
         <v>70</v>
       </c>
-      <c r="B75" s="38"/>
-      <c r="C75" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="D75" s="32"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="32"/>
-      <c r="G75" s="32"/>
-      <c r="H75" s="34" t="s">
+      <c r="B75" s="41"/>
+      <c r="C75" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I75" s="35"/>
-      <c r="J75" s="35"/>
-      <c r="K75" s="35"/>
-      <c r="L75" s="36"/>
+      <c r="I75" s="26"/>
+      <c r="J75" s="26"/>
+      <c r="K75" s="26"/>
+      <c r="L75" s="27"/>
       <c r="M75" s="15"/>
       <c r="N75" s="7"/>
       <c r="O75" s="7"/>
@@ -4799,21 +4799,21 @@
       <c r="A76" s="6">
         <v>71</v>
       </c>
-      <c r="B76" s="38"/>
-      <c r="C76" s="32" t="s">
+      <c r="B76" s="41"/>
+      <c r="C76" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D76" s="33"/>
-      <c r="E76" s="33"/>
-      <c r="F76" s="33"/>
-      <c r="G76" s="33"/>
-      <c r="H76" s="34" t="s">
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="I76" s="35"/>
-      <c r="J76" s="35"/>
-      <c r="K76" s="35"/>
-      <c r="L76" s="36"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="26"/>
+      <c r="L76" s="27"/>
       <c r="M76" s="15"/>
       <c r="N76" s="7"/>
       <c r="O76" s="7"/>
@@ -4824,21 +4824,21 @@
       <c r="A77" s="6">
         <v>72</v>
       </c>
-      <c r="B77" s="39"/>
-      <c r="C77" s="32" t="s">
+      <c r="B77" s="42"/>
+      <c r="C77" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D77" s="33"/>
-      <c r="E77" s="33"/>
-      <c r="F77" s="33"/>
-      <c r="G77" s="33"/>
-      <c r="H77" s="34" t="s">
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="I77" s="35"/>
-      <c r="J77" s="35"/>
-      <c r="K77" s="35"/>
-      <c r="L77" s="36"/>
+      <c r="I77" s="26"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="26"/>
+      <c r="L77" s="27"/>
       <c r="M77" s="15"/>
       <c r="N77" s="7"/>
       <c r="O77" s="7"/>
@@ -4863,6 +4863,184 @@
     <row r="84" s="4" customFormat="1" ht="11.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="202">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:L76"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="B23:B67"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:L49"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:L77"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:L74"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:L67"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:L58"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:L50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:L60"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:L59"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="C14:G21"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="B68:B73"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:L68"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:L71"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:L75"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:L72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:L73"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:L69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:L70"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:L54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:L53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:L52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="P43:Q43"/>
     <mergeCell ref="C66:G66"/>
     <mergeCell ref="H66:L66"/>
     <mergeCell ref="P66:Q66"/>
@@ -4887,184 +5065,6 @@
     <mergeCell ref="P62:Q62"/>
     <mergeCell ref="C61:G61"/>
     <mergeCell ref="H61:L61"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="H54:L54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="H55:L55"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="H53:L53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:L52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="H75:L75"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="H72:L72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:L73"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="H69:L69"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="H70:L70"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C14:G21"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="B68:B73"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="H68:L68"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="H71:L71"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="H74:L74"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:L47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="H67:L67"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="H58:L58"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:L50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="H60:L60"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="H59:L59"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="H76:L76"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="B23:B67"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:L49"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="H77:L77"/>
-    <mergeCell ref="H46:L46"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP012新商品登録(入力).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP012新商品登録(入力).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D484CF9-95B4-4147-8B52-34D5C3EF0CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56600823-A6A1-4DBB-98DD-7CDB0AD23721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="9580" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -1065,36 +1065,6 @@
   </si>
   <si>
     <t>商品名：テスト商品
-単価：9999999999
-在庫数：10
-商品カテゴリ：スポーツ用品
-画像：test.jpg
-（単価が999999999のとき）</t>
-    <rPh sb="42" eb="44">
-      <t>ヨウヒン</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>タンカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品名：テスト商品
-単価：10000000000
-在庫数：10
-商品カテゴリ：スポーツ用品
-画像：test.jpg
-（単価が10000000000のとき）</t>
-    <rPh sb="43" eb="45">
-      <t>ヨウヒン</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>タンカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品名：テスト商品
 単価：29
 在庫数：10
 商品カテゴリ：文房具
@@ -1372,24 +1342,6 @@
   </si>
   <si>
     <t>エラーメッセージ
-「この商品の単価は0～9999999999で入力してください」
-と表示されること</t>
-    <rPh sb="12" eb="14">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラーメッセージ
 「文房具の単価は30～5000で入力してください」
 と表示されること</t>
     <rPh sb="10" eb="13">
@@ -2000,18 +1952,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>商品名：テスト商品
-単価：9999999998
-在庫数：10
-商品カテゴリ：スポーツ用品
-画像：test.jpg
-（単価が9999999998のとき）</t>
-    <rPh sb="42" eb="44">
-      <t>ヨウヒン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>商品検索画面へ遷移し、セッションが破棄される</t>
     <rPh sb="0" eb="7">
       <t>ショウヒンケン</t>
@@ -2049,6 +1989,66 @@
     </rPh>
     <rPh sb="74" eb="76">
       <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名：テスト商品
+単価：999999998
+在庫数：10
+商品カテゴリ：スポーツ用品
+画像：test.jpg
+（単価が999999998のとき）</t>
+    <rPh sb="41" eb="43">
+      <t>ヨウヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名：テスト商品
+単価：999999999
+在庫数：10
+商品カテゴリ：スポーツ用品
+画像：test.jpg
+（単価が99999999のとき）</t>
+    <rPh sb="41" eb="43">
+      <t>ヨウヒン</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名：テスト商品
+単価：1000000000
+在庫数：10
+商品カテゴリ：スポーツ用品
+画像：test.jpg
+（単価が1000000000のとき）</t>
+    <rPh sb="42" eb="44">
+      <t>ヨウヒン</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーメッセージ
+「この商品の単価は0～999999999で入力してください」
+と表示されること</t>
+    <rPh sb="12" eb="14">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2409,6 +2409,102 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2418,45 +2514,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2474,78 +2546,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2899,8 +2899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScale="81" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75:G75"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A66" zoomScale="81" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61:G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -2919,25 +2919,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="54" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2952,23 +2952,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="58" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="29"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -2981,10 +2981,10 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="25" customHeight="1">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="48"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="44" t="s">
         <v>29</v>
       </c>
@@ -3004,10 +3004,10 @@
       <c r="Q3" s="46"/>
     </row>
     <row r="4" spans="1:17" ht="40.5" customHeight="1">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="48"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="44" t="s">
         <v>41</v>
       </c>
@@ -3033,20 +3033,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="49" t="s">
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -3056,105 +3056,105 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="49" t="s">
+      <c r="P5" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="50"/>
+      <c r="Q5" s="48"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22" t="s">
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="22" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="21" t="s">
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
     </row>
     <row r="8" spans="1:17" ht="13.5" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="25" t="s">
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="36"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="24"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="31"/>
     </row>
     <row r="9" spans="1:17" ht="11.5" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="25" t="s">
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="36"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -3166,18 +3166,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="25" t="s">
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="27"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="36"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -3189,18 +3189,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="25" t="s">
+      <c r="C11" s="58"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="27"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="36"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -3212,18 +3212,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="25" t="s">
+      <c r="C12" s="58"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="27"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="36"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -3235,18 +3235,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="25" t="s">
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="27"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="36"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -3258,20 +3258,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="28" t="s">
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="30"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="41"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -3283,18 +3283,18 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="28" t="s">
+      <c r="C15" s="58"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="30"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="41"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -3306,18 +3306,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="28" t="s">
+      <c r="C16" s="58"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="30"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="41"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -3329,18 +3329,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="28" t="s">
+      <c r="C17" s="58"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="30"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="41"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -3352,18 +3352,18 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="28" t="s">
+      <c r="C18" s="58"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="30"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="41"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -3375,18 +3375,18 @@
         <v>14</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="25" t="s">
+      <c r="C19" s="58"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="30"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="41"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -3398,18 +3398,18 @@
         <v>15</v>
       </c>
       <c r="B20" s="8"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="28" t="s">
+      <c r="C20" s="58"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="30"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="41"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -3421,18 +3421,18 @@
         <v>16</v>
       </c>
       <c r="B21" s="8"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="28" t="s">
+      <c r="C21" s="61"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="30"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="41"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -3444,20 +3444,20 @@
         <v>17</v>
       </c>
       <c r="B22" s="8"/>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="25" t="s">
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="27"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="36"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -3468,598 +3468,598 @@
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22" t="s">
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
     </row>
     <row r="24" spans="1:17" ht="92" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="21" t="s">
+      <c r="B24" s="38"/>
+      <c r="C24" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22" t="s">
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
     </row>
     <row r="25" spans="1:17" ht="85" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="21" t="s">
+      <c r="B25" s="38"/>
+      <c r="C25" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
     </row>
     <row r="26" spans="1:17" ht="85" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="21" t="s">
+      <c r="B26" s="38"/>
+      <c r="C26" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22" t="s">
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
     </row>
     <row r="27" spans="1:17" ht="96.5" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="21" t="s">
+      <c r="B27" s="38"/>
+      <c r="C27" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22" t="s">
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
     </row>
     <row r="28" spans="1:17" ht="90" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="21" t="s">
+      <c r="B28" s="38"/>
+      <c r="C28" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
     </row>
     <row r="29" spans="1:17" ht="85" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="21" t="s">
+      <c r="B29" s="38"/>
+      <c r="C29" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22" t="s">
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
     </row>
     <row r="30" spans="1:17" ht="85" customHeight="1">
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="21" t="s">
+      <c r="B30" s="38"/>
+      <c r="C30" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
       <c r="M30" s="15"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
     </row>
     <row r="31" spans="1:17" ht="85" customHeight="1">
       <c r="A31" s="6">
         <v>26</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="21" t="s">
+      <c r="B31" s="38"/>
+      <c r="C31" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22" t="s">
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
       <c r="M31" s="15"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
     </row>
     <row r="32" spans="1:17" ht="85" customHeight="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
-      <c r="B32" s="41"/>
-      <c r="C32" s="21" t="s">
+      <c r="B32" s="38"/>
+      <c r="C32" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22" t="s">
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
       <c r="M32" s="15"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
     </row>
     <row r="33" spans="1:17" ht="85" customHeight="1">
       <c r="A33" s="6">
         <v>28</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="21" t="s">
+      <c r="B33" s="38"/>
+      <c r="C33" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22" t="s">
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
       <c r="M33" s="15"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="33"/>
     </row>
     <row r="34" spans="1:17" ht="85" customHeight="1">
       <c r="A34" s="6">
         <v>29</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22" t="s">
+      <c r="B34" s="38"/>
+      <c r="C34" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
       <c r="M34" s="15"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="33"/>
     </row>
     <row r="35" spans="1:17" ht="85" customHeight="1">
       <c r="A35" s="6">
         <v>30</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="27"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="36"/>
       <c r="M35" s="15"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
     </row>
     <row r="36" spans="1:17" ht="85" customHeight="1">
       <c r="A36" s="6">
         <v>31</v>
       </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
       <c r="M36" s="15"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="33"/>
     </row>
     <row r="37" spans="1:17" ht="85" customHeight="1">
       <c r="A37" s="6">
         <v>32</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22" t="s">
+      <c r="B37" s="38"/>
+      <c r="C37" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
       <c r="M37" s="15"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33"/>
     </row>
     <row r="38" spans="1:17" ht="85" customHeight="1">
       <c r="A38" s="6">
         <v>33</v>
       </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22" t="s">
+      <c r="B38" s="38"/>
+      <c r="C38" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
       <c r="M38" s="15"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="33"/>
     </row>
     <row r="39" spans="1:17" ht="88" customHeight="1">
       <c r="A39" s="6">
         <v>34</v>
       </c>
-      <c r="B39" s="41"/>
-      <c r="C39" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22" t="s">
+      <c r="B39" s="38"/>
+      <c r="C39" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
       <c r="M39" s="15"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="33"/>
     </row>
     <row r="40" spans="1:17" ht="112" customHeight="1">
       <c r="A40" s="6">
         <v>35</v>
       </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="21" t="s">
+      <c r="B40" s="38"/>
+      <c r="C40" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22" t="s">
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
       <c r="M40" s="15"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="33"/>
     </row>
     <row r="41" spans="1:17" ht="102" customHeight="1">
       <c r="A41" s="6">
         <v>36</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="18" t="s">
+      <c r="B41" s="38"/>
+      <c r="C41" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
       <c r="M41" s="15"/>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="24"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="31"/>
     </row>
     <row r="42" spans="1:17" ht="90.5" customHeight="1">
       <c r="A42" s="6">
         <v>37</v>
       </c>
-      <c r="B42" s="41"/>
-      <c r="C42" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
       <c r="M42" s="15"/>
       <c r="N42" s="7"/>
       <c r="O42" s="7"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="22"/>
+      <c r="P42" s="33"/>
+      <c r="Q42" s="33"/>
     </row>
     <row r="43" spans="1:17" ht="84.5" customHeight="1">
       <c r="A43" s="6">
         <v>38</v>
       </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22" t="s">
+      <c r="B43" s="38"/>
+      <c r="C43" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
       <c r="M43" s="15"/>
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="22"/>
+      <c r="P43" s="33"/>
+      <c r="Q43" s="33"/>
     </row>
     <row r="44" spans="1:17" ht="77.5" customHeight="1">
       <c r="A44" s="6">
         <v>39</v>
       </c>
-      <c r="B44" s="41"/>
-      <c r="C44" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22" t="s">
+      <c r="B44" s="38"/>
+      <c r="C44" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
       <c r="M44" s="15"/>
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="22"/>
+      <c r="P44" s="33"/>
+      <c r="Q44" s="33"/>
     </row>
     <row r="45" spans="1:17" ht="81" customHeight="1">
       <c r="A45" s="6">
         <v>40</v>
       </c>
-      <c r="B45" s="41"/>
-      <c r="C45" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22" t="s">
+      <c r="B45" s="38"/>
+      <c r="C45" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
       <c r="M45" s="15"/>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
-      <c r="P45" s="23"/>
-      <c r="Q45" s="24"/>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="31"/>
     </row>
     <row r="46" spans="1:17" ht="98" customHeight="1">
       <c r="A46" s="6">
         <v>41</v>
       </c>
-      <c r="B46" s="41"/>
-      <c r="C46" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22" t="s">
+      <c r="B46" s="38"/>
+      <c r="C46" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
       <c r="M46" s="15"/>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
@@ -4070,725 +4070,725 @@
       <c r="A47" s="6">
         <v>42</v>
       </c>
-      <c r="B47" s="41"/>
-      <c r="C47" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
       <c r="M47" s="15"/>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="22"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="33"/>
     </row>
     <row r="48" spans="1:17" ht="91" customHeight="1">
       <c r="A48" s="6">
         <v>43</v>
       </c>
-      <c r="B48" s="41"/>
-      <c r="C48" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="22"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
       <c r="M48" s="15"/>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
-      <c r="P48" s="22"/>
-      <c r="Q48" s="22"/>
+      <c r="P48" s="33"/>
+      <c r="Q48" s="33"/>
     </row>
     <row r="49" spans="1:17" ht="116" customHeight="1">
       <c r="A49" s="6">
         <v>44</v>
       </c>
-      <c r="B49" s="41"/>
-      <c r="C49" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22" t="s">
+      <c r="B49" s="38"/>
+      <c r="C49" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="33"/>
       <c r="M49" s="15"/>
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
-      <c r="P49" s="22"/>
-      <c r="Q49" s="22"/>
+      <c r="P49" s="33"/>
+      <c r="Q49" s="33"/>
     </row>
     <row r="50" spans="1:17" ht="116" customHeight="1">
       <c r="A50" s="6">
         <v>45</v>
       </c>
-      <c r="B50" s="41"/>
-      <c r="C50" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22" t="s">
+      <c r="B50" s="38"/>
+      <c r="C50" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="33"/>
       <c r="M50" s="15"/>
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
-      <c r="P50" s="22"/>
-      <c r="Q50" s="22"/>
+      <c r="P50" s="33"/>
+      <c r="Q50" s="33"/>
     </row>
     <row r="51" spans="1:17" ht="116" customHeight="1">
       <c r="A51" s="6">
         <v>46</v>
       </c>
-      <c r="B51" s="41"/>
-      <c r="C51" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22" t="s">
+      <c r="B51" s="38"/>
+      <c r="C51" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="22"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="33"/>
       <c r="M51" s="15"/>
       <c r="N51" s="7"/>
       <c r="O51" s="7"/>
-      <c r="P51" s="22"/>
-      <c r="Q51" s="22"/>
+      <c r="P51" s="33"/>
+      <c r="Q51" s="33"/>
     </row>
     <row r="52" spans="1:17" ht="116" customHeight="1">
       <c r="A52" s="6">
         <v>47</v>
       </c>
-      <c r="B52" s="41"/>
-      <c r="C52" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22" t="s">
+      <c r="B52" s="38"/>
+      <c r="C52" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="22"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
       <c r="M52" s="15"/>
       <c r="N52" s="7"/>
       <c r="O52" s="7"/>
-      <c r="P52" s="22"/>
-      <c r="Q52" s="22"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
     </row>
     <row r="53" spans="1:17" ht="116" customHeight="1">
       <c r="A53" s="6">
         <v>48</v>
       </c>
-      <c r="B53" s="41"/>
-      <c r="C53" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="22"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="I53" s="33"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
       <c r="M53" s="15"/>
       <c r="N53" s="7"/>
       <c r="O53" s="7"/>
-      <c r="P53" s="22"/>
-      <c r="Q53" s="22"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
     </row>
     <row r="54" spans="1:17" ht="116" customHeight="1">
       <c r="A54" s="6">
         <v>49</v>
       </c>
-      <c r="B54" s="41"/>
-      <c r="C54" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="22"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="I54" s="33"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
       <c r="M54" s="15"/>
       <c r="N54" s="7"/>
       <c r="O54" s="7"/>
-      <c r="P54" s="22"/>
-      <c r="Q54" s="22"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="33"/>
     </row>
     <row r="55" spans="1:17" ht="116" customHeight="1">
       <c r="A55" s="6">
         <v>50</v>
       </c>
-      <c r="B55" s="41"/>
-      <c r="C55" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="I55" s="22"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="22"/>
-      <c r="L55" s="22"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="I55" s="33"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
       <c r="M55" s="15"/>
       <c r="N55" s="7"/>
       <c r="O55" s="7"/>
-      <c r="P55" s="22"/>
-      <c r="Q55" s="22"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
     </row>
     <row r="56" spans="1:17" ht="116" customHeight="1">
       <c r="A56" s="6">
         <v>51</v>
       </c>
-      <c r="B56" s="41"/>
-      <c r="C56" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="22"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
       <c r="M56" s="15"/>
       <c r="N56" s="7"/>
       <c r="O56" s="7"/>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="22"/>
+      <c r="P56" s="33"/>
+      <c r="Q56" s="33"/>
     </row>
     <row r="57" spans="1:17" ht="116" customHeight="1">
       <c r="A57" s="6">
         <v>52</v>
       </c>
-      <c r="B57" s="41"/>
-      <c r="C57" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="22"/>
-      <c r="L57" s="22"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="33"/>
       <c r="M57" s="15"/>
       <c r="N57" s="7"/>
       <c r="O57" s="7"/>
-      <c r="P57" s="22"/>
-      <c r="Q57" s="22"/>
+      <c r="P57" s="33"/>
+      <c r="Q57" s="33"/>
     </row>
     <row r="58" spans="1:17" ht="95.5" customHeight="1">
       <c r="A58" s="6">
         <v>53</v>
       </c>
-      <c r="B58" s="41"/>
-      <c r="C58" s="18" t="s">
+      <c r="B58" s="38"/>
+      <c r="C58" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="22" t="s">
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="22"/>
-      <c r="L58" s="22"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
       <c r="M58" s="15"/>
       <c r="N58" s="7"/>
       <c r="O58" s="7"/>
-      <c r="P58" s="23"/>
-      <c r="Q58" s="24"/>
+      <c r="P58" s="30"/>
+      <c r="Q58" s="31"/>
     </row>
     <row r="59" spans="1:17" ht="95.5" customHeight="1">
       <c r="A59" s="6">
         <v>54</v>
       </c>
-      <c r="B59" s="41"/>
-      <c r="C59" s="18" t="s">
+      <c r="B59" s="38"/>
+      <c r="C59" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="22" t="s">
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="22"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="33"/>
+      <c r="L59" s="33"/>
       <c r="M59" s="15"/>
       <c r="N59" s="7"/>
       <c r="O59" s="7"/>
-      <c r="P59" s="23"/>
-      <c r="Q59" s="24"/>
+      <c r="P59" s="30"/>
+      <c r="Q59" s="31"/>
     </row>
     <row r="60" spans="1:17" ht="95.5" customHeight="1">
       <c r="A60" s="6">
         <v>55</v>
       </c>
-      <c r="B60" s="41"/>
-      <c r="C60" s="18" t="s">
+      <c r="B60" s="38"/>
+      <c r="C60" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="22" t="s">
+      <c r="D60" s="51"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I60" s="22"/>
-      <c r="J60" s="22"/>
-      <c r="K60" s="22"/>
-      <c r="L60" s="22"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="33"/>
+      <c r="L60" s="33"/>
       <c r="M60" s="15"/>
       <c r="N60" s="7"/>
       <c r="O60" s="7"/>
-      <c r="P60" s="23"/>
-      <c r="Q60" s="24"/>
+      <c r="P60" s="30"/>
+      <c r="Q60" s="31"/>
     </row>
     <row r="61" spans="1:17" ht="95.5" customHeight="1">
       <c r="A61" s="6">
         <v>56</v>
       </c>
-      <c r="B61" s="41"/>
-      <c r="C61" s="18" t="s">
+      <c r="B61" s="38"/>
+      <c r="C61" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="22" t="s">
+      <c r="D61" s="51"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I61" s="22"/>
-      <c r="J61" s="22"/>
-      <c r="K61" s="22"/>
-      <c r="L61" s="22"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="33"/>
+      <c r="K61" s="33"/>
+      <c r="L61" s="33"/>
       <c r="M61" s="15"/>
       <c r="N61" s="7"/>
       <c r="O61" s="7"/>
-      <c r="P61" s="23"/>
-      <c r="Q61" s="24"/>
+      <c r="P61" s="30"/>
+      <c r="Q61" s="31"/>
     </row>
     <row r="62" spans="1:17" ht="95.5" customHeight="1">
       <c r="A62" s="6">
         <v>57</v>
       </c>
-      <c r="B62" s="41"/>
-      <c r="C62" s="18" t="s">
+      <c r="B62" s="38"/>
+      <c r="C62" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="22"/>
-      <c r="L62" s="22"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="I62" s="33"/>
+      <c r="J62" s="33"/>
+      <c r="K62" s="33"/>
+      <c r="L62" s="33"/>
       <c r="M62" s="15"/>
       <c r="N62" s="7"/>
       <c r="O62" s="7"/>
-      <c r="P62" s="23"/>
-      <c r="Q62" s="24"/>
+      <c r="P62" s="30"/>
+      <c r="Q62" s="31"/>
     </row>
     <row r="63" spans="1:17" ht="95.5" customHeight="1">
       <c r="A63" s="6">
         <v>58</v>
       </c>
-      <c r="B63" s="41"/>
-      <c r="C63" s="18" t="s">
+      <c r="B63" s="38"/>
+      <c r="C63" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="22"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="51"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="I63" s="33"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="33"/>
       <c r="M63" s="15"/>
       <c r="N63" s="7"/>
       <c r="O63" s="7"/>
-      <c r="P63" s="23"/>
-      <c r="Q63" s="24"/>
+      <c r="P63" s="30"/>
+      <c r="Q63" s="31"/>
     </row>
     <row r="64" spans="1:17" ht="95.5" customHeight="1">
       <c r="A64" s="6">
         <v>59</v>
       </c>
-      <c r="B64" s="41"/>
-      <c r="C64" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="22"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="I64" s="33"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="33"/>
       <c r="M64" s="15"/>
       <c r="N64" s="7"/>
       <c r="O64" s="7"/>
-      <c r="P64" s="23"/>
-      <c r="Q64" s="24"/>
+      <c r="P64" s="30"/>
+      <c r="Q64" s="31"/>
     </row>
     <row r="65" spans="1:17" ht="95.5" customHeight="1">
       <c r="A65" s="6">
         <v>60</v>
       </c>
-      <c r="B65" s="41"/>
-      <c r="C65" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="22"/>
-      <c r="L65" s="22"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="D65" s="51"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="I65" s="33"/>
+      <c r="J65" s="33"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="33"/>
       <c r="M65" s="15"/>
       <c r="N65" s="7"/>
       <c r="O65" s="7"/>
-      <c r="P65" s="23"/>
-      <c r="Q65" s="24"/>
+      <c r="P65" s="30"/>
+      <c r="Q65" s="31"/>
     </row>
     <row r="66" spans="1:17" ht="95.5" customHeight="1">
       <c r="A66" s="6">
         <v>61</v>
       </c>
-      <c r="B66" s="41"/>
-      <c r="C66" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="22"/>
-      <c r="L66" s="22"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D66" s="51"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="51"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="I66" s="33"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="33"/>
+      <c r="L66" s="33"/>
       <c r="M66" s="15"/>
       <c r="N66" s="7"/>
       <c r="O66" s="7"/>
-      <c r="P66" s="23"/>
-      <c r="Q66" s="24"/>
+      <c r="P66" s="30"/>
+      <c r="Q66" s="31"/>
     </row>
     <row r="67" spans="1:17" ht="68" customHeight="1">
       <c r="A67" s="6">
         <v>62</v>
       </c>
-      <c r="B67" s="41"/>
-      <c r="C67" s="21" t="s">
+      <c r="B67" s="38"/>
+      <c r="C67" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="I67" s="21"/>
-      <c r="J67" s="21"/>
-      <c r="K67" s="21"/>
-      <c r="L67" s="21"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="I67" s="32"/>
+      <c r="J67" s="32"/>
+      <c r="K67" s="32"/>
+      <c r="L67" s="32"/>
       <c r="M67" s="15"/>
       <c r="N67" s="7"/>
       <c r="O67" s="7"/>
-      <c r="P67" s="22"/>
-      <c r="Q67" s="22"/>
+      <c r="P67" s="33"/>
+      <c r="Q67" s="33"/>
     </row>
     <row r="68" spans="1:17" ht="13.5" customHeight="1">
       <c r="A68" s="6">
         <v>63</v>
       </c>
-      <c r="B68" s="40" t="s">
+      <c r="B68" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="25" t="s">
+      <c r="C68" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="28" t="s">
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="I68" s="29"/>
-      <c r="J68" s="29"/>
-      <c r="K68" s="29"/>
-      <c r="L68" s="30"/>
+      <c r="I68" s="57"/>
+      <c r="J68" s="57"/>
+      <c r="K68" s="57"/>
+      <c r="L68" s="41"/>
       <c r="M68" s="15"/>
       <c r="N68" s="7"/>
       <c r="O68" s="7"/>
-      <c r="P68" s="22"/>
-      <c r="Q68" s="22"/>
+      <c r="P68" s="33"/>
+      <c r="Q68" s="33"/>
     </row>
     <row r="69" spans="1:17" ht="13.5" customHeight="1">
       <c r="A69" s="6">
         <v>64</v>
       </c>
-      <c r="B69" s="41"/>
-      <c r="C69" s="25" t="s">
+      <c r="B69" s="38"/>
+      <c r="C69" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="28" t="s">
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="I69" s="29"/>
-      <c r="J69" s="29"/>
-      <c r="K69" s="29"/>
-      <c r="L69" s="30"/>
+      <c r="I69" s="57"/>
+      <c r="J69" s="57"/>
+      <c r="K69" s="57"/>
+      <c r="L69" s="41"/>
       <c r="M69" s="15"/>
       <c r="N69" s="7"/>
       <c r="O69" s="7"/>
-      <c r="P69" s="22"/>
-      <c r="Q69" s="22"/>
+      <c r="P69" s="33"/>
+      <c r="Q69" s="33"/>
     </row>
     <row r="70" spans="1:17" ht="13.5" customHeight="1">
       <c r="A70" s="6">
         <v>65</v>
       </c>
-      <c r="B70" s="41"/>
-      <c r="C70" s="25" t="s">
+      <c r="B70" s="38"/>
+      <c r="C70" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="22" t="s">
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="I70" s="22"/>
-      <c r="J70" s="22"/>
-      <c r="K70" s="22"/>
-      <c r="L70" s="22"/>
+      <c r="I70" s="33"/>
+      <c r="J70" s="33"/>
+      <c r="K70" s="33"/>
+      <c r="L70" s="33"/>
       <c r="M70" s="15"/>
       <c r="N70" s="7"/>
       <c r="O70" s="7"/>
-      <c r="P70" s="22"/>
-      <c r="Q70" s="22"/>
+      <c r="P70" s="33"/>
+      <c r="Q70" s="33"/>
     </row>
     <row r="71" spans="1:17" ht="13.5" customHeight="1">
       <c r="A71" s="6">
         <v>66</v>
       </c>
-      <c r="B71" s="41"/>
-      <c r="C71" s="21" t="s">
+      <c r="B71" s="38"/>
+      <c r="C71" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="22" t="s">
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="I71" s="22"/>
-      <c r="J71" s="22"/>
-      <c r="K71" s="22"/>
-      <c r="L71" s="22"/>
+      <c r="I71" s="33"/>
+      <c r="J71" s="33"/>
+      <c r="K71" s="33"/>
+      <c r="L71" s="33"/>
       <c r="M71" s="15"/>
       <c r="N71" s="7"/>
       <c r="O71" s="7"/>
-      <c r="P71" s="23"/>
-      <c r="Q71" s="24"/>
+      <c r="P71" s="30"/>
+      <c r="Q71" s="31"/>
     </row>
     <row r="72" spans="1:17" ht="13.5" customHeight="1">
       <c r="A72" s="6">
         <v>67</v>
       </c>
-      <c r="B72" s="41"/>
-      <c r="C72" s="21" t="s">
+      <c r="B72" s="38"/>
+      <c r="C72" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="22" t="s">
+      <c r="D72" s="33"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="I72" s="22"/>
-      <c r="J72" s="22"/>
-      <c r="K72" s="22"/>
-      <c r="L72" s="22"/>
+      <c r="I72" s="33"/>
+      <c r="J72" s="33"/>
+      <c r="K72" s="33"/>
+      <c r="L72" s="33"/>
       <c r="M72" s="15"/>
       <c r="N72" s="7"/>
       <c r="O72" s="7"/>
-      <c r="P72" s="22"/>
-      <c r="Q72" s="22"/>
+      <c r="P72" s="33"/>
+      <c r="Q72" s="33"/>
     </row>
     <row r="73" spans="1:17" ht="13.5" customHeight="1">
       <c r="A73" s="6">
         <v>68</v>
       </c>
-      <c r="B73" s="42"/>
-      <c r="C73" s="25" t="s">
+      <c r="B73" s="39"/>
+      <c r="C73" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="I73" s="29"/>
-      <c r="J73" s="29"/>
-      <c r="K73" s="29"/>
-      <c r="L73" s="30"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="I73" s="57"/>
+      <c r="J73" s="57"/>
+      <c r="K73" s="57"/>
+      <c r="L73" s="41"/>
       <c r="M73" s="15"/>
       <c r="N73" s="7"/>
       <c r="O73" s="7"/>
-      <c r="P73" s="28"/>
-      <c r="Q73" s="30"/>
+      <c r="P73" s="40"/>
+      <c r="Q73" s="41"/>
     </row>
     <row r="74" spans="1:17" ht="69.5" customHeight="1">
       <c r="A74" s="6">
         <v>69</v>
       </c>
-      <c r="B74" s="40" t="s">
+      <c r="B74" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C74" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="21"/>
-      <c r="H74" s="21" t="s">
+      <c r="C74" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="I74" s="21"/>
-      <c r="J74" s="21"/>
-      <c r="K74" s="21"/>
-      <c r="L74" s="21"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="32"/>
+      <c r="K74" s="32"/>
+      <c r="L74" s="32"/>
       <c r="M74" s="15"/>
       <c r="N74" s="7"/>
       <c r="O74" s="7"/>
-      <c r="P74" s="23"/>
-      <c r="Q74" s="24"/>
+      <c r="P74" s="30"/>
+      <c r="Q74" s="31"/>
     </row>
     <row r="75" spans="1:17" ht="69.5" customHeight="1">
       <c r="A75" s="6">
         <v>70</v>
       </c>
-      <c r="B75" s="41"/>
-      <c r="C75" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="25" t="s">
+      <c r="B75" s="38"/>
+      <c r="C75" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="I75" s="26"/>
-      <c r="J75" s="26"/>
-      <c r="K75" s="26"/>
-      <c r="L75" s="27"/>
+      <c r="I75" s="35"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="35"/>
+      <c r="L75" s="36"/>
       <c r="M75" s="15"/>
       <c r="N75" s="7"/>
       <c r="O75" s="7"/>
@@ -4799,21 +4799,21 @@
       <c r="A76" s="6">
         <v>71</v>
       </c>
-      <c r="B76" s="41"/>
-      <c r="C76" s="21" t="s">
+      <c r="B76" s="38"/>
+      <c r="C76" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="25" t="s">
+      <c r="D76" s="33"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="I76" s="26"/>
-      <c r="J76" s="26"/>
-      <c r="K76" s="26"/>
-      <c r="L76" s="27"/>
+      <c r="I76" s="35"/>
+      <c r="J76" s="35"/>
+      <c r="K76" s="35"/>
+      <c r="L76" s="36"/>
       <c r="M76" s="15"/>
       <c r="N76" s="7"/>
       <c r="O76" s="7"/>
@@ -4824,21 +4824,21 @@
       <c r="A77" s="6">
         <v>72</v>
       </c>
-      <c r="B77" s="42"/>
-      <c r="C77" s="21" t="s">
+      <c r="B77" s="39"/>
+      <c r="C77" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="25" t="s">
+      <c r="D77" s="33"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="I77" s="26"/>
-      <c r="J77" s="26"/>
-      <c r="K77" s="26"/>
-      <c r="L77" s="27"/>
+      <c r="I77" s="35"/>
+      <c r="J77" s="35"/>
+      <c r="K77" s="35"/>
+      <c r="L77" s="36"/>
       <c r="M77" s="15"/>
       <c r="N77" s="7"/>
       <c r="O77" s="7"/>
@@ -4863,6 +4863,184 @@
     <row r="84" s="4" customFormat="1" ht="11.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="202">
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:L66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:L56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:L57"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:L65"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:L63"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:L64"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:L62"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:L61"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:L54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:L53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:L52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:L75"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:L72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:L73"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:L69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:L70"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C14:G21"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="B68:B73"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:L68"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:L71"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:L74"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:L67"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:L58"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:L50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:L60"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:L59"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:M1"/>
@@ -4887,184 +5065,6 @@
     <mergeCell ref="H43:L43"/>
     <mergeCell ref="P73:Q73"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="H74:L74"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:L47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="H67:L67"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="H58:L58"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:L50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="H60:L60"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="H59:L59"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="C14:G21"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="B68:B73"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="H68:L68"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="H71:L71"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="H75:L75"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="H72:L72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:L73"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="H69:L69"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="H70:L70"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="H54:L54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="H55:L55"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="H53:L53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:L52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="H66:L66"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="H56:L56"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="H57:L57"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="H65:L65"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="H63:L63"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="H64:L64"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="H62:L62"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="H61:L61"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP012新商品登録(入力).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP012新商品登録(入力).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56600823-A6A1-4DBB-98DD-7CDB0AD23721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F327A6F-684A-4683-9340-593CCA97F728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="134">
   <si>
     <t>作成者</t>
   </si>
@@ -601,42 +601,6 @@
     </rPh>
     <rPh sb="60" eb="62">
       <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品名：テスト商品
-単価：2500円
-在庫数：1000001
-商品カテゴリ：文房具
-画像：
-(画像ファイルを選択しないとき）</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>エン</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="38" eb="41">
-      <t>ブンボウグ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>センタク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2049,6 +2013,142 @@
     </rPh>
     <rPh sb="41" eb="43">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前が違うよ</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>桁間違い</t>
+    <rPh sb="0" eb="3">
+      <t>ケタマチガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>！が認識されてない</t>
+    <rPh sb="2" eb="4">
+      <t>ニンシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「単価は数字で入力してください」が出てこない
+@Pattern確認</t>
+    <rPh sb="17" eb="18">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーメッセージ
+「在庫数は数字で入力してください」
+「在庫数は0～1000000で入力してください」
+が出てこない</t>
+    <rPh sb="53" eb="54">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーメッセージ
+「在庫数は数字で入力してください」
+「在庫数は0～1000001で入力してください」
+が出てこない</t>
+    <rPh sb="53" eb="54">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーメッセージ
+「在庫数は数字で入力してください」
+「在庫数は0～1000002で入力してください」
+が出てこない</t>
+    <rPh sb="53" eb="54">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーメッセージ
+「在庫数は数字で入力してください」
+「在庫数は0～1000003で入力してください」
+が出てこない</t>
+    <rPh sb="53" eb="54">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名：テスト商品
+単価：2500円
+在庫数：1000000
+商品カテゴリ：文房具
+画像：
+(画像ファイルを選択しないとき）</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t>ブンボウグ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>遷移できてしまう</t>
+    <rPh sb="0" eb="2">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メニュー画面に遷移してしまう</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2356,7 +2456,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2409,6 +2509,108 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2445,107 +2647,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2899,8 +3005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A66" zoomScale="81" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61:G61"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" zoomScale="81" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="O74" sqref="O74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -2911,7 +3017,8 @@
     <col min="7" max="7" width="8" style="5" customWidth="1"/>
     <col min="8" max="11" width="7.1796875" style="4" customWidth="1"/>
     <col min="12" max="12" width="10.7265625" style="4" customWidth="1"/>
-    <col min="13" max="14" width="8.453125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="10.453125" style="65" customWidth="1"/>
+    <col min="14" max="14" width="8.453125" style="4" customWidth="1"/>
     <col min="15" max="15" width="11.81640625" style="4" customWidth="1"/>
     <col min="16" max="16" width="17.1796875" style="4" customWidth="1"/>
     <col min="17" max="17" width="31.26953125" style="4" customWidth="1"/>
@@ -2919,25 +3026,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2952,23 +3059,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="24" t="s">
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="29"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -2981,10 +3088,10 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="25" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="44" t="s">
         <v>29</v>
       </c>
@@ -3004,10 +3111,10 @@
       <c r="Q3" s="46"/>
     </row>
     <row r="4" spans="1:17" ht="40.5" customHeight="1">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="44" t="s">
         <v>41</v>
       </c>
@@ -3033,21 +3140,21 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="47" t="s">
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="14" t="s">
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="64" t="s">
         <v>13</v>
       </c>
       <c r="N5" s="14" t="s">
@@ -3056,108 +3163,118 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="47" t="s">
+      <c r="P5" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="48"/>
+      <c r="Q5" s="50"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33" t="s">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="15"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="15">
+        <v>45503</v>
+      </c>
       <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
+      <c r="O6" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="33" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="32" t="s">
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
+      <c r="O7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
     </row>
     <row r="8" spans="1:17" ht="13.5" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="34" t="s">
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="36"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="31"/>
+      <c r="O8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="24"/>
     </row>
     <row r="9" spans="1:17" ht="11.5" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="34" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="36"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="O9" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="P9" s="16"/>
       <c r="Q9" s="17"/>
     </row>
@@ -3166,21 +3283,23 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="34" t="s">
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="36"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
+      <c r="O10" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="P10" s="16"/>
       <c r="Q10" s="17"/>
     </row>
@@ -3189,21 +3308,23 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="34" t="s">
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="36"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
+      <c r="O11" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="17"/>
     </row>
@@ -3212,21 +3333,23 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="34" t="s">
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="36"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="O12" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="17"/>
     </row>
@@ -3235,21 +3358,23 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="34" t="s">
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="36"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
+      <c r="O13" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="P13" s="16"/>
       <c r="Q13" s="17"/>
     </row>
@@ -3258,23 +3383,25 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="40" t="s">
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="41"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="30"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
+      <c r="O14" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="P14" s="16"/>
       <c r="Q14" s="17"/>
     </row>
@@ -3283,21 +3410,23 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="40" t="s">
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="41"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="30"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
+      <c r="O15" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="P15" s="16"/>
       <c r="Q15" s="17"/>
     </row>
@@ -3306,21 +3435,23 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="40" t="s">
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="41"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="30"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
+      <c r="O16" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="P16" s="16"/>
       <c r="Q16" s="17"/>
     </row>
@@ -3329,21 +3460,23 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="40" t="s">
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="41"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="30"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
+      <c r="O17" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="P17" s="16"/>
       <c r="Q17" s="17"/>
     </row>
@@ -3352,21 +3485,23 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="40" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="41"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="30"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
+      <c r="O18" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="P18" s="16"/>
       <c r="Q18" s="17"/>
     </row>
@@ -3375,21 +3510,23 @@
         <v>14</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="34" t="s">
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="41"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="30"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
+      <c r="O19" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="P19" s="16"/>
       <c r="Q19" s="17"/>
     </row>
@@ -3398,21 +3535,23 @@
         <v>15</v>
       </c>
       <c r="B20" s="8"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="40" t="s">
+      <c r="C20" s="34"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="41"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="30"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
+      <c r="O20" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="P20" s="16"/>
       <c r="Q20" s="17"/>
     </row>
@@ -3421,22 +3560,26 @@
         <v>16</v>
       </c>
       <c r="B21" s="8"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="40" t="s">
+      <c r="C21" s="37"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="41"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="30"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="16"/>
+      <c r="O21" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P21" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="Q21" s="17"/>
     </row>
     <row r="22" spans="1:17" ht="11" customHeight="1">
@@ -3444,23 +3587,25 @@
         <v>17</v>
       </c>
       <c r="B22" s="8"/>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="34" t="s">
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="36"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="27"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
+      <c r="O22" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="P22" s="16"/>
       <c r="Q22" s="17"/>
     </row>
@@ -3468,601 +3613,653 @@
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33" t="s">
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
+      <c r="O23" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
     </row>
     <row r="24" spans="1:17" ht="92" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33" t="s">
+      <c r="B24" s="41"/>
+      <c r="C24" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
+      <c r="O24" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
     </row>
     <row r="25" spans="1:17" ht="85" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
+      <c r="O25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
     </row>
     <row r="26" spans="1:17" ht="85" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33" t="s">
+      <c r="B26" s="41"/>
+      <c r="C26" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
+      <c r="O26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
     </row>
     <row r="27" spans="1:17" ht="96.5" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33" t="s">
+      <c r="B27" s="41"/>
+      <c r="C27" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
+      <c r="O27" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
     </row>
     <row r="28" spans="1:17" ht="90" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
+      <c r="O28" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
     </row>
     <row r="29" spans="1:17" ht="85" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33" t="s">
+      <c r="B29" s="41"/>
+      <c r="C29" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
+      <c r="O29" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
     </row>
     <row r="30" spans="1:17" ht="85" customHeight="1">
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
       <c r="M30" s="15"/>
       <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
+      <c r="O30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P30" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q30" s="22"/>
     </row>
     <row r="31" spans="1:17" ht="85" customHeight="1">
       <c r="A31" s="6">
         <v>26</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33" t="s">
+      <c r="B31" s="41"/>
+      <c r="C31" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
       <c r="M31" s="15"/>
       <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
+      <c r="O31" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
     </row>
     <row r="32" spans="1:17" ht="85" customHeight="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33" t="s">
+      <c r="B32" s="41"/>
+      <c r="C32" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
       <c r="M32" s="15"/>
       <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
+      <c r="O32" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
     </row>
     <row r="33" spans="1:17" ht="85" customHeight="1">
       <c r="A33" s="6">
         <v>28</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33" t="s">
+      <c r="B33" s="41"/>
+      <c r="C33" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
       <c r="M33" s="15"/>
       <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
+      <c r="O33" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
     </row>
     <row r="34" spans="1:17" ht="85" customHeight="1">
       <c r="A34" s="6">
         <v>29</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33" t="s">
+      <c r="B34" s="41"/>
+      <c r="C34" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
       <c r="M34" s="15"/>
       <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
+      <c r="O34" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
     </row>
     <row r="35" spans="1:17" ht="85" customHeight="1">
       <c r="A35" s="6">
         <v>30</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="32" t="s">
+      <c r="B35" s="41"/>
+      <c r="C35" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="36"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="27"/>
       <c r="M35" s="15"/>
       <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33"/>
+      <c r="O35" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P35" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q35" s="22"/>
     </row>
     <row r="36" spans="1:17" ht="85" customHeight="1">
       <c r="A36" s="6">
         <v>31</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
       <c r="M36" s="15"/>
       <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
+      <c r="O36" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
     </row>
     <row r="37" spans="1:17" ht="85" customHeight="1">
       <c r="A37" s="6">
         <v>32</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33" t="s">
+      <c r="B37" s="41"/>
+      <c r="C37" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
       <c r="M37" s="15"/>
       <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="33"/>
+      <c r="O37" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
     </row>
     <row r="38" spans="1:17" ht="85" customHeight="1">
       <c r="A38" s="6">
         <v>33</v>
       </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33" t="s">
+      <c r="B38" s="41"/>
+      <c r="C38" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
       <c r="M38" s="15"/>
       <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="33"/>
+      <c r="O38" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
     </row>
     <row r="39" spans="1:17" ht="88" customHeight="1">
       <c r="A39" s="6">
         <v>34</v>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33" t="s">
+      <c r="B39" s="41"/>
+      <c r="C39" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
       <c r="M39" s="15"/>
       <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
+      <c r="O39" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
     </row>
     <row r="40" spans="1:17" ht="112" customHeight="1">
       <c r="A40" s="6">
         <v>35</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33" t="s">
+      <c r="B40" s="41"/>
+      <c r="C40" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
       <c r="M40" s="15"/>
       <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="33"/>
-      <c r="Q40" s="33"/>
+      <c r="O40" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
     </row>
     <row r="41" spans="1:17" ht="102" customHeight="1">
       <c r="A41" s="6">
         <v>36</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
       <c r="M41" s="15"/>
       <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="31"/>
+      <c r="O41" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="24"/>
     </row>
     <row r="42" spans="1:17" ht="90.5" customHeight="1">
       <c r="A42" s="6">
         <v>37</v>
       </c>
-      <c r="B42" s="38"/>
-      <c r="C42" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
       <c r="M42" s="15"/>
       <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="33"/>
-      <c r="Q42" s="33"/>
+      <c r="O42" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
     </row>
     <row r="43" spans="1:17" ht="84.5" customHeight="1">
       <c r="A43" s="6">
         <v>38</v>
       </c>
-      <c r="B43" s="38"/>
-      <c r="C43" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33" t="s">
+      <c r="B43" s="41"/>
+      <c r="C43" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="33"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
       <c r="M43" s="15"/>
       <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="33"/>
-      <c r="Q43" s="33"/>
+      <c r="O43" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
     </row>
     <row r="44" spans="1:17" ht="77.5" customHeight="1">
       <c r="A44" s="6">
         <v>39</v>
       </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33" t="s">
+      <c r="B44" s="41"/>
+      <c r="C44" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I44" s="33"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="33"/>
-      <c r="L44" s="33"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
       <c r="M44" s="15"/>
       <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="33"/>
-      <c r="Q44" s="33"/>
+      <c r="O44" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22"/>
     </row>
     <row r="45" spans="1:17" ht="81" customHeight="1">
       <c r="A45" s="6">
         <v>40</v>
       </c>
-      <c r="B45" s="38"/>
-      <c r="C45" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33" t="s">
+      <c r="B45" s="41"/>
+      <c r="C45" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
       <c r="M45" s="15"/>
       <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="31"/>
+      <c r="O45" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P45" s="23"/>
+      <c r="Q45" s="24"/>
     </row>
     <row r="46" spans="1:17" ht="98" customHeight="1">
       <c r="A46" s="6">
         <v>41</v>
       </c>
-      <c r="B46" s="38"/>
-      <c r="C46" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33" t="s">
+      <c r="B46" s="41"/>
+      <c r="C46" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="33"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
       <c r="M46" s="15"/>
       <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
+      <c r="O46" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="P46" s="16"/>
       <c r="Q46" s="17"/>
     </row>
@@ -4070,725 +4267,799 @@
       <c r="A47" s="6">
         <v>42</v>
       </c>
-      <c r="B47" s="38"/>
-      <c r="C47" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="I47" s="33"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="33"/>
-      <c r="L47" s="33"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
       <c r="M47" s="15"/>
       <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="33"/>
-      <c r="Q47" s="33"/>
+      <c r="O47" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
     </row>
     <row r="48" spans="1:17" ht="91" customHeight="1">
       <c r="A48" s="6">
         <v>43</v>
       </c>
-      <c r="B48" s="38"/>
-      <c r="C48" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="I48" s="33"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="33"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
       <c r="M48" s="15"/>
       <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="33"/>
-      <c r="Q48" s="33"/>
+      <c r="O48" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
     </row>
     <row r="49" spans="1:17" ht="116" customHeight="1">
       <c r="A49" s="6">
         <v>44</v>
       </c>
-      <c r="B49" s="38"/>
-      <c r="C49" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33" t="s">
+      <c r="B49" s="41"/>
+      <c r="C49" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I49" s="33"/>
-      <c r="J49" s="33"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="33"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
       <c r="M49" s="15"/>
       <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
-      <c r="P49" s="33"/>
-      <c r="Q49" s="33"/>
+      <c r="O49" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
     </row>
     <row r="50" spans="1:17" ht="116" customHeight="1">
       <c r="A50" s="6">
         <v>45</v>
       </c>
-      <c r="B50" s="38"/>
-      <c r="C50" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33" t="s">
+      <c r="B50" s="41"/>
+      <c r="C50" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I50" s="33"/>
-      <c r="J50" s="33"/>
-      <c r="K50" s="33"/>
-      <c r="L50" s="33"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
       <c r="M50" s="15"/>
       <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="33"/>
-      <c r="Q50" s="33"/>
+      <c r="O50" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="22"/>
     </row>
     <row r="51" spans="1:17" ht="116" customHeight="1">
       <c r="A51" s="6">
         <v>46</v>
       </c>
-      <c r="B51" s="38"/>
-      <c r="C51" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33" t="s">
+      <c r="B51" s="41"/>
+      <c r="C51" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I51" s="33"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="33"/>
-      <c r="L51" s="33"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
       <c r="M51" s="15"/>
       <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
-      <c r="P51" s="33"/>
-      <c r="Q51" s="33"/>
+      <c r="O51" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
     </row>
     <row r="52" spans="1:17" ht="116" customHeight="1">
       <c r="A52" s="6">
         <v>47</v>
       </c>
-      <c r="B52" s="38"/>
-      <c r="C52" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33" t="s">
+      <c r="B52" s="41"/>
+      <c r="C52" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I52" s="33"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="33"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
       <c r="M52" s="15"/>
       <c r="N52" s="7"/>
-      <c r="O52" s="7"/>
-      <c r="P52" s="33"/>
-      <c r="Q52" s="33"/>
+      <c r="O52" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P52" s="22"/>
+      <c r="Q52" s="22"/>
     </row>
     <row r="53" spans="1:17" ht="116" customHeight="1">
       <c r="A53" s="6">
         <v>48</v>
       </c>
-      <c r="B53" s="38"/>
-      <c r="C53" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="I53" s="33"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="33"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
       <c r="M53" s="15"/>
       <c r="N53" s="7"/>
-      <c r="O53" s="7"/>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="33"/>
+      <c r="O53" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P53" s="22"/>
+      <c r="Q53" s="22"/>
     </row>
     <row r="54" spans="1:17" ht="116" customHeight="1">
       <c r="A54" s="6">
         <v>49</v>
       </c>
-      <c r="B54" s="38"/>
-      <c r="C54" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="I54" s="33"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="33"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="22"/>
       <c r="M54" s="15"/>
       <c r="N54" s="7"/>
-      <c r="O54" s="7"/>
-      <c r="P54" s="33"/>
-      <c r="Q54" s="33"/>
+      <c r="O54" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P54" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q54" s="22"/>
     </row>
     <row r="55" spans="1:17" ht="116" customHeight="1">
       <c r="A55" s="6">
         <v>50</v>
       </c>
-      <c r="B55" s="38"/>
-      <c r="C55" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="I55" s="33"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
       <c r="M55" s="15"/>
       <c r="N55" s="7"/>
-      <c r="O55" s="7"/>
-      <c r="P55" s="33"/>
-      <c r="Q55" s="33"/>
+      <c r="O55" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P55" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q55" s="22"/>
     </row>
     <row r="56" spans="1:17" ht="116" customHeight="1">
       <c r="A56" s="6">
         <v>51</v>
       </c>
-      <c r="B56" s="38"/>
-      <c r="C56" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="I56" s="33"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="33"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
       <c r="M56" s="15"/>
       <c r="N56" s="7"/>
-      <c r="O56" s="7"/>
-      <c r="P56" s="33"/>
-      <c r="Q56" s="33"/>
+      <c r="O56" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P56" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q56" s="22"/>
     </row>
     <row r="57" spans="1:17" ht="116" customHeight="1">
       <c r="A57" s="6">
         <v>52</v>
       </c>
-      <c r="B57" s="38"/>
-      <c r="C57" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
       <c r="M57" s="15"/>
       <c r="N57" s="7"/>
-      <c r="O57" s="7"/>
-      <c r="P57" s="33"/>
-      <c r="Q57" s="33"/>
+      <c r="O57" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P57" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q57" s="22"/>
     </row>
     <row r="58" spans="1:17" ht="95.5" customHeight="1">
       <c r="A58" s="6">
         <v>53</v>
       </c>
-      <c r="B58" s="38"/>
-      <c r="C58" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="D58" s="51"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="51"/>
-      <c r="G58" s="52"/>
-      <c r="H58" s="33" t="s">
+      <c r="B58" s="41"/>
+      <c r="C58" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="22"/>
       <c r="M58" s="15"/>
       <c r="N58" s="7"/>
-      <c r="O58" s="7"/>
-      <c r="P58" s="30"/>
-      <c r="Q58" s="31"/>
+      <c r="O58" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P58" s="23"/>
+      <c r="Q58" s="24"/>
     </row>
     <row r="59" spans="1:17" ht="95.5" customHeight="1">
       <c r="A59" s="6">
         <v>54</v>
       </c>
-      <c r="B59" s="38"/>
-      <c r="C59" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="D59" s="51"/>
-      <c r="E59" s="51"/>
-      <c r="F59" s="51"/>
-      <c r="G59" s="52"/>
-      <c r="H59" s="33" t="s">
+      <c r="B59" s="41"/>
+      <c r="C59" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I59" s="33"/>
-      <c r="J59" s="33"/>
-      <c r="K59" s="33"/>
-      <c r="L59" s="33"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
       <c r="M59" s="15"/>
       <c r="N59" s="7"/>
-      <c r="O59" s="7"/>
-      <c r="P59" s="30"/>
-      <c r="Q59" s="31"/>
+      <c r="O59" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P59" s="23"/>
+      <c r="Q59" s="24"/>
     </row>
     <row r="60" spans="1:17" ht="95.5" customHeight="1">
       <c r="A60" s="6">
         <v>55</v>
       </c>
-      <c r="B60" s="38"/>
-      <c r="C60" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="D60" s="51"/>
-      <c r="E60" s="51"/>
-      <c r="F60" s="51"/>
-      <c r="G60" s="52"/>
-      <c r="H60" s="33" t="s">
+      <c r="B60" s="41"/>
+      <c r="C60" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I60" s="33"/>
-      <c r="J60" s="33"/>
-      <c r="K60" s="33"/>
-      <c r="L60" s="33"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="22"/>
       <c r="M60" s="15"/>
       <c r="N60" s="7"/>
-      <c r="O60" s="7"/>
-      <c r="P60" s="30"/>
-      <c r="Q60" s="31"/>
+      <c r="O60" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P60" s="23"/>
+      <c r="Q60" s="24"/>
     </row>
     <row r="61" spans="1:17" ht="95.5" customHeight="1">
       <c r="A61" s="6">
         <v>56</v>
       </c>
-      <c r="B61" s="38"/>
-      <c r="C61" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="D61" s="51"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="51"/>
-      <c r="G61" s="52"/>
-      <c r="H61" s="33" t="s">
+      <c r="B61" s="41"/>
+      <c r="C61" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I61" s="33"/>
-      <c r="J61" s="33"/>
-      <c r="K61" s="33"/>
-      <c r="L61" s="33"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="22"/>
       <c r="M61" s="15"/>
       <c r="N61" s="7"/>
-      <c r="O61" s="7"/>
-      <c r="P61" s="30"/>
-      <c r="Q61" s="31"/>
+      <c r="O61" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P61" s="23"/>
+      <c r="Q61" s="24"/>
     </row>
     <row r="62" spans="1:17" ht="95.5" customHeight="1">
       <c r="A62" s="6">
         <v>57</v>
       </c>
-      <c r="B62" s="38"/>
-      <c r="C62" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="D62" s="51"/>
-      <c r="E62" s="51"/>
-      <c r="F62" s="51"/>
-      <c r="G62" s="52"/>
-      <c r="H62" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="I62" s="33"/>
-      <c r="J62" s="33"/>
-      <c r="K62" s="33"/>
-      <c r="L62" s="33"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="22"/>
       <c r="M62" s="15"/>
       <c r="N62" s="7"/>
-      <c r="O62" s="7"/>
-      <c r="P62" s="30"/>
-      <c r="Q62" s="31"/>
+      <c r="O62" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P62" s="23"/>
+      <c r="Q62" s="24"/>
     </row>
     <row r="63" spans="1:17" ht="95.5" customHeight="1">
       <c r="A63" s="6">
         <v>58</v>
       </c>
-      <c r="B63" s="38"/>
-      <c r="C63" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="D63" s="51"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="51"/>
-      <c r="G63" s="52"/>
-      <c r="H63" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="I63" s="33"/>
-      <c r="J63" s="33"/>
-      <c r="K63" s="33"/>
-      <c r="L63" s="33"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="22"/>
       <c r="M63" s="15"/>
       <c r="N63" s="7"/>
-      <c r="O63" s="7"/>
-      <c r="P63" s="30"/>
-      <c r="Q63" s="31"/>
+      <c r="O63" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P63" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q63" s="30"/>
     </row>
     <row r="64" spans="1:17" ht="95.5" customHeight="1">
       <c r="A64" s="6">
         <v>59</v>
       </c>
-      <c r="B64" s="38"/>
-      <c r="C64" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="D64" s="51"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="51"/>
-      <c r="G64" s="52"/>
-      <c r="H64" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="I64" s="33"/>
-      <c r="J64" s="33"/>
-      <c r="K64" s="33"/>
-      <c r="L64" s="33"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="22"/>
       <c r="M64" s="15"/>
       <c r="N64" s="7"/>
-      <c r="O64" s="7"/>
-      <c r="P64" s="30"/>
-      <c r="Q64" s="31"/>
+      <c r="O64" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P64" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q64" s="30"/>
     </row>
     <row r="65" spans="1:17" ht="95.5" customHeight="1">
       <c r="A65" s="6">
         <v>60</v>
       </c>
-      <c r="B65" s="38"/>
-      <c r="C65" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="D65" s="51"/>
-      <c r="E65" s="51"/>
-      <c r="F65" s="51"/>
-      <c r="G65" s="52"/>
-      <c r="H65" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="I65" s="33"/>
-      <c r="J65" s="33"/>
-      <c r="K65" s="33"/>
-      <c r="L65" s="33"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="22"/>
       <c r="M65" s="15"/>
       <c r="N65" s="7"/>
-      <c r="O65" s="7"/>
-      <c r="P65" s="30"/>
-      <c r="Q65" s="31"/>
+      <c r="O65" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P65" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q65" s="30"/>
     </row>
     <row r="66" spans="1:17" ht="95.5" customHeight="1">
       <c r="A66" s="6">
         <v>61</v>
       </c>
-      <c r="B66" s="38"/>
-      <c r="C66" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="D66" s="51"/>
-      <c r="E66" s="51"/>
-      <c r="F66" s="51"/>
-      <c r="G66" s="52"/>
-      <c r="H66" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="I66" s="33"/>
-      <c r="J66" s="33"/>
-      <c r="K66" s="33"/>
-      <c r="L66" s="33"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="22"/>
       <c r="M66" s="15"/>
       <c r="N66" s="7"/>
-      <c r="O66" s="7"/>
-      <c r="P66" s="30"/>
-      <c r="Q66" s="31"/>
+      <c r="O66" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P66" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q66" s="30"/>
     </row>
     <row r="67" spans="1:17" ht="68" customHeight="1">
       <c r="A67" s="6">
         <v>62</v>
       </c>
-      <c r="B67" s="38"/>
-      <c r="C67" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="33"/>
-      <c r="H67" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="I67" s="32"/>
-      <c r="J67" s="32"/>
-      <c r="K67" s="32"/>
-      <c r="L67" s="32"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
       <c r="M67" s="15"/>
       <c r="N67" s="7"/>
-      <c r="O67" s="7"/>
-      <c r="P67" s="33"/>
-      <c r="Q67" s="33"/>
+      <c r="O67" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P67" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q67" s="22"/>
     </row>
     <row r="68" spans="1:17" ht="13.5" customHeight="1">
       <c r="A68" s="6">
         <v>63</v>
       </c>
-      <c r="B68" s="37" t="s">
+      <c r="B68" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="34" t="s">
+      <c r="C68" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="40" t="s">
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="I68" s="57"/>
-      <c r="J68" s="57"/>
-      <c r="K68" s="57"/>
-      <c r="L68" s="41"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="29"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="30"/>
       <c r="M68" s="15"/>
       <c r="N68" s="7"/>
-      <c r="O68" s="7"/>
-      <c r="P68" s="33"/>
-      <c r="Q68" s="33"/>
+      <c r="O68" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P68" s="22"/>
+      <c r="Q68" s="22"/>
     </row>
     <row r="69" spans="1:17" ht="13.5" customHeight="1">
       <c r="A69" s="6">
         <v>64</v>
       </c>
-      <c r="B69" s="38"/>
-      <c r="C69" s="34" t="s">
+      <c r="B69" s="41"/>
+      <c r="C69" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="40" t="s">
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="I69" s="57"/>
-      <c r="J69" s="57"/>
-      <c r="K69" s="57"/>
-      <c r="L69" s="41"/>
+      <c r="I69" s="29"/>
+      <c r="J69" s="29"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="30"/>
       <c r="M69" s="15"/>
       <c r="N69" s="7"/>
-      <c r="O69" s="7"/>
-      <c r="P69" s="33"/>
-      <c r="Q69" s="33"/>
+      <c r="O69" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P69" s="22"/>
+      <c r="Q69" s="22"/>
     </row>
     <row r="70" spans="1:17" ht="13.5" customHeight="1">
       <c r="A70" s="6">
         <v>65</v>
       </c>
-      <c r="B70" s="38"/>
-      <c r="C70" s="34" t="s">
+      <c r="B70" s="41"/>
+      <c r="C70" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="33" t="s">
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="I70" s="33"/>
-      <c r="J70" s="33"/>
-      <c r="K70" s="33"/>
-      <c r="L70" s="33"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="22"/>
       <c r="M70" s="15"/>
       <c r="N70" s="7"/>
-      <c r="O70" s="7"/>
-      <c r="P70" s="33"/>
-      <c r="Q70" s="33"/>
+      <c r="O70" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P70" s="22"/>
+      <c r="Q70" s="22"/>
     </row>
     <row r="71" spans="1:17" ht="13.5" customHeight="1">
       <c r="A71" s="6">
         <v>66</v>
       </c>
-      <c r="B71" s="38"/>
-      <c r="C71" s="32" t="s">
+      <c r="B71" s="41"/>
+      <c r="C71" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D71" s="33"/>
-      <c r="E71" s="33"/>
-      <c r="F71" s="33"/>
-      <c r="G71" s="33"/>
-      <c r="H71" s="33" t="s">
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="I71" s="33"/>
-      <c r="J71" s="33"/>
-      <c r="K71" s="33"/>
-      <c r="L71" s="33"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="22"/>
       <c r="M71" s="15"/>
       <c r="N71" s="7"/>
-      <c r="O71" s="7"/>
-      <c r="P71" s="30"/>
-      <c r="Q71" s="31"/>
+      <c r="O71" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P71" s="23"/>
+      <c r="Q71" s="24"/>
     </row>
     <row r="72" spans="1:17" ht="13.5" customHeight="1">
       <c r="A72" s="6">
         <v>67</v>
       </c>
-      <c r="B72" s="38"/>
-      <c r="C72" s="32" t="s">
+      <c r="B72" s="41"/>
+      <c r="C72" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D72" s="33"/>
-      <c r="E72" s="33"/>
-      <c r="F72" s="33"/>
-      <c r="G72" s="33"/>
-      <c r="H72" s="33" t="s">
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="I72" s="33"/>
-      <c r="J72" s="33"/>
-      <c r="K72" s="33"/>
-      <c r="L72" s="33"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="22"/>
       <c r="M72" s="15"/>
       <c r="N72" s="7"/>
-      <c r="O72" s="7"/>
-      <c r="P72" s="33"/>
-      <c r="Q72" s="33"/>
+      <c r="O72" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P72" s="22"/>
+      <c r="Q72" s="22"/>
     </row>
     <row r="73" spans="1:17" ht="13.5" customHeight="1">
       <c r="A73" s="6">
         <v>68</v>
       </c>
-      <c r="B73" s="39"/>
-      <c r="C73" s="34" t="s">
+      <c r="B73" s="42"/>
+      <c r="C73" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D73" s="35"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="36"/>
-      <c r="H73" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="I73" s="57"/>
-      <c r="J73" s="57"/>
-      <c r="K73" s="57"/>
-      <c r="L73" s="41"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="I73" s="29"/>
+      <c r="J73" s="29"/>
+      <c r="K73" s="29"/>
+      <c r="L73" s="30"/>
       <c r="M73" s="15"/>
       <c r="N73" s="7"/>
-      <c r="O73" s="7"/>
-      <c r="P73" s="40"/>
-      <c r="Q73" s="41"/>
+      <c r="O73" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P73" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q73" s="30"/>
     </row>
     <row r="74" spans="1:17" ht="69.5" customHeight="1">
       <c r="A74" s="6">
         <v>69</v>
       </c>
-      <c r="B74" s="37" t="s">
+      <c r="B74" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C74" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="D74" s="32"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="32"/>
-      <c r="G74" s="32"/>
-      <c r="H74" s="32" t="s">
+      <c r="C74" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="I74" s="32"/>
-      <c r="J74" s="32"/>
-      <c r="K74" s="32"/>
-      <c r="L74" s="32"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="21"/>
       <c r="M74" s="15"/>
       <c r="N74" s="7"/>
       <c r="O74" s="7"/>
-      <c r="P74" s="30"/>
-      <c r="Q74" s="31"/>
+      <c r="P74" s="23"/>
+      <c r="Q74" s="24"/>
     </row>
     <row r="75" spans="1:17" ht="69.5" customHeight="1">
       <c r="A75" s="6">
         <v>70</v>
       </c>
-      <c r="B75" s="38"/>
-      <c r="C75" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="D75" s="32"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="32"/>
-      <c r="G75" s="32"/>
-      <c r="H75" s="34" t="s">
+      <c r="B75" s="41"/>
+      <c r="C75" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I75" s="35"/>
-      <c r="J75" s="35"/>
-      <c r="K75" s="35"/>
-      <c r="L75" s="36"/>
+      <c r="I75" s="26"/>
+      <c r="J75" s="26"/>
+      <c r="K75" s="26"/>
+      <c r="L75" s="27"/>
       <c r="M75" s="15"/>
       <c r="N75" s="7"/>
       <c r="O75" s="7"/>
@@ -4799,21 +5070,21 @@
       <c r="A76" s="6">
         <v>71</v>
       </c>
-      <c r="B76" s="38"/>
-      <c r="C76" s="32" t="s">
+      <c r="B76" s="41"/>
+      <c r="C76" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D76" s="33"/>
-      <c r="E76" s="33"/>
-      <c r="F76" s="33"/>
-      <c r="G76" s="33"/>
-      <c r="H76" s="34" t="s">
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="I76" s="35"/>
-      <c r="J76" s="35"/>
-      <c r="K76" s="35"/>
-      <c r="L76" s="36"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="26"/>
+      <c r="L76" s="27"/>
       <c r="M76" s="15"/>
       <c r="N76" s="7"/>
       <c r="O76" s="7"/>
@@ -4824,21 +5095,21 @@
       <c r="A77" s="6">
         <v>72</v>
       </c>
-      <c r="B77" s="39"/>
-      <c r="C77" s="32" t="s">
+      <c r="B77" s="42"/>
+      <c r="C77" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D77" s="33"/>
-      <c r="E77" s="33"/>
-      <c r="F77" s="33"/>
-      <c r="G77" s="33"/>
-      <c r="H77" s="34" t="s">
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="I77" s="35"/>
-      <c r="J77" s="35"/>
-      <c r="K77" s="35"/>
-      <c r="L77" s="36"/>
+      <c r="I77" s="26"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="26"/>
+      <c r="L77" s="27"/>
       <c r="M77" s="15"/>
       <c r="N77" s="7"/>
       <c r="O77" s="7"/>
@@ -4857,12 +5128,198 @@
       <c r="B80" s="4"/>
       <c r="G80" s="4"/>
     </row>
-    <row r="81" s="4" customFormat="1" ht="11.25" customHeight="1"/>
-    <row r="82" s="4" customFormat="1" ht="11.25" customHeight="1"/>
-    <row r="83" s="4" customFormat="1" ht="11.25" customHeight="1"/>
-    <row r="84" s="4" customFormat="1" ht="11.25" customHeight="1"/>
+    <row r="81" spans="13:13" s="4" customFormat="1" ht="11.25" customHeight="1">
+      <c r="M81" s="65"/>
+    </row>
+    <row r="82" spans="13:13" s="4" customFormat="1" ht="11.25" customHeight="1">
+      <c r="M82" s="65"/>
+    </row>
+    <row r="83" spans="13:13" s="4" customFormat="1" ht="11.25" customHeight="1">
+      <c r="M83" s="65"/>
+    </row>
+    <row r="84" spans="13:13" s="4" customFormat="1" ht="11.25" customHeight="1">
+      <c r="M84" s="65"/>
+    </row>
   </sheetData>
   <mergeCells count="202">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:L76"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="B23:B67"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:L49"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:L77"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:L74"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:L67"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:L58"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:L50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:L60"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:L59"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="C14:G21"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="B68:B73"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:L68"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:L71"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:L75"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:L72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:L73"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:L69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:L70"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:L54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:L53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:L52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="P43:Q43"/>
     <mergeCell ref="C66:G66"/>
     <mergeCell ref="H66:L66"/>
     <mergeCell ref="P66:Q66"/>
@@ -4887,184 +5344,6 @@
     <mergeCell ref="P62:Q62"/>
     <mergeCell ref="C61:G61"/>
     <mergeCell ref="H61:L61"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="H54:L54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="H55:L55"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="H53:L53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:L52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="H75:L75"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="H72:L72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:L73"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="H69:L69"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="H70:L70"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C14:G21"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="B68:B73"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="H68:L68"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="H71:L71"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="H74:L74"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:L47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="H67:L67"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="H58:L58"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:L50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="H60:L60"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="H59:L59"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="H76:L76"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="B23:B67"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:L49"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="H77:L77"/>
-    <mergeCell ref="H46:L46"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP012新商品登録(入力).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP012新商品登録(入力).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F327A6F-684A-4683-9340-593CCA97F728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5B8619-04B1-4A9F-A50A-516810E6EF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="142">
   <si>
     <t>作成者</t>
   </si>
@@ -1072,39 +1072,6 @@
     </rPh>
     <rPh sb="57" eb="58">
       <t>エン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品名：テスト商品
-単価：99
-在庫数：10
-商品カテゴリ：雑貨
-画像：test.jpg
-（単価が99のとき）</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ザッカ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>タンカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1324,42 +1291,6 @@
   </si>
   <si>
     <t>エラーメッセージ
-「雑貨の単価は100～10000で入力してください」
-と表示されること</t>
-    <rPh sb="10" eb="12">
-      <t>ザッカ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラーメッセージ
-「パソコン周辺機器の単価は300～30000で入力してください」
-と表示されること</t>
-    <rPh sb="14" eb="18">
-      <t>シュウヘンキキ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラーメッセージ
 「単価は数字で入力してください」
 「パソコン周辺機器の単価は300～30000で入力してください」
 と表示されること</t>
@@ -2025,30 +1956,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>名前が違うよ</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>チガ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>桁間違い</t>
-    <rPh sb="0" eb="3">
-      <t>ケタマチガ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>！が認識されてない</t>
-    <rPh sb="2" eb="4">
-      <t>ニンシキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「単価は数字で入力してください」が出てこない
 @Pattern確認</t>
     <rPh sb="17" eb="18">
@@ -2056,46 +1963,6 @@
     </rPh>
     <rPh sb="31" eb="33">
       <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラーメッセージ
-「在庫数は数字で入力してください」
-「在庫数は0～1000000で入力してください」
-が出てこない</t>
-    <rPh sb="53" eb="54">
-      <t>デ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラーメッセージ
-「在庫数は数字で入力してください」
-「在庫数は0～1000001で入力してください」
-が出てこない</t>
-    <rPh sb="53" eb="54">
-      <t>デ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラーメッセージ
-「在庫数は数字で入力してください」
-「在庫数は0～1000002で入力してください」
-が出てこない</t>
-    <rPh sb="53" eb="54">
-      <t>デ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラーメッセージ
-「在庫数は数字で入力してください」
-「在庫数は0～1000003で入力してください」
-が出てこない</t>
-    <rPh sb="53" eb="54">
-      <t>デ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2136,19 +2003,301 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>遷移できてしまう</t>
-    <rPh sb="0" eb="2">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>メニュー画面に遷移してしまう</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
     </rPh>
     <rPh sb="7" eb="9">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>！が認識されてない（修正済み）</t>
+    <rPh sb="2" eb="4">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>シュウセイズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>桁間違い（修正済み）</t>
+    <rPh sb="0" eb="3">
+      <t>ケタマチガ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>シュウセイズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーメッセージ
+「商品カテゴリが文房具の場合は単価が30円以上5000円以下にする必要があります。」
+と表示されること</t>
+    <rPh sb="10" eb="12">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ブンボウグ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カテゴリによって単価が違うっていうエラーと単価の項目は数字で入力しないといけないって教えるエラーを出さないといけない
+「単価は数字で入力してください」が出てこない
+@Pattern確認</t>
+    <rPh sb="8" eb="10">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>オシ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーメッセージ「在庫数は0～1000000の数字で入力してください」
+と表示されること</t>
+    <rPh sb="9" eb="12">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーメッセージ
+「在庫数は数字で入力してください」
+「在庫数は0～1000000で入力してください」
+が出てこない（修正済み)</t>
+    <rPh sb="53" eb="54">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="59" eb="62">
+      <t>シュウセイズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーメッセージ
+「在庫数は数字で入力してください」
+「在庫数は0～1000001で入力してください」
+が出てこない（修正済み）</t>
+    <rPh sb="53" eb="54">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="59" eb="62">
+      <t>シュウセイズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーメッセージ
+「在庫数は数字で入力してください」
+「在庫数は0～1000002で入力してください」
+が出てこない（修正済み）</t>
+    <rPh sb="53" eb="54">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーメッセージ
+「在庫数は数字で入力してください」
+「在庫数は0～1000003で入力してください」
+が出てこない（修正済み）</t>
+    <rPh sb="53" eb="54">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>遷移できてしまう
+→遷移できないようにしてほしい</t>
+    <rPh sb="0" eb="2">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未対応</t>
+    <rPh sb="0" eb="3">
+      <t>ミタイオウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>修正済み）</t>
+    <rPh sb="0" eb="3">
+      <t>シュウセイズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>完了ボタンにすること（修正）</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>現在は２文字以上２０文字以内になっている
+→５文字以上にすること
+エラー文もひょうじさせること（修正済み）</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>モジイナイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーメッセージ
+「商品カテゴリが雑貨の場合は単価が100円以上10000円以下にする必要があります。」
+と表示されること</t>
+    <rPh sb="17" eb="19">
+      <t>ザッカ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名：テスト商品
+単価：99
+在庫数：10
+商品カテゴリ：雑貨
+画像：test.jpg
+（単価が99のとき）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーメッセージ
+「商品カテゴリが雑貨の場合は単価が100円以上10000円以下にする必要があります。」
+と表示されること</t>
+    <rPh sb="54" eb="56">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーメッセージ
+「商品カテゴリがパソコン周辺機器の場合は単価が300円以上30000円以下にする必要があります。」
+と表示されること</t>
+    <rPh sb="21" eb="23">
+      <t>シュウヘン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーメッセージ
+「商品カテゴリがパソコン周辺機器の場合は単価が300円以上30000円以下にする必要があります。」
+と表示されること</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2456,7 +2605,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2504,10 +2653,106 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2518,45 +2763,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2574,84 +2792,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3005,8 +3145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" zoomScale="81" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="O74" sqref="O74"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScale="81" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="T77" sqref="T77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -3017,7 +3157,7 @@
     <col min="7" max="7" width="8" style="5" customWidth="1"/>
     <col min="8" max="11" width="7.1796875" style="4" customWidth="1"/>
     <col min="12" max="12" width="10.7265625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="10.453125" style="65" customWidth="1"/>
+    <col min="13" max="13" width="10.453125" style="19" customWidth="1"/>
     <col min="14" max="14" width="8.453125" style="4" customWidth="1"/>
     <col min="15" max="15" width="11.81640625" style="4" customWidth="1"/>
     <col min="16" max="16" width="17.1796875" style="4" customWidth="1"/>
@@ -3026,25 +3166,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="54" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3059,23 +3199,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="58" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -3088,10 +3228,10 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="25" customHeight="1">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="48"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="44" t="s">
         <v>29</v>
       </c>
@@ -3111,10 +3251,10 @@
       <c r="Q3" s="46"/>
     </row>
     <row r="4" spans="1:17" ht="40.5" customHeight="1">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="48"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="44" t="s">
         <v>41</v>
       </c>
@@ -3140,21 +3280,21 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="49" t="s">
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="64" t="s">
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="18" t="s">
         <v>13</v>
       </c>
       <c r="N5" s="14" t="s">
@@ -3163,117 +3303,119 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="49" t="s">
+      <c r="P5" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="50"/>
+      <c r="Q5" s="48"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22" t="s">
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
       <c r="M6" s="15">
         <v>45503</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
+        <v>119</v>
+      </c>
+      <c r="P6" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q6" s="33"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="22" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="21" t="s">
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
+        <v>119</v>
+      </c>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
     </row>
     <row r="8" spans="1:17" ht="13.5" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="25" t="s">
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="36"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="24"/>
+        <v>119</v>
+      </c>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="41"/>
     </row>
     <row r="9" spans="1:17" ht="11.5" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="25" t="s">
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="36"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P9" s="16"/>
       <c r="Q9" s="17"/>
@@ -3283,22 +3425,22 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="25" t="s">
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="27"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="36"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P10" s="16"/>
       <c r="Q10" s="17"/>
@@ -3308,22 +3450,22 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="25" t="s">
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="27"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="36"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="17"/>
@@ -3333,22 +3475,22 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="25" t="s">
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="27"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="36"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="17"/>
@@ -3358,22 +3500,22 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="25" t="s">
+      <c r="C13" s="60"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="27"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="36"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P13" s="16"/>
       <c r="Q13" s="17"/>
@@ -3383,24 +3525,24 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="28" t="s">
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="30"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="41"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P14" s="16"/>
       <c r="Q14" s="17"/>
@@ -3410,22 +3552,22 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="28" t="s">
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="30"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="41"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P15" s="16"/>
       <c r="Q15" s="17"/>
@@ -3435,22 +3577,22 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="28" t="s">
+      <c r="C16" s="57"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="30"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="41"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P16" s="16"/>
       <c r="Q16" s="17"/>
@@ -3460,22 +3602,22 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="28" t="s">
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="30"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="41"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P17" s="16"/>
       <c r="Q17" s="17"/>
@@ -3485,22 +3627,22 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="28" t="s">
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="30"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="41"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P18" s="16"/>
       <c r="Q18" s="17"/>
@@ -3510,22 +3652,22 @@
         <v>14</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="25" t="s">
+      <c r="C19" s="57"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="30"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="41"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P19" s="16"/>
       <c r="Q19" s="17"/>
@@ -3535,22 +3677,22 @@
         <v>15</v>
       </c>
       <c r="B20" s="8"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="28" t="s">
+      <c r="C20" s="57"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="30"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="41"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P20" s="16"/>
       <c r="Q20" s="17"/>
@@ -3560,25 +3702,25 @@
         <v>16</v>
       </c>
       <c r="B21" s="8"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="28" t="s">
+      <c r="C21" s="60"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="30"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="41"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P21" s="16" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="Q21" s="17"/>
     </row>
@@ -3587,24 +3729,24 @@
         <v>17</v>
       </c>
       <c r="B22" s="8"/>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="25" t="s">
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="27"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="36"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P22" s="16"/>
       <c r="Q22" s="17"/>
@@ -3613,652 +3755,654 @@
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22" t="s">
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
+        <v>119</v>
+      </c>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
     </row>
     <row r="24" spans="1:17" ht="92" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="21" t="s">
+      <c r="B24" s="38"/>
+      <c r="C24" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22" t="s">
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
+        <v>119</v>
+      </c>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
     </row>
     <row r="25" spans="1:17" ht="85" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="21" t="s">
+      <c r="B25" s="38"/>
+      <c r="C25" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
+        <v>119</v>
+      </c>
+      <c r="P25" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q25" s="33"/>
     </row>
     <row r="26" spans="1:17" ht="85" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="21" t="s">
+      <c r="B26" s="38"/>
+      <c r="C26" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22" t="s">
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
+        <v>119</v>
+      </c>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
     </row>
     <row r="27" spans="1:17" ht="96.5" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="21" t="s">
+      <c r="B27" s="38"/>
+      <c r="C27" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22" t="s">
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
+        <v>119</v>
+      </c>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
     </row>
     <row r="28" spans="1:17" ht="90" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="21" t="s">
+      <c r="B28" s="38"/>
+      <c r="C28" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
+        <v>119</v>
+      </c>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
     </row>
     <row r="29" spans="1:17" ht="85" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="21" t="s">
+      <c r="B29" s="38"/>
+      <c r="C29" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22" t="s">
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
+        <v>119</v>
+      </c>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
     </row>
     <row r="30" spans="1:17" ht="85" customHeight="1">
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="21" t="s">
+      <c r="B30" s="38"/>
+      <c r="C30" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
       <c r="M30" s="15"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P30" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q30" s="22"/>
+        <v>119</v>
+      </c>
+      <c r="P30" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q30" s="33"/>
     </row>
     <row r="31" spans="1:17" ht="85" customHeight="1">
       <c r="A31" s="6">
         <v>26</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="21" t="s">
+      <c r="B31" s="38"/>
+      <c r="C31" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22" t="s">
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
       <c r="M31" s="15"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
+        <v>119</v>
+      </c>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
     </row>
     <row r="32" spans="1:17" ht="85" customHeight="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
-      <c r="B32" s="41"/>
-      <c r="C32" s="21" t="s">
+      <c r="B32" s="38"/>
+      <c r="C32" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22" t="s">
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
       <c r="M32" s="15"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
+        <v>119</v>
+      </c>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
     </row>
     <row r="33" spans="1:17" ht="85" customHeight="1">
       <c r="A33" s="6">
         <v>28</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22" t="s">
+      <c r="B33" s="38"/>
+      <c r="C33" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
       <c r="M33" s="15"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
+        <v>119</v>
+      </c>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="33"/>
     </row>
     <row r="34" spans="1:17" ht="85" customHeight="1">
       <c r="A34" s="6">
         <v>29</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22" t="s">
+      <c r="B34" s="38"/>
+      <c r="C34" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
       <c r="M34" s="15"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
+        <v>119</v>
+      </c>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="33"/>
     </row>
     <row r="35" spans="1:17" ht="85" customHeight="1">
       <c r="A35" s="6">
         <v>30</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="27"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="36"/>
       <c r="M35" s="15"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P35" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="P35" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="Q35" s="22"/>
+      <c r="Q35" s="33"/>
     </row>
     <row r="36" spans="1:17" ht="85" customHeight="1">
       <c r="A36" s="6">
         <v>31</v>
       </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="21" t="s">
+      <c r="B36" s="38"/>
+      <c r="C36" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
       <c r="M36" s="15"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
+        <v>119</v>
+      </c>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="33"/>
     </row>
     <row r="37" spans="1:17" ht="85" customHeight="1">
       <c r="A37" s="6">
         <v>32</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="21" t="s">
+      <c r="B37" s="38"/>
+      <c r="C37" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22" t="s">
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
       <c r="M37" s="15"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
+        <v>119</v>
+      </c>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33"/>
     </row>
     <row r="38" spans="1:17" ht="85" customHeight="1">
       <c r="A38" s="6">
         <v>33</v>
       </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="21" t="s">
+      <c r="B38" s="38"/>
+      <c r="C38" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22" t="s">
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
       <c r="M38" s="15"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
+        <v>119</v>
+      </c>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="33"/>
     </row>
     <row r="39" spans="1:17" ht="88" customHeight="1">
       <c r="A39" s="6">
         <v>34</v>
       </c>
-      <c r="B39" s="41"/>
-      <c r="C39" s="21" t="s">
+      <c r="B39" s="38"/>
+      <c r="C39" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22" t="s">
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
       <c r="M39" s="15"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
+        <v>119</v>
+      </c>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="33"/>
     </row>
     <row r="40" spans="1:17" ht="112" customHeight="1">
       <c r="A40" s="6">
         <v>35</v>
       </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="21" t="s">
+      <c r="B40" s="38"/>
+      <c r="C40" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22" t="s">
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
       <c r="M40" s="15"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
+        <v>119</v>
+      </c>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="33"/>
     </row>
     <row r="41" spans="1:17" ht="102" customHeight="1">
       <c r="A41" s="6">
         <v>36</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="18" t="s">
+      <c r="B41" s="38"/>
+      <c r="C41" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
       <c r="M41" s="15"/>
       <c r="N41" s="7"/>
       <c r="O41" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="24"/>
+        <v>119</v>
+      </c>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="41"/>
     </row>
     <row r="42" spans="1:17" ht="90.5" customHeight="1">
       <c r="A42" s="6">
         <v>37</v>
       </c>
-      <c r="B42" s="41"/>
-      <c r="C42" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
       <c r="M42" s="15"/>
       <c r="N42" s="7"/>
       <c r="O42" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="22"/>
+        <v>119</v>
+      </c>
+      <c r="P42" s="33"/>
+      <c r="Q42" s="33"/>
     </row>
     <row r="43" spans="1:17" ht="84.5" customHeight="1">
       <c r="A43" s="6">
         <v>38</v>
       </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22" t="s">
+      <c r="B43" s="38"/>
+      <c r="C43" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
       <c r="M43" s="15"/>
       <c r="N43" s="7"/>
       <c r="O43" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="22"/>
+        <v>119</v>
+      </c>
+      <c r="P43" s="33"/>
+      <c r="Q43" s="33"/>
     </row>
     <row r="44" spans="1:17" ht="77.5" customHeight="1">
       <c r="A44" s="6">
         <v>39</v>
       </c>
-      <c r="B44" s="41"/>
-      <c r="C44" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22" t="s">
+      <c r="B44" s="38"/>
+      <c r="C44" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
       <c r="M44" s="15"/>
       <c r="N44" s="7"/>
       <c r="O44" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="22"/>
+        <v>119</v>
+      </c>
+      <c r="P44" s="33"/>
+      <c r="Q44" s="33"/>
     </row>
     <row r="45" spans="1:17" ht="81" customHeight="1">
       <c r="A45" s="6">
         <v>40</v>
       </c>
-      <c r="B45" s="41"/>
-      <c r="C45" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22" t="s">
+      <c r="B45" s="38"/>
+      <c r="C45" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
       <c r="M45" s="15"/>
       <c r="N45" s="7"/>
       <c r="O45" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P45" s="23"/>
-      <c r="Q45" s="24"/>
+        <v>119</v>
+      </c>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="41"/>
     </row>
     <row r="46" spans="1:17" ht="98" customHeight="1">
       <c r="A46" s="6">
         <v>41</v>
       </c>
-      <c r="B46" s="41"/>
-      <c r="C46" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22" t="s">
+      <c r="B46" s="38"/>
+      <c r="C46" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
       <c r="M46" s="15"/>
       <c r="N46" s="7"/>
       <c r="O46" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P46" s="16"/>
       <c r="Q46" s="17"/>
@@ -4267,854 +4411,870 @@
       <c r="A47" s="6">
         <v>42</v>
       </c>
-      <c r="B47" s="41"/>
-      <c r="C47" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
       <c r="M47" s="15"/>
       <c r="N47" s="7"/>
       <c r="O47" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="22"/>
+        <v>119</v>
+      </c>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="33"/>
     </row>
     <row r="48" spans="1:17" ht="91" customHeight="1">
       <c r="A48" s="6">
         <v>43</v>
       </c>
-      <c r="B48" s="41"/>
-      <c r="C48" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="22"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
       <c r="M48" s="15"/>
       <c r="N48" s="7"/>
       <c r="O48" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P48" s="22"/>
-      <c r="Q48" s="22"/>
+        <v>119</v>
+      </c>
+      <c r="P48" s="33"/>
+      <c r="Q48" s="33"/>
     </row>
     <row r="49" spans="1:17" ht="116" customHeight="1">
       <c r="A49" s="6">
         <v>44</v>
       </c>
-      <c r="B49" s="41"/>
-      <c r="C49" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22" t="s">
+      <c r="B49" s="38"/>
+      <c r="C49" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="33"/>
       <c r="M49" s="15"/>
       <c r="N49" s="7"/>
       <c r="O49" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P49" s="22"/>
-      <c r="Q49" s="22"/>
+        <v>119</v>
+      </c>
+      <c r="P49" s="33"/>
+      <c r="Q49" s="33"/>
     </row>
     <row r="50" spans="1:17" ht="116" customHeight="1">
       <c r="A50" s="6">
         <v>45</v>
       </c>
-      <c r="B50" s="41"/>
-      <c r="C50" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22" t="s">
+      <c r="B50" s="38"/>
+      <c r="C50" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="33"/>
       <c r="M50" s="15"/>
       <c r="N50" s="7"/>
       <c r="O50" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P50" s="22"/>
-      <c r="Q50" s="22"/>
+        <v>119</v>
+      </c>
+      <c r="P50" s="33"/>
+      <c r="Q50" s="33"/>
     </row>
     <row r="51" spans="1:17" ht="116" customHeight="1">
       <c r="A51" s="6">
         <v>46</v>
       </c>
-      <c r="B51" s="41"/>
-      <c r="C51" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22" t="s">
+      <c r="B51" s="38"/>
+      <c r="C51" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="22"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="33"/>
       <c r="M51" s="15"/>
       <c r="N51" s="7"/>
       <c r="O51" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P51" s="22"/>
-      <c r="Q51" s="22"/>
+        <v>119</v>
+      </c>
+      <c r="P51" s="33"/>
+      <c r="Q51" s="33"/>
     </row>
     <row r="52" spans="1:17" ht="116" customHeight="1">
       <c r="A52" s="6">
         <v>47</v>
       </c>
-      <c r="B52" s="41"/>
-      <c r="C52" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22" t="s">
+      <c r="B52" s="38"/>
+      <c r="C52" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="22"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
       <c r="M52" s="15"/>
       <c r="N52" s="7"/>
       <c r="O52" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P52" s="22"/>
-      <c r="Q52" s="22"/>
+        <v>119</v>
+      </c>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
     </row>
     <row r="53" spans="1:17" ht="116" customHeight="1">
       <c r="A53" s="6">
         <v>48</v>
       </c>
-      <c r="B53" s="41"/>
-      <c r="C53" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="22"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="I53" s="33"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
       <c r="M53" s="15"/>
       <c r="N53" s="7"/>
       <c r="O53" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P53" s="22"/>
-      <c r="Q53" s="22"/>
+        <v>119</v>
+      </c>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
     </row>
     <row r="54" spans="1:17" ht="116" customHeight="1">
       <c r="A54" s="6">
         <v>49</v>
       </c>
-      <c r="B54" s="41"/>
-      <c r="C54" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="22"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="I54" s="33"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
       <c r="M54" s="15"/>
       <c r="N54" s="7"/>
       <c r="O54" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P54" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q54" s="22"/>
+        <v>118</v>
+      </c>
+      <c r="P54" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q54" s="33"/>
     </row>
     <row r="55" spans="1:17" ht="116" customHeight="1">
       <c r="A55" s="6">
         <v>50</v>
       </c>
-      <c r="B55" s="41"/>
-      <c r="C55" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="I55" s="22"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="22"/>
-      <c r="L55" s="22"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="I55" s="33"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
       <c r="M55" s="15"/>
       <c r="N55" s="7"/>
       <c r="O55" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P55" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="P55" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="Q55" s="22"/>
+      <c r="Q55" s="33"/>
     </row>
     <row r="56" spans="1:17" ht="116" customHeight="1">
       <c r="A56" s="6">
         <v>51</v>
       </c>
-      <c r="B56" s="41"/>
-      <c r="C56" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="22"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
       <c r="M56" s="15"/>
       <c r="N56" s="7"/>
       <c r="O56" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P56" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q56" s="22"/>
+        <v>118</v>
+      </c>
+      <c r="P56" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q56" s="33"/>
     </row>
     <row r="57" spans="1:17" ht="116" customHeight="1">
       <c r="A57" s="6">
         <v>52</v>
       </c>
-      <c r="B57" s="41"/>
-      <c r="C57" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="22"/>
-      <c r="L57" s="22"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="33"/>
       <c r="M57" s="15"/>
       <c r="N57" s="7"/>
       <c r="O57" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P57" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q57" s="22"/>
+        <v>118</v>
+      </c>
+      <c r="P57" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q57" s="33"/>
     </row>
     <row r="58" spans="1:17" ht="95.5" customHeight="1">
       <c r="A58" s="6">
         <v>53</v>
       </c>
-      <c r="B58" s="41"/>
-      <c r="C58" s="18" t="s">
+      <c r="B58" s="38"/>
+      <c r="C58" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="22" t="s">
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="22"/>
-      <c r="L58" s="22"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
       <c r="M58" s="15"/>
       <c r="N58" s="7"/>
       <c r="O58" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P58" s="23"/>
-      <c r="Q58" s="24"/>
+        <v>119</v>
+      </c>
+      <c r="P58" s="40"/>
+      <c r="Q58" s="41"/>
     </row>
     <row r="59" spans="1:17" ht="95.5" customHeight="1">
       <c r="A59" s="6">
         <v>54</v>
       </c>
-      <c r="B59" s="41"/>
-      <c r="C59" s="18" t="s">
+      <c r="B59" s="38"/>
+      <c r="C59" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="22" t="s">
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="22"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="33"/>
+      <c r="L59" s="33"/>
       <c r="M59" s="15"/>
       <c r="N59" s="7"/>
       <c r="O59" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P59" s="23"/>
-      <c r="Q59" s="24"/>
+        <v>119</v>
+      </c>
+      <c r="P59" s="40"/>
+      <c r="Q59" s="41"/>
     </row>
     <row r="60" spans="1:17" ht="95.5" customHeight="1">
       <c r="A60" s="6">
         <v>55</v>
       </c>
-      <c r="B60" s="41"/>
-      <c r="C60" s="18" t="s">
+      <c r="B60" s="38"/>
+      <c r="C60" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="22" t="s">
+      <c r="D60" s="51"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I60" s="22"/>
-      <c r="J60" s="22"/>
-      <c r="K60" s="22"/>
-      <c r="L60" s="22"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="33"/>
+      <c r="L60" s="33"/>
       <c r="M60" s="15"/>
       <c r="N60" s="7"/>
       <c r="O60" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P60" s="23"/>
-      <c r="Q60" s="24"/>
+        <v>119</v>
+      </c>
+      <c r="P60" s="40"/>
+      <c r="Q60" s="41"/>
     </row>
     <row r="61" spans="1:17" ht="95.5" customHeight="1">
       <c r="A61" s="6">
         <v>56</v>
       </c>
-      <c r="B61" s="41"/>
-      <c r="C61" s="18" t="s">
+      <c r="B61" s="38"/>
+      <c r="C61" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="22" t="s">
+      <c r="D61" s="51"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I61" s="22"/>
-      <c r="J61" s="22"/>
-      <c r="K61" s="22"/>
-      <c r="L61" s="22"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="33"/>
+      <c r="K61" s="33"/>
+      <c r="L61" s="33"/>
       <c r="M61" s="15"/>
       <c r="N61" s="7"/>
       <c r="O61" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P61" s="23"/>
-      <c r="Q61" s="24"/>
+        <v>119</v>
+      </c>
+      <c r="P61" s="40"/>
+      <c r="Q61" s="41"/>
     </row>
     <row r="62" spans="1:17" ht="95.5" customHeight="1">
       <c r="A62" s="6">
         <v>57</v>
       </c>
-      <c r="B62" s="41"/>
-      <c r="C62" s="18" t="s">
+      <c r="B62" s="38"/>
+      <c r="C62" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="22"/>
-      <c r="L62" s="22"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="I62" s="33"/>
+      <c r="J62" s="33"/>
+      <c r="K62" s="33"/>
+      <c r="L62" s="33"/>
       <c r="M62" s="15"/>
       <c r="N62" s="7"/>
       <c r="O62" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P62" s="23"/>
-      <c r="Q62" s="24"/>
+        <v>119</v>
+      </c>
+      <c r="P62" s="40"/>
+      <c r="Q62" s="41"/>
     </row>
     <row r="63" spans="1:17" ht="95.5" customHeight="1">
       <c r="A63" s="6">
         <v>58</v>
       </c>
-      <c r="B63" s="41"/>
-      <c r="C63" s="18" t="s">
+      <c r="B63" s="38"/>
+      <c r="C63" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="22"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="51"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="I63" s="33"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="33"/>
       <c r="M63" s="15"/>
       <c r="N63" s="7"/>
       <c r="O63" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P63" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q63" s="30"/>
+        <v>119</v>
+      </c>
+      <c r="P63" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q63" s="41"/>
     </row>
     <row r="64" spans="1:17" ht="95.5" customHeight="1">
       <c r="A64" s="6">
         <v>59</v>
       </c>
-      <c r="B64" s="41"/>
-      <c r="C64" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="22"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="I64" s="33"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="33"/>
       <c r="M64" s="15"/>
       <c r="N64" s="7"/>
       <c r="O64" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P64" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q64" s="30"/>
+        <v>119</v>
+      </c>
+      <c r="P64" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q64" s="41"/>
     </row>
     <row r="65" spans="1:17" ht="95.5" customHeight="1">
       <c r="A65" s="6">
         <v>60</v>
       </c>
-      <c r="B65" s="41"/>
-      <c r="C65" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="22"/>
-      <c r="L65" s="22"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="D65" s="51"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="I65" s="33"/>
+      <c r="J65" s="33"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="33"/>
       <c r="M65" s="15"/>
       <c r="N65" s="7"/>
       <c r="O65" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P65" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q65" s="30"/>
+        <v>119</v>
+      </c>
+      <c r="P65" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q65" s="41"/>
     </row>
     <row r="66" spans="1:17" ht="95.5" customHeight="1">
       <c r="A66" s="6">
         <v>61</v>
       </c>
-      <c r="B66" s="41"/>
-      <c r="C66" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="22"/>
-      <c r="L66" s="22"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="D66" s="51"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="51"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="I66" s="33"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="33"/>
+      <c r="L66" s="33"/>
       <c r="M66" s="15"/>
       <c r="N66" s="7"/>
       <c r="O66" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P66" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q66" s="30"/>
+        <v>119</v>
+      </c>
+      <c r="P66" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q66" s="41"/>
     </row>
     <row r="67" spans="1:17" ht="68" customHeight="1">
       <c r="A67" s="6">
         <v>62</v>
       </c>
-      <c r="B67" s="41"/>
-      <c r="C67" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="I67" s="21"/>
-      <c r="J67" s="21"/>
-      <c r="K67" s="21"/>
-      <c r="L67" s="21"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="I67" s="32"/>
+      <c r="J67" s="32"/>
+      <c r="K67" s="32"/>
+      <c r="L67" s="32"/>
       <c r="M67" s="15"/>
       <c r="N67" s="7"/>
       <c r="O67" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P67" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="P67" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="Q67" s="22"/>
+      <c r="Q67" s="33"/>
     </row>
     <row r="68" spans="1:17" ht="13.5" customHeight="1">
       <c r="A68" s="6">
         <v>63</v>
       </c>
-      <c r="B68" s="40" t="s">
+      <c r="B68" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="25" t="s">
+      <c r="C68" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="28" t="s">
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="I68" s="29"/>
-      <c r="J68" s="29"/>
-      <c r="K68" s="29"/>
-      <c r="L68" s="30"/>
+      <c r="I68" s="56"/>
+      <c r="J68" s="56"/>
+      <c r="K68" s="56"/>
+      <c r="L68" s="41"/>
       <c r="M68" s="15"/>
       <c r="N68" s="7"/>
       <c r="O68" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P68" s="22"/>
-      <c r="Q68" s="22"/>
+        <v>119</v>
+      </c>
+      <c r="P68" s="33"/>
+      <c r="Q68" s="33"/>
     </row>
     <row r="69" spans="1:17" ht="13.5" customHeight="1">
       <c r="A69" s="6">
         <v>64</v>
       </c>
-      <c r="B69" s="41"/>
-      <c r="C69" s="25" t="s">
+      <c r="B69" s="38"/>
+      <c r="C69" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="28" t="s">
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="I69" s="29"/>
-      <c r="J69" s="29"/>
-      <c r="K69" s="29"/>
-      <c r="L69" s="30"/>
+      <c r="I69" s="56"/>
+      <c r="J69" s="56"/>
+      <c r="K69" s="56"/>
+      <c r="L69" s="41"/>
       <c r="M69" s="15"/>
       <c r="N69" s="7"/>
       <c r="O69" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P69" s="22"/>
-      <c r="Q69" s="22"/>
+        <v>119</v>
+      </c>
+      <c r="P69" s="33"/>
+      <c r="Q69" s="33"/>
     </row>
     <row r="70" spans="1:17" ht="13.5" customHeight="1">
       <c r="A70" s="6">
         <v>65</v>
       </c>
-      <c r="B70" s="41"/>
-      <c r="C70" s="25" t="s">
+      <c r="B70" s="38"/>
+      <c r="C70" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="22" t="s">
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="I70" s="22"/>
-      <c r="J70" s="22"/>
-      <c r="K70" s="22"/>
-      <c r="L70" s="22"/>
+      <c r="I70" s="33"/>
+      <c r="J70" s="33"/>
+      <c r="K70" s="33"/>
+      <c r="L70" s="33"/>
       <c r="M70" s="15"/>
       <c r="N70" s="7"/>
       <c r="O70" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P70" s="22"/>
-      <c r="Q70" s="22"/>
+        <v>119</v>
+      </c>
+      <c r="P70" s="33"/>
+      <c r="Q70" s="33"/>
     </row>
     <row r="71" spans="1:17" ht="13.5" customHeight="1">
       <c r="A71" s="6">
         <v>66</v>
       </c>
-      <c r="B71" s="41"/>
-      <c r="C71" s="21" t="s">
+      <c r="B71" s="38"/>
+      <c r="C71" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="22" t="s">
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="I71" s="22"/>
-      <c r="J71" s="22"/>
-      <c r="K71" s="22"/>
-      <c r="L71" s="22"/>
+      <c r="I71" s="33"/>
+      <c r="J71" s="33"/>
+      <c r="K71" s="33"/>
+      <c r="L71" s="33"/>
       <c r="M71" s="15"/>
       <c r="N71" s="7"/>
       <c r="O71" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P71" s="23"/>
-      <c r="Q71" s="24"/>
+        <v>119</v>
+      </c>
+      <c r="P71" s="40"/>
+      <c r="Q71" s="41"/>
     </row>
     <row r="72" spans="1:17" ht="13.5" customHeight="1">
       <c r="A72" s="6">
         <v>67</v>
       </c>
-      <c r="B72" s="41"/>
-      <c r="C72" s="21" t="s">
+      <c r="B72" s="38"/>
+      <c r="C72" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="22" t="s">
+      <c r="D72" s="33"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="I72" s="22"/>
-      <c r="J72" s="22"/>
-      <c r="K72" s="22"/>
-      <c r="L72" s="22"/>
+      <c r="I72" s="33"/>
+      <c r="J72" s="33"/>
+      <c r="K72" s="33"/>
+      <c r="L72" s="33"/>
       <c r="M72" s="15"/>
       <c r="N72" s="7"/>
       <c r="O72" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P72" s="22"/>
-      <c r="Q72" s="22"/>
+        <v>119</v>
+      </c>
+      <c r="P72" s="33"/>
+      <c r="Q72" s="33"/>
     </row>
     <row r="73" spans="1:17" ht="13.5" customHeight="1">
       <c r="A73" s="6">
         <v>68</v>
       </c>
-      <c r="B73" s="42"/>
-      <c r="C73" s="25" t="s">
+      <c r="B73" s="39"/>
+      <c r="C73" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="I73" s="29"/>
-      <c r="J73" s="29"/>
-      <c r="K73" s="29"/>
-      <c r="L73" s="30"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="I73" s="56"/>
+      <c r="J73" s="56"/>
+      <c r="K73" s="56"/>
+      <c r="L73" s="41"/>
       <c r="M73" s="15"/>
       <c r="N73" s="7"/>
       <c r="O73" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P73" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q73" s="30"/>
+        <v>118</v>
+      </c>
+      <c r="P73" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q73" s="41"/>
     </row>
     <row r="74" spans="1:17" ht="69.5" customHeight="1">
       <c r="A74" s="6">
         <v>69</v>
       </c>
-      <c r="B74" s="40" t="s">
+      <c r="B74" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C74" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="21"/>
-      <c r="H74" s="21" t="s">
+      <c r="C74" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="I74" s="21"/>
-      <c r="J74" s="21"/>
-      <c r="K74" s="21"/>
-      <c r="L74" s="21"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="32"/>
+      <c r="K74" s="32"/>
+      <c r="L74" s="32"/>
       <c r="M74" s="15"/>
       <c r="N74" s="7"/>
-      <c r="O74" s="7"/>
-      <c r="P74" s="23"/>
-      <c r="Q74" s="24"/>
+      <c r="O74" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P74" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q74" s="41"/>
     </row>
     <row r="75" spans="1:17" ht="69.5" customHeight="1">
       <c r="A75" s="6">
         <v>70</v>
       </c>
-      <c r="B75" s="41"/>
-      <c r="C75" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="25" t="s">
+      <c r="B75" s="38"/>
+      <c r="C75" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="I75" s="26"/>
-      <c r="J75" s="26"/>
-      <c r="K75" s="26"/>
-      <c r="L75" s="27"/>
+      <c r="I75" s="35"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="35"/>
+      <c r="L75" s="36"/>
       <c r="M75" s="15"/>
       <c r="N75" s="7"/>
-      <c r="O75" s="7"/>
-      <c r="P75" s="16"/>
-      <c r="Q75" s="17"/>
+      <c r="O75" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P75" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q75" s="41"/>
     </row>
     <row r="76" spans="1:17" ht="91.5" customHeight="1">
       <c r="A76" s="6">
         <v>71</v>
       </c>
-      <c r="B76" s="41"/>
-      <c r="C76" s="21" t="s">
+      <c r="B76" s="38"/>
+      <c r="C76" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="25" t="s">
+      <c r="D76" s="33"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="I76" s="26"/>
-      <c r="J76" s="26"/>
-      <c r="K76" s="26"/>
-      <c r="L76" s="27"/>
+      <c r="I76" s="35"/>
+      <c r="J76" s="35"/>
+      <c r="K76" s="35"/>
+      <c r="L76" s="36"/>
       <c r="M76" s="15"/>
       <c r="N76" s="7"/>
-      <c r="O76" s="7"/>
-      <c r="P76" s="16"/>
-      <c r="Q76" s="17"/>
+      <c r="O76" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P76" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q76" s="41"/>
     </row>
     <row r="77" spans="1:17" ht="90.5" customHeight="1">
       <c r="A77" s="6">
         <v>72</v>
       </c>
-      <c r="B77" s="42"/>
-      <c r="C77" s="21" t="s">
+      <c r="B77" s="39"/>
+      <c r="C77" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="25" t="s">
+      <c r="D77" s="33"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="I77" s="26"/>
-      <c r="J77" s="26"/>
-      <c r="K77" s="26"/>
-      <c r="L77" s="27"/>
+      <c r="I77" s="35"/>
+      <c r="J77" s="35"/>
+      <c r="K77" s="35"/>
+      <c r="L77" s="36"/>
       <c r="M77" s="15"/>
       <c r="N77" s="7"/>
-      <c r="O77" s="7"/>
-      <c r="P77" s="16"/>
-      <c r="Q77" s="17"/>
+      <c r="O77" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P77" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q77" s="41"/>
     </row>
     <row r="78" spans="1:17" ht="11.25" customHeight="1">
       <c r="B78" s="4"/>
@@ -5129,19 +5289,200 @@
       <c r="G80" s="4"/>
     </row>
     <row r="81" spans="13:13" s="4" customFormat="1" ht="11.25" customHeight="1">
-      <c r="M81" s="65"/>
+      <c r="M81" s="19"/>
     </row>
     <row r="82" spans="13:13" s="4" customFormat="1" ht="11.25" customHeight="1">
-      <c r="M82" s="65"/>
+      <c r="M82" s="19"/>
     </row>
     <row r="83" spans="13:13" s="4" customFormat="1" ht="11.25" customHeight="1">
-      <c r="M83" s="65"/>
+      <c r="M83" s="19"/>
     </row>
     <row r="84" spans="13:13" s="4" customFormat="1" ht="11.25" customHeight="1">
-      <c r="M84" s="65"/>
+      <c r="M84" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="205">
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:L66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:L56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:L57"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:L65"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:L63"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:L64"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:L62"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:L61"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:L54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:L53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:L52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:L75"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:L72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:L73"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:L69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:L70"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C14:G21"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="B68:B73"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:L68"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:L71"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:L74"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:L67"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:L58"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:L50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:L60"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:L59"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:M1"/>
@@ -5166,184 +5507,6 @@
     <mergeCell ref="H43:L43"/>
     <mergeCell ref="P73:Q73"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="H74:L74"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:L47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="H67:L67"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="H58:L58"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:L50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="H60:L60"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="H59:L59"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="C14:G21"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="B68:B73"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="H68:L68"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="H71:L71"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="H75:L75"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="H72:L72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:L73"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="H69:L69"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="H70:L70"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="H54:L54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="H55:L55"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="H53:L53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:L52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="H66:L66"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="H56:L56"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="H57:L57"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="H65:L65"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="H63:L63"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="H64:L64"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="H62:L62"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="H61:L61"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP012新商品登録(入力).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP012新商品登録(入力).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5B8619-04B1-4A9F-A50A-516810E6EF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B0108A-FC9A-4CC7-BDA8-AC634CE82F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="147">
   <si>
     <t>作成者</t>
   </si>
@@ -2298,6 +2298,50 @@
 と表示されること</t>
     <rPh sb="5" eb="7">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高良</t>
+    <rPh sb="0" eb="2">
+      <t>タカラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高良・館川</t>
+    <rPh sb="0" eb="2">
+      <t>タカラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タテカワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>半角英数字は入力できないのでテストに合格したものとする</t>
+    <rPh sb="0" eb="5">
+      <t>ハンカクエイスウジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ゴウカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面が推移しないこと</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>スイイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2664,6 +2708,99 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2699,99 +2836,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3145,8 +3189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScale="81" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="T77" sqref="T77"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" zoomScale="81" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="O76" sqref="O76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -3166,25 +3210,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25" t="s">
+      <c r="D1" s="54"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3199,23 +3243,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="26" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29" t="s">
+      <c r="D2" s="58"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="31"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="62"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -3228,50 +3272,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="25" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="44" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="46"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="45"/>
     </row>
     <row r="4" spans="1:17" ht="40.5" customHeight="1">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="46"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="45"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -3280,20 +3324,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="47" t="s">
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
       <c r="M5" s="18" t="s">
         <v>13</v>
       </c>
@@ -3303,117 +3347,131 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="47" t="s">
+      <c r="P5" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="48"/>
+      <c r="Q5" s="49"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33" t="s">
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
       <c r="M6" s="15">
         <v>45503</v>
       </c>
-      <c r="N6" s="7"/>
+      <c r="N6" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="O6" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P6" s="33" t="s">
+      <c r="P6" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="Q6" s="33"/>
+      <c r="Q6" s="26"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="33" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="32" t="s">
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="7"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="O7" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
     </row>
     <row r="8" spans="1:17" ht="13.5" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="34" t="s">
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="7"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="O8" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="41"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="21"/>
     </row>
     <row r="9" spans="1:17" ht="11.5" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="34" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="7"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="O9" s="7" t="s">
         <v>119</v>
       </c>
@@ -3425,20 +3483,24 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="34" t="s">
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="7"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="O10" s="7" t="s">
         <v>119</v>
       </c>
@@ -3450,20 +3512,24 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="34" t="s">
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="7"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="O11" s="7" t="s">
         <v>119</v>
       </c>
@@ -3475,20 +3541,24 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="34" t="s">
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="7"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="O12" s="7" t="s">
         <v>119</v>
       </c>
@@ -3500,20 +3570,24 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="34" t="s">
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="7"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="O13" s="7" t="s">
         <v>119</v>
       </c>
@@ -3525,22 +3599,26 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="40" t="s">
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="7"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="O14" s="7" t="s">
         <v>119</v>
       </c>
@@ -3552,20 +3630,24 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="40" t="s">
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="7"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="O15" s="7" t="s">
         <v>119</v>
       </c>
@@ -3577,20 +3659,24 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="40" t="s">
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="7"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="O16" s="7" t="s">
         <v>119</v>
       </c>
@@ -3602,20 +3688,24 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="40" t="s">
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="7"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="O17" s="7" t="s">
         <v>119</v>
       </c>
@@ -3627,20 +3717,24 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="40" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="7"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="O18" s="7" t="s">
         <v>119</v>
       </c>
@@ -3652,20 +3746,24 @@
         <v>14</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="34" t="s">
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="7"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="O19" s="7" t="s">
         <v>119</v>
       </c>
@@ -3677,20 +3775,24 @@
         <v>15</v>
       </c>
       <c r="B20" s="8"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="40" t="s">
+      <c r="C20" s="34"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="7"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="O20" s="7" t="s">
         <v>119</v>
       </c>
@@ -3702,20 +3804,24 @@
         <v>16</v>
       </c>
       <c r="B21" s="8"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="40" t="s">
+      <c r="C21" s="37"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="7"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="O21" s="7" t="s">
         <v>119</v>
       </c>
@@ -3729,22 +3835,26 @@
         <v>17</v>
       </c>
       <c r="B22" s="8"/>
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="34" t="s">
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="7"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="O22" s="7" t="s">
         <v>119</v>
       </c>
@@ -3755,652 +3865,748 @@
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33" t="s">
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="7"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O23" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
     </row>
     <row r="24" spans="1:17" ht="92" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="32" t="s">
+      <c r="B24" s="41"/>
+      <c r="C24" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33" t="s">
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="7"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O24" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
     </row>
     <row r="25" spans="1:17" ht="85" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="32" t="s">
+      <c r="B25" s="41"/>
+      <c r="C25" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="32" t="s">
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="7"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O25" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P25" s="32" t="s">
+      <c r="P25" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="Q25" s="33"/>
+      <c r="Q25" s="26"/>
     </row>
     <row r="26" spans="1:17" ht="85" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="32" t="s">
+      <c r="B26" s="41"/>
+      <c r="C26" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33" t="s">
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="7"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O26" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
     </row>
     <row r="27" spans="1:17" ht="96.5" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="32" t="s">
+      <c r="B27" s="41"/>
+      <c r="C27" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33" t="s">
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="7"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O27" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
     </row>
     <row r="28" spans="1:17" ht="90" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="32" t="s">
+      <c r="B28" s="41"/>
+      <c r="C28" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="32" t="s">
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="7"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O28" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
     </row>
     <row r="29" spans="1:17" ht="85" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="32" t="s">
+      <c r="B29" s="41"/>
+      <c r="C29" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33" t="s">
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="7"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O29" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
     </row>
     <row r="30" spans="1:17" ht="85" customHeight="1">
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="32" t="s">
+      <c r="B30" s="41"/>
+      <c r="C30" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="32" t="s">
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="7"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O30" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P30" s="33" t="s">
+      <c r="P30" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="Q30" s="33"/>
+      <c r="Q30" s="26"/>
     </row>
     <row r="31" spans="1:17" ht="85" customHeight="1">
       <c r="A31" s="6">
         <v>26</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="32" t="s">
+      <c r="B31" s="41"/>
+      <c r="C31" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33" t="s">
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="7"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O31" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
     </row>
     <row r="32" spans="1:17" ht="85" customHeight="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="32" t="s">
+      <c r="B32" s="41"/>
+      <c r="C32" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33" t="s">
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="7"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N32" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O32" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
     </row>
     <row r="33" spans="1:17" ht="85" customHeight="1">
       <c r="A33" s="6">
         <v>28</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="32" t="s">
+      <c r="B33" s="41"/>
+      <c r="C33" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33" t="s">
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="7"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O33" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
     </row>
     <row r="34" spans="1:17" ht="85" customHeight="1">
       <c r="A34" s="6">
         <v>29</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="32" t="s">
+      <c r="B34" s="41"/>
+      <c r="C34" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33" t="s">
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="7"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O34" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
     </row>
     <row r="35" spans="1:17" ht="85" customHeight="1">
       <c r="A35" s="6">
         <v>30</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="32" t="s">
+      <c r="B35" s="41"/>
+      <c r="C35" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="34" t="s">
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="7"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O35" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P35" s="33" t="s">
+      <c r="P35" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="Q35" s="33"/>
+      <c r="Q35" s="26"/>
     </row>
     <row r="36" spans="1:17" ht="85" customHeight="1">
       <c r="A36" s="6">
         <v>31</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="32" t="s">
+      <c r="B36" s="41"/>
+      <c r="C36" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="32" t="s">
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="7"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N36" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O36" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
     </row>
     <row r="37" spans="1:17" ht="85" customHeight="1">
       <c r="A37" s="6">
         <v>32</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="32" t="s">
+      <c r="B37" s="41"/>
+      <c r="C37" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33" t="s">
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="7"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O37" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="33"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
     </row>
     <row r="38" spans="1:17" ht="85" customHeight="1">
       <c r="A38" s="6">
         <v>33</v>
       </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="32" t="s">
+      <c r="B38" s="41"/>
+      <c r="C38" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33" t="s">
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="7"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N38" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O38" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="33"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
     </row>
     <row r="39" spans="1:17" ht="88" customHeight="1">
       <c r="A39" s="6">
         <v>34</v>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="32" t="s">
+      <c r="B39" s="41"/>
+      <c r="C39" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33" t="s">
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="7"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N39" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O39" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
     </row>
     <row r="40" spans="1:17" ht="112" customHeight="1">
       <c r="A40" s="6">
         <v>35</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="32" t="s">
+      <c r="B40" s="41"/>
+      <c r="C40" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33" t="s">
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="7"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N40" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O40" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P40" s="33"/>
-      <c r="Q40" s="33"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="26"/>
     </row>
     <row r="41" spans="1:17" ht="102" customHeight="1">
       <c r="A41" s="6">
         <v>36</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="50" t="s">
+      <c r="B41" s="41"/>
+      <c r="C41" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="32" t="s">
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="7"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N41" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O41" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="41"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="21"/>
     </row>
     <row r="42" spans="1:17" ht="90.5" customHeight="1">
       <c r="A42" s="6">
         <v>37</v>
       </c>
-      <c r="B42" s="38"/>
-      <c r="C42" s="32" t="s">
+      <c r="B42" s="41"/>
+      <c r="C42" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="32" t="s">
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="7"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N42" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O42" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P42" s="33"/>
-      <c r="Q42" s="33"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
     </row>
     <row r="43" spans="1:17" ht="84.5" customHeight="1">
       <c r="A43" s="6">
         <v>38</v>
       </c>
-      <c r="B43" s="38"/>
-      <c r="C43" s="32" t="s">
+      <c r="B43" s="41"/>
+      <c r="C43" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33" t="s">
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="33"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="7"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N43" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O43" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P43" s="33"/>
-      <c r="Q43" s="33"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
     </row>
     <row r="44" spans="1:17" ht="77.5" customHeight="1">
       <c r="A44" s="6">
         <v>39</v>
       </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="32" t="s">
+      <c r="B44" s="41"/>
+      <c r="C44" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33" t="s">
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="I44" s="33"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="33"/>
-      <c r="L44" s="33"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="7"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N44" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O44" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P44" s="33"/>
-      <c r="Q44" s="33"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
     </row>
     <row r="45" spans="1:17" ht="81" customHeight="1">
       <c r="A45" s="6">
         <v>40</v>
       </c>
-      <c r="B45" s="38"/>
-      <c r="C45" s="32" t="s">
+      <c r="B45" s="41"/>
+      <c r="C45" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33" t="s">
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="7"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N45" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O45" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P45" s="40"/>
-      <c r="Q45" s="41"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="21"/>
     </row>
     <row r="46" spans="1:17" ht="98" customHeight="1">
       <c r="A46" s="6">
         <v>41</v>
       </c>
-      <c r="B46" s="38"/>
-      <c r="C46" s="32" t="s">
+      <c r="B46" s="41"/>
+      <c r="C46" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33" t="s">
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="7"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N46" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O46" s="7" t="s">
         <v>119</v>
       </c>
@@ -4411,870 +4617,994 @@
       <c r="A47" s="6">
         <v>42</v>
       </c>
-      <c r="B47" s="38"/>
-      <c r="C47" s="32" t="s">
+      <c r="B47" s="41"/>
+      <c r="C47" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="32" t="s">
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="I47" s="33"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="33"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="7"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N47" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O47" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P47" s="33"/>
-      <c r="Q47" s="33"/>
+      <c r="P47" s="26"/>
+      <c r="Q47" s="26"/>
     </row>
     <row r="48" spans="1:17" ht="91" customHeight="1">
       <c r="A48" s="6">
         <v>43</v>
       </c>
-      <c r="B48" s="38"/>
-      <c r="C48" s="32" t="s">
+      <c r="B48" s="41"/>
+      <c r="C48" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="32" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="I48" s="33"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="7"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N48" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O48" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P48" s="33"/>
-      <c r="Q48" s="33"/>
+      <c r="P48" s="26"/>
+      <c r="Q48" s="26"/>
     </row>
     <row r="49" spans="1:17" ht="116" customHeight="1">
       <c r="A49" s="6">
         <v>44</v>
       </c>
-      <c r="B49" s="38"/>
-      <c r="C49" s="32" t="s">
+      <c r="B49" s="41"/>
+      <c r="C49" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33" t="s">
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="I49" s="33"/>
-      <c r="J49" s="33"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="33"/>
-      <c r="M49" s="15"/>
-      <c r="N49" s="7"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N49" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O49" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P49" s="33"/>
-      <c r="Q49" s="33"/>
+      <c r="P49" s="26"/>
+      <c r="Q49" s="26"/>
     </row>
     <row r="50" spans="1:17" ht="116" customHeight="1">
       <c r="A50" s="6">
         <v>45</v>
       </c>
-      <c r="B50" s="38"/>
-      <c r="C50" s="32" t="s">
+      <c r="B50" s="41"/>
+      <c r="C50" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33" t="s">
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="I50" s="33"/>
-      <c r="J50" s="33"/>
-      <c r="K50" s="33"/>
-      <c r="L50" s="33"/>
-      <c r="M50" s="15"/>
-      <c r="N50" s="7"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N50" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O50" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P50" s="33"/>
-      <c r="Q50" s="33"/>
+      <c r="P50" s="26"/>
+      <c r="Q50" s="26"/>
     </row>
     <row r="51" spans="1:17" ht="116" customHeight="1">
       <c r="A51" s="6">
         <v>46</v>
       </c>
-      <c r="B51" s="38"/>
-      <c r="C51" s="32" t="s">
+      <c r="B51" s="41"/>
+      <c r="C51" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33" t="s">
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="I51" s="33"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="33"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="7"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N51" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O51" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P51" s="33"/>
-      <c r="Q51" s="33"/>
+      <c r="P51" s="26"/>
+      <c r="Q51" s="26"/>
     </row>
     <row r="52" spans="1:17" ht="116" customHeight="1">
       <c r="A52" s="6">
         <v>47</v>
       </c>
-      <c r="B52" s="38"/>
-      <c r="C52" s="32" t="s">
+      <c r="B52" s="41"/>
+      <c r="C52" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33" t="s">
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="I52" s="33"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="33"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="7"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N52" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O52" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P52" s="33"/>
-      <c r="Q52" s="33"/>
+      <c r="P52" s="26"/>
+      <c r="Q52" s="26"/>
     </row>
     <row r="53" spans="1:17" ht="116" customHeight="1">
       <c r="A53" s="6">
         <v>48</v>
       </c>
-      <c r="B53" s="38"/>
-      <c r="C53" s="32" t="s">
+      <c r="B53" s="41"/>
+      <c r="C53" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="32" t="s">
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="I53" s="33"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="33"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="7"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N53" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O53" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="33"/>
+      <c r="P53" s="26"/>
+      <c r="Q53" s="26"/>
     </row>
     <row r="54" spans="1:17" ht="116" customHeight="1">
       <c r="A54" s="6">
         <v>49</v>
       </c>
-      <c r="B54" s="38"/>
-      <c r="C54" s="32" t="s">
+      <c r="B54" s="41"/>
+      <c r="C54" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="32" t="s">
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="I54" s="33"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="33"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="7"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N54" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O54" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P54" s="32" t="s">
+      <c r="P54" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="Q54" s="33"/>
+      <c r="Q54" s="26"/>
     </row>
     <row r="55" spans="1:17" ht="116" customHeight="1">
       <c r="A55" s="6">
         <v>50</v>
       </c>
-      <c r="B55" s="38"/>
-      <c r="C55" s="32" t="s">
+      <c r="B55" s="41"/>
+      <c r="C55" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="32" t="s">
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="I55" s="33"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="7"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N55" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O55" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P55" s="32" t="s">
+      <c r="P55" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="Q55" s="33"/>
+      <c r="Q55" s="26"/>
     </row>
     <row r="56" spans="1:17" ht="116" customHeight="1">
       <c r="A56" s="6">
         <v>51</v>
       </c>
-      <c r="B56" s="38"/>
-      <c r="C56" s="32" t="s">
+      <c r="B56" s="41"/>
+      <c r="C56" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="32" t="s">
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="I56" s="33"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="33"/>
-      <c r="M56" s="15"/>
-      <c r="N56" s="7"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N56" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O56" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P56" s="32" t="s">
+      <c r="P56" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="Q56" s="33"/>
+      <c r="Q56" s="26"/>
     </row>
     <row r="57" spans="1:17" ht="116" customHeight="1">
       <c r="A57" s="6">
         <v>52</v>
       </c>
-      <c r="B57" s="38"/>
-      <c r="C57" s="32" t="s">
+      <c r="B57" s="41"/>
+      <c r="C57" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="32" t="s">
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="7"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N57" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O57" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P57" s="32" t="s">
+      <c r="P57" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="Q57" s="33"/>
+      <c r="Q57" s="26"/>
     </row>
     <row r="58" spans="1:17" ht="95.5" customHeight="1">
       <c r="A58" s="6">
         <v>53</v>
       </c>
-      <c r="B58" s="38"/>
-      <c r="C58" s="50" t="s">
+      <c r="B58" s="41"/>
+      <c r="C58" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="D58" s="51"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="51"/>
-      <c r="G58" s="52"/>
-      <c r="H58" s="33" t="s">
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="15"/>
-      <c r="N58" s="7"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N58" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O58" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P58" s="40"/>
-      <c r="Q58" s="41"/>
+      <c r="P58" s="20"/>
+      <c r="Q58" s="21"/>
     </row>
     <row r="59" spans="1:17" ht="95.5" customHeight="1">
       <c r="A59" s="6">
         <v>54</v>
       </c>
-      <c r="B59" s="38"/>
-      <c r="C59" s="50" t="s">
+      <c r="B59" s="41"/>
+      <c r="C59" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D59" s="51"/>
-      <c r="E59" s="51"/>
-      <c r="F59" s="51"/>
-      <c r="G59" s="52"/>
-      <c r="H59" s="33" t="s">
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="I59" s="33"/>
-      <c r="J59" s="33"/>
-      <c r="K59" s="33"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="15"/>
-      <c r="N59" s="7"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="26"/>
+      <c r="L59" s="26"/>
+      <c r="M59" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N59" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O59" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P59" s="40"/>
-      <c r="Q59" s="41"/>
+      <c r="P59" s="20"/>
+      <c r="Q59" s="21"/>
     </row>
     <row r="60" spans="1:17" ht="95.5" customHeight="1">
       <c r="A60" s="6">
         <v>55</v>
       </c>
-      <c r="B60" s="38"/>
-      <c r="C60" s="50" t="s">
+      <c r="B60" s="41"/>
+      <c r="C60" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D60" s="51"/>
-      <c r="E60" s="51"/>
-      <c r="F60" s="51"/>
-      <c r="G60" s="52"/>
-      <c r="H60" s="33" t="s">
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="I60" s="33"/>
-      <c r="J60" s="33"/>
-      <c r="K60" s="33"/>
-      <c r="L60" s="33"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="7"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="26"/>
+      <c r="M60" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N60" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O60" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P60" s="40"/>
-      <c r="Q60" s="41"/>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="21"/>
     </row>
     <row r="61" spans="1:17" ht="95.5" customHeight="1">
       <c r="A61" s="6">
         <v>56</v>
       </c>
-      <c r="B61" s="38"/>
-      <c r="C61" s="50" t="s">
+      <c r="B61" s="41"/>
+      <c r="C61" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D61" s="51"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="51"/>
-      <c r="G61" s="52"/>
-      <c r="H61" s="33" t="s">
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="I61" s="33"/>
-      <c r="J61" s="33"/>
-      <c r="K61" s="33"/>
-      <c r="L61" s="33"/>
-      <c r="M61" s="15"/>
-      <c r="N61" s="7"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="26"/>
+      <c r="M61" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N61" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O61" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P61" s="40"/>
-      <c r="Q61" s="41"/>
+      <c r="P61" s="20"/>
+      <c r="Q61" s="21"/>
     </row>
     <row r="62" spans="1:17" ht="95.5" customHeight="1">
       <c r="A62" s="6">
         <v>57</v>
       </c>
-      <c r="B62" s="38"/>
-      <c r="C62" s="50" t="s">
+      <c r="B62" s="41"/>
+      <c r="C62" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D62" s="51"/>
-      <c r="E62" s="51"/>
-      <c r="F62" s="51"/>
-      <c r="G62" s="52"/>
-      <c r="H62" s="32" t="s">
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="I62" s="33"/>
-      <c r="J62" s="33"/>
-      <c r="K62" s="33"/>
-      <c r="L62" s="33"/>
-      <c r="M62" s="15"/>
-      <c r="N62" s="7"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N62" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O62" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P62" s="40"/>
-      <c r="Q62" s="41"/>
+      <c r="P62" s="20"/>
+      <c r="Q62" s="21"/>
     </row>
     <row r="63" spans="1:17" ht="95.5" customHeight="1">
       <c r="A63" s="6">
         <v>58</v>
       </c>
-      <c r="B63" s="38"/>
-      <c r="C63" s="50" t="s">
+      <c r="B63" s="41"/>
+      <c r="C63" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D63" s="51"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="51"/>
-      <c r="G63" s="52"/>
-      <c r="H63" s="32" t="s">
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="I63" s="33"/>
-      <c r="J63" s="33"/>
-      <c r="K63" s="33"/>
-      <c r="L63" s="33"/>
-      <c r="M63" s="15"/>
-      <c r="N63" s="7"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="26"/>
+      <c r="L63" s="26"/>
+      <c r="M63" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N63" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O63" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P63" s="34" t="s">
+      <c r="P63" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="Q63" s="41"/>
+      <c r="Q63" s="21"/>
     </row>
     <row r="64" spans="1:17" ht="95.5" customHeight="1">
       <c r="A64" s="6">
         <v>59</v>
       </c>
-      <c r="B64" s="38"/>
-      <c r="C64" s="50" t="s">
+      <c r="B64" s="41"/>
+      <c r="C64" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D64" s="51"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="51"/>
-      <c r="G64" s="52"/>
-      <c r="H64" s="32" t="s">
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="I64" s="33"/>
-      <c r="J64" s="33"/>
-      <c r="K64" s="33"/>
-      <c r="L64" s="33"/>
-      <c r="M64" s="15"/>
-      <c r="N64" s="7"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N64" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O64" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P64" s="34" t="s">
+      <c r="P64" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="Q64" s="41"/>
+      <c r="Q64" s="21"/>
     </row>
     <row r="65" spans="1:17" ht="95.5" customHeight="1">
       <c r="A65" s="6">
         <v>60</v>
       </c>
-      <c r="B65" s="38"/>
-      <c r="C65" s="50" t="s">
+      <c r="B65" s="41"/>
+      <c r="C65" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D65" s="51"/>
-      <c r="E65" s="51"/>
-      <c r="F65" s="51"/>
-      <c r="G65" s="52"/>
-      <c r="H65" s="32" t="s">
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="I65" s="33"/>
-      <c r="J65" s="33"/>
-      <c r="K65" s="33"/>
-      <c r="L65" s="33"/>
-      <c r="M65" s="15"/>
-      <c r="N65" s="7"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="26"/>
+      <c r="L65" s="26"/>
+      <c r="M65" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N65" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O65" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P65" s="34" t="s">
+      <c r="P65" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="Q65" s="41"/>
+      <c r="Q65" s="21"/>
     </row>
     <row r="66" spans="1:17" ht="95.5" customHeight="1">
       <c r="A66" s="6">
         <v>61</v>
       </c>
-      <c r="B66" s="38"/>
-      <c r="C66" s="50" t="s">
+      <c r="B66" s="41"/>
+      <c r="C66" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D66" s="51"/>
-      <c r="E66" s="51"/>
-      <c r="F66" s="51"/>
-      <c r="G66" s="52"/>
-      <c r="H66" s="32" t="s">
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="I66" s="33"/>
-      <c r="J66" s="33"/>
-      <c r="K66" s="33"/>
-      <c r="L66" s="33"/>
-      <c r="M66" s="15"/>
-      <c r="N66" s="7"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="26"/>
+      <c r="L66" s="26"/>
+      <c r="M66" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N66" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O66" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P66" s="34" t="s">
+      <c r="P66" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="Q66" s="41"/>
+      <c r="Q66" s="21"/>
     </row>
     <row r="67" spans="1:17" ht="68" customHeight="1">
       <c r="A67" s="6">
         <v>62</v>
       </c>
-      <c r="B67" s="38"/>
-      <c r="C67" s="32" t="s">
+      <c r="B67" s="41"/>
+      <c r="C67" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="33"/>
-      <c r="H67" s="32" t="s">
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="I67" s="32"/>
-      <c r="J67" s="32"/>
-      <c r="K67" s="32"/>
-      <c r="L67" s="32"/>
-      <c r="M67" s="15"/>
-      <c r="N67" s="7"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="25"/>
+      <c r="M67" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N67" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O67" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P67" s="32" t="s">
+      <c r="P67" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="Q67" s="33"/>
+      <c r="Q67" s="26"/>
     </row>
     <row r="68" spans="1:17" ht="13.5" customHeight="1">
       <c r="A68" s="6">
         <v>63</v>
       </c>
-      <c r="B68" s="37" t="s">
+      <c r="B68" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="34" t="s">
+      <c r="C68" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="40" t="s">
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I68" s="56"/>
-      <c r="J68" s="56"/>
-      <c r="K68" s="56"/>
-      <c r="L68" s="41"/>
-      <c r="M68" s="15"/>
-      <c r="N68" s="7"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="21"/>
+      <c r="M68" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N68" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O68" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P68" s="33"/>
-      <c r="Q68" s="33"/>
+      <c r="P68" s="26"/>
+      <c r="Q68" s="26"/>
     </row>
     <row r="69" spans="1:17" ht="13.5" customHeight="1">
       <c r="A69" s="6">
         <v>64</v>
       </c>
-      <c r="B69" s="38"/>
-      <c r="C69" s="34" t="s">
+      <c r="B69" s="41"/>
+      <c r="C69" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="40" t="s">
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="I69" s="56"/>
-      <c r="J69" s="56"/>
-      <c r="K69" s="56"/>
-      <c r="L69" s="41"/>
-      <c r="M69" s="15"/>
-      <c r="N69" s="7"/>
+      <c r="I69" s="30"/>
+      <c r="J69" s="30"/>
+      <c r="K69" s="30"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N69" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O69" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P69" s="33"/>
-      <c r="Q69" s="33"/>
+      <c r="P69" s="26"/>
+      <c r="Q69" s="26"/>
     </row>
     <row r="70" spans="1:17" ht="13.5" customHeight="1">
       <c r="A70" s="6">
         <v>65</v>
       </c>
-      <c r="B70" s="38"/>
-      <c r="C70" s="34" t="s">
+      <c r="B70" s="41"/>
+      <c r="C70" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="33" t="s">
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="I70" s="33"/>
-      <c r="J70" s="33"/>
-      <c r="K70" s="33"/>
-      <c r="L70" s="33"/>
-      <c r="M70" s="15"/>
-      <c r="N70" s="7"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="26"/>
+      <c r="L70" s="26"/>
+      <c r="M70" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N70" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O70" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P70" s="33"/>
-      <c r="Q70" s="33"/>
+      <c r="P70" s="26"/>
+      <c r="Q70" s="26"/>
     </row>
     <row r="71" spans="1:17" ht="13.5" customHeight="1">
       <c r="A71" s="6">
         <v>66</v>
       </c>
-      <c r="B71" s="38"/>
-      <c r="C71" s="32" t="s">
+      <c r="B71" s="41"/>
+      <c r="C71" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D71" s="33"/>
-      <c r="E71" s="33"/>
-      <c r="F71" s="33"/>
-      <c r="G71" s="33"/>
-      <c r="H71" s="33" t="s">
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I71" s="33"/>
-      <c r="J71" s="33"/>
-      <c r="K71" s="33"/>
-      <c r="L71" s="33"/>
-      <c r="M71" s="15"/>
-      <c r="N71" s="7"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="26"/>
+      <c r="K71" s="26"/>
+      <c r="L71" s="26"/>
+      <c r="M71" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N71" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O71" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P71" s="40"/>
-      <c r="Q71" s="41"/>
+      <c r="P71" s="20"/>
+      <c r="Q71" s="21"/>
     </row>
     <row r="72" spans="1:17" ht="13.5" customHeight="1">
       <c r="A72" s="6">
         <v>67</v>
       </c>
-      <c r="B72" s="38"/>
-      <c r="C72" s="32" t="s">
+      <c r="B72" s="41"/>
+      <c r="C72" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D72" s="33"/>
-      <c r="E72" s="33"/>
-      <c r="F72" s="33"/>
-      <c r="G72" s="33"/>
-      <c r="H72" s="33" t="s">
+      <c r="D72" s="26"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="I72" s="33"/>
-      <c r="J72" s="33"/>
-      <c r="K72" s="33"/>
-      <c r="L72" s="33"/>
-      <c r="M72" s="15"/>
-      <c r="N72" s="7"/>
+      <c r="I72" s="26"/>
+      <c r="J72" s="26"/>
+      <c r="K72" s="26"/>
+      <c r="L72" s="26"/>
+      <c r="M72" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N72" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O72" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P72" s="33"/>
-      <c r="Q72" s="33"/>
+      <c r="P72" s="26"/>
+      <c r="Q72" s="26"/>
     </row>
     <row r="73" spans="1:17" ht="13.5" customHeight="1">
       <c r="A73" s="6">
         <v>68</v>
       </c>
-      <c r="B73" s="39"/>
-      <c r="C73" s="34" t="s">
+      <c r="B73" s="42"/>
+      <c r="C73" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D73" s="35"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="36"/>
-      <c r="H73" s="40" t="s">
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="I73" s="56"/>
-      <c r="J73" s="56"/>
-      <c r="K73" s="56"/>
-      <c r="L73" s="41"/>
-      <c r="M73" s="15"/>
-      <c r="N73" s="7"/>
+      <c r="I73" s="30"/>
+      <c r="J73" s="30"/>
+      <c r="K73" s="30"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N73" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O73" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P73" s="40" t="s">
+      <c r="P73" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="Q73" s="41"/>
+      <c r="Q73" s="21"/>
     </row>
     <row r="74" spans="1:17" ht="69.5" customHeight="1">
       <c r="A74" s="6">
         <v>69</v>
       </c>
-      <c r="B74" s="37" t="s">
+      <c r="B74" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C74" s="32" t="s">
+      <c r="C74" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="D74" s="32"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="32"/>
-      <c r="G74" s="32"/>
-      <c r="H74" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="I74" s="32"/>
-      <c r="J74" s="32"/>
-      <c r="K74" s="32"/>
-      <c r="L74" s="32"/>
-      <c r="M74" s="15"/>
-      <c r="N74" s="7"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="25"/>
+      <c r="L74" s="25"/>
+      <c r="M74" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N74" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O74" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P74" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="P74" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="Q74" s="41"/>
+      <c r="Q74" s="21"/>
     </row>
     <row r="75" spans="1:17" ht="69.5" customHeight="1">
       <c r="A75" s="6">
         <v>70</v>
       </c>
-      <c r="B75" s="38"/>
-      <c r="C75" s="32" t="s">
+      <c r="B75" s="41"/>
+      <c r="C75" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="D75" s="32"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="32"/>
-      <c r="G75" s="32"/>
-      <c r="H75" s="34" t="s">
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="I75" s="35"/>
-      <c r="J75" s="35"/>
-      <c r="K75" s="35"/>
-      <c r="L75" s="36"/>
-      <c r="M75" s="15"/>
-      <c r="N75" s="7"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="28"/>
+      <c r="L75" s="29"/>
+      <c r="M75" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N75" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O75" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P75" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="P75" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="Q75" s="41"/>
+      <c r="Q75" s="21"/>
     </row>
     <row r="76" spans="1:17" ht="91.5" customHeight="1">
       <c r="A76" s="6">
         <v>71</v>
       </c>
-      <c r="B76" s="38"/>
-      <c r="C76" s="32" t="s">
+      <c r="B76" s="41"/>
+      <c r="C76" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D76" s="33"/>
-      <c r="E76" s="33"/>
-      <c r="F76" s="33"/>
-      <c r="G76" s="33"/>
-      <c r="H76" s="34" t="s">
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I76" s="35"/>
-      <c r="J76" s="35"/>
-      <c r="K76" s="35"/>
-      <c r="L76" s="36"/>
-      <c r="M76" s="15"/>
-      <c r="N76" s="7"/>
+      <c r="I76" s="28"/>
+      <c r="J76" s="28"/>
+      <c r="K76" s="28"/>
+      <c r="L76" s="29"/>
+      <c r="M76" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N76" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O76" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P76" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q76" s="41"/>
+        <v>145</v>
+      </c>
+      <c r="P76" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q76" s="21"/>
     </row>
     <row r="77" spans="1:17" ht="90.5" customHeight="1">
       <c r="A77" s="6">
         <v>72</v>
       </c>
-      <c r="B77" s="39"/>
-      <c r="C77" s="32" t="s">
+      <c r="B77" s="42"/>
+      <c r="C77" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D77" s="33"/>
-      <c r="E77" s="33"/>
-      <c r="F77" s="33"/>
-      <c r="G77" s="33"/>
-      <c r="H77" s="34" t="s">
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I77" s="35"/>
-      <c r="J77" s="35"/>
-      <c r="K77" s="35"/>
-      <c r="L77" s="36"/>
-      <c r="M77" s="15"/>
-      <c r="N77" s="7"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="28"/>
+      <c r="K77" s="28"/>
+      <c r="L77" s="29"/>
+      <c r="M77" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N77" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="O77" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P77" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q77" s="41"/>
+        <v>145</v>
+      </c>
+      <c r="P77" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q77" s="21"/>
     </row>
     <row r="78" spans="1:17" ht="11.25" customHeight="1">
       <c r="B78" s="4"/>
@@ -5302,6 +5632,187 @@
     </row>
   </sheetData>
   <mergeCells count="205">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:L76"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="B23:B67"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:L49"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:L77"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:L74"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:L67"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:L58"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:L50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:L60"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:L59"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="C14:G21"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="B68:B73"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:L68"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:L71"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:L75"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:L72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:L73"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:L69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:L70"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:L53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:L52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:L61"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:L54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="P55:Q55"/>
     <mergeCell ref="P75:Q75"/>
     <mergeCell ref="P76:Q76"/>
     <mergeCell ref="P77:Q77"/>
@@ -5326,187 +5837,6 @@
     <mergeCell ref="P59:Q59"/>
     <mergeCell ref="C62:G62"/>
     <mergeCell ref="H62:L62"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="H61:L61"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="H54:L54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="H55:L55"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="H53:L53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:L52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="H75:L75"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="H72:L72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:L73"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="H69:L69"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="H70:L70"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C14:G21"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="B68:B73"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="H68:L68"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="H71:L71"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="H74:L74"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:L47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="H67:L67"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="H58:L58"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:L50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="H60:L60"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="H59:L59"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="H76:L76"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="B23:B67"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:L49"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="H77:L77"/>
-    <mergeCell ref="H46:L46"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP012新商品登録(入力).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP012新商品登録(入力).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B0108A-FC9A-4CC7-BDA8-AC634CE82F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F132B07-189B-49A5-B449-DF21AB5BE212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -1358,21 +1358,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>エラーメッセージ
-「画像ファイルを選択してください」
-と表示されること</t>
-    <rPh sb="10" eb="12">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>商品名：テスト商品
 単価：299
 在庫数：10
@@ -1948,22 +1933,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>×</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>〇</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「単価は数字で入力してください」が出てこない
-@Pattern確認</t>
-    <rPh sb="17" eb="18">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>カクニン</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2003,16 +1973,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>メニュー画面に遷移してしまう</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>！が認識されてない（修正済み）</t>
     <rPh sb="2" eb="4">
       <t>ニンシキ</t>
@@ -2065,42 +2025,6 @@
     </rPh>
     <rPh sb="53" eb="55">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>カテゴリによって単価が違うっていうエラーと単価の項目は数字で入力しないといけないって教えるエラーを出さないといけない
-「単価は数字で入力してください」が出てこない
-@Pattern確認</t>
-    <rPh sb="8" eb="10">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>チガ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>オシ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2180,31 +2104,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>遷移できてしまう
-→遷移できないようにしてほしい</t>
-    <rPh sb="0" eb="2">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>未対応</t>
-    <rPh sb="0" eb="3">
-      <t>ミタイオウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>修正済み）</t>
-    <rPh sb="0" eb="3">
-      <t>シュウセイズ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>完了ボタンにすること（修正）</t>
     <rPh sb="0" eb="2">
       <t>カンリョウ</t>
@@ -2332,16 +2231,206 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>×〇</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>画面が推移しないこと</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
     </rPh>
     <rPh sb="3" eb="5">
       <t>スイイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(修正済み）</t>
+    <rPh sb="1" eb="4">
+      <t>シュウセイズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーメッセージ
+「価格は0以上９９９９９９９９９以下の数字で入力してください。」と表示されること</t>
+    <rPh sb="10" eb="12">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カテゴリによって単価が違うっていうエラーと単価の項目は数字で入力しないといけないって教えるエラーを出さないといけない
+「単価は数字で入力してください」が出てこない
+@Pattern確認
+→上の表示が難しいため、「価格は0以上999999999以下の数字で入力してください。」に変更</t>
+    <rPh sb="8" eb="10">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>オシ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>ムズカ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「単価は数字で入力してください」が出てこない
+@Pattern確認
+→上の表示が難しいため、「価格は0以上999999999以下の数字で入力してください。」に変更</t>
+    <rPh sb="17" eb="18">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>修正済み</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーメッセージ
+「画像が選択されていません。」
+と表示されること</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>遷移できてしまう
+→遷移できないようにしてほしい（修正済み）</t>
+    <rPh sb="0" eb="2">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーメッセージ
+「価格は0以上999999999以下の数字で入力してください。」
+と表示されること</t>
+    <rPh sb="10" eb="12">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メニュー画面に遷移してしまう→商品検索画面に遷移するように変更（修正済み）</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ズ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2708,12 +2797,96 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2723,33 +2896,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2767,75 +2925,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3189,8 +3278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" zoomScale="81" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="O76" sqref="O76"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScale="81" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="T73" sqref="T73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -3205,30 +3294,30 @@
     <col min="14" max="14" width="8.453125" style="4" customWidth="1"/>
     <col min="15" max="15" width="11.81640625" style="4" customWidth="1"/>
     <col min="16" max="16" width="17.1796875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="31.26953125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="40.90625" style="4" customWidth="1"/>
     <col min="18" max="16384" width="7" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="53" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3243,23 +3332,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="57" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="62"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -3272,50 +3361,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="25" customHeight="1">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="43" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="46"/>
     </row>
     <row r="4" spans="1:17" ht="40.5" customHeight="1">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="43" t="s">
+      <c r="B4" s="43"/>
+      <c r="C4" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="46"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -3324,20 +3413,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="48" t="s">
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
       <c r="M5" s="18" t="s">
         <v>13</v>
       </c>
@@ -3347,133 +3436,133 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="48" t="s">
+      <c r="P5" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="49"/>
+      <c r="Q5" s="48"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26" t="s">
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
       <c r="M6" s="15">
         <v>45503</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P6" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q6" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="P6" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q6" s="35"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="26" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="25" t="s">
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
       <c r="M7" s="15">
         <v>45503</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
     </row>
     <row r="8" spans="1:17" ht="13.5" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="27" t="s">
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="29"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="38"/>
       <c r="M8" s="15">
         <v>45503</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="21"/>
+        <v>117</v>
+      </c>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="33"/>
     </row>
     <row r="9" spans="1:17" ht="11.5" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="27" t="s">
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="29"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="38"/>
       <c r="M9" s="15">
         <v>45503</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P9" s="16"/>
       <c r="Q9" s="17"/>
@@ -3483,26 +3572,26 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="27" t="s">
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="29"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="38"/>
       <c r="M10" s="15">
         <v>45503</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P10" s="16"/>
       <c r="Q10" s="17"/>
@@ -3512,26 +3601,26 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="27" t="s">
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="29"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="38"/>
       <c r="M11" s="15">
         <v>45503</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="17"/>
@@ -3541,26 +3630,26 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="27" t="s">
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="29"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="38"/>
       <c r="M12" s="15">
         <v>45503</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="17"/>
@@ -3570,26 +3659,26 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="27" t="s">
+      <c r="C13" s="60"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="29"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="38"/>
       <c r="M13" s="15">
         <v>45503</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P13" s="16"/>
       <c r="Q13" s="17"/>
@@ -3599,28 +3688,28 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="20" t="s">
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="21"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="33"/>
       <c r="M14" s="15">
         <v>45503</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P14" s="16"/>
       <c r="Q14" s="17"/>
@@ -3630,26 +3719,26 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="20" t="s">
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="21"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="33"/>
       <c r="M15" s="15">
         <v>45503</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P15" s="16"/>
       <c r="Q15" s="17"/>
@@ -3659,26 +3748,26 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="20" t="s">
+      <c r="C16" s="57"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="21"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="33"/>
       <c r="M16" s="15">
         <v>45503</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P16" s="16"/>
       <c r="Q16" s="17"/>
@@ -3688,26 +3777,26 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="20" t="s">
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="21"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="33"/>
       <c r="M17" s="15">
         <v>45503</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P17" s="16"/>
       <c r="Q17" s="17"/>
@@ -3717,26 +3806,26 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="20" t="s">
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="21"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="33"/>
       <c r="M18" s="15">
         <v>45503</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P18" s="16"/>
       <c r="Q18" s="17"/>
@@ -3746,26 +3835,26 @@
         <v>14</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="27" t="s">
+      <c r="C19" s="57"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="21"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="33"/>
       <c r="M19" s="15">
         <v>45503</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P19" s="16"/>
       <c r="Q19" s="17"/>
@@ -3775,26 +3864,26 @@
         <v>15</v>
       </c>
       <c r="B20" s="8"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="20" t="s">
+      <c r="C20" s="57"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="21"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="33"/>
       <c r="M20" s="15">
         <v>45503</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P20" s="16"/>
       <c r="Q20" s="17"/>
@@ -3804,29 +3893,29 @@
         <v>16</v>
       </c>
       <c r="B21" s="8"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="20" t="s">
+      <c r="C21" s="60"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="21"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="33"/>
       <c r="M21" s="15">
         <v>45503</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P21" s="16" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="Q21" s="17"/>
     </row>
@@ -3835,28 +3924,28 @@
         <v>17</v>
       </c>
       <c r="B22" s="8"/>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="27" t="s">
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="29"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="38"/>
       <c r="M22" s="15">
         <v>45503</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P22" s="16"/>
       <c r="Q22" s="17"/>
@@ -3865,750 +3954,750 @@
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26" t="s">
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
       <c r="M23" s="15">
         <v>45504</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
     </row>
     <row r="24" spans="1:17" ht="92" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="25" t="s">
+      <c r="B24" s="40"/>
+      <c r="C24" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26" t="s">
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
       <c r="M24" s="15">
         <v>45504</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
     </row>
     <row r="25" spans="1:17" ht="85" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="25" t="s">
+      <c r="B25" s="40"/>
+      <c r="C25" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="25" t="s">
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
       <c r="M25" s="15">
         <v>45504</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P25" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q25" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="P25" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q25" s="35"/>
     </row>
     <row r="26" spans="1:17" ht="85" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="25" t="s">
+      <c r="B26" s="40"/>
+      <c r="C26" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26" t="s">
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
       <c r="M26" s="15">
         <v>45504</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
     </row>
     <row r="27" spans="1:17" ht="96.5" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="25" t="s">
+      <c r="B27" s="40"/>
+      <c r="C27" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26" t="s">
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
       <c r="M27" s="15">
         <v>45504</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
     </row>
     <row r="28" spans="1:17" ht="90" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="25" t="s">
+      <c r="B28" s="40"/>
+      <c r="C28" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="25" t="s">
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
       <c r="M28" s="15">
         <v>45504</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
     </row>
     <row r="29" spans="1:17" ht="85" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="25" t="s">
+      <c r="B29" s="40"/>
+      <c r="C29" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26" t="s">
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
       <c r="M29" s="15">
         <v>45504</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
     </row>
     <row r="30" spans="1:17" ht="85" customHeight="1">
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="25" t="s">
+      <c r="B30" s="40"/>
+      <c r="C30" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="25" t="s">
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
       <c r="M30" s="15">
         <v>45504</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P30" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="P30" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q30" s="26"/>
+      <c r="Q30" s="35"/>
     </row>
     <row r="31" spans="1:17" ht="85" customHeight="1">
       <c r="A31" s="6">
         <v>26</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="25" t="s">
+      <c r="B31" s="40"/>
+      <c r="C31" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26" t="s">
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
       <c r="M31" s="15">
         <v>45504</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
     </row>
     <row r="32" spans="1:17" ht="85" customHeight="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
-      <c r="B32" s="41"/>
-      <c r="C32" s="25" t="s">
+      <c r="B32" s="40"/>
+      <c r="C32" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26" t="s">
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
       <c r="M32" s="15">
         <v>45504</v>
       </c>
       <c r="N32" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
     </row>
     <row r="33" spans="1:17" ht="85" customHeight="1">
       <c r="A33" s="6">
         <v>28</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26" t="s">
+      <c r="B33" s="40"/>
+      <c r="C33" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
       <c r="M33" s="15">
         <v>45504</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
     </row>
     <row r="34" spans="1:17" ht="85" customHeight="1">
       <c r="A34" s="6">
         <v>29</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26" t="s">
+      <c r="B34" s="40"/>
+      <c r="C34" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
       <c r="M34" s="15">
         <v>45504</v>
       </c>
       <c r="N34" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
     </row>
     <row r="35" spans="1:17" ht="85" customHeight="1">
       <c r="A35" s="6">
         <v>30</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="25" t="s">
+      <c r="B35" s="40"/>
+      <c r="C35" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="29"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="38"/>
       <c r="M35" s="15">
         <v>45504</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P35" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q35" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="P35" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q35" s="35"/>
     </row>
     <row r="36" spans="1:17" ht="85" customHeight="1">
       <c r="A36" s="6">
         <v>31</v>
       </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="25" t="s">
+      <c r="B36" s="40"/>
+      <c r="C36" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="25" t="s">
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
       <c r="M36" s="15">
         <v>45504</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
     </row>
     <row r="37" spans="1:17" ht="85" customHeight="1">
       <c r="A37" s="6">
         <v>32</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="25" t="s">
+      <c r="B37" s="40"/>
+      <c r="C37" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26" t="s">
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
       <c r="M37" s="15">
         <v>45504</v>
       </c>
       <c r="N37" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
     </row>
     <row r="38" spans="1:17" ht="85" customHeight="1">
       <c r="A38" s="6">
         <v>33</v>
       </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="25" t="s">
+      <c r="B38" s="40"/>
+      <c r="C38" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26" t="s">
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
       <c r="M38" s="15">
         <v>45504</v>
       </c>
       <c r="N38" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
     </row>
     <row r="39" spans="1:17" ht="88" customHeight="1">
       <c r="A39" s="6">
         <v>34</v>
       </c>
-      <c r="B39" s="41"/>
-      <c r="C39" s="25" t="s">
+      <c r="B39" s="40"/>
+      <c r="C39" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26" t="s">
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
       <c r="M39" s="15">
         <v>45504</v>
       </c>
       <c r="N39" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P39" s="26"/>
-      <c r="Q39" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
     </row>
     <row r="40" spans="1:17" ht="112" customHeight="1">
       <c r="A40" s="6">
         <v>35</v>
       </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="25" t="s">
+      <c r="B40" s="40"/>
+      <c r="C40" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26" t="s">
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
       <c r="M40" s="15">
         <v>45504</v>
       </c>
       <c r="N40" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P40" s="26"/>
-      <c r="Q40" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="35"/>
     </row>
     <row r="41" spans="1:17" ht="102" customHeight="1">
       <c r="A41" s="6">
         <v>36</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="22" t="s">
+      <c r="B41" s="40"/>
+      <c r="C41" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
       <c r="M41" s="15">
         <v>45504</v>
       </c>
       <c r="N41" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="21"/>
+        <v>117</v>
+      </c>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="33"/>
     </row>
     <row r="42" spans="1:17" ht="90.5" customHeight="1">
       <c r="A42" s="6">
         <v>37</v>
       </c>
-      <c r="B42" s="41"/>
-      <c r="C42" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="26"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
       <c r="M42" s="15">
         <v>45504</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P42" s="26"/>
-      <c r="Q42" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="35"/>
     </row>
     <row r="43" spans="1:17" ht="84.5" customHeight="1">
       <c r="A43" s="6">
         <v>38</v>
       </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="25" t="s">
+      <c r="B43" s="40"/>
+      <c r="C43" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26" t="s">
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
       <c r="M43" s="15">
         <v>45504</v>
       </c>
       <c r="N43" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P43" s="26"/>
-      <c r="Q43" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="P43" s="35"/>
+      <c r="Q43" s="35"/>
     </row>
     <row r="44" spans="1:17" ht="77.5" customHeight="1">
       <c r="A44" s="6">
         <v>39</v>
       </c>
-      <c r="B44" s="41"/>
-      <c r="C44" s="25" t="s">
+      <c r="B44" s="40"/>
+      <c r="C44" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26" t="s">
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="26"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
       <c r="M44" s="15">
         <v>45504</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P44" s="26"/>
-      <c r="Q44" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="P44" s="35"/>
+      <c r="Q44" s="35"/>
     </row>
     <row r="45" spans="1:17" ht="81" customHeight="1">
       <c r="A45" s="6">
         <v>40</v>
       </c>
-      <c r="B45" s="41"/>
-      <c r="C45" s="25" t="s">
+      <c r="B45" s="40"/>
+      <c r="C45" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26" t="s">
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="26"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
       <c r="M45" s="15">
         <v>45504</v>
       </c>
       <c r="N45" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="21"/>
+        <v>117</v>
+      </c>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="33"/>
     </row>
     <row r="46" spans="1:17" ht="98" customHeight="1">
       <c r="A46" s="6">
         <v>41</v>
       </c>
-      <c r="B46" s="41"/>
-      <c r="C46" s="25" t="s">
+      <c r="B46" s="40"/>
+      <c r="C46" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26" t="s">
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
       <c r="M46" s="15">
         <v>45504</v>
       </c>
       <c r="N46" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P46" s="16"/>
       <c r="Q46" s="17"/>
@@ -4617,994 +4706,994 @@
       <c r="A47" s="6">
         <v>42</v>
       </c>
-      <c r="B47" s="41"/>
-      <c r="C47" s="25" t="s">
+      <c r="B47" s="40"/>
+      <c r="C47" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="26"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="35"/>
       <c r="M47" s="15">
         <v>45504</v>
       </c>
       <c r="N47" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P47" s="26"/>
-      <c r="Q47" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="P47" s="35"/>
+      <c r="Q47" s="35"/>
     </row>
     <row r="48" spans="1:17" ht="91" customHeight="1">
       <c r="A48" s="6">
         <v>43</v>
       </c>
-      <c r="B48" s="41"/>
-      <c r="C48" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
       <c r="M48" s="15">
         <v>45504</v>
       </c>
       <c r="N48" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P48" s="26"/>
-      <c r="Q48" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="P48" s="35"/>
+      <c r="Q48" s="35"/>
     </row>
     <row r="49" spans="1:17" ht="116" customHeight="1">
       <c r="A49" s="6">
         <v>44</v>
       </c>
-      <c r="B49" s="41"/>
-      <c r="C49" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26" t="s">
+      <c r="B49" s="40"/>
+      <c r="C49" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="26"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
       <c r="M49" s="15">
         <v>45504</v>
       </c>
       <c r="N49" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P49" s="26"/>
-      <c r="Q49" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="35"/>
     </row>
     <row r="50" spans="1:17" ht="116" customHeight="1">
       <c r="A50" s="6">
         <v>45</v>
       </c>
-      <c r="B50" s="41"/>
-      <c r="C50" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26" t="s">
+      <c r="B50" s="40"/>
+      <c r="C50" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
-      <c r="K50" s="26"/>
-      <c r="L50" s="26"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
       <c r="M50" s="15">
         <v>45504</v>
       </c>
       <c r="N50" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P50" s="26"/>
-      <c r="Q50" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="P50" s="35"/>
+      <c r="Q50" s="35"/>
     </row>
     <row r="51" spans="1:17" ht="116" customHeight="1">
       <c r="A51" s="6">
         <v>46</v>
       </c>
-      <c r="B51" s="41"/>
-      <c r="C51" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26" t="s">
+      <c r="B51" s="40"/>
+      <c r="C51" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="26"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
       <c r="M51" s="15">
         <v>45504</v>
       </c>
       <c r="N51" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P51" s="26"/>
-      <c r="Q51" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="P51" s="35"/>
+      <c r="Q51" s="35"/>
     </row>
     <row r="52" spans="1:17" ht="116" customHeight="1">
       <c r="A52" s="6">
         <v>47</v>
       </c>
-      <c r="B52" s="41"/>
-      <c r="C52" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26" t="s">
+      <c r="B52" s="40"/>
+      <c r="C52" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="26"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="35"/>
       <c r="M52" s="15">
         <v>45504</v>
       </c>
       <c r="N52" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P52" s="26"/>
-      <c r="Q52" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="P52" s="35"/>
+      <c r="Q52" s="35"/>
     </row>
     <row r="53" spans="1:17" ht="116" customHeight="1">
       <c r="A53" s="6">
         <v>48</v>
       </c>
-      <c r="B53" s="41"/>
-      <c r="C53" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="26"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
       <c r="M53" s="15">
         <v>45504</v>
       </c>
       <c r="N53" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P53" s="26"/>
-      <c r="Q53" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="P53" s="35"/>
+      <c r="Q53" s="35"/>
     </row>
     <row r="54" spans="1:17" ht="116" customHeight="1">
       <c r="A54" s="6">
         <v>49</v>
       </c>
-      <c r="B54" s="41"/>
-      <c r="C54" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="26"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="35"/>
       <c r="M54" s="15">
         <v>45504</v>
       </c>
       <c r="N54" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P54" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q54" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="P54" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q54" s="35"/>
     </row>
     <row r="55" spans="1:17" ht="116" customHeight="1">
       <c r="A55" s="6">
         <v>50</v>
       </c>
-      <c r="B55" s="41"/>
-      <c r="C55" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="26"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
       <c r="M55" s="15">
         <v>45504</v>
       </c>
       <c r="N55" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P55" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q55" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="P55" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q55" s="35"/>
     </row>
     <row r="56" spans="1:17" ht="116" customHeight="1">
       <c r="A56" s="6">
         <v>51</v>
       </c>
-      <c r="B56" s="41"/>
-      <c r="C56" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="25" t="s">
+      <c r="B56" s="40"/>
+      <c r="C56" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="I56" s="26"/>
-      <c r="J56" s="26"/>
-      <c r="K56" s="26"/>
-      <c r="L56" s="26"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="35"/>
       <c r="M56" s="15">
         <v>45504</v>
       </c>
       <c r="N56" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P56" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q56" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="P56" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q56" s="35"/>
     </row>
     <row r="57" spans="1:17" ht="116" customHeight="1">
       <c r="A57" s="6">
         <v>52</v>
       </c>
-      <c r="B57" s="41"/>
-      <c r="C57" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="25" t="s">
+      <c r="B57" s="40"/>
+      <c r="C57" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="26"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="35"/>
       <c r="M57" s="15">
         <v>45504</v>
       </c>
       <c r="N57" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P57" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q57" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="P57" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q57" s="35"/>
     </row>
     <row r="58" spans="1:17" ht="95.5" customHeight="1">
       <c r="A58" s="6">
         <v>53</v>
       </c>
-      <c r="B58" s="41"/>
-      <c r="C58" s="22" t="s">
+      <c r="B58" s="40"/>
+      <c r="C58" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="26" t="s">
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="26"/>
-      <c r="L58" s="26"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="35"/>
       <c r="M58" s="15">
         <v>45504</v>
       </c>
       <c r="N58" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P58" s="20"/>
-      <c r="Q58" s="21"/>
+        <v>117</v>
+      </c>
+      <c r="P58" s="32"/>
+      <c r="Q58" s="33"/>
     </row>
     <row r="59" spans="1:17" ht="95.5" customHeight="1">
       <c r="A59" s="6">
         <v>54</v>
       </c>
-      <c r="B59" s="41"/>
-      <c r="C59" s="22" t="s">
+      <c r="B59" s="40"/>
+      <c r="C59" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="26" t="s">
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="I59" s="26"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="26"/>
-      <c r="L59" s="26"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
       <c r="M59" s="15">
         <v>45504</v>
       </c>
       <c r="N59" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P59" s="20"/>
-      <c r="Q59" s="21"/>
+        <v>117</v>
+      </c>
+      <c r="P59" s="32"/>
+      <c r="Q59" s="33"/>
     </row>
     <row r="60" spans="1:17" ht="95.5" customHeight="1">
       <c r="A60" s="6">
         <v>55</v>
       </c>
-      <c r="B60" s="41"/>
-      <c r="C60" s="22" t="s">
+      <c r="B60" s="40"/>
+      <c r="C60" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="26" t="s">
+      <c r="D60" s="51"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="26"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="35"/>
       <c r="M60" s="15">
         <v>45504</v>
       </c>
       <c r="N60" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P60" s="20"/>
-      <c r="Q60" s="21"/>
+        <v>117</v>
+      </c>
+      <c r="P60" s="32"/>
+      <c r="Q60" s="33"/>
     </row>
     <row r="61" spans="1:17" ht="95.5" customHeight="1">
       <c r="A61" s="6">
         <v>56</v>
       </c>
-      <c r="B61" s="41"/>
-      <c r="C61" s="22" t="s">
+      <c r="B61" s="40"/>
+      <c r="C61" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="26" t="s">
+      <c r="D61" s="51"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="I61" s="26"/>
-      <c r="J61" s="26"/>
-      <c r="K61" s="26"/>
-      <c r="L61" s="26"/>
+      <c r="I61" s="35"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="35"/>
+      <c r="L61" s="35"/>
       <c r="M61" s="15">
         <v>45504</v>
       </c>
       <c r="N61" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P61" s="20"/>
-      <c r="Q61" s="21"/>
+        <v>117</v>
+      </c>
+      <c r="P61" s="32"/>
+      <c r="Q61" s="33"/>
     </row>
     <row r="62" spans="1:17" ht="95.5" customHeight="1">
       <c r="A62" s="6">
         <v>57</v>
       </c>
-      <c r="B62" s="41"/>
-      <c r="C62" s="22" t="s">
+      <c r="B62" s="40"/>
+      <c r="C62" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="25" t="s">
+      <c r="D62" s="51"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="I62" s="26"/>
-      <c r="J62" s="26"/>
-      <c r="K62" s="26"/>
-      <c r="L62" s="26"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="35"/>
       <c r="M62" s="15">
         <v>45504</v>
       </c>
       <c r="N62" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P62" s="20"/>
-      <c r="Q62" s="21"/>
+        <v>117</v>
+      </c>
+      <c r="P62" s="32"/>
+      <c r="Q62" s="33"/>
     </row>
     <row r="63" spans="1:17" ht="95.5" customHeight="1">
       <c r="A63" s="6">
         <v>58</v>
       </c>
-      <c r="B63" s="41"/>
-      <c r="C63" s="22" t="s">
+      <c r="B63" s="40"/>
+      <c r="C63" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="I63" s="26"/>
-      <c r="J63" s="26"/>
-      <c r="K63" s="26"/>
-      <c r="L63" s="26"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="51"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="I63" s="35"/>
+      <c r="J63" s="35"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="35"/>
       <c r="M63" s="15">
         <v>45504</v>
       </c>
       <c r="N63" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P63" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q63" s="21"/>
+        <v>117</v>
+      </c>
+      <c r="P63" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q63" s="33"/>
     </row>
     <row r="64" spans="1:17" ht="95.5" customHeight="1">
       <c r="A64" s="6">
         <v>59</v>
       </c>
-      <c r="B64" s="41"/>
-      <c r="C64" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="25" t="s">
+      <c r="B64" s="40"/>
+      <c r="C64" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
-      <c r="K64" s="26"/>
-      <c r="L64" s="26"/>
+      <c r="I64" s="35"/>
+      <c r="J64" s="35"/>
+      <c r="K64" s="35"/>
+      <c r="L64" s="35"/>
       <c r="M64" s="15">
         <v>45504</v>
       </c>
       <c r="N64" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P64" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q64" s="21"/>
+        <v>117</v>
+      </c>
+      <c r="P64" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q64" s="33"/>
     </row>
     <row r="65" spans="1:17" ht="95.5" customHeight="1">
       <c r="A65" s="6">
         <v>60</v>
       </c>
-      <c r="B65" s="41"/>
-      <c r="C65" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="25" t="s">
+      <c r="B65" s="40"/>
+      <c r="C65" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65" s="51"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="I65" s="26"/>
-      <c r="J65" s="26"/>
-      <c r="K65" s="26"/>
-      <c r="L65" s="26"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="35"/>
       <c r="M65" s="15">
         <v>45504</v>
       </c>
       <c r="N65" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P65" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q65" s="21"/>
+        <v>117</v>
+      </c>
+      <c r="P65" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q65" s="33"/>
     </row>
     <row r="66" spans="1:17" ht="95.5" customHeight="1">
       <c r="A66" s="6">
         <v>61</v>
       </c>
-      <c r="B66" s="41"/>
-      <c r="C66" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="25" t="s">
+      <c r="B66" s="40"/>
+      <c r="C66" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="D66" s="51"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="51"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="I66" s="26"/>
-      <c r="J66" s="26"/>
-      <c r="K66" s="26"/>
-      <c r="L66" s="26"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="35"/>
       <c r="M66" s="15">
         <v>45504</v>
       </c>
       <c r="N66" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P66" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q66" s="21"/>
+        <v>117</v>
+      </c>
+      <c r="P66" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q66" s="33"/>
     </row>
     <row r="67" spans="1:17" ht="68" customHeight="1">
       <c r="A67" s="6">
         <v>62</v>
       </c>
-      <c r="B67" s="41"/>
-      <c r="C67" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="I67" s="25"/>
-      <c r="J67" s="25"/>
-      <c r="K67" s="25"/>
-      <c r="L67" s="25"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="I67" s="34"/>
+      <c r="J67" s="34"/>
+      <c r="K67" s="34"/>
+      <c r="L67" s="34"/>
       <c r="M67" s="15">
         <v>45504</v>
       </c>
       <c r="N67" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P67" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q67" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="P67" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q67" s="35"/>
     </row>
     <row r="68" spans="1:17" ht="13.5" customHeight="1">
       <c r="A68" s="6">
         <v>63</v>
       </c>
-      <c r="B68" s="40" t="s">
+      <c r="B68" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="27" t="s">
+      <c r="C68" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="29"/>
-      <c r="H68" s="20" t="s">
+      <c r="D68" s="37"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="38"/>
+      <c r="H68" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="I68" s="30"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="30"/>
-      <c r="L68" s="21"/>
+      <c r="I68" s="56"/>
+      <c r="J68" s="56"/>
+      <c r="K68" s="56"/>
+      <c r="L68" s="33"/>
       <c r="M68" s="15">
         <v>45504</v>
       </c>
       <c r="N68" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P68" s="26"/>
-      <c r="Q68" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="P68" s="35"/>
+      <c r="Q68" s="35"/>
     </row>
     <row r="69" spans="1:17" ht="13.5" customHeight="1">
       <c r="A69" s="6">
         <v>64</v>
       </c>
-      <c r="B69" s="41"/>
-      <c r="C69" s="27" t="s">
+      <c r="B69" s="40"/>
+      <c r="C69" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="20" t="s">
+      <c r="D69" s="37"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="38"/>
+      <c r="H69" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="I69" s="30"/>
-      <c r="J69" s="30"/>
-      <c r="K69" s="30"/>
-      <c r="L69" s="21"/>
+      <c r="I69" s="56"/>
+      <c r="J69" s="56"/>
+      <c r="K69" s="56"/>
+      <c r="L69" s="33"/>
       <c r="M69" s="15">
         <v>45504</v>
       </c>
       <c r="N69" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P69" s="26"/>
-      <c r="Q69" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="P69" s="35"/>
+      <c r="Q69" s="35"/>
     </row>
     <row r="70" spans="1:17" ht="13.5" customHeight="1">
       <c r="A70" s="6">
         <v>65</v>
       </c>
-      <c r="B70" s="41"/>
-      <c r="C70" s="27" t="s">
+      <c r="B70" s="40"/>
+      <c r="C70" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="26" t="s">
+      <c r="D70" s="37"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="I70" s="26"/>
-      <c r="J70" s="26"/>
-      <c r="K70" s="26"/>
-      <c r="L70" s="26"/>
+      <c r="I70" s="35"/>
+      <c r="J70" s="35"/>
+      <c r="K70" s="35"/>
+      <c r="L70" s="35"/>
       <c r="M70" s="15">
         <v>45504</v>
       </c>
       <c r="N70" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P70" s="26"/>
-      <c r="Q70" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="P70" s="35"/>
+      <c r="Q70" s="35"/>
     </row>
     <row r="71" spans="1:17" ht="13.5" customHeight="1">
       <c r="A71" s="6">
         <v>66</v>
       </c>
-      <c r="B71" s="41"/>
-      <c r="C71" s="25" t="s">
+      <c r="B71" s="40"/>
+      <c r="C71" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="D71" s="26"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="26" t="s">
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="I71" s="26"/>
-      <c r="J71" s="26"/>
-      <c r="K71" s="26"/>
-      <c r="L71" s="26"/>
+      <c r="I71" s="35"/>
+      <c r="J71" s="35"/>
+      <c r="K71" s="35"/>
+      <c r="L71" s="35"/>
       <c r="M71" s="15">
         <v>45504</v>
       </c>
       <c r="N71" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P71" s="20"/>
-      <c r="Q71" s="21"/>
+        <v>117</v>
+      </c>
+      <c r="P71" s="32"/>
+      <c r="Q71" s="33"/>
     </row>
     <row r="72" spans="1:17" ht="13.5" customHeight="1">
       <c r="A72" s="6">
         <v>67</v>
       </c>
-      <c r="B72" s="41"/>
-      <c r="C72" s="25" t="s">
+      <c r="B72" s="40"/>
+      <c r="C72" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="26" t="s">
+      <c r="D72" s="35"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="35"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="I72" s="26"/>
-      <c r="J72" s="26"/>
-      <c r="K72" s="26"/>
-      <c r="L72" s="26"/>
+      <c r="I72" s="35"/>
+      <c r="J72" s="35"/>
+      <c r="K72" s="35"/>
+      <c r="L72" s="35"/>
       <c r="M72" s="15">
         <v>45504</v>
       </c>
       <c r="N72" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P72" s="26"/>
-      <c r="Q72" s="26"/>
-    </row>
-    <row r="73" spans="1:17" ht="13.5" customHeight="1">
+        <v>117</v>
+      </c>
+      <c r="P72" s="35"/>
+      <c r="Q72" s="35"/>
+    </row>
+    <row r="73" spans="1:17" ht="42" customHeight="1">
       <c r="A73" s="6">
         <v>68</v>
       </c>
-      <c r="B73" s="42"/>
-      <c r="C73" s="27" t="s">
+      <c r="B73" s="41"/>
+      <c r="C73" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="I73" s="30"/>
-      <c r="J73" s="30"/>
-      <c r="K73" s="30"/>
-      <c r="L73" s="21"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="38"/>
+      <c r="H73" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="I73" s="56"/>
+      <c r="J73" s="56"/>
+      <c r="K73" s="56"/>
+      <c r="L73" s="33"/>
       <c r="M73" s="15">
         <v>45504</v>
       </c>
       <c r="N73" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P73" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q73" s="21"/>
+        <v>117</v>
+      </c>
+      <c r="P73" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q73" s="33"/>
     </row>
     <row r="74" spans="1:17" ht="69.5" customHeight="1">
       <c r="A74" s="6">
         <v>69</v>
       </c>
-      <c r="B74" s="40" t="s">
+      <c r="B74" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C74" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="I74" s="25"/>
-      <c r="J74" s="25"/>
-      <c r="K74" s="25"/>
-      <c r="L74" s="25"/>
+      <c r="C74" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="D74" s="34"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="34"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="I74" s="34"/>
+      <c r="J74" s="34"/>
+      <c r="K74" s="34"/>
+      <c r="L74" s="34"/>
       <c r="M74" s="15">
         <v>45504</v>
       </c>
       <c r="N74" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="P74" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q74" s="21"/>
+        <v>117</v>
+      </c>
+      <c r="P74" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q74" s="33"/>
     </row>
     <row r="75" spans="1:17" ht="69.5" customHeight="1">
       <c r="A75" s="6">
         <v>70</v>
       </c>
-      <c r="B75" s="41"/>
-      <c r="C75" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="27" t="s">
+      <c r="B75" s="40"/>
+      <c r="C75" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D75" s="34"/>
+      <c r="E75" s="34"/>
+      <c r="F75" s="34"/>
+      <c r="G75" s="34"/>
+      <c r="H75" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="I75" s="28"/>
-      <c r="J75" s="28"/>
-      <c r="K75" s="28"/>
-      <c r="L75" s="29"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="37"/>
+      <c r="K75" s="37"/>
+      <c r="L75" s="38"/>
       <c r="M75" s="15">
         <v>45504</v>
       </c>
       <c r="N75" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="P75" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q75" s="21"/>
+        <v>117</v>
+      </c>
+      <c r="P75" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q75" s="33"/>
     </row>
     <row r="76" spans="1:17" ht="91.5" customHeight="1">
       <c r="A76" s="6">
         <v>71</v>
       </c>
-      <c r="B76" s="41"/>
-      <c r="C76" s="25" t="s">
+      <c r="B76" s="40"/>
+      <c r="C76" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="26"/>
-      <c r="G76" s="26"/>
-      <c r="H76" s="27" t="s">
+      <c r="D76" s="35"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="I76" s="28"/>
-      <c r="J76" s="28"/>
-      <c r="K76" s="28"/>
-      <c r="L76" s="29"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="37"/>
+      <c r="K76" s="37"/>
+      <c r="L76" s="38"/>
       <c r="M76" s="15">
         <v>45504</v>
       </c>
       <c r="N76" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="P76" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q76" s="21"/>
+        <v>117</v>
+      </c>
+      <c r="P76" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q76" s="33"/>
     </row>
     <row r="77" spans="1:17" ht="90.5" customHeight="1">
       <c r="A77" s="6">
         <v>72</v>
       </c>
-      <c r="B77" s="42"/>
-      <c r="C77" s="25" t="s">
+      <c r="B77" s="41"/>
+      <c r="C77" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="27" t="s">
+      <c r="D77" s="35"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="I77" s="28"/>
-      <c r="J77" s="28"/>
-      <c r="K77" s="28"/>
-      <c r="L77" s="29"/>
+      <c r="I77" s="37"/>
+      <c r="J77" s="37"/>
+      <c r="K77" s="37"/>
+      <c r="L77" s="38"/>
       <c r="M77" s="15">
         <v>45504</v>
       </c>
       <c r="N77" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="P77" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q77" s="21"/>
+        <v>117</v>
+      </c>
+      <c r="P77" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q77" s="33"/>
     </row>
     <row r="78" spans="1:17" ht="11.25" customHeight="1">
       <c r="B78" s="4"/>
@@ -5632,6 +5721,187 @@
     </row>
   </sheetData>
   <mergeCells count="205">
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:L66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:L56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:L57"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:L65"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:L63"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:L64"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:L62"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:L61"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:L54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:L53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:L52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:L75"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:L72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:L73"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:L69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:L70"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C14:G21"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="B68:B73"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:L68"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:L71"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:L74"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:L67"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:L58"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:L50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:L60"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:L59"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:M1"/>
@@ -5656,187 +5926,6 @@
     <mergeCell ref="H43:L43"/>
     <mergeCell ref="P73:Q73"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="H74:L74"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:L47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="H67:L67"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="H58:L58"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:L50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="H60:L60"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="H59:L59"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="C14:G21"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="B68:B73"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="H68:L68"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="H71:L71"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="H75:L75"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="H72:L72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:L73"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="H69:L69"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="H70:L70"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="H53:L53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:L52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="H61:L61"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="H54:L54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="H55:L55"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="H66:L66"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="H56:L56"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="H57:L57"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="H65:L65"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="H63:L63"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="H64:L64"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="H62:L62"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP012新商品登録(入力).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP012新商品登録(入力).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F132B07-189B-49A5-B449-DF21AB5BE212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175EB7A7-76E0-4E3A-8ABE-399D6AE85CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="148">
   <si>
     <t>作成者</t>
   </si>
@@ -2431,6 +2431,16 @@
     </rPh>
     <rPh sb="34" eb="35">
       <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高良・舘川</t>
+    <rPh sb="0" eb="2">
+      <t>タカラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タチカワ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2738,7 +2748,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2758,44 +2768,131 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2833,98 +2930,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3278,8 +3285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScale="81" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="T73" sqref="T73"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -3290,7 +3297,7 @@
     <col min="7" max="7" width="8" style="5" customWidth="1"/>
     <col min="8" max="11" width="7.1796875" style="4" customWidth="1"/>
     <col min="12" max="12" width="10.7265625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="10.453125" style="19" customWidth="1"/>
+    <col min="13" max="13" width="10.453125" style="17" customWidth="1"/>
     <col min="14" max="14" width="8.453125" style="4" customWidth="1"/>
     <col min="15" max="15" width="11.81640625" style="4" customWidth="1"/>
     <col min="16" max="16" width="17.1796875" style="4" customWidth="1"/>
@@ -3299,25 +3306,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3332,2368 +3339,2370 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="26" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="9" t="s">
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="9">
         <v>45496</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="12"/>
+      <c r="Q2" s="11" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="25" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="44" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="46"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="43"/>
     </row>
     <row r="4" spans="1:17" ht="40.5" customHeight="1">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="46"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="43"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="47" t="s">
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="18" t="s">
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="47" t="s">
+      <c r="P5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="48"/>
+      <c r="Q5" s="47"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35" t="s">
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="15">
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="61">
         <v>45503</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="O6" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P6" s="35" t="s">
+      <c r="O6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P6" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="Q6" s="35"/>
+      <c r="Q6" s="24"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="35" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="34" t="s">
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="15">
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="61">
         <v>45503</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="O7" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
+      <c r="O7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
     </row>
     <row r="8" spans="1:17" ht="13.5" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="53" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="36" t="s">
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="15">
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="61">
         <v>45503</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="O8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="33"/>
+      <c r="O8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="19"/>
     </row>
     <row r="9" spans="1:17" ht="11.5" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="36" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="15">
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="61">
         <v>45503</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="O9" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="17"/>
+      <c r="O9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="15"/>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1">
       <c r="A10" s="6">
         <v>5</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="36" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="15">
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="61">
         <v>45503</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="O10" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="17"/>
+      <c r="O10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="15"/>
     </row>
     <row r="11" spans="1:17" ht="12.5" customHeight="1">
       <c r="A11" s="6">
         <v>6</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="36" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="15">
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="61">
         <v>45503</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="O11" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="17"/>
+      <c r="O11" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="15"/>
     </row>
     <row r="12" spans="1:17" ht="12" customHeight="1">
       <c r="A12" s="6">
         <v>7</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="36" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="15">
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="61">
         <v>45503</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="N12" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="O12" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="17"/>
+      <c r="O12" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="15"/>
     </row>
     <row r="13" spans="1:17" ht="12" customHeight="1">
       <c r="A13" s="6">
         <v>8</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="36" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="15">
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="61">
         <v>45503</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="N13" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="O13" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="17"/>
+      <c r="O13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="15"/>
     </row>
     <row r="14" spans="1:17" ht="12" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="53" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="32" t="s">
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="15">
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="61">
         <v>45503</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="O14" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="17"/>
+      <c r="O14" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="15"/>
     </row>
     <row r="15" spans="1:17" ht="12" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="32" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="15">
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="61">
         <v>45503</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N15" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="17"/>
+      <c r="O15" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="15"/>
     </row>
     <row r="16" spans="1:17" ht="12" customHeight="1">
       <c r="A16" s="6">
         <v>11</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="32" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="15">
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="61">
         <v>45503</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="N16" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="O16" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="17"/>
+      <c r="O16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="15"/>
     </row>
     <row r="17" spans="1:17" ht="12" customHeight="1">
       <c r="A17" s="6">
         <v>12</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="32" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="15">
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="61">
         <v>45503</v>
       </c>
-      <c r="N17" s="7" t="s">
+      <c r="N17" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="O17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="17"/>
+      <c r="O17" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="15"/>
     </row>
     <row r="18" spans="1:17" ht="12" customHeight="1">
       <c r="A18" s="6">
         <v>13</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="32" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="15">
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="61">
         <v>45503</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="N18" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="O18" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="17"/>
+      <c r="O18" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="15"/>
     </row>
     <row r="19" spans="1:17" ht="40" customHeight="1">
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="36" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="15">
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="61">
         <v>45503</v>
       </c>
-      <c r="N19" s="7" t="s">
+      <c r="N19" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="17"/>
+      <c r="O19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="15"/>
     </row>
     <row r="20" spans="1:17" ht="12" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="32" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="15">
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="61">
         <v>45503</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="N20" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="O20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="17"/>
+      <c r="O20" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="15"/>
     </row>
     <row r="21" spans="1:17" ht="12" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="32" t="s">
+      <c r="B21" s="7"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="15">
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="61">
         <v>45503</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="N21" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="O21" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P21" s="16" t="s">
+      <c r="O21" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P21" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="Q21" s="17"/>
+      <c r="Q21" s="15"/>
     </row>
     <row r="22" spans="1:17" ht="11" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="53" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="36" t="s">
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="15">
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="61">
         <v>45503</v>
       </c>
-      <c r="N22" s="7" t="s">
+      <c r="N22" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="O22" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="17"/>
+      <c r="O22" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="15"/>
     </row>
     <row r="23" spans="1:17" ht="78" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35" t="s">
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="15">
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="61">
         <v>45504</v>
       </c>
-      <c r="N23" s="7" t="s">
+      <c r="N23" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O23" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
+      <c r="O23" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
     </row>
     <row r="24" spans="1:17" ht="92" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="34" t="s">
+      <c r="B24" s="39"/>
+      <c r="C24" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35" t="s">
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="15">
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="61">
         <v>45504</v>
       </c>
-      <c r="N24" s="7" t="s">
+      <c r="N24" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
+      <c r="O24" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
     </row>
     <row r="25" spans="1:17" ht="85" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="34" t="s">
+      <c r="B25" s="39"/>
+      <c r="C25" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="34" t="s">
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="15">
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="61">
         <v>45504</v>
       </c>
-      <c r="N25" s="7" t="s">
+      <c r="N25" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O25" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P25" s="34" t="s">
+      <c r="O25" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P25" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="Q25" s="35"/>
+      <c r="Q25" s="24"/>
     </row>
     <row r="26" spans="1:17" ht="85" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="34" t="s">
+      <c r="B26" s="39"/>
+      <c r="C26" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35" t="s">
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="15">
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="61">
         <v>45504</v>
       </c>
-      <c r="N26" s="7" t="s">
+      <c r="N26" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O26" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
+      <c r="O26" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
     </row>
     <row r="27" spans="1:17" ht="96.5" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="34" t="s">
+      <c r="B27" s="39"/>
+      <c r="C27" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35" t="s">
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="15">
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="61">
         <v>45504</v>
       </c>
-      <c r="N27" s="7" t="s">
+      <c r="N27" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
+      <c r="O27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
     </row>
     <row r="28" spans="1:17" ht="90" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="34" t="s">
+      <c r="B28" s="39"/>
+      <c r="C28" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="34" t="s">
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="15">
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="61">
         <v>45504</v>
       </c>
-      <c r="N28" s="7" t="s">
+      <c r="N28" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O28" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
+      <c r="O28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
     </row>
     <row r="29" spans="1:17" ht="85" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="34" t="s">
+      <c r="B29" s="39"/>
+      <c r="C29" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35" t="s">
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="15">
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="61">
         <v>45504</v>
       </c>
-      <c r="N29" s="7" t="s">
+      <c r="N29" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O29" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
+      <c r="O29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
     </row>
     <row r="30" spans="1:17" ht="85" customHeight="1">
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="34" t="s">
+      <c r="B30" s="39"/>
+      <c r="C30" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="34" t="s">
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="15">
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="61">
         <v>45504</v>
       </c>
-      <c r="N30" s="7" t="s">
+      <c r="N30" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O30" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P30" s="35" t="s">
+      <c r="O30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P30" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="Q30" s="35"/>
+      <c r="Q30" s="24"/>
     </row>
     <row r="31" spans="1:17" ht="85" customHeight="1">
       <c r="A31" s="6">
         <v>26</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="34" t="s">
+      <c r="B31" s="39"/>
+      <c r="C31" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35" t="s">
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="15">
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="61">
         <v>45504</v>
       </c>
-      <c r="N31" s="7" t="s">
+      <c r="N31" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
+      <c r="O31" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
     </row>
     <row r="32" spans="1:17" ht="85" customHeight="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="34" t="s">
+      <c r="B32" s="39"/>
+      <c r="C32" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35" t="s">
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="15">
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="61">
         <v>45504</v>
       </c>
-      <c r="N32" s="7" t="s">
+      <c r="N32" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O32" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
+      <c r="O32" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24"/>
     </row>
     <row r="33" spans="1:17" ht="85" customHeight="1">
       <c r="A33" s="6">
         <v>28</v>
       </c>
-      <c r="B33" s="40"/>
-      <c r="C33" s="34" t="s">
+      <c r="B33" s="39"/>
+      <c r="C33" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35" t="s">
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="15">
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="61">
         <v>45504</v>
       </c>
-      <c r="N33" s="7" t="s">
+      <c r="N33" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O33" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
+      <c r="O33" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
     </row>
     <row r="34" spans="1:17" ht="85" customHeight="1">
       <c r="A34" s="6">
         <v>29</v>
       </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="34" t="s">
+      <c r="B34" s="39"/>
+      <c r="C34" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35" t="s">
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="15">
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="61">
         <v>45504</v>
       </c>
-      <c r="N34" s="7" t="s">
+      <c r="N34" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O34" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
+      <c r="O34" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
     </row>
     <row r="35" spans="1:17" ht="85" customHeight="1">
       <c r="A35" s="6">
         <v>30</v>
       </c>
-      <c r="B35" s="40"/>
-      <c r="C35" s="34" t="s">
+      <c r="B35" s="39"/>
+      <c r="C35" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="36" t="s">
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="15">
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="61">
         <v>45504</v>
       </c>
-      <c r="N35" s="7" t="s">
+      <c r="N35" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O35" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P35" s="35" t="s">
+      <c r="O35" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P35" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="Q35" s="35"/>
+      <c r="Q35" s="24"/>
     </row>
     <row r="36" spans="1:17" ht="85" customHeight="1">
       <c r="A36" s="6">
         <v>31</v>
       </c>
-      <c r="B36" s="40"/>
-      <c r="C36" s="34" t="s">
+      <c r="B36" s="39"/>
+      <c r="C36" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="34" t="s">
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="15">
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="61">
         <v>45504</v>
       </c>
-      <c r="N36" s="7" t="s">
+      <c r="N36" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O36" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
+      <c r="O36" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
     </row>
     <row r="37" spans="1:17" ht="85" customHeight="1">
       <c r="A37" s="6">
         <v>32</v>
       </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="34" t="s">
+      <c r="B37" s="39"/>
+      <c r="C37" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35" t="s">
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="15">
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="61">
         <v>45504</v>
       </c>
-      <c r="N37" s="7" t="s">
+      <c r="N37" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O37" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
+      <c r="O37" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
     </row>
     <row r="38" spans="1:17" ht="85" customHeight="1">
       <c r="A38" s="6">
         <v>33</v>
       </c>
-      <c r="B38" s="40"/>
-      <c r="C38" s="34" t="s">
+      <c r="B38" s="39"/>
+      <c r="C38" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35" t="s">
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="15">
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="61">
         <v>45504</v>
       </c>
-      <c r="N38" s="7" t="s">
+      <c r="N38" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="35"/>
+      <c r="O38" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
     </row>
     <row r="39" spans="1:17" ht="88" customHeight="1">
       <c r="A39" s="6">
         <v>34</v>
       </c>
-      <c r="B39" s="40"/>
-      <c r="C39" s="34" t="s">
+      <c r="B39" s="39"/>
+      <c r="C39" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35" t="s">
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="15">
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="61">
         <v>45504</v>
       </c>
-      <c r="N39" s="7" t="s">
+      <c r="N39" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O39" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="35"/>
+      <c r="O39" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
     </row>
     <row r="40" spans="1:17" ht="112" customHeight="1">
       <c r="A40" s="6">
         <v>35</v>
       </c>
-      <c r="B40" s="40"/>
-      <c r="C40" s="34" t="s">
+      <c r="B40" s="39"/>
+      <c r="C40" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35" t="s">
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="15">
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="61">
         <v>45504</v>
       </c>
-      <c r="N40" s="7" t="s">
+      <c r="N40" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O40" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="35"/>
+      <c r="O40" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24"/>
     </row>
     <row r="41" spans="1:17" ht="102" customHeight="1">
       <c r="A41" s="6">
         <v>36</v>
       </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="50" t="s">
+      <c r="B41" s="39"/>
+      <c r="C41" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="34" t="s">
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="15">
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="61">
         <v>45504</v>
       </c>
-      <c r="N41" s="7" t="s">
+      <c r="N41" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O41" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="33"/>
+      <c r="O41" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="19"/>
     </row>
     <row r="42" spans="1:17" ht="90.5" customHeight="1">
       <c r="A42" s="6">
         <v>37</v>
       </c>
-      <c r="B42" s="40"/>
-      <c r="C42" s="34" t="s">
+      <c r="B42" s="39"/>
+      <c r="C42" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="34" t="s">
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="15">
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="61">
         <v>45504</v>
       </c>
-      <c r="N42" s="7" t="s">
+      <c r="N42" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O42" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="35"/>
+      <c r="O42" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="24"/>
     </row>
     <row r="43" spans="1:17" ht="84.5" customHeight="1">
       <c r="A43" s="6">
         <v>38</v>
       </c>
-      <c r="B43" s="40"/>
-      <c r="C43" s="34" t="s">
+      <c r="B43" s="39"/>
+      <c r="C43" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35" t="s">
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="15">
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="61">
         <v>45504</v>
       </c>
-      <c r="N43" s="7" t="s">
+      <c r="N43" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O43" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P43" s="35"/>
-      <c r="Q43" s="35"/>
+      <c r="O43" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="24"/>
     </row>
     <row r="44" spans="1:17" ht="77.5" customHeight="1">
       <c r="A44" s="6">
         <v>39</v>
       </c>
-      <c r="B44" s="40"/>
-      <c r="C44" s="34" t="s">
+      <c r="B44" s="39"/>
+      <c r="C44" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35" t="s">
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="15">
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="61">
         <v>45504</v>
       </c>
-      <c r="N44" s="7" t="s">
+      <c r="N44" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O44" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P44" s="35"/>
-      <c r="Q44" s="35"/>
+      <c r="O44" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="24"/>
     </row>
     <row r="45" spans="1:17" ht="81" customHeight="1">
       <c r="A45" s="6">
         <v>40</v>
       </c>
-      <c r="B45" s="40"/>
-      <c r="C45" s="34" t="s">
+      <c r="B45" s="39"/>
+      <c r="C45" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35" t="s">
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="15">
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="61">
         <v>45504</v>
       </c>
-      <c r="N45" s="7" t="s">
+      <c r="N45" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P45" s="32"/>
-      <c r="Q45" s="33"/>
+      <c r="O45" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="19"/>
     </row>
     <row r="46" spans="1:17" ht="98" customHeight="1">
       <c r="A46" s="6">
         <v>41</v>
       </c>
-      <c r="B46" s="40"/>
-      <c r="C46" s="34" t="s">
+      <c r="B46" s="39"/>
+      <c r="C46" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35" t="s">
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="15">
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="61">
         <v>45504</v>
       </c>
-      <c r="N46" s="7" t="s">
+      <c r="N46" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O46" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="17"/>
+      <c r="O46" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="15"/>
     </row>
     <row r="47" spans="1:17" ht="95" customHeight="1">
       <c r="A47" s="6">
         <v>42</v>
       </c>
-      <c r="B47" s="40"/>
-      <c r="C47" s="34" t="s">
+      <c r="B47" s="39"/>
+      <c r="C47" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="34" t="s">
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="15">
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="61">
         <v>45504</v>
       </c>
-      <c r="N47" s="7" t="s">
+      <c r="N47" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O47" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P47" s="35"/>
-      <c r="Q47" s="35"/>
+      <c r="O47" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="24"/>
     </row>
     <row r="48" spans="1:17" ht="91" customHeight="1">
       <c r="A48" s="6">
         <v>43</v>
       </c>
-      <c r="B48" s="40"/>
-      <c r="C48" s="34" t="s">
+      <c r="B48" s="39"/>
+      <c r="C48" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="34" t="s">
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="15">
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="61">
         <v>45504</v>
       </c>
-      <c r="N48" s="7" t="s">
+      <c r="N48" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O48" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P48" s="35"/>
-      <c r="Q48" s="35"/>
+      <c r="O48" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="24"/>
     </row>
     <row r="49" spans="1:17" ht="116" customHeight="1">
       <c r="A49" s="6">
         <v>44</v>
       </c>
-      <c r="B49" s="40"/>
-      <c r="C49" s="34" t="s">
+      <c r="B49" s="39"/>
+      <c r="C49" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35" t="s">
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="15">
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="61">
         <v>45504</v>
       </c>
-      <c r="N49" s="7" t="s">
+      <c r="N49" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O49" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P49" s="35"/>
-      <c r="Q49" s="35"/>
+      <c r="O49" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="24"/>
     </row>
     <row r="50" spans="1:17" ht="116" customHeight="1">
       <c r="A50" s="6">
         <v>45</v>
       </c>
-      <c r="B50" s="40"/>
-      <c r="C50" s="34" t="s">
+      <c r="B50" s="39"/>
+      <c r="C50" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35" t="s">
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="15">
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="61">
         <v>45504</v>
       </c>
-      <c r="N50" s="7" t="s">
+      <c r="N50" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O50" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P50" s="35"/>
-      <c r="Q50" s="35"/>
+      <c r="O50" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P50" s="24"/>
+      <c r="Q50" s="24"/>
     </row>
     <row r="51" spans="1:17" ht="116" customHeight="1">
       <c r="A51" s="6">
         <v>46</v>
       </c>
-      <c r="B51" s="40"/>
-      <c r="C51" s="34" t="s">
+      <c r="B51" s="39"/>
+      <c r="C51" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35" t="s">
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="15">
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="61">
         <v>45504</v>
       </c>
-      <c r="N51" s="7" t="s">
+      <c r="N51" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O51" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P51" s="35"/>
-      <c r="Q51" s="35"/>
+      <c r="O51" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P51" s="24"/>
+      <c r="Q51" s="24"/>
     </row>
     <row r="52" spans="1:17" ht="116" customHeight="1">
       <c r="A52" s="6">
         <v>47</v>
       </c>
-      <c r="B52" s="40"/>
-      <c r="C52" s="34" t="s">
+      <c r="B52" s="39"/>
+      <c r="C52" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35" t="s">
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="15">
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="61">
         <v>45504</v>
       </c>
-      <c r="N52" s="7" t="s">
+      <c r="N52" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O52" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P52" s="35"/>
-      <c r="Q52" s="35"/>
+      <c r="O52" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="24"/>
     </row>
     <row r="53" spans="1:17" ht="116" customHeight="1">
       <c r="A53" s="6">
         <v>48</v>
       </c>
-      <c r="B53" s="40"/>
-      <c r="C53" s="34" t="s">
+      <c r="B53" s="39"/>
+      <c r="C53" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="34" t="s">
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="15">
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="61">
         <v>45504</v>
       </c>
-      <c r="N53" s="7" t="s">
+      <c r="N53" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O53" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P53" s="35"/>
-      <c r="Q53" s="35"/>
+      <c r="O53" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P53" s="24"/>
+      <c r="Q53" s="24"/>
     </row>
     <row r="54" spans="1:17" ht="116" customHeight="1">
       <c r="A54" s="6">
         <v>49</v>
       </c>
-      <c r="B54" s="40"/>
-      <c r="C54" s="34" t="s">
+      <c r="B54" s="39"/>
+      <c r="C54" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="34" t="s">
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="15">
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="61">
         <v>45504</v>
       </c>
-      <c r="N54" s="7" t="s">
+      <c r="N54" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O54" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P54" s="34" t="s">
+      <c r="O54" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P54" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="Q54" s="35"/>
+      <c r="Q54" s="24"/>
     </row>
     <row r="55" spans="1:17" ht="116" customHeight="1">
       <c r="A55" s="6">
         <v>50</v>
       </c>
-      <c r="B55" s="40"/>
-      <c r="C55" s="34" t="s">
+      <c r="B55" s="39"/>
+      <c r="C55" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="34" t="s">
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="15">
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="61">
         <v>45504</v>
       </c>
-      <c r="N55" s="7" t="s">
+      <c r="N55" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O55" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P55" s="34" t="s">
+      <c r="O55" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P55" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="Q55" s="35"/>
+      <c r="Q55" s="24"/>
     </row>
     <row r="56" spans="1:17" ht="116" customHeight="1">
       <c r="A56" s="6">
         <v>51</v>
       </c>
-      <c r="B56" s="40"/>
-      <c r="C56" s="34" t="s">
+      <c r="B56" s="39"/>
+      <c r="C56" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="34" t="s">
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="15">
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="61">
         <v>45504</v>
       </c>
-      <c r="N56" s="7" t="s">
+      <c r="N56" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O56" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P56" s="34" t="s">
+      <c r="O56" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P56" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="Q56" s="35"/>
+      <c r="Q56" s="24"/>
     </row>
     <row r="57" spans="1:17" ht="116" customHeight="1">
       <c r="A57" s="6">
         <v>52</v>
       </c>
-      <c r="B57" s="40"/>
-      <c r="C57" s="34" t="s">
+      <c r="B57" s="39"/>
+      <c r="C57" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="34" t="s">
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="I57" s="35"/>
-      <c r="J57" s="35"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="35"/>
-      <c r="M57" s="15">
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="61">
         <v>45504</v>
       </c>
-      <c r="N57" s="7" t="s">
+      <c r="N57" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O57" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P57" s="34" t="s">
+      <c r="O57" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P57" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="Q57" s="35"/>
+      <c r="Q57" s="24"/>
     </row>
     <row r="58" spans="1:17" ht="95.5" customHeight="1">
       <c r="A58" s="6">
         <v>53</v>
       </c>
-      <c r="B58" s="40"/>
-      <c r="C58" s="50" t="s">
+      <c r="B58" s="39"/>
+      <c r="C58" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D58" s="51"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="51"/>
-      <c r="G58" s="52"/>
-      <c r="H58" s="35" t="s">
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I58" s="35"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="15">
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="61">
         <v>45504</v>
       </c>
-      <c r="N58" s="7" t="s">
+      <c r="N58" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O58" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P58" s="32"/>
-      <c r="Q58" s="33"/>
+      <c r="O58" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="19"/>
     </row>
     <row r="59" spans="1:17" ht="95.5" customHeight="1">
       <c r="A59" s="6">
         <v>54</v>
       </c>
-      <c r="B59" s="40"/>
-      <c r="C59" s="50" t="s">
+      <c r="B59" s="39"/>
+      <c r="C59" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D59" s="51"/>
-      <c r="E59" s="51"/>
-      <c r="F59" s="51"/>
-      <c r="G59" s="52"/>
-      <c r="H59" s="35" t="s">
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I59" s="35"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="15">
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="61">
         <v>45504</v>
       </c>
-      <c r="N59" s="7" t="s">
+      <c r="N59" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O59" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P59" s="32"/>
-      <c r="Q59" s="33"/>
+      <c r="O59" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P59" s="18"/>
+      <c r="Q59" s="19"/>
     </row>
     <row r="60" spans="1:17" ht="95.5" customHeight="1">
       <c r="A60" s="6">
         <v>55</v>
       </c>
-      <c r="B60" s="40"/>
-      <c r="C60" s="50" t="s">
+      <c r="B60" s="39"/>
+      <c r="C60" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D60" s="51"/>
-      <c r="E60" s="51"/>
-      <c r="F60" s="51"/>
-      <c r="G60" s="52"/>
-      <c r="H60" s="35" t="s">
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I60" s="35"/>
-      <c r="J60" s="35"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="35"/>
-      <c r="M60" s="15">
+      <c r="I60" s="24"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="24"/>
+      <c r="M60" s="61">
         <v>45504</v>
       </c>
-      <c r="N60" s="7" t="s">
+      <c r="N60" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O60" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P60" s="32"/>
-      <c r="Q60" s="33"/>
+      <c r="O60" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P60" s="18"/>
+      <c r="Q60" s="19"/>
     </row>
     <row r="61" spans="1:17" ht="95.5" customHeight="1">
       <c r="A61" s="6">
         <v>56</v>
       </c>
-      <c r="B61" s="40"/>
-      <c r="C61" s="50" t="s">
+      <c r="B61" s="39"/>
+      <c r="C61" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D61" s="51"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="51"/>
-      <c r="G61" s="52"/>
-      <c r="H61" s="35" t="s">
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I61" s="35"/>
-      <c r="J61" s="35"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="35"/>
-      <c r="M61" s="15">
+      <c r="I61" s="24"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="24"/>
+      <c r="M61" s="61">
         <v>45504</v>
       </c>
-      <c r="N61" s="7" t="s">
+      <c r="N61" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O61" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P61" s="32"/>
-      <c r="Q61" s="33"/>
+      <c r="O61" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P61" s="18"/>
+      <c r="Q61" s="19"/>
     </row>
     <row r="62" spans="1:17" ht="95.5" customHeight="1">
       <c r="A62" s="6">
         <v>57</v>
       </c>
-      <c r="B62" s="40"/>
-      <c r="C62" s="50" t="s">
+      <c r="B62" s="39"/>
+      <c r="C62" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D62" s="51"/>
-      <c r="E62" s="51"/>
-      <c r="F62" s="51"/>
-      <c r="G62" s="52"/>
-      <c r="H62" s="34" t="s">
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="I62" s="35"/>
-      <c r="J62" s="35"/>
-      <c r="K62" s="35"/>
-      <c r="L62" s="35"/>
-      <c r="M62" s="15">
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="24"/>
+      <c r="M62" s="61">
         <v>45504</v>
       </c>
-      <c r="N62" s="7" t="s">
+      <c r="N62" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O62" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P62" s="32"/>
-      <c r="Q62" s="33"/>
+      <c r="O62" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P62" s="18"/>
+      <c r="Q62" s="19"/>
     </row>
     <row r="63" spans="1:17" ht="95.5" customHeight="1">
       <c r="A63" s="6">
         <v>58</v>
       </c>
-      <c r="B63" s="40"/>
-      <c r="C63" s="50" t="s">
+      <c r="B63" s="39"/>
+      <c r="C63" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D63" s="51"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="51"/>
-      <c r="G63" s="52"/>
-      <c r="H63" s="34" t="s">
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="I63" s="35"/>
-      <c r="J63" s="35"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="35"/>
-      <c r="M63" s="15">
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="61">
         <v>45504</v>
       </c>
-      <c r="N63" s="7" t="s">
+      <c r="N63" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O63" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P63" s="36" t="s">
+      <c r="O63" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P63" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="Q63" s="33"/>
+      <c r="Q63" s="19"/>
     </row>
     <row r="64" spans="1:17" ht="95.5" customHeight="1">
       <c r="A64" s="6">
         <v>59</v>
       </c>
-      <c r="B64" s="40"/>
-      <c r="C64" s="50" t="s">
+      <c r="B64" s="39"/>
+      <c r="C64" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="D64" s="51"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="51"/>
-      <c r="G64" s="52"/>
-      <c r="H64" s="34" t="s">
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="I64" s="35"/>
-      <c r="J64" s="35"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="35"/>
-      <c r="M64" s="15">
+      <c r="I64" s="24"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="24"/>
+      <c r="M64" s="61">
         <v>45504</v>
       </c>
-      <c r="N64" s="7" t="s">
+      <c r="N64" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O64" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P64" s="36" t="s">
+      <c r="O64" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P64" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="Q64" s="33"/>
+      <c r="Q64" s="19"/>
     </row>
     <row r="65" spans="1:17" ht="95.5" customHeight="1">
       <c r="A65" s="6">
         <v>60</v>
       </c>
-      <c r="B65" s="40"/>
-      <c r="C65" s="50" t="s">
+      <c r="B65" s="39"/>
+      <c r="C65" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D65" s="51"/>
-      <c r="E65" s="51"/>
-      <c r="F65" s="51"/>
-      <c r="G65" s="52"/>
-      <c r="H65" s="34" t="s">
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="I65" s="35"/>
-      <c r="J65" s="35"/>
-      <c r="K65" s="35"/>
-      <c r="L65" s="35"/>
-      <c r="M65" s="15">
+      <c r="I65" s="24"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="24"/>
+      <c r="L65" s="24"/>
+      <c r="M65" s="61">
         <v>45504</v>
       </c>
-      <c r="N65" s="7" t="s">
+      <c r="N65" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O65" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P65" s="36" t="s">
+      <c r="O65" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P65" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="Q65" s="33"/>
+      <c r="Q65" s="19"/>
     </row>
     <row r="66" spans="1:17" ht="95.5" customHeight="1">
       <c r="A66" s="6">
         <v>61</v>
       </c>
-      <c r="B66" s="40"/>
-      <c r="C66" s="50" t="s">
+      <c r="B66" s="39"/>
+      <c r="C66" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="D66" s="51"/>
-      <c r="E66" s="51"/>
-      <c r="F66" s="51"/>
-      <c r="G66" s="52"/>
-      <c r="H66" s="34" t="s">
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="I66" s="35"/>
-      <c r="J66" s="35"/>
-      <c r="K66" s="35"/>
-      <c r="L66" s="35"/>
-      <c r="M66" s="15">
+      <c r="I66" s="24"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="24"/>
+      <c r="M66" s="61">
         <v>45504</v>
       </c>
-      <c r="N66" s="7" t="s">
+      <c r="N66" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O66" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P66" s="36" t="s">
+      <c r="O66" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P66" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="Q66" s="33"/>
+      <c r="Q66" s="19"/>
     </row>
     <row r="67" spans="1:17" ht="68" customHeight="1">
       <c r="A67" s="6">
         <v>62</v>
       </c>
-      <c r="B67" s="40"/>
-      <c r="C67" s="34" t="s">
+      <c r="B67" s="39"/>
+      <c r="C67" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="34" t="s">
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="I67" s="34"/>
-      <c r="J67" s="34"/>
-      <c r="K67" s="34"/>
-      <c r="L67" s="34"/>
-      <c r="M67" s="15">
+      <c r="I67" s="23"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="23"/>
+      <c r="L67" s="23"/>
+      <c r="M67" s="61">
         <v>45504</v>
       </c>
-      <c r="N67" s="7" t="s">
+      <c r="N67" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O67" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P67" s="34" t="s">
+      <c r="O67" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P67" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="Q67" s="35"/>
+      <c r="Q67" s="24"/>
     </row>
     <row r="68" spans="1:17" ht="13.5" customHeight="1">
       <c r="A68" s="6">
         <v>63</v>
       </c>
-      <c r="B68" s="39" t="s">
+      <c r="B68" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="36" t="s">
+      <c r="C68" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D68" s="37"/>
-      <c r="E68" s="37"/>
-      <c r="F68" s="37"/>
-      <c r="G68" s="38"/>
-      <c r="H68" s="32" t="s">
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="I68" s="56"/>
-      <c r="J68" s="56"/>
-      <c r="K68" s="56"/>
-      <c r="L68" s="33"/>
-      <c r="M68" s="15">
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="61">
         <v>45504</v>
       </c>
-      <c r="N68" s="7" t="s">
+      <c r="N68" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O68" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P68" s="35"/>
-      <c r="Q68" s="35"/>
+      <c r="O68" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P68" s="24"/>
+      <c r="Q68" s="24"/>
     </row>
     <row r="69" spans="1:17" ht="13.5" customHeight="1">
       <c r="A69" s="6">
         <v>64</v>
       </c>
-      <c r="B69" s="40"/>
-      <c r="C69" s="36" t="s">
+      <c r="B69" s="39"/>
+      <c r="C69" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D69" s="37"/>
-      <c r="E69" s="37"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="38"/>
-      <c r="H69" s="32" t="s">
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I69" s="56"/>
-      <c r="J69" s="56"/>
-      <c r="K69" s="56"/>
-      <c r="L69" s="33"/>
-      <c r="M69" s="15">
+      <c r="I69" s="28"/>
+      <c r="J69" s="28"/>
+      <c r="K69" s="28"/>
+      <c r="L69" s="19"/>
+      <c r="M69" s="61">
         <v>45504</v>
       </c>
-      <c r="N69" s="7" t="s">
+      <c r="N69" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O69" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P69" s="35"/>
-      <c r="Q69" s="35"/>
+      <c r="O69" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P69" s="24"/>
+      <c r="Q69" s="24"/>
     </row>
     <row r="70" spans="1:17" ht="13.5" customHeight="1">
       <c r="A70" s="6">
         <v>65</v>
       </c>
-      <c r="B70" s="40"/>
-      <c r="C70" s="36" t="s">
+      <c r="B70" s="39"/>
+      <c r="C70" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D70" s="37"/>
-      <c r="E70" s="37"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="35" t="s">
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="I70" s="35"/>
-      <c r="J70" s="35"/>
-      <c r="K70" s="35"/>
-      <c r="L70" s="35"/>
-      <c r="M70" s="15">
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="24"/>
+      <c r="M70" s="61">
         <v>45504</v>
       </c>
-      <c r="N70" s="7" t="s">
+      <c r="N70" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O70" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P70" s="35"/>
-      <c r="Q70" s="35"/>
+      <c r="O70" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P70" s="24"/>
+      <c r="Q70" s="24"/>
     </row>
     <row r="71" spans="1:17" ht="13.5" customHeight="1">
       <c r="A71" s="6">
         <v>66</v>
       </c>
-      <c r="B71" s="40"/>
-      <c r="C71" s="34" t="s">
+      <c r="B71" s="39"/>
+      <c r="C71" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="35" t="s">
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I71" s="35"/>
-      <c r="J71" s="35"/>
-      <c r="K71" s="35"/>
-      <c r="L71" s="35"/>
-      <c r="M71" s="15">
+      <c r="I71" s="24"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="24"/>
+      <c r="L71" s="24"/>
+      <c r="M71" s="61">
         <v>45504</v>
       </c>
-      <c r="N71" s="7" t="s">
+      <c r="N71" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O71" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P71" s="32"/>
-      <c r="Q71" s="33"/>
+      <c r="O71" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P71" s="18"/>
+      <c r="Q71" s="19"/>
     </row>
     <row r="72" spans="1:17" ht="13.5" customHeight="1">
       <c r="A72" s="6">
         <v>67</v>
       </c>
-      <c r="B72" s="40"/>
-      <c r="C72" s="34" t="s">
+      <c r="B72" s="39"/>
+      <c r="C72" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D72" s="35"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="35"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="35" t="s">
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="I72" s="35"/>
-      <c r="J72" s="35"/>
-      <c r="K72" s="35"/>
-      <c r="L72" s="35"/>
-      <c r="M72" s="15">
+      <c r="I72" s="24"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="24"/>
+      <c r="L72" s="24"/>
+      <c r="M72" s="61">
         <v>45504</v>
       </c>
-      <c r="N72" s="7" t="s">
+      <c r="N72" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O72" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P72" s="35"/>
-      <c r="Q72" s="35"/>
+      <c r="O72" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P72" s="24"/>
+      <c r="Q72" s="24"/>
     </row>
     <row r="73" spans="1:17" ht="42" customHeight="1">
       <c r="A73" s="6">
         <v>68</v>
       </c>
-      <c r="B73" s="41"/>
-      <c r="C73" s="36" t="s">
+      <c r="B73" s="40"/>
+      <c r="C73" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D73" s="37"/>
-      <c r="E73" s="37"/>
-      <c r="F73" s="37"/>
-      <c r="G73" s="38"/>
-      <c r="H73" s="32" t="s">
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="I73" s="56"/>
-      <c r="J73" s="56"/>
-      <c r="K73" s="56"/>
-      <c r="L73" s="33"/>
-      <c r="M73" s="15">
+      <c r="I73" s="28"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="28"/>
+      <c r="L73" s="19"/>
+      <c r="M73" s="61">
         <v>45504</v>
       </c>
-      <c r="N73" s="7" t="s">
+      <c r="N73" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O73" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P73" s="32" t="s">
+      <c r="O73" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P73" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="Q73" s="33"/>
+      <c r="Q73" s="19"/>
     </row>
     <row r="74" spans="1:17" ht="69.5" customHeight="1">
       <c r="A74" s="6">
         <v>69</v>
       </c>
-      <c r="B74" s="39" t="s">
+      <c r="B74" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C74" s="34" t="s">
+      <c r="C74" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="D74" s="34"/>
-      <c r="E74" s="34"/>
-      <c r="F74" s="34"/>
-      <c r="G74" s="34"/>
-      <c r="H74" s="34" t="s">
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="I74" s="34"/>
-      <c r="J74" s="34"/>
-      <c r="K74" s="34"/>
-      <c r="L74" s="34"/>
-      <c r="M74" s="15">
+      <c r="I74" s="23"/>
+      <c r="J74" s="23"/>
+      <c r="K74" s="23"/>
+      <c r="L74" s="23"/>
+      <c r="M74" s="61">
         <v>45504</v>
       </c>
-      <c r="N74" s="7" t="s">
+      <c r="N74" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O74" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P74" s="32" t="s">
+      <c r="O74" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P74" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="Q74" s="33"/>
+      <c r="Q74" s="19"/>
     </row>
     <row r="75" spans="1:17" ht="69.5" customHeight="1">
       <c r="A75" s="6">
         <v>70</v>
       </c>
-      <c r="B75" s="40"/>
-      <c r="C75" s="34" t="s">
+      <c r="B75" s="39"/>
+      <c r="C75" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="D75" s="34"/>
-      <c r="E75" s="34"/>
-      <c r="F75" s="34"/>
-      <c r="G75" s="34"/>
-      <c r="H75" s="36" t="s">
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I75" s="37"/>
-      <c r="J75" s="37"/>
-      <c r="K75" s="37"/>
-      <c r="L75" s="38"/>
-      <c r="M75" s="15">
+      <c r="I75" s="26"/>
+      <c r="J75" s="26"/>
+      <c r="K75" s="26"/>
+      <c r="L75" s="27"/>
+      <c r="M75" s="61">
         <v>45504</v>
       </c>
-      <c r="N75" s="7" t="s">
+      <c r="N75" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O75" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P75" s="32" t="s">
+      <c r="O75" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P75" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="Q75" s="33"/>
+      <c r="Q75" s="19"/>
     </row>
     <row r="76" spans="1:17" ht="91.5" customHeight="1">
       <c r="A76" s="6">
         <v>71</v>
       </c>
-      <c r="B76" s="40"/>
-      <c r="C76" s="34" t="s">
+      <c r="B76" s="39"/>
+      <c r="C76" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D76" s="35"/>
-      <c r="E76" s="35"/>
-      <c r="F76" s="35"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="36" t="s">
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="I76" s="37"/>
-      <c r="J76" s="37"/>
-      <c r="K76" s="37"/>
-      <c r="L76" s="38"/>
-      <c r="M76" s="15">
+      <c r="I76" s="26"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="26"/>
+      <c r="L76" s="27"/>
+      <c r="M76" s="61">
         <v>45504</v>
       </c>
-      <c r="N76" s="7" t="s">
+      <c r="N76" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O76" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P76" s="32" t="s">
+      <c r="O76" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P76" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="Q76" s="33"/>
+      <c r="Q76" s="19"/>
     </row>
     <row r="77" spans="1:17" ht="90.5" customHeight="1">
       <c r="A77" s="6">
         <v>72</v>
       </c>
-      <c r="B77" s="41"/>
-      <c r="C77" s="34" t="s">
+      <c r="B77" s="40"/>
+      <c r="C77" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D77" s="35"/>
-      <c r="E77" s="35"/>
-      <c r="F77" s="35"/>
-      <c r="G77" s="35"/>
-      <c r="H77" s="36" t="s">
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="I77" s="37"/>
-      <c r="J77" s="37"/>
-      <c r="K77" s="37"/>
-      <c r="L77" s="38"/>
-      <c r="M77" s="15">
+      <c r="I77" s="26"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="26"/>
+      <c r="L77" s="27"/>
+      <c r="M77" s="61">
         <v>45504</v>
       </c>
-      <c r="N77" s="7" t="s">
+      <c r="N77" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O77" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P77" s="32" t="s">
+      <c r="O77" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P77" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="Q77" s="33"/>
+      <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" ht="11.25" customHeight="1">
       <c r="B78" s="4"/>
@@ -5708,19 +5717,200 @@
       <c r="G80" s="4"/>
     </row>
     <row r="81" spans="13:13" s="4" customFormat="1" ht="11.25" customHeight="1">
-      <c r="M81" s="19"/>
+      <c r="M81" s="17"/>
     </row>
     <row r="82" spans="13:13" s="4" customFormat="1" ht="11.25" customHeight="1">
-      <c r="M82" s="19"/>
+      <c r="M82" s="17"/>
     </row>
     <row r="83" spans="13:13" s="4" customFormat="1" ht="11.25" customHeight="1">
-      <c r="M83" s="19"/>
+      <c r="M83" s="17"/>
     </row>
     <row r="84" spans="13:13" s="4" customFormat="1" ht="11.25" customHeight="1">
-      <c r="M84" s="19"/>
+      <c r="M84" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="205">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:L76"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="B23:B67"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:L49"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:L77"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:L74"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:L67"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:L58"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:L50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:L60"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:L59"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="C14:G21"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="B68:B73"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:L68"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:L71"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:L75"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:L72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:L73"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:L69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:L70"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:L53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:L52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:L61"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:L54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="P55:Q55"/>
     <mergeCell ref="P75:Q75"/>
     <mergeCell ref="P76:Q76"/>
     <mergeCell ref="P77:Q77"/>
@@ -5745,187 +5935,6 @@
     <mergeCell ref="P59:Q59"/>
     <mergeCell ref="C62:G62"/>
     <mergeCell ref="H62:L62"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="H61:L61"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="H54:L54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="H55:L55"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="H53:L53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:L52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="H75:L75"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="H72:L72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:L73"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="H69:L69"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="H70:L70"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C14:G21"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="B68:B73"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="H68:L68"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="H71:L71"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="H74:L74"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:L47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="H67:L67"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="H58:L58"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:L50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="H60:L60"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="H59:L59"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="H76:L76"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="B23:B67"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:L49"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="H77:L77"/>
-    <mergeCell ref="H46:L46"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP012新商品登録(入力).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP012新商品登録(入力).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175EB7A7-76E0-4E3A-8ABE-399D6AE85CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B32227-C16E-41A5-8CD8-CE1D0859EFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -472,16 +472,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「完了」ボタンが表示されていること</t>
-    <rPh sb="1" eb="3">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「新商品登録(入力)画面」と表示されていること</t>
     <rPh sb="7" eb="9">
       <t>ニュウリョク</t>
@@ -1273,24 +1263,6 @@
   </si>
   <si>
     <t>エラーメッセージ
-「文房具の単価は30～5000で入力してください」
-と表示されること</t>
-    <rPh sb="10" eb="13">
-      <t>ブンボウグ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラーメッセージ
 「単価は数字で入力してください」
 「パソコン周辺機器の単価は300～30000で入力してください」
 と表示されること</t>
@@ -1425,39 +1397,6 @@
   </si>
   <si>
     <t>商品名：テスト商品
-単価：301
-在庫数：10
-商品カテゴリ：パソコン周辺機器
-画像：test.jpg
-（単価が301のとき）</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>タンカ</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="35" eb="39">
-      <t>シュウヘンキキ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>タンカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品名：テスト商品
 単価：29999
 在庫数：10
 商品カテゴリ：パソコン周辺機器
@@ -2104,16 +2043,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>完了ボタンにすること（修正）</t>
-    <rPh sb="0" eb="2">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>現在は２文字以上２０文字以内になっている
 →５文字以上にすること
 エラー文もひょうじさせること（修正済み）</t>
@@ -2442,6 +2371,41 @@
     <rPh sb="3" eb="5">
       <t>タチカワ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「確認」ボタンが表示されていること</t>
+    <rPh sb="1" eb="3">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認ボタンにすること（修正）</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーメッセージ
+「文房具の単価は30～5000で入力してください」
+と表示されること</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名：テスト商品
+単価：301
+在庫数：10
+商品カテゴリ：パソコン周辺機器
+画像：test.jpg
+（単価が301のとき）</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2801,12 +2765,99 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2816,33 +2867,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2860,78 +2896,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3285,8 +3249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:Q3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A71" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H77" sqref="H77:L77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -3306,25 +3270,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="51" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3339,23 +3303,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="55" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="60"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="30"/>
       <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
@@ -3366,54 +3330,54 @@
         <v>5</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="25" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="41" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="43"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="45"/>
     </row>
     <row r="4" spans="1:17" ht="40.5" customHeight="1">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="41" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="43"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="45"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -3457,121 +3421,121 @@
       <c r="B6" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="61">
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="18">
         <v>45503</v>
       </c>
       <c r="N6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="P6" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P6" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q6" s="24"/>
+      <c r="Q6" s="34"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
       <c r="B7" s="39"/>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="61">
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="18">
         <v>45503</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
+        <v>114</v>
+      </c>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
     </row>
     <row r="8" spans="1:17" ht="13.5" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="61">
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="18">
         <v>45503</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="19"/>
+        <v>114</v>
+      </c>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="32"/>
     </row>
     <row r="9" spans="1:17" ht="11.5" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="61">
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="18">
         <v>45503</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P9" s="14"/>
       <c r="Q9" s="15"/>
@@ -3581,26 +3545,26 @@
         <v>5</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="61">
+      <c r="C10" s="56"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="18">
         <v>45503</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P10" s="14"/>
       <c r="Q10" s="15"/>
@@ -3610,26 +3574,26 @@
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="61">
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="18">
         <v>45503</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P11" s="14"/>
       <c r="Q11" s="15"/>
@@ -3639,26 +3603,26 @@
         <v>7</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="61">
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="18">
         <v>45503</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P12" s="14"/>
       <c r="Q12" s="15"/>
@@ -3668,26 +3632,26 @@
         <v>8</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="61">
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="18">
         <v>45503</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P13" s="14"/>
       <c r="Q13" s="15"/>
@@ -3697,28 +3661,28 @@
         <v>9</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="18" t="s">
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="61">
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="18">
         <v>45503</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P14" s="14"/>
       <c r="Q14" s="15"/>
@@ -3728,26 +3692,26 @@
         <v>10</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="18" t="s">
+      <c r="C15" s="56"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="61">
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="18">
         <v>45503</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P15" s="14"/>
       <c r="Q15" s="15"/>
@@ -3757,26 +3721,26 @@
         <v>11</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="18" t="s">
+      <c r="C16" s="56"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="61">
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="18">
         <v>45503</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P16" s="14"/>
       <c r="Q16" s="15"/>
@@ -3786,26 +3750,26 @@
         <v>12</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="18" t="s">
+      <c r="C17" s="56"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="61">
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="18">
         <v>45503</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P17" s="14"/>
       <c r="Q17" s="15"/>
@@ -3815,26 +3779,26 @@
         <v>13</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="18" t="s">
+      <c r="C18" s="56"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="61">
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="18">
         <v>45503</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P18" s="14"/>
       <c r="Q18" s="15"/>
@@ -3844,26 +3808,26 @@
         <v>14</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="25" t="s">
+      <c r="C19" s="56"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="61">
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="18">
         <v>45503</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P19" s="14"/>
       <c r="Q19" s="15"/>
@@ -3873,26 +3837,26 @@
         <v>15</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="18" t="s">
+      <c r="C20" s="56"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="61">
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="18">
         <v>45503</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P20" s="14"/>
       <c r="Q20" s="15"/>
@@ -3902,29 +3866,29 @@
         <v>16</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="61">
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="18">
         <v>45503</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P21" s="14" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="Q21" s="15"/>
     </row>
@@ -3933,28 +3897,28 @@
         <v>17</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="61">
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="18">
         <v>45503</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P22" s="14"/>
       <c r="Q22" s="15"/>
@@ -3966,747 +3930,747 @@
       <c r="B23" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="61">
+      <c r="C23" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="18">
         <v>45504</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
+        <v>114</v>
+      </c>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
     </row>
     <row r="24" spans="1:17" ht="92" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
       <c r="B24" s="39"/>
-      <c r="C24" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="61">
+      <c r="C24" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="18">
         <v>45504</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
+        <v>114</v>
+      </c>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
     </row>
     <row r="25" spans="1:17" ht="85" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
       <c r="B25" s="39"/>
-      <c r="C25" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="61">
+      <c r="C25" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="18">
         <v>45504</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P25" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q25" s="24"/>
+        <v>114</v>
+      </c>
+      <c r="P25" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q25" s="34"/>
     </row>
     <row r="26" spans="1:17" ht="85" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
       <c r="B26" s="39"/>
-      <c r="C26" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="61">
+      <c r="C26" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="18">
         <v>45504</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
+        <v>114</v>
+      </c>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
     </row>
     <row r="27" spans="1:17" ht="96.5" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
       <c r="B27" s="39"/>
-      <c r="C27" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="61">
+      <c r="C27" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="18">
         <v>45504</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
+        <v>114</v>
+      </c>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
     </row>
     <row r="28" spans="1:17" ht="90" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
       <c r="B28" s="39"/>
-      <c r="C28" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="61">
+      <c r="C28" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="18">
         <v>45504</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
+        <v>114</v>
+      </c>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
     </row>
     <row r="29" spans="1:17" ht="85" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
       <c r="B29" s="39"/>
-      <c r="C29" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="61">
+      <c r="C29" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="18">
         <v>45504</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
+        <v>114</v>
+      </c>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
     </row>
     <row r="30" spans="1:17" ht="85" customHeight="1">
       <c r="A30" s="6">
         <v>25</v>
       </c>
       <c r="B30" s="39"/>
-      <c r="C30" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="61">
+      <c r="C30" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="18">
         <v>45504</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P30" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q30" s="24"/>
+        <v>114</v>
+      </c>
+      <c r="P30" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q30" s="34"/>
     </row>
     <row r="31" spans="1:17" ht="85" customHeight="1">
       <c r="A31" s="6">
         <v>26</v>
       </c>
       <c r="B31" s="39"/>
-      <c r="C31" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="61">
+      <c r="C31" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="18">
         <v>45504</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
+        <v>114</v>
+      </c>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
     </row>
     <row r="32" spans="1:17" ht="85" customHeight="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
       <c r="B32" s="39"/>
-      <c r="C32" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="61">
+      <c r="C32" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="18">
         <v>45504</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
+        <v>114</v>
+      </c>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
     </row>
     <row r="33" spans="1:17" ht="85" customHeight="1">
       <c r="A33" s="6">
         <v>28</v>
       </c>
       <c r="B33" s="39"/>
-      <c r="C33" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="61">
+      <c r="C33" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="18">
         <v>45504</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
+        <v>114</v>
+      </c>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
     </row>
     <row r="34" spans="1:17" ht="85" customHeight="1">
       <c r="A34" s="6">
         <v>29</v>
       </c>
       <c r="B34" s="39"/>
-      <c r="C34" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="61">
+      <c r="C34" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="18">
         <v>45504</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
+        <v>114</v>
+      </c>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
     </row>
     <row r="35" spans="1:17" ht="85" customHeight="1">
       <c r="A35" s="6">
         <v>30</v>
       </c>
       <c r="B35" s="39"/>
-      <c r="C35" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="61">
+      <c r="C35" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="18">
         <v>45504</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O35" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="P35" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="P35" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q35" s="24"/>
+      <c r="Q35" s="34"/>
     </row>
     <row r="36" spans="1:17" ht="85" customHeight="1">
       <c r="A36" s="6">
         <v>31</v>
       </c>
       <c r="B36" s="39"/>
-      <c r="C36" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="61">
+      <c r="C36" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="18">
         <v>45504</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P36" s="24"/>
-      <c r="Q36" s="24"/>
+        <v>114</v>
+      </c>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
     </row>
     <row r="37" spans="1:17" ht="85" customHeight="1">
       <c r="A37" s="6">
         <v>32</v>
       </c>
       <c r="B37" s="39"/>
-      <c r="C37" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="61">
+      <c r="C37" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="18">
         <v>45504</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="24"/>
+        <v>114</v>
+      </c>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
     </row>
     <row r="38" spans="1:17" ht="85" customHeight="1">
       <c r="A38" s="6">
         <v>33</v>
       </c>
       <c r="B38" s="39"/>
-      <c r="C38" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="61">
+      <c r="C38" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="18">
         <v>45504</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="24"/>
+        <v>114</v>
+      </c>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
     </row>
     <row r="39" spans="1:17" ht="88" customHeight="1">
       <c r="A39" s="6">
         <v>34</v>
       </c>
       <c r="B39" s="39"/>
-      <c r="C39" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="61">
+      <c r="C39" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="18">
         <v>45504</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="24"/>
+        <v>114</v>
+      </c>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
     </row>
     <row r="40" spans="1:17" ht="112" customHeight="1">
       <c r="A40" s="6">
         <v>35</v>
       </c>
       <c r="B40" s="39"/>
-      <c r="C40" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="61">
+      <c r="C40" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="18">
         <v>45504</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
+        <v>114</v>
+      </c>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="34"/>
     </row>
     <row r="41" spans="1:17" ht="102" customHeight="1">
       <c r="A41" s="6">
         <v>36</v>
       </c>
       <c r="B41" s="39"/>
-      <c r="C41" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="61">
+      <c r="C41" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="18">
         <v>45504</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="19"/>
+        <v>114</v>
+      </c>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="32"/>
     </row>
     <row r="42" spans="1:17" ht="90.5" customHeight="1">
       <c r="A42" s="6">
         <v>37</v>
       </c>
       <c r="B42" s="39"/>
-      <c r="C42" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="61">
+      <c r="C42" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="18">
         <v>45504</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P42" s="24"/>
-      <c r="Q42" s="24"/>
+        <v>114</v>
+      </c>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="34"/>
     </row>
     <row r="43" spans="1:17" ht="84.5" customHeight="1">
       <c r="A43" s="6">
         <v>38</v>
       </c>
       <c r="B43" s="39"/>
-      <c r="C43" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="61">
+      <c r="C43" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="18">
         <v>45504</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P43" s="24"/>
-      <c r="Q43" s="24"/>
+        <v>114</v>
+      </c>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="34"/>
     </row>
     <row r="44" spans="1:17" ht="77.5" customHeight="1">
       <c r="A44" s="6">
         <v>39</v>
       </c>
       <c r="B44" s="39"/>
-      <c r="C44" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="61">
+      <c r="C44" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
+      <c r="M44" s="18">
         <v>45504</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P44" s="24"/>
-      <c r="Q44" s="24"/>
+        <v>114</v>
+      </c>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="34"/>
     </row>
     <row r="45" spans="1:17" ht="81" customHeight="1">
       <c r="A45" s="6">
         <v>40</v>
       </c>
       <c r="B45" s="39"/>
-      <c r="C45" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="61">
+      <c r="C45" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="18">
         <v>45504</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P45" s="18"/>
-      <c r="Q45" s="19"/>
+        <v>114</v>
+      </c>
+      <c r="P45" s="31"/>
+      <c r="Q45" s="32"/>
     </row>
     <row r="46" spans="1:17" ht="98" customHeight="1">
       <c r="A46" s="6">
         <v>41</v>
       </c>
       <c r="B46" s="39"/>
-      <c r="C46" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="61">
+      <c r="C46" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="18">
         <v>45504</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P46" s="14"/>
       <c r="Q46" s="15"/>
@@ -4716,669 +4680,669 @@
         <v>42</v>
       </c>
       <c r="B47" s="39"/>
-      <c r="C47" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="23" t="s">
+      <c r="C47" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="18">
+        <v>45504</v>
+      </c>
+      <c r="N47" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="61">
-        <v>45504</v>
-      </c>
-      <c r="N47" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="O47" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P47" s="24"/>
-      <c r="Q47" s="24"/>
+        <v>114</v>
+      </c>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="34"/>
     </row>
     <row r="48" spans="1:17" ht="91" customHeight="1">
       <c r="A48" s="6">
         <v>43</v>
       </c>
       <c r="B48" s="39"/>
-      <c r="C48" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="61">
+      <c r="C48" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="18">
         <v>45504</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P48" s="24"/>
-      <c r="Q48" s="24"/>
+        <v>114</v>
+      </c>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="34"/>
     </row>
     <row r="49" spans="1:17" ht="116" customHeight="1">
       <c r="A49" s="6">
         <v>44</v>
       </c>
       <c r="B49" s="39"/>
-      <c r="C49" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="61">
+      <c r="C49" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="18">
         <v>45504</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P49" s="24"/>
-      <c r="Q49" s="24"/>
+        <v>114</v>
+      </c>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="34"/>
     </row>
     <row r="50" spans="1:17" ht="116" customHeight="1">
       <c r="A50" s="6">
         <v>45</v>
       </c>
       <c r="B50" s="39"/>
-      <c r="C50" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="61">
+      <c r="C50" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="18">
         <v>45504</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P50" s="24"/>
-      <c r="Q50" s="24"/>
+        <v>114</v>
+      </c>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="34"/>
     </row>
     <row r="51" spans="1:17" ht="116" customHeight="1">
       <c r="A51" s="6">
         <v>46</v>
       </c>
       <c r="B51" s="39"/>
-      <c r="C51" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="61">
+      <c r="C51" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="18">
         <v>45504</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P51" s="24"/>
-      <c r="Q51" s="24"/>
+        <v>114</v>
+      </c>
+      <c r="P51" s="34"/>
+      <c r="Q51" s="34"/>
     </row>
     <row r="52" spans="1:17" ht="116" customHeight="1">
       <c r="A52" s="6">
         <v>47</v>
       </c>
       <c r="B52" s="39"/>
-      <c r="C52" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="61">
+      <c r="C52" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="18">
         <v>45504</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P52" s="24"/>
-      <c r="Q52" s="24"/>
+        <v>114</v>
+      </c>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="34"/>
     </row>
     <row r="53" spans="1:17" ht="116" customHeight="1">
       <c r="A53" s="6">
         <v>48</v>
       </c>
       <c r="B53" s="39"/>
-      <c r="C53" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="I53" s="24"/>
-      <c r="J53" s="24"/>
-      <c r="K53" s="24"/>
-      <c r="L53" s="24"/>
-      <c r="M53" s="61">
+      <c r="C53" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="I53" s="34"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="34"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="18">
         <v>45504</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P53" s="24"/>
-      <c r="Q53" s="24"/>
+        <v>114</v>
+      </c>
+      <c r="P53" s="34"/>
+      <c r="Q53" s="34"/>
     </row>
     <row r="54" spans="1:17" ht="116" customHeight="1">
       <c r="A54" s="6">
         <v>49</v>
       </c>
       <c r="B54" s="39"/>
-      <c r="C54" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="61">
+      <c r="C54" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="18">
         <v>45504</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P54" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q54" s="24"/>
+        <v>114</v>
+      </c>
+      <c r="P54" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q54" s="34"/>
     </row>
     <row r="55" spans="1:17" ht="116" customHeight="1">
       <c r="A55" s="6">
         <v>50</v>
       </c>
       <c r="B55" s="39"/>
-      <c r="C55" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="I55" s="24"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="24"/>
-      <c r="L55" s="24"/>
-      <c r="M55" s="61">
+      <c r="C55" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="I55" s="34"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="18">
         <v>45504</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P55" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q55" s="24"/>
+        <v>114</v>
+      </c>
+      <c r="P55" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q55" s="34"/>
     </row>
     <row r="56" spans="1:17" ht="116" customHeight="1">
       <c r="A56" s="6">
         <v>51</v>
       </c>
       <c r="B56" s="39"/>
-      <c r="C56" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="I56" s="24"/>
-      <c r="J56" s="24"/>
-      <c r="K56" s="24"/>
-      <c r="L56" s="24"/>
-      <c r="M56" s="61">
+      <c r="C56" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="18">
         <v>45504</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P56" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q56" s="24"/>
+        <v>114</v>
+      </c>
+      <c r="P56" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q56" s="34"/>
     </row>
     <row r="57" spans="1:17" ht="116" customHeight="1">
       <c r="A57" s="6">
         <v>52</v>
       </c>
       <c r="B57" s="39"/>
-      <c r="C57" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="24"/>
-      <c r="M57" s="61">
+      <c r="C57" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I57" s="34"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="34"/>
+      <c r="L57" s="34"/>
+      <c r="M57" s="18">
         <v>45504</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P57" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q57" s="24"/>
+        <v>114</v>
+      </c>
+      <c r="P57" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q57" s="34"/>
     </row>
     <row r="58" spans="1:17" ht="95.5" customHeight="1">
       <c r="A58" s="6">
         <v>53</v>
       </c>
       <c r="B58" s="39"/>
-      <c r="C58" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I58" s="24"/>
-      <c r="J58" s="24"/>
-      <c r="K58" s="24"/>
-      <c r="L58" s="24"/>
-      <c r="M58" s="61">
+      <c r="C58" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="D58" s="50"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="I58" s="34"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="34"/>
+      <c r="M58" s="18">
         <v>45504</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P58" s="18"/>
-      <c r="Q58" s="19"/>
+        <v>114</v>
+      </c>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="32"/>
     </row>
     <row r="59" spans="1:17" ht="95.5" customHeight="1">
       <c r="A59" s="6">
         <v>54</v>
       </c>
       <c r="B59" s="39"/>
-      <c r="C59" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I59" s="24"/>
-      <c r="J59" s="24"/>
-      <c r="K59" s="24"/>
-      <c r="L59" s="24"/>
-      <c r="M59" s="61">
+      <c r="C59" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59" s="50"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="I59" s="34"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="34"/>
+      <c r="L59" s="34"/>
+      <c r="M59" s="18">
         <v>45504</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P59" s="18"/>
-      <c r="Q59" s="19"/>
+        <v>114</v>
+      </c>
+      <c r="P59" s="31"/>
+      <c r="Q59" s="32"/>
     </row>
     <row r="60" spans="1:17" ht="95.5" customHeight="1">
       <c r="A60" s="6">
         <v>55</v>
       </c>
       <c r="B60" s="39"/>
-      <c r="C60" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I60" s="24"/>
-      <c r="J60" s="24"/>
-      <c r="K60" s="24"/>
-      <c r="L60" s="24"/>
-      <c r="M60" s="61">
+      <c r="C60" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="I60" s="34"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="34"/>
+      <c r="L60" s="34"/>
+      <c r="M60" s="18">
         <v>45504</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P60" s="18"/>
-      <c r="Q60" s="19"/>
+        <v>114</v>
+      </c>
+      <c r="P60" s="31"/>
+      <c r="Q60" s="32"/>
     </row>
     <row r="61" spans="1:17" ht="95.5" customHeight="1">
       <c r="A61" s="6">
         <v>56</v>
       </c>
       <c r="B61" s="39"/>
-      <c r="C61" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I61" s="24"/>
-      <c r="J61" s="24"/>
-      <c r="K61" s="24"/>
-      <c r="L61" s="24"/>
-      <c r="M61" s="61">
+      <c r="C61" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="51"/>
+      <c r="H61" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="I61" s="34"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="34"/>
+      <c r="L61" s="34"/>
+      <c r="M61" s="18">
         <v>45504</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P61" s="18"/>
-      <c r="Q61" s="19"/>
+        <v>114</v>
+      </c>
+      <c r="P61" s="31"/>
+      <c r="Q61" s="32"/>
     </row>
     <row r="62" spans="1:17" ht="95.5" customHeight="1">
       <c r="A62" s="6">
         <v>57</v>
       </c>
       <c r="B62" s="39"/>
-      <c r="C62" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="I62" s="24"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="24"/>
-      <c r="L62" s="24"/>
-      <c r="M62" s="61">
+      <c r="C62" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="51"/>
+      <c r="H62" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I62" s="34"/>
+      <c r="J62" s="34"/>
+      <c r="K62" s="34"/>
+      <c r="L62" s="34"/>
+      <c r="M62" s="18">
         <v>45504</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P62" s="18"/>
-      <c r="Q62" s="19"/>
+        <v>114</v>
+      </c>
+      <c r="P62" s="31"/>
+      <c r="Q62" s="32"/>
     </row>
     <row r="63" spans="1:17" ht="95.5" customHeight="1">
       <c r="A63" s="6">
         <v>58</v>
       </c>
       <c r="B63" s="39"/>
-      <c r="C63" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="I63" s="24"/>
-      <c r="J63" s="24"/>
-      <c r="K63" s="24"/>
-      <c r="L63" s="24"/>
-      <c r="M63" s="61">
+      <c r="C63" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="D63" s="50"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="50"/>
+      <c r="G63" s="51"/>
+      <c r="H63" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="I63" s="34"/>
+      <c r="J63" s="34"/>
+      <c r="K63" s="34"/>
+      <c r="L63" s="34"/>
+      <c r="M63" s="18">
         <v>45504</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P63" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q63" s="19"/>
+        <v>114</v>
+      </c>
+      <c r="P63" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q63" s="32"/>
     </row>
     <row r="64" spans="1:17" ht="95.5" customHeight="1">
       <c r="A64" s="6">
         <v>59</v>
       </c>
       <c r="B64" s="39"/>
-      <c r="C64" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="I64" s="24"/>
-      <c r="J64" s="24"/>
-      <c r="K64" s="24"/>
-      <c r="L64" s="24"/>
-      <c r="M64" s="61">
+      <c r="C64" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="D64" s="50"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="I64" s="34"/>
+      <c r="J64" s="34"/>
+      <c r="K64" s="34"/>
+      <c r="L64" s="34"/>
+      <c r="M64" s="18">
         <v>45504</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P64" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q64" s="19"/>
+        <v>114</v>
+      </c>
+      <c r="P64" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q64" s="32"/>
     </row>
     <row r="65" spans="1:17" ht="95.5" customHeight="1">
       <c r="A65" s="6">
         <v>60</v>
       </c>
       <c r="B65" s="39"/>
-      <c r="C65" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="I65" s="24"/>
-      <c r="J65" s="24"/>
-      <c r="K65" s="24"/>
-      <c r="L65" s="24"/>
-      <c r="M65" s="61">
+      <c r="C65" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="D65" s="50"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="51"/>
+      <c r="H65" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="I65" s="34"/>
+      <c r="J65" s="34"/>
+      <c r="K65" s="34"/>
+      <c r="L65" s="34"/>
+      <c r="M65" s="18">
         <v>45504</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P65" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q65" s="19"/>
+        <v>114</v>
+      </c>
+      <c r="P65" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q65" s="32"/>
     </row>
     <row r="66" spans="1:17" ht="95.5" customHeight="1">
       <c r="A66" s="6">
         <v>61</v>
       </c>
       <c r="B66" s="39"/>
-      <c r="C66" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="I66" s="24"/>
-      <c r="J66" s="24"/>
-      <c r="K66" s="24"/>
-      <c r="L66" s="24"/>
-      <c r="M66" s="61">
+      <c r="C66" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="D66" s="50"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="50"/>
+      <c r="G66" s="51"/>
+      <c r="H66" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="I66" s="34"/>
+      <c r="J66" s="34"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="34"/>
+      <c r="M66" s="18">
         <v>45504</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P66" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q66" s="19"/>
+        <v>114</v>
+      </c>
+      <c r="P66" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q66" s="32"/>
     </row>
     <row r="67" spans="1:17" ht="68" customHeight="1">
       <c r="A67" s="6">
         <v>62</v>
       </c>
       <c r="B67" s="39"/>
-      <c r="C67" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="I67" s="23"/>
-      <c r="J67" s="23"/>
-      <c r="K67" s="23"/>
-      <c r="L67" s="23"/>
-      <c r="M67" s="61">
+      <c r="C67" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="I67" s="33"/>
+      <c r="J67" s="33"/>
+      <c r="K67" s="33"/>
+      <c r="L67" s="33"/>
+      <c r="M67" s="18">
         <v>45504</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P67" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q67" s="24"/>
+        <v>114</v>
+      </c>
+      <c r="P67" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q67" s="34"/>
     </row>
     <row r="68" spans="1:17" ht="13.5" customHeight="1">
       <c r="A68" s="6">
@@ -5387,188 +5351,188 @@
       <c r="B68" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="25" t="s">
+      <c r="C68" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="18" t="s">
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="I68" s="28"/>
-      <c r="J68" s="28"/>
-      <c r="K68" s="28"/>
-      <c r="L68" s="19"/>
-      <c r="M68" s="61">
+      <c r="I68" s="55"/>
+      <c r="J68" s="55"/>
+      <c r="K68" s="55"/>
+      <c r="L68" s="32"/>
+      <c r="M68" s="18">
         <v>45504</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P68" s="24"/>
-      <c r="Q68" s="24"/>
+        <v>114</v>
+      </c>
+      <c r="P68" s="34"/>
+      <c r="Q68" s="34"/>
     </row>
     <row r="69" spans="1:17" ht="13.5" customHeight="1">
       <c r="A69" s="6">
         <v>64</v>
       </c>
       <c r="B69" s="39"/>
-      <c r="C69" s="25" t="s">
+      <c r="C69" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="18" t="s">
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
-      <c r="K69" s="28"/>
-      <c r="L69" s="19"/>
-      <c r="M69" s="61">
+      <c r="I69" s="55"/>
+      <c r="J69" s="55"/>
+      <c r="K69" s="55"/>
+      <c r="L69" s="32"/>
+      <c r="M69" s="18">
         <v>45504</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P69" s="24"/>
-      <c r="Q69" s="24"/>
+        <v>114</v>
+      </c>
+      <c r="P69" s="34"/>
+      <c r="Q69" s="34"/>
     </row>
     <row r="70" spans="1:17" ht="13.5" customHeight="1">
       <c r="A70" s="6">
         <v>65</v>
       </c>
       <c r="B70" s="39"/>
-      <c r="C70" s="25" t="s">
+      <c r="C70" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="24" t="s">
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="I70" s="24"/>
-      <c r="J70" s="24"/>
-      <c r="K70" s="24"/>
-      <c r="L70" s="24"/>
-      <c r="M70" s="61">
+      <c r="I70" s="34"/>
+      <c r="J70" s="34"/>
+      <c r="K70" s="34"/>
+      <c r="L70" s="34"/>
+      <c r="M70" s="18">
         <v>45504</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P70" s="24"/>
-      <c r="Q70" s="24"/>
+        <v>114</v>
+      </c>
+      <c r="P70" s="34"/>
+      <c r="Q70" s="34"/>
     </row>
     <row r="71" spans="1:17" ht="13.5" customHeight="1">
       <c r="A71" s="6">
         <v>66</v>
       </c>
       <c r="B71" s="39"/>
-      <c r="C71" s="23" t="s">
+      <c r="C71" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="24" t="s">
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="I71" s="24"/>
-      <c r="J71" s="24"/>
-      <c r="K71" s="24"/>
-      <c r="L71" s="24"/>
-      <c r="M71" s="61">
+      <c r="I71" s="34"/>
+      <c r="J71" s="34"/>
+      <c r="K71" s="34"/>
+      <c r="L71" s="34"/>
+      <c r="M71" s="18">
         <v>45504</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P71" s="18"/>
-      <c r="Q71" s="19"/>
+        <v>114</v>
+      </c>
+      <c r="P71" s="31"/>
+      <c r="Q71" s="32"/>
     </row>
     <row r="72" spans="1:17" ht="13.5" customHeight="1">
       <c r="A72" s="6">
         <v>67</v>
       </c>
       <c r="B72" s="39"/>
-      <c r="C72" s="23" t="s">
+      <c r="C72" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D72" s="24"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="24" t="s">
+      <c r="D72" s="34"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="34"/>
+      <c r="G72" s="34"/>
+      <c r="H72" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="I72" s="24"/>
-      <c r="J72" s="24"/>
-      <c r="K72" s="24"/>
-      <c r="L72" s="24"/>
-      <c r="M72" s="61">
+      <c r="I72" s="34"/>
+      <c r="J72" s="34"/>
+      <c r="K72" s="34"/>
+      <c r="L72" s="34"/>
+      <c r="M72" s="18">
         <v>45504</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P72" s="24"/>
-      <c r="Q72" s="24"/>
+        <v>114</v>
+      </c>
+      <c r="P72" s="34"/>
+      <c r="Q72" s="34"/>
     </row>
     <row r="73" spans="1:17" ht="42" customHeight="1">
       <c r="A73" s="6">
         <v>68</v>
       </c>
       <c r="B73" s="40"/>
-      <c r="C73" s="25" t="s">
+      <c r="C73" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="I73" s="28"/>
-      <c r="J73" s="28"/>
-      <c r="K73" s="28"/>
-      <c r="L73" s="19"/>
-      <c r="M73" s="61">
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="I73" s="55"/>
+      <c r="J73" s="55"/>
+      <c r="K73" s="55"/>
+      <c r="L73" s="32"/>
+      <c r="M73" s="18">
         <v>45504</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P73" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q73" s="19"/>
+        <v>114</v>
+      </c>
+      <c r="P73" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q73" s="32"/>
     </row>
     <row r="74" spans="1:17" ht="69.5" customHeight="1">
       <c r="A74" s="6">
@@ -5577,132 +5541,132 @@
       <c r="B74" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C74" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="D74" s="23"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="I74" s="23"/>
-      <c r="J74" s="23"/>
-      <c r="K74" s="23"/>
-      <c r="L74" s="23"/>
-      <c r="M74" s="61">
+      <c r="C74" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="I74" s="33"/>
+      <c r="J74" s="33"/>
+      <c r="K74" s="33"/>
+      <c r="L74" s="33"/>
+      <c r="M74" s="18">
         <v>45504</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P74" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q74" s="19"/>
+        <v>114</v>
+      </c>
+      <c r="P74" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q74" s="32"/>
     </row>
     <row r="75" spans="1:17" ht="69.5" customHeight="1">
       <c r="A75" s="6">
         <v>70</v>
       </c>
       <c r="B75" s="39"/>
-      <c r="C75" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="25" t="s">
+      <c r="C75" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D75" s="33"/>
+      <c r="E75" s="33"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="I75" s="26"/>
-      <c r="J75" s="26"/>
-      <c r="K75" s="26"/>
-      <c r="L75" s="27"/>
-      <c r="M75" s="61">
+      <c r="I75" s="36"/>
+      <c r="J75" s="36"/>
+      <c r="K75" s="36"/>
+      <c r="L75" s="37"/>
+      <c r="M75" s="18">
         <v>45504</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P75" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q75" s="19"/>
+        <v>114</v>
+      </c>
+      <c r="P75" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q75" s="32"/>
     </row>
     <row r="76" spans="1:17" ht="91.5" customHeight="1">
       <c r="A76" s="6">
         <v>71</v>
       </c>
       <c r="B76" s="39"/>
-      <c r="C76" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D76" s="24"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="25" t="s">
+      <c r="C76" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="I76" s="26"/>
-      <c r="J76" s="26"/>
-      <c r="K76" s="26"/>
-      <c r="L76" s="27"/>
-      <c r="M76" s="61">
+      <c r="D76" s="34"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="I76" s="36"/>
+      <c r="J76" s="36"/>
+      <c r="K76" s="36"/>
+      <c r="L76" s="37"/>
+      <c r="M76" s="18">
         <v>45504</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P76" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q76" s="19"/>
+        <v>114</v>
+      </c>
+      <c r="P76" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q76" s="32"/>
     </row>
     <row r="77" spans="1:17" ht="90.5" customHeight="1">
       <c r="A77" s="6">
         <v>72</v>
       </c>
       <c r="B77" s="40"/>
-      <c r="C77" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D77" s="24"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="I77" s="26"/>
-      <c r="J77" s="26"/>
-      <c r="K77" s="26"/>
-      <c r="L77" s="27"/>
-      <c r="M77" s="61">
+      <c r="C77" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D77" s="34"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="I77" s="36"/>
+      <c r="J77" s="36"/>
+      <c r="K77" s="36"/>
+      <c r="L77" s="37"/>
+      <c r="M77" s="18">
         <v>45504</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P77" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q77" s="19"/>
+        <v>114</v>
+      </c>
+      <c r="P77" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q77" s="32"/>
     </row>
     <row r="78" spans="1:17" ht="11.25" customHeight="1">
       <c r="B78" s="4"/>
@@ -5730,6 +5694,187 @@
     </row>
   </sheetData>
   <mergeCells count="205">
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:L66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:L56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:L57"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:L65"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:L63"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:L64"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:L62"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:L61"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:L54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:L53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:L52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:L75"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:L72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:L73"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:L69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:L70"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C14:G21"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="B68:B73"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:L68"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:L71"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:L74"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:L67"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:L58"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:L50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:L60"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:L59"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:M1"/>
@@ -5754,187 +5899,6 @@
     <mergeCell ref="H43:L43"/>
     <mergeCell ref="P73:Q73"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="H74:L74"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:L47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="H67:L67"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="H58:L58"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:L50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="H60:L60"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="H59:L59"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="C14:G21"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="B68:B73"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="H68:L68"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="H71:L71"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="H75:L75"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="H72:L72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:L73"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="H69:L69"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="H70:L70"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="H53:L53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:L52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="H61:L61"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="H54:L54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="H55:L55"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="H66:L66"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="H56:L56"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="H57:L57"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="H65:L65"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="H63:L63"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="H64:L64"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="H62:L62"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
